--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikna\Desktop\Politics of Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF9CF7C-A517-41C0-B1AD-8E4D8ADD9DC0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667E0A13-3190-44DF-AAB7-DFE332A7DE3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="451">
   <si>
     <t>AD</t>
   </si>
@@ -1402,6 +1402,12 @@
   </si>
   <si>
     <t>Recognised flaw: Citizens arrested for social media posts != always equal malicious use of mass surveillance</t>
+  </si>
+  <si>
+    <t>Rank (Most Malicious Routing First)</t>
+  </si>
+  <si>
+    <t>Rank (Least First)</t>
   </si>
 </sst>
 </file>
@@ -2090,12 +2096,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{442F76CE-3F66-42BB-AD05-A29D1E28F0FF}" name="Table3" displayName="Table3" ref="A1:M67" totalsRowCount="1">
-  <autoFilter ref="A1:M66" xr:uid="{5D7A7C19-206F-4AA4-8764-1A67075BA007}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M66">
-    <sortCondition descending="1" ref="M1:M66"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{442F76CE-3F66-42BB-AD05-A29D1E28F0FF}" name="Table3" displayName="Table3" ref="A1:O67" totalsRowCount="1">
+  <autoFilter ref="A1:O66" xr:uid="{5D7A7C19-206F-4AA4-8764-1A67075BA007}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O66">
+    <sortCondition ref="A1:A66"/>
   </sortState>
-  <tableColumns count="13">
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{6CAE0BB8-B52D-4A20-9ADF-6A97394DE9AD}" name="Country"/>
     <tableColumn id="8" xr3:uid="{9FD562AD-2C1B-4728-B765-378E325849FB}" name="CC"/>
     <tableColumn id="3" xr3:uid="{86336C1B-8263-4341-ABC1-0904C1B77BC8}" name="Mirai Botnet Hits" totalsRowFunction="custom">
@@ -2119,6 +2125,8 @@
     <tableColumn id="13" xr3:uid="{D262404C-D46A-4B2C-B752-DCB3E9DDEB6B}" name="Ranking" dataDxfId="7" totalsRowDxfId="0">
       <calculatedColumnFormula>((D2*0.3)+(F2*0.1)+(G2*0.3)+(J2*0.1)+(K2*0.1)+(L2*0.1))</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="15" xr3:uid="{44793A50-3D54-444C-9EBC-D54795E726A2}" name="Rank (Most Malicious Routing First)"/>
+    <tableColumn id="16" xr3:uid="{11DBCDCC-D62D-43BF-881E-5F64FBFFD0D1}" name="Rank (Least First)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2437,10 +2445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA10CC7E-88B4-4460-87C0-163097071846}">
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2457,11 +2465,10 @@
     <col min="11" max="11" width="8.85546875" style="3" customWidth="1"/>
     <col min="12" max="12" width="10.140625" style="3" customWidth="1"/>
     <col min="13" max="13" width="24.7109375" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>400</v>
       </c>
@@ -2501,175 +2508,195 @@
       <c r="M1" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>449</v>
+      </c>
+      <c r="O1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>108622</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1">
         <f>(C2-2)/(108622-2)</f>
-        <v>1</v>
+        <v>1.1047689191677407E-4</v>
       </c>
       <c r="E2">
-        <v>50850</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>1.7699115044247788E-4</v>
       </c>
       <c r="G2" s="2">
-        <v>0.91036587199999996</v>
+        <v>0.33687151900000001</v>
       </c>
       <c r="H2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J2" s="2">
         <f>I2/384</f>
-        <v>0.21875</v>
+        <v>0.20052083333333334</v>
       </c>
       <c r="K2" s="3">
         <v>1</v>
       </c>
       <c r="L2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4">
         <f>((D2*0.3)+(F2*0.1)+(G2*0.3)+(J2*0.1)+(K2*0.1)+(L2*0.1))</f>
-        <v>0.89498476159999996</v>
-      </c>
-      <c r="N2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.22116438121595261</v>
+      </c>
+      <c r="N2">
+        <v>45</v>
+      </c>
+      <c r="O2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>63284</v>
+        <v>14192</v>
       </c>
       <c r="D3" s="1">
         <f>(C3-2)/(108622-2)</f>
-        <v>0.58259988952310804</v>
+        <v>0.13063892469158533</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2157</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>4.2418879056047194E-2</v>
       </c>
       <c r="G3" s="2">
-        <v>0.86038705400000004</v>
+        <v>0.211732798</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J3" s="2">
         <f>I3/384</f>
-        <v>0</v>
+        <v>4.4270833333333336E-2</v>
       </c>
       <c r="K3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4">
         <f>((D3*0.3)+(F3*0.1)+(G3*0.3)+(J3*0.1)+(K3*0.1)+(L3*0.1))</f>
-        <v>0.63289608305693235</v>
-      </c>
-      <c r="N3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.11138048804641365</v>
+      </c>
+      <c r="N3">
+        <v>58</v>
+      </c>
+      <c r="O3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>21503</v>
+        <v>475</v>
       </c>
       <c r="D4" s="1">
         <f>(C4-2)/(108622-2)</f>
-        <v>0.19794697109187995</v>
+        <v>4.3546308230528446E-3</v>
       </c>
       <c r="E4">
-        <v>3218</v>
+        <v>168</v>
       </c>
       <c r="F4" s="1">
-        <v>6.3284169124877096E-2</v>
+        <v>3.3038348082595871E-3</v>
       </c>
       <c r="G4" s="2">
-        <v>0.96763678500000028</v>
+        <v>0.20038133699999999</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
       <c r="I4">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>I4/384</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4">
         <f>((D4*0.3)+(F4*0.1)+(G4*0.3)+(J4*0.1)+(K4*0.1)+(L4*0.1))</f>
-        <v>0.58100354374005181</v>
-      </c>
-      <c r="N4"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6.1751173827741805E-2</v>
+      </c>
+      <c r="N4">
+        <v>64</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>13843</v>
+        <v>1695</v>
       </c>
       <c r="D5" s="1">
         <f>(C5-2)/(108622-2)</f>
-        <v>0.12742588841833916</v>
+        <v>1.5586448167924876E-2</v>
       </c>
       <c r="E5">
-        <v>11080</v>
+        <v>561</v>
       </c>
       <c r="F5" s="1">
-        <v>0.21789577187807277</v>
+        <v>1.1032448377581121E-2</v>
       </c>
       <c r="G5" s="2">
-        <v>0.99891935700000001</v>
+        <v>0.95953077900000017</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5" s="2">
         <f>I5/384</f>
-        <v>1.5625E-2</v>
+        <v>1.8229166666666668E-2</v>
       </c>
       <c r="K5" s="3">
         <v>1</v>
@@ -2679,87 +2706,97 @@
       </c>
       <c r="M5" s="4">
         <f>((D5*0.3)+(F5*0.1)+(G5*0.3)+(J5*0.1)+(K5*0.1)+(L5*0.1))</f>
-        <v>0.56125565081330897</v>
-      </c>
-      <c r="N5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.49546132965480227</v>
+      </c>
+      <c r="N5">
+        <v>12</v>
+      </c>
+      <c r="O5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>432</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>351</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>27409</v>
+        <v>122</v>
       </c>
       <c r="D6" s="1">
         <f>(C6-2)/(108622-2)</f>
-        <v>0.25232001473025223</v>
+        <v>1.1047689191677407E-3</v>
       </c>
       <c r="E6">
-        <v>9695</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0.19065880039331368</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>0.87482138799999998</v>
+        <v>0.74409338699999994</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
         <f>I6/384</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="4">
         <f>((D6*0.3)+(F6*0.1)+(G6*0.3)+(J6*0.1)+(K6*0.1)+(L6*0.1))</f>
-        <v>0.557208300858407</v>
-      </c>
-      <c r="N6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.32355944677575033</v>
+      </c>
+      <c r="N6">
+        <v>30</v>
+      </c>
+      <c r="O6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>430</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>364</v>
+        <v>36</v>
       </c>
       <c r="C7">
-        <v>18214</v>
+        <v>118</v>
       </c>
       <c r="D7" s="1">
         <f>(C7-2)/(108622-2)</f>
-        <v>0.16766709629902413</v>
+        <v>1.0679432885288161E-3</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>8.0629301868239919E-4</v>
       </c>
       <c r="G7" s="2">
-        <v>0.95899510499999996</v>
+        <v>0.77228255299999993</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="2">
         <f>I7/384</f>
-        <v>0</v>
+        <v>2.6041666666666665E-3</v>
       </c>
       <c r="K7" s="3">
         <v>1</v>
@@ -2769,87 +2806,97 @@
       </c>
       <c r="M7" s="4">
         <f>((D7*0.3)+(F7*0.1)+(G7*0.3)+(J7*0.1)+(K7*0.1)+(L7*0.1))</f>
-        <v>0.53799866038970723</v>
-      </c>
-      <c r="N7"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.43234619485509351</v>
+      </c>
+      <c r="N7">
+        <v>23</v>
+      </c>
+      <c r="O7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="C8">
-        <v>15101</v>
+        <v>1411</v>
       </c>
       <c r="D8" s="1">
         <f>(C8-2)/(108622-2)</f>
-        <v>0.13900754925428099</v>
+        <v>1.2971828392561223E-2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>4.7787610619469028E-3</v>
       </c>
       <c r="G8" s="2">
-        <v>0.97789078000000007</v>
+        <v>0.20153628900000001</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J8" s="2">
         <f>I8/384</f>
-        <v>0</v>
+        <v>7.2916666666666671E-2</v>
       </c>
       <c r="K8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>1</v>
       </c>
       <c r="M8" s="4">
         <f>((D8*0.3)+(F8*0.1)+(G8*0.3)+(J8*0.1)+(K8*0.1)+(L8*0.1))</f>
-        <v>0.53506949877628429</v>
-      </c>
-      <c r="N8"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.17212197799062973</v>
+      </c>
+      <c r="N8">
+        <v>52</v>
+      </c>
+      <c r="O8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>340</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>339</v>
+        <v>56</v>
       </c>
       <c r="C9">
-        <v>11089</v>
+        <v>193</v>
       </c>
       <c r="D9" s="1">
         <f>(C9-2)/(108622-2)</f>
-        <v>0.10207144172343952</v>
+        <v>1.758423863008654E-3</v>
       </c>
       <c r="E9">
-        <v>5089</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1">
-        <v>0.10007866273352999</v>
+        <v>1.2389380530973451E-3</v>
       </c>
       <c r="G9" s="2">
-        <v>0.94308672100000002</v>
+        <v>0.21544893199999998</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J9" s="2">
         <f>I9/384</f>
-        <v>3.3854166666666664E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K9" s="3">
         <v>1</v>
@@ -2859,132 +2906,147 @@
       </c>
       <c r="M9" s="4">
         <f>((D9*0.3)+(F9*0.1)+(G9*0.3)+(J9*0.1)+(K9*0.1)+(L9*0.1))</f>
-        <v>0.52694073175705147</v>
-      </c>
-      <c r="N9"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.26632776723087903</v>
+      </c>
+      <c r="N9">
+        <v>37</v>
+      </c>
+      <c r="O9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="C10">
-        <v>4366</v>
+        <v>25121</v>
       </c>
       <c r="D10" s="1">
         <f>(C10-2)/(108622-2)</f>
-        <v>4.0176763027066839E-2</v>
+        <v>0.23125575400478735</v>
       </c>
       <c r="E10">
-        <v>3023</v>
+        <v>9028</v>
       </c>
       <c r="F10" s="1">
-        <v>5.9449360865290068E-2</v>
+        <v>0.1775417895771878</v>
       </c>
       <c r="G10" s="2">
-        <v>0.96478673299999973</v>
+        <v>0.37564697900000005</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="J10" s="2">
         <f>I10/384</f>
-        <v>3.125E-2</v>
+        <v>0.27864583333333331</v>
       </c>
       <c r="K10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>1</v>
       </c>
       <c r="M10" s="4">
         <f>((D10*0.3)+(F10*0.1)+(G10*0.3)+(J10*0.1)+(K10*0.1)+(L10*0.1))</f>
-        <v>0.5105589848946489</v>
-      </c>
-      <c r="N10"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.32768958219248834</v>
+      </c>
+      <c r="N10">
+        <v>29</v>
+      </c>
+      <c r="O10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>332</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>331</v>
+        <v>177</v>
       </c>
       <c r="C11">
-        <v>3027</v>
+        <v>569</v>
       </c>
       <c r="D11" s="1">
         <f>(C11-2)/(108622-2)</f>
-        <v>2.7849383170686796E-2</v>
+        <v>5.2200331430675749E-3</v>
       </c>
       <c r="E11">
-        <v>1769</v>
+        <v>69</v>
       </c>
       <c r="F11" s="1">
-        <v>3.478859390363815E-2</v>
+        <v>1.3569321533923305E-3</v>
       </c>
       <c r="G11" s="2">
-        <v>0.95884328600000002</v>
+        <v>0.576466535</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J11" s="2">
         <f>I11/384</f>
-        <v>7.8125E-3</v>
+        <v>1.3020833333333334E-2</v>
       </c>
       <c r="K11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="3">
         <v>1</v>
       </c>
       <c r="M11" s="4">
         <f>((D11*0.3)+(F11*0.1)+(G11*0.3)+(J11*0.1)+(K11*0.1)+(L11*0.1))</f>
-        <v>0.50026791014156979</v>
-      </c>
-      <c r="N11"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.27594374699159285</v>
+      </c>
+      <c r="N11">
+        <v>35</v>
+      </c>
+      <c r="O11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="C12">
-        <v>430</v>
+        <v>3338</v>
       </c>
       <c r="D12" s="1">
         <f>(C12-2)/(108622-2)</f>
-        <v>3.9403424783649417E-3</v>
+        <v>3.0712575952863194E-2</v>
       </c>
       <c r="E12">
-        <v>148</v>
+        <v>1131</v>
       </c>
       <c r="F12" s="1">
-        <v>2.910521140609636E-3</v>
+        <v>2.2241887905604718E-2</v>
       </c>
       <c r="G12" s="2">
-        <v>0.98476949599999997</v>
+        <v>0.91859541299999992</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J12" s="2">
         <f>I12/384</f>
-        <v>2.6041666666666665E-3</v>
+        <v>4.6875E-2</v>
       </c>
       <c r="K12" s="3">
         <v>1</v>
@@ -2994,42 +3056,47 @@
       </c>
       <c r="M12" s="4">
         <f>((D12*0.3)+(F12*0.1)+(G12*0.3)+(J12*0.1)+(K12*0.1)+(L12*0.1))</f>
-        <v>0.49716442032423702</v>
-      </c>
-      <c r="N12"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.49170408547641942</v>
+      </c>
+      <c r="N12">
+        <v>15</v>
+      </c>
+      <c r="O12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C13">
-        <v>1695</v>
+        <v>108622</v>
       </c>
       <c r="D13" s="1">
         <f>(C13-2)/(108622-2)</f>
-        <v>1.5586448167924876E-2</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>561</v>
+        <v>50850</v>
       </c>
       <c r="F13" s="1">
-        <v>1.1032448377581121E-2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>0.95953077900000017</v>
+        <v>0.91036587199999996</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I13">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="J13" s="2">
         <f>I13/384</f>
-        <v>1.8229166666666668E-2</v>
+        <v>0.21875</v>
       </c>
       <c r="K13" s="3">
         <v>1</v>
@@ -3039,87 +3106,96 @@
       </c>
       <c r="M13" s="4">
         <f>((D13*0.3)+(F13*0.1)+(G13*0.3)+(J13*0.1)+(K13*0.1)+(L13*0.1))</f>
-        <v>0.49546132965480227</v>
-      </c>
-      <c r="N13"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.89498476159999996</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>431</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="C14">
-        <v>4530</v>
+        <v>5578</v>
       </c>
       <c r="D14" s="1">
         <f>(C14-2)/(108622-2)</f>
-        <v>4.1686613883262752E-2</v>
+        <v>5.1334929110661023E-2</v>
       </c>
       <c r="E14">
-        <v>1481</v>
+        <v>757</v>
       </c>
       <c r="F14" s="1">
-        <v>2.9124877089478859E-2</v>
+        <v>1.4886922320550638E-2</v>
       </c>
       <c r="G14" s="2">
-        <v>0.84022306999999985</v>
+        <v>0.29700730400000003</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="J14" s="2">
         <f>I14/384</f>
-        <v>0.25520833333333331</v>
+        <v>1.3020833333333334E-2</v>
       </c>
       <c r="K14" s="3">
         <v>1</v>
       </c>
       <c r="L14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="4">
         <f>((D14*0.3)+(F14*0.1)+(G14*0.3)+(J14*0.1)+(K14*0.1)+(L14*0.1))</f>
-        <v>0.49300622620725998</v>
-      </c>
-      <c r="N14"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.20729344549858669</v>
+      </c>
+      <c r="N14">
+        <v>47</v>
+      </c>
+      <c r="O14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>427</v>
       </c>
       <c r="B15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C15">
-        <v>564</v>
+        <v>436</v>
+      </c>
+      <c r="C15" t="s">
+        <v>444</v>
       </c>
       <c r="D15" s="1">
-        <f>(C15-2)/(108622-2)</f>
-        <v>5.1740011047689194E-3</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>4.0707964601769909E-3</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>0.95277895000000001</v>
+        <v>0.364783048</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2">
         <f>I15/384</f>
-        <v>4.4270833333333336E-2</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>1</v>
@@ -3129,87 +3205,97 @@
       </c>
       <c r="M15" s="4">
         <f>((D15*0.3)+(F15*0.1)+(G15*0.3)+(J15*0.1)+(K15*0.1)+(L15*0.1))</f>
-        <v>0.4922200483107817</v>
-      </c>
-      <c r="N15"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.30943491440000004</v>
+      </c>
+      <c r="N15">
+        <v>31</v>
+      </c>
+      <c r="O15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C16">
-        <v>3338</v>
+        <v>2603</v>
       </c>
       <c r="D16" s="1">
         <f>(C16-2)/(108622-2)</f>
-        <v>3.0712575952863194E-2</v>
+        <v>2.3945866322960779E-2</v>
       </c>
       <c r="E16">
-        <v>1131</v>
+        <v>612</v>
       </c>
       <c r="F16" s="1">
-        <v>2.2241887905604718E-2</v>
+        <v>1.2035398230088496E-2</v>
       </c>
       <c r="G16" s="2">
-        <v>0.91859541299999992</v>
+        <v>0.13824662599999998</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J16" s="2">
         <f>I16/384</f>
-        <v>4.6875E-2</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="K16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="4">
         <f>((D16*0.3)+(F16*0.1)+(G16*0.3)+(J16*0.1)+(K16*0.1)+(L16*0.1))</f>
-        <v>0.49170408547641942</v>
-      </c>
-      <c r="N16"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>5.1423787519897075E-2</v>
+      </c>
+      <c r="N16">
+        <v>65</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C17">
-        <v>3131</v>
+        <v>13843</v>
       </c>
       <c r="D17" s="1">
         <f>(C17-2)/(108622-2)</f>
-        <v>2.8806849567298839E-2</v>
+        <v>0.12742588841833916</v>
       </c>
       <c r="E17">
-        <v>1353</v>
+        <v>11080</v>
       </c>
       <c r="F17" s="1">
-        <v>2.6607669616519173E-2</v>
+        <v>0.21789577187807277</v>
       </c>
       <c r="G17" s="2">
-        <v>0.87709837900000009</v>
+        <v>0.99891935700000001</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I17">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="J17" s="2">
         <f>I17/384</f>
-        <v>0.16927083333333334</v>
+        <v>1.5625E-2</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -3219,87 +3305,97 @@
       </c>
       <c r="M17" s="4">
         <f>((D17*0.3)+(F17*0.1)+(G17*0.3)+(J17*0.1)+(K17*0.1)+(L17*0.1))</f>
-        <v>0.49135941886517487</v>
-      </c>
-      <c r="N17"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.56125565081330897</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C18">
-        <v>3427</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1">
         <f>(C18-2)/(108622-2)</f>
-        <v>3.1531946234579264E-2</v>
+        <v>4.6952679064628982E-4</v>
       </c>
       <c r="E18">
-        <v>1235</v>
+        <v>23</v>
       </c>
       <c r="F18" s="1">
-        <v>2.4287118977384465E-2</v>
+        <v>4.5231071779744348E-4</v>
       </c>
       <c r="G18" s="2">
-        <v>0.89230520600000018</v>
+        <v>0.40987434</v>
       </c>
       <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
         <v>7</v>
-      </c>
-      <c r="I18">
-        <v>26</v>
       </c>
       <c r="J18" s="2">
         <f>I18/384</f>
-        <v>6.7708333333333329E-2</v>
+        <v>1.8229166666666668E-2</v>
       </c>
       <c r="K18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="4">
         <f>((D18*0.3)+(F18*0.1)+(G18*0.3)+(J18*0.1)+(K18*0.1)+(L18*0.1))</f>
-        <v>0.48635069090144556</v>
-      </c>
-      <c r="N18"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.12497130777564029</v>
+      </c>
+      <c r="N18">
+        <v>57</v>
+      </c>
+      <c r="O18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>107</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="C19">
-        <v>4597</v>
+        <v>71</v>
       </c>
       <c r="D19" s="1">
         <f>(C19-2)/(108622-2)</f>
-        <v>4.2303443196464736E-2</v>
+        <v>6.3524212852145092E-4</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>1.5142576204523108E-3</v>
       </c>
       <c r="G19" s="2">
-        <v>0.91026548399999985</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="J19" s="2">
         <f>I19/384</f>
-        <v>0</v>
+        <v>0.27864583333333331</v>
       </c>
       <c r="K19" s="3">
         <v>1</v>
@@ -3309,42 +3405,47 @@
       </c>
       <c r="M19" s="4">
         <f>((D19*0.3)+(F19*0.1)+(G19*0.3)+(J19*0.1)+(K19*0.1)+(L19*0.1))</f>
-        <v>0.48577067815893937</v>
-      </c>
-      <c r="N19"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.22820658173393502</v>
+      </c>
+      <c r="N19">
+        <v>44</v>
+      </c>
+      <c r="O19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>326</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s">
-        <v>325</v>
+        <v>112</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>3427</v>
       </c>
       <c r="D20" s="1">
         <f>(C20-2)/(108622-2)</f>
-        <v>7.3651261277849389E-5</v>
+        <v>3.1531946234579264E-2</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1235</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>2.4287118977384465E-2</v>
       </c>
       <c r="G20" s="2">
-        <v>0.94841592199999991</v>
+        <v>0.89230520600000018</v>
       </c>
       <c r="H20">
         <v>7</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J20" s="2">
         <f>I20/384</f>
-        <v>0</v>
+        <v>6.7708333333333329E-2</v>
       </c>
       <c r="K20" s="3">
         <v>1</v>
@@ -3354,87 +3455,97 @@
       </c>
       <c r="M20" s="4">
         <f>((D20*0.3)+(F20*0.1)+(G20*0.3)+(J20*0.1)+(K20*0.1)+(L20*0.1))</f>
-        <v>0.48454687197838331</v>
-      </c>
-      <c r="N20"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.48635069090144556</v>
+      </c>
+      <c r="N20">
+        <v>17</v>
+      </c>
+      <c r="O20">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="C21">
-        <v>20580</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1">
         <f>(C21-2)/(108622-2)</f>
-        <v>0.18944945682194808</v>
+        <v>2.6698582213220402E-4</v>
       </c>
       <c r="E21">
-        <v>9815</v>
+        <v>6</v>
       </c>
       <c r="F21" s="1">
-        <v>0.19301868239921338</v>
+        <v>1.1799410029498526E-4</v>
       </c>
       <c r="G21" s="2">
-        <v>0.95439287200000023</v>
+        <v>0.46361996500000002</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J21" s="2">
         <f>I21/384</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
         <v>1</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="4">
         <f>((D21*0.3)+(F21*0.1)+(G21*0.3)+(J21*0.1)+(K21*0.1)+(L21*0.1))</f>
-        <v>0.46662123355317242</v>
-      </c>
-      <c r="N21"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.3391778846566692</v>
+      </c>
+      <c r="N21">
+        <v>28</v>
+      </c>
+      <c r="O21">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>2</v>
+        <v>119</v>
       </c>
       <c r="C22">
-        <v>916</v>
+        <v>226</v>
       </c>
       <c r="D22" s="1">
         <f>(C22-2)/(108622-2)</f>
-        <v>8.4146566009942921E-3</v>
+        <v>2.0622353157797829E-3</v>
       </c>
       <c r="E22">
-        <v>428</v>
+        <v>152</v>
       </c>
       <c r="F22" s="1">
-        <v>8.4169124877089482E-3</v>
+        <v>2.9891838741396264E-3</v>
       </c>
       <c r="G22" s="2">
-        <v>0.8396049659999999</v>
+        <v>0.27378087099999998</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J22" s="2">
         <f>I22/384</f>
-        <v>5.208333333333333E-3</v>
+        <v>2.8645833333333332E-2</v>
       </c>
       <c r="K22" s="3">
         <v>1</v>
@@ -3444,42 +3555,47 @@
       </c>
       <c r="M22" s="4">
         <f>((D22*0.3)+(F22*0.1)+(G22*0.3)+(J22*0.1)+(K22*0.1)+(L22*0.1))</f>
-        <v>0.45576841136240254</v>
-      </c>
-      <c r="N22"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.28591643361548125</v>
+      </c>
+      <c r="N22">
+        <v>34</v>
+      </c>
+      <c r="O22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>336</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>335</v>
+        <v>86</v>
       </c>
       <c r="C23">
-        <v>1255</v>
+        <v>3131</v>
       </c>
       <c r="D23" s="1">
         <f>(C23-2)/(108622-2)</f>
-        <v>1.1535628797643159E-2</v>
+        <v>2.8806849567298839E-2</v>
       </c>
       <c r="E23">
-        <v>420</v>
+        <v>1353</v>
       </c>
       <c r="F23" s="1">
-        <v>8.2595870206489674E-3</v>
+        <v>2.6607669616519173E-2</v>
       </c>
       <c r="G23" s="2">
-        <v>0.68244708700000001</v>
+        <v>0.87709837900000009</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I23">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="J23" s="2">
         <f>I23/384</f>
-        <v>0.29427083333333331</v>
+        <v>0.16927083333333334</v>
       </c>
       <c r="K23" s="3">
         <v>1</v>
@@ -3489,401 +3605,447 @@
       </c>
       <c r="M23" s="4">
         <f>((D23*0.3)+(F23*0.1)+(G23*0.3)+(J23*0.1)+(K23*0.1)+(L23*0.1))</f>
-        <v>0.43844785677469111</v>
-      </c>
-      <c r="N23"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.49135941886517487</v>
+      </c>
+      <c r="N23">
+        <v>16</v>
+      </c>
+      <c r="O23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="C24">
-        <v>118</v>
+        <v>1346</v>
       </c>
       <c r="D24" s="1">
         <f>(C24-2)/(108622-2)</f>
-        <v>1.0679432885288161E-3</v>
+        <v>1.2373411894678697E-2</v>
       </c>
       <c r="E24">
-        <v>41</v>
+        <v>609</v>
       </c>
       <c r="F24" s="1">
-        <v>8.0629301868239919E-4</v>
+        <v>1.1976401179941002E-2</v>
       </c>
       <c r="G24" s="2">
-        <v>0.77228255299999993</v>
+        <v>0.207538106</v>
       </c>
       <c r="H24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" s="2">
         <f>I24/384</f>
-        <v>2.6041666666666665E-3</v>
+        <v>7.8125E-3</v>
       </c>
       <c r="K24" s="3">
         <v>1</v>
       </c>
       <c r="L24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" s="4">
         <f>((D24*0.3)+(F24*0.1)+(G24*0.3)+(J24*0.1)+(K24*0.1)+(L24*0.1))</f>
-        <v>0.43234619485509351</v>
-      </c>
-      <c r="N24"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.1679523454863977</v>
+      </c>
+      <c r="N24">
+        <v>53</v>
+      </c>
+      <c r="O24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>238</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s">
-        <v>237</v>
+        <v>163</v>
       </c>
       <c r="C25">
-        <v>6798</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1">
         <f>(C25-2)/(108622-2)</f>
-        <v>6.2566746455533048E-2</v>
+        <v>2.1174737617381698E-4</v>
       </c>
       <c r="E25">
-        <v>4666</v>
+        <v>10</v>
       </c>
       <c r="F25" s="1">
-        <v>9.176007866273353E-2</v>
+        <v>1.9665683382497542E-4</v>
       </c>
       <c r="G25" s="2">
-        <v>0.95181365800000006</v>
+        <v>0.32043033999999998</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J25" s="2">
         <f>I25/384</f>
-        <v>1.0416666666666666E-2</v>
+        <v>2.6041666666666665E-3</v>
       </c>
       <c r="K25" s="3">
         <v>0</v>
       </c>
       <c r="L25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="4">
         <f>((D25*0.3)+(F25*0.1)+(G25*0.3)+(J25*0.1)+(K25*0.1)+(L25*0.1))</f>
-        <v>0.41453179586959998</v>
-      </c>
-      <c r="N25"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>9.6472708562901299E-2</v>
+      </c>
+      <c r="N25">
+        <v>62</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>304</v>
+        <v>158</v>
       </c>
       <c r="B26" t="s">
-        <v>303</v>
+        <v>157</v>
       </c>
       <c r="C26">
-        <v>8020</v>
+        <v>21503</v>
       </c>
       <c r="D26" s="1">
         <f>(C26-2)/(108622-2)</f>
-        <v>7.3816976615724547E-2</v>
+        <v>0.19794697109187995</v>
       </c>
       <c r="E26">
-        <v>1358</v>
+        <v>3218</v>
       </c>
       <c r="F26" s="1">
-        <v>2.6705998033431662E-2</v>
+        <v>6.3284169124877096E-2</v>
       </c>
       <c r="G26" s="2">
-        <v>0.91705547199999993</v>
+        <v>0.96763678500000028</v>
       </c>
       <c r="H26">
         <v>5</v>
       </c>
       <c r="I26">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="J26" s="2">
         <f>I26/384</f>
-        <v>3.6458333333333336E-2</v>
+        <v>0.25</v>
       </c>
       <c r="K26" s="3">
         <v>1</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="4">
         <f>((D26*0.3)+(F26*0.1)+(G26*0.3)+(J26*0.1)+(K26*0.1)+(L26*0.1))</f>
-        <v>0.40357816772139388</v>
-      </c>
-      <c r="N26"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.58100354374005181</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="B27" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="C27">
-        <v>39</v>
+        <v>4366</v>
       </c>
       <c r="D27" s="1">
         <f>(C27-2)/(108622-2)</f>
-        <v>3.4063708341005341E-4</v>
+        <v>4.0176763027066839E-2</v>
       </c>
       <c r="E27">
+        <v>3023</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5.9449360865290068E-2</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0.96478673299999973</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
         <v>12</v>
-      </c>
-      <c r="F27" s="1">
-        <v>2.3598820058997051E-4</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0.971624759</v>
-      </c>
-      <c r="H27">
-        <v>5</v>
-      </c>
-      <c r="I27">
-        <v>22</v>
       </c>
       <c r="J27" s="2">
         <f>I27/384</f>
-        <v>5.7291666666666664E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="3">
         <v>1</v>
       </c>
       <c r="M27" s="4">
         <f>((D27*0.3)+(F27*0.1)+(G27*0.3)+(J27*0.1)+(K27*0.1)+(L27*0.1))</f>
-        <v>0.39734238431174862</v>
-      </c>
-      <c r="N27"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.5105589848946489</v>
+      </c>
+      <c r="N27">
+        <v>9</v>
+      </c>
+      <c r="O27">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C28">
-        <v>6380</v>
+        <v>4597</v>
       </c>
       <c r="D28" s="1">
         <f>(C28-2)/(108622-2)</f>
-        <v>5.8718468053765419E-2</v>
+        <v>4.2303443196464736E-2</v>
       </c>
       <c r="E28">
-        <v>2880</v>
+        <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>5.663716814159292E-2</v>
+        <v>0</v>
       </c>
       <c r="G28" s="2">
-        <v>0.73185257599999998</v>
+        <v>0.91026548399999985</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I28">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J28" s="2">
         <f>I28/384</f>
-        <v>2.34375E-2</v>
+        <v>0</v>
       </c>
       <c r="K28" s="3">
         <v>1</v>
       </c>
       <c r="L28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="4">
         <f>((D28*0.3)+(F28*0.1)+(G28*0.3)+(J28*0.1)+(K28*0.1)+(L28*0.1))</f>
-        <v>0.3451787800302889</v>
-      </c>
-      <c r="N28"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.48577067815893937</v>
+      </c>
+      <c r="N28">
+        <v>18</v>
+      </c>
+      <c r="O28">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="C29">
-        <v>31</v>
+        <v>6380</v>
       </c>
       <c r="D29" s="1">
         <f>(C29-2)/(108622-2)</f>
-        <v>2.6698582213220402E-4</v>
+        <v>5.8718468053765419E-2</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>2880</v>
       </c>
       <c r="F29" s="1">
-        <v>1.1799410029498526E-4</v>
+        <v>5.663716814159292E-2</v>
       </c>
       <c r="G29" s="2">
-        <v>0.46361996500000002</v>
+        <v>0.73185257599999998</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J29" s="2">
         <f>I29/384</f>
-        <v>0</v>
+        <v>2.34375E-2</v>
       </c>
       <c r="K29" s="3">
         <v>1</v>
       </c>
       <c r="L29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="4">
         <f>((D29*0.3)+(F29*0.1)+(G29*0.3)+(J29*0.1)+(K29*0.1)+(L29*0.1))</f>
-        <v>0.3391778846566692</v>
-      </c>
-      <c r="N29"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.3451787800302889</v>
+      </c>
+      <c r="N29">
+        <v>27</v>
+      </c>
+      <c r="O29">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="C30">
-        <v>25121</v>
+        <v>20580</v>
       </c>
       <c r="D30" s="1">
         <f>(C30-2)/(108622-2)</f>
-        <v>0.23125575400478735</v>
+        <v>0.18944945682194808</v>
       </c>
       <c r="E30">
-        <v>9028</v>
+        <v>9815</v>
       </c>
       <c r="F30" s="1">
-        <v>0.1775417895771878</v>
+        <v>0.19301868239921338</v>
       </c>
       <c r="G30" s="2">
-        <v>0.37564697900000005</v>
+        <v>0.95439287200000023</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="J30" s="2">
         <f>I30/384</f>
-        <v>0.27864583333333331</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="K30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" s="4">
         <f>((D30*0.3)+(F30*0.1)+(G30*0.3)+(J30*0.1)+(K30*0.1)+(L30*0.1))</f>
-        <v>0.32768958219248834</v>
-      </c>
-      <c r="N30"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.46662123355317242</v>
+      </c>
+      <c r="N30">
+        <v>20</v>
+      </c>
+      <c r="O30">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="C31">
-        <v>122</v>
+        <v>430</v>
       </c>
       <c r="D31" s="1">
         <f>(C31-2)/(108622-2)</f>
-        <v>1.1047689191677407E-3</v>
+        <v>3.9403424783649417E-3</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>2.910521140609636E-3</v>
       </c>
       <c r="G31" s="2">
-        <v>0.74409338699999994</v>
+        <v>0.98476949599999997</v>
       </c>
       <c r="H31">
         <v>5</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="2">
         <f>I31/384</f>
-        <v>0</v>
+        <v>2.6041666666666665E-3</v>
       </c>
       <c r="K31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="3">
         <v>1</v>
       </c>
       <c r="M31" s="4">
         <f>((D31*0.3)+(F31*0.1)+(G31*0.3)+(J31*0.1)+(K31*0.1)+(L31*0.1))</f>
-        <v>0.32355944677575033</v>
-      </c>
-      <c r="N31"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.49716442032423702</v>
+      </c>
+      <c r="N31">
+        <v>11</v>
+      </c>
+      <c r="O31">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>427</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s">
-        <v>436</v>
-      </c>
-      <c r="C32" t="s">
-        <v>444</v>
+        <v>185</v>
+      </c>
+      <c r="C32">
+        <v>733</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <f>(C32-2)/(108622-2)</f>
+        <v>6.7298839992634878E-3</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="F32" s="1">
-        <v>0</v>
+        <v>4.7394296951819076E-3</v>
       </c>
       <c r="G32" s="2">
-        <v>0.364783048</v>
+        <v>0.28920037100000001</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" s="2">
         <f>I32/384</f>
-        <v>0</v>
+        <v>5.208333333333333E-3</v>
       </c>
       <c r="K32" s="3">
         <v>1</v>
@@ -3893,87 +4055,97 @@
       </c>
       <c r="M32" s="4">
         <f>((D32*0.3)+(F32*0.1)+(G32*0.3)+(J32*0.1)+(K32*0.1)+(L32*0.1))</f>
-        <v>0.30943491440000004</v>
-      </c>
-      <c r="N32"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.28977385280263057</v>
+      </c>
+      <c r="N32">
+        <v>32</v>
+      </c>
+      <c r="O32">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B33" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C33">
-        <v>733</v>
+        <v>119</v>
       </c>
       <c r="D33" s="1">
         <f>(C33-2)/(108622-2)</f>
-        <v>6.7298839992634878E-3</v>
+        <v>1.0771496961885473E-3</v>
       </c>
       <c r="E33">
-        <v>241</v>
+        <v>26</v>
       </c>
       <c r="F33" s="1">
-        <v>4.7394296951819076E-3</v>
+        <v>5.1130776794493606E-4</v>
       </c>
       <c r="G33" s="2">
-        <v>0.28920037100000001</v>
+        <v>0.32096185300000002</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="J33" s="2">
         <f>I33/384</f>
-        <v>5.208333333333333E-3</v>
+        <v>8.8541666666666671E-2</v>
       </c>
       <c r="K33" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>1</v>
       </c>
       <c r="M33" s="4">
         <f>((D33*0.3)+(F33*0.1)+(G33*0.3)+(J33*0.1)+(K33*0.1)+(L33*0.1))</f>
-        <v>0.28977385280263057</v>
-      </c>
-      <c r="N33"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.20551699825231773</v>
+      </c>
+      <c r="N33">
+        <v>48</v>
+      </c>
+      <c r="O33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>348</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s">
-        <v>347</v>
+        <v>179</v>
       </c>
       <c r="C34">
-        <v>6465</v>
+        <v>15101</v>
       </c>
       <c r="D34" s="1">
         <f>(C34-2)/(108622-2)</f>
-        <v>5.9501012704842572E-2</v>
+        <v>0.13900754925428099</v>
       </c>
       <c r="E34">
-        <v>1329</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>2.6135693215339234E-2</v>
+        <v>0</v>
       </c>
       <c r="G34" s="2">
-        <v>0.20160347000000001</v>
+        <v>0.97789078000000007</v>
       </c>
       <c r="H34">
         <v>5</v>
       </c>
       <c r="I34">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J34" s="2">
         <f>I34/384</f>
-        <v>6.7708333333333329E-2</v>
+        <v>0</v>
       </c>
       <c r="K34" s="3">
         <v>1</v>
@@ -3983,35 +4155,40 @@
       </c>
       <c r="M34" s="4">
         <f>((D34*0.3)+(F34*0.1)+(G34*0.3)+(J34*0.1)+(K34*0.1)+(L34*0.1))</f>
-        <v>0.28771574746632</v>
-      </c>
-      <c r="N34"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.53506949877628429</v>
+      </c>
+      <c r="N34">
+        <v>7</v>
+      </c>
+      <c r="O34">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>176</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="C35">
-        <v>226</v>
+        <v>42</v>
       </c>
       <c r="D35" s="1">
         <f>(C35-2)/(108622-2)</f>
-        <v>2.0622353157797829E-3</v>
+        <v>3.6825630638924689E-4</v>
       </c>
       <c r="E35">
-        <v>152</v>
+        <v>13</v>
       </c>
       <c r="F35" s="1">
-        <v>2.9891838741396264E-3</v>
+        <v>2.5565388397246803E-4</v>
       </c>
       <c r="G35" s="2">
-        <v>0.27378087099999998</v>
+        <v>0.33528630199999998</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>11</v>
@@ -4021,49 +4198,54 @@
         <v>2.8645833333333332E-2</v>
       </c>
       <c r="K35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="4">
         <f>((D35*0.3)+(F35*0.1)+(G35*0.3)+(J35*0.1)+(K35*0.1)+(L35*0.1))</f>
-        <v>0.28591643361548125</v>
-      </c>
-      <c r="N35"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.10358651621364735</v>
+      </c>
+      <c r="N35">
+        <v>61</v>
+      </c>
+      <c r="O35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C36">
-        <v>569</v>
+        <v>39</v>
       </c>
       <c r="D36" s="1">
         <f>(C36-2)/(108622-2)</f>
-        <v>5.2200331430675749E-3</v>
+        <v>3.4063708341005341E-4</v>
       </c>
       <c r="E36">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="F36" s="1">
-        <v>1.3569321533923305E-3</v>
+        <v>2.3598820058997051E-4</v>
       </c>
       <c r="G36" s="2">
-        <v>0.576466535</v>
+        <v>0.971624759</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J36" s="2">
         <f>I36/384</f>
-        <v>1.3020833333333334E-2</v>
+        <v>5.7291666666666664E-2</v>
       </c>
       <c r="K36" s="3">
         <v>0</v>
@@ -4073,101 +4255,116 @@
       </c>
       <c r="M36" s="4">
         <f>((D36*0.3)+(F36*0.1)+(G36*0.3)+(J36*0.1)+(K36*0.1)+(L36*0.1))</f>
-        <v>0.27594374699159285</v>
-      </c>
-      <c r="N36"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.39734238431174862</v>
+      </c>
+      <c r="N36">
+        <v>26</v>
+      </c>
+      <c r="O36">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>300</v>
+        <v>204</v>
       </c>
       <c r="B37" t="s">
-        <v>299</v>
+        <v>203</v>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D37" s="1">
         <f>(C37-2)/(108622-2)</f>
-        <v>2.0254096851408579E-4</v>
+        <v>1.5650893021542994E-4</v>
       </c>
       <c r="E37">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>1.5732546705998033E-4</v>
+        <v>0</v>
       </c>
       <c r="G37" s="2">
-        <v>0.52306200300000005</v>
+        <v>0.36237256700000003</v>
       </c>
       <c r="H37">
         <v>5</v>
       </c>
       <c r="I37">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J37" s="2">
         <f>I37/384</f>
-        <v>0.10416666666666667</v>
+        <v>0</v>
       </c>
       <c r="K37" s="3">
         <v>0</v>
       </c>
       <c r="L37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" s="4">
         <f>((D37*0.3)+(F37*0.1)+(G37*0.3)+(J37*0.1)+(K37*0.1)+(L37*0.1))</f>
-        <v>0.26741176240392689</v>
-      </c>
-      <c r="N37"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.10875872277906463</v>
+      </c>
+      <c r="N37">
+        <v>60</v>
+      </c>
+      <c r="O37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>236</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>235</v>
       </c>
       <c r="C38">
-        <v>193</v>
+        <v>2</v>
       </c>
       <c r="D38" s="1">
         <f>(C38-2)/(108622-2)</f>
-        <v>1.758423863008654E-3</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="F38" s="1">
-        <v>1.2389380530973451E-3</v>
+        <v>1.9665683382497542E-5</v>
       </c>
       <c r="G38" s="2">
-        <v>0.21544893199999998</v>
+        <v>0.21332020700000001</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="J38" s="2">
         <f>I38/384</f>
-        <v>1.0416666666666666E-2</v>
+        <v>0.10677083333333333</v>
       </c>
       <c r="K38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" s="4">
         <f>((D38*0.3)+(F38*0.1)+(G38*0.3)+(J38*0.1)+(K38*0.1)+(L38*0.1))</f>
-        <v>0.26632776723087903</v>
-      </c>
-      <c r="N38"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>7.4675112001671581E-2</v>
+      </c>
+      <c r="N38">
+        <v>63</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>240</v>
       </c>
@@ -4210,189 +4407,214 @@
         <f>((D39*0.3)+(F39*0.1)+(G39*0.3)+(J39*0.1)+(K39*0.1)+(L39*0.1))</f>
         <v>0.26632658778836243</v>
       </c>
-      <c r="N39"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <v>38</v>
+      </c>
+      <c r="O39">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>428</v>
+        <v>238</v>
       </c>
       <c r="B40" t="s">
-        <v>437</v>
+        <v>237</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>6798</v>
       </c>
       <c r="D40" s="1">
         <f>(C40-2)/(108622-2)</f>
-        <v>4.6032038298655862E-5</v>
+        <v>6.2566746455533048E-2</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>4666</v>
       </c>
       <c r="F40" s="1">
-        <v>0</v>
+        <v>9.176007866273353E-2</v>
       </c>
       <c r="G40" s="2">
-        <v>0.18697333499999999</v>
+        <v>0.95181365800000006</v>
       </c>
       <c r="H40">
         <v>4</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J40" s="2">
         <f>I40/384</f>
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="K40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="3">
         <v>1</v>
       </c>
       <c r="M40" s="4">
         <f>((D40*0.3)+(F40*0.1)+(G40*0.3)+(J40*0.1)+(K40*0.1)+(L40*0.1))</f>
-        <v>0.25610581011148958</v>
-      </c>
-      <c r="N40"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.41453179586959998</v>
+      </c>
+      <c r="N40">
+        <v>24</v>
+      </c>
+      <c r="O40">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>359</v>
+        <v>206</v>
       </c>
       <c r="B41" t="s">
-        <v>358</v>
+        <v>205</v>
       </c>
       <c r="C41">
-        <v>1545</v>
+        <v>1565</v>
       </c>
       <c r="D41" s="1">
         <f>(C41-2)/(108622-2)</f>
-        <v>1.42054870189652E-2</v>
+        <v>1.4389615172159823E-2</v>
       </c>
       <c r="E41">
-        <v>878</v>
+        <v>1664</v>
       </c>
       <c r="F41" s="1">
-        <v>1.7266470009832842E-2</v>
+        <v>3.2723697148475908E-2</v>
       </c>
       <c r="G41" s="2">
-        <v>0.16534326200000002</v>
+        <v>0.34709993</v>
       </c>
       <c r="H41">
         <v>2</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>160</v>
       </c>
       <c r="J41" s="2">
         <f>I41/384</f>
-        <v>2.6041666666666665E-3</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="K41" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>1</v>
       </c>
       <c r="M41" s="4">
         <f>((D41*0.3)+(F41*0.1)+(G41*0.3)+(J41*0.1)+(K41*0.1)+(L41*0.1))</f>
-        <v>0.25585168837333949</v>
-      </c>
-      <c r="N41"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.25338589993316218</v>
+      </c>
+      <c r="N41">
+        <v>41</v>
+      </c>
+      <c r="O41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>206</v>
+        <v>428</v>
       </c>
       <c r="B42" t="s">
-        <v>205</v>
+        <v>437</v>
       </c>
       <c r="C42">
-        <v>1565</v>
+        <v>7</v>
       </c>
       <c r="D42" s="1">
         <f>(C42-2)/(108622-2)</f>
-        <v>1.4389615172159823E-2</v>
+        <v>4.6032038298655862E-5</v>
       </c>
       <c r="E42">
-        <v>1664</v>
+        <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>3.2723697148475908E-2</v>
+        <v>0</v>
       </c>
       <c r="G42" s="2">
-        <v>0.34709993</v>
+        <v>0.18697333499999999</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I42">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="J42" s="2">
         <f>I42/384</f>
-        <v>0.41666666666666669</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="3">
         <v>1</v>
       </c>
       <c r="M42" s="4">
         <f>((D42*0.3)+(F42*0.1)+(G42*0.3)+(J42*0.1)+(K42*0.1)+(L42*0.1))</f>
-        <v>0.25338589993316218</v>
-      </c>
-      <c r="N42"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.25610581011148958</v>
+      </c>
+      <c r="N42">
+        <v>39</v>
+      </c>
+      <c r="O42">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>369</v>
+        <v>250</v>
       </c>
       <c r="B43" t="s">
-        <v>368</v>
+        <v>249</v>
       </c>
       <c r="C43">
-        <v>1304</v>
+        <v>1180</v>
       </c>
       <c r="D43" s="1">
         <f>(C43-2)/(108622-2)</f>
-        <v>1.1986742772969987E-2</v>
+        <v>1.0845148223163322E-2</v>
       </c>
       <c r="E43">
-        <v>672</v>
+        <v>814</v>
       </c>
       <c r="F43" s="1">
-        <v>1.3215339233038349E-2</v>
+        <v>1.6007866273352999E-2</v>
       </c>
       <c r="G43" s="2">
-        <v>0.47101033099999995</v>
+        <v>0.16055561200000001</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J43" s="2">
         <f>I43/384</f>
-        <v>4.4270833333333336E-2</v>
+        <v>2.6041666666666665E-3</v>
       </c>
       <c r="K43" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="4">
         <f>((D43*0.3)+(F43*0.1)+(G43*0.3)+(J43*0.1)+(K43*0.1)+(L43*0.1))</f>
-        <v>0.25064773938852813</v>
-      </c>
-      <c r="N43"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.15328143136095096</v>
+      </c>
+      <c r="N43">
+        <v>55</v>
+      </c>
+      <c r="O43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>274</v>
       </c>
@@ -4435,355 +4657,395 @@
         <f>((D44*0.3)+(F44*0.1)+(G44*0.3)+(J44*0.1)+(K44*0.1)+(L44*0.1))</f>
         <v>0.24542400419955493</v>
       </c>
-      <c r="N44"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <v>43</v>
+      </c>
+      <c r="O44">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>272</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>271</v>
       </c>
       <c r="C45">
-        <v>71</v>
+        <v>1220</v>
       </c>
       <c r="D45" s="1">
         <f>(C45-2)/(108622-2)</f>
-        <v>6.3524212852145092E-4</v>
+        <v>1.1213404529552568E-2</v>
       </c>
       <c r="E45">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="F45" s="1">
-        <v>1.5142576204523108E-3</v>
+        <v>5.0344149459193707E-3</v>
       </c>
       <c r="G45" s="2">
-        <v>0</v>
+        <v>0.45997524199999995</v>
       </c>
       <c r="H45">
         <v>5</v>
       </c>
       <c r="I45">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="J45" s="2">
         <f>I45/384</f>
-        <v>0.27864583333333331</v>
+        <v>1.8229166666666668E-2</v>
       </c>
       <c r="K45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" s="4">
         <f>((D45*0.3)+(F45*0.1)+(G45*0.3)+(J45*0.1)+(K45*0.1)+(L45*0.1))</f>
-        <v>0.22820658173393502</v>
-      </c>
-      <c r="N45"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.14368295212012436</v>
+      </c>
+      <c r="N45">
+        <v>56</v>
+      </c>
+      <c r="O45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>294</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="C46">
-        <v>14</v>
+        <v>63284</v>
       </c>
       <c r="D46" s="1">
         <f>(C46-2)/(108622-2)</f>
-        <v>1.1047689191677407E-4</v>
+        <v>0.58259988952310804</v>
       </c>
       <c r="E46">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>1.7699115044247788E-4</v>
+        <v>0</v>
       </c>
       <c r="G46" s="2">
-        <v>0.33687151900000001</v>
+        <v>0.86038705400000004</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I46">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="J46" s="2">
         <f>I46/384</f>
-        <v>0.20052083333333334</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>1</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="4">
         <f>((D46*0.3)+(F46*0.1)+(G46*0.3)+(J46*0.1)+(K46*0.1)+(L46*0.1))</f>
-        <v>0.22116438121595261</v>
-      </c>
-      <c r="N46"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.63289608305693235</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>194</v>
+        <v>429</v>
       </c>
       <c r="B47" t="s">
-        <v>193</v>
+        <v>438</v>
       </c>
       <c r="C47">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="D47" s="1">
         <f>(C47-2)/(108622-2)</f>
-        <v>1.2704842570429018E-3</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>1.415929203539823E-3</v>
+        <v>0</v>
       </c>
       <c r="G47" s="2">
-        <v>0.36410969199999998</v>
+        <v>0.28002160799999998</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J47" s="2">
         <f>I47/384</f>
-        <v>2.8645833333333332E-2</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="4">
         <f>((D47*0.3)+(F47*0.1)+(G47*0.3)+(J47*0.1)+(K47*0.1)+(L47*0.1))</f>
-        <v>0.2126202291308002</v>
-      </c>
-      <c r="N47"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.1840064824</v>
+      </c>
+      <c r="N47">
+        <v>50</v>
+      </c>
+      <c r="O47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="C48">
-        <v>5578</v>
+        <v>564</v>
       </c>
       <c r="D48" s="1">
         <f>(C48-2)/(108622-2)</f>
-        <v>5.1334929110661023E-2</v>
+        <v>5.1740011047689194E-3</v>
       </c>
       <c r="E48">
-        <v>757</v>
+        <v>207</v>
       </c>
       <c r="F48" s="1">
-        <v>1.4886922320550638E-2</v>
+        <v>4.0707964601769909E-3</v>
       </c>
       <c r="G48" s="2">
-        <v>0.29700730400000003</v>
+        <v>0.95277895000000001</v>
       </c>
       <c r="H48">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I48">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J48" s="2">
         <f>I48/384</f>
-        <v>1.3020833333333334E-2</v>
+        <v>4.4270833333333336E-2</v>
       </c>
       <c r="K48" s="3">
         <v>1</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" s="4">
         <f>((D48*0.3)+(F48*0.1)+(G48*0.3)+(J48*0.1)+(K48*0.1)+(L48*0.1))</f>
-        <v>0.20729344549858669</v>
-      </c>
-      <c r="N48"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.4922200483107817</v>
+      </c>
+      <c r="N48">
+        <v>14</v>
+      </c>
+      <c r="O48">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>304</v>
       </c>
       <c r="B49" t="s">
-        <v>173</v>
+        <v>303</v>
       </c>
       <c r="C49">
-        <v>119</v>
+        <v>8020</v>
       </c>
       <c r="D49" s="1">
         <f>(C49-2)/(108622-2)</f>
-        <v>1.0771496961885473E-3</v>
+        <v>7.3816976615724547E-2</v>
       </c>
       <c r="E49">
-        <v>26</v>
+        <v>1358</v>
       </c>
       <c r="F49" s="1">
-        <v>5.1130776794493606E-4</v>
+        <v>2.6705998033431662E-2</v>
       </c>
       <c r="G49" s="2">
-        <v>0.32096185300000002</v>
+        <v>0.91705547199999993</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I49">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="J49" s="2">
         <f>I49/384</f>
-        <v>8.8541666666666671E-2</v>
+        <v>3.6458333333333336E-2</v>
       </c>
       <c r="K49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" s="4">
         <f>((D49*0.3)+(F49*0.1)+(G49*0.3)+(J49*0.1)+(K49*0.1)+(L49*0.1))</f>
-        <v>0.20551699825231773</v>
-      </c>
-      <c r="N49"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.40357816772139388</v>
+      </c>
+      <c r="N49">
+        <v>25</v>
+      </c>
+      <c r="O49">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="B50" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="C50">
-        <v>33</v>
+        <v>1304</v>
       </c>
       <c r="D50" s="1">
         <f>(C50-2)/(108622-2)</f>
-        <v>2.8539863745166634E-4</v>
+        <v>1.1986742772969987E-2</v>
       </c>
       <c r="E50">
-        <v>9</v>
+        <v>672</v>
       </c>
       <c r="F50" s="1">
-        <v>1.7699115044247788E-4</v>
+        <v>1.3215339233038349E-2</v>
       </c>
       <c r="G50" s="2">
-        <v>0.31265499599999996</v>
+        <v>0.47101033099999995</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J50" s="2">
         <f>I50/384</f>
-        <v>1.3020833333333334E-2</v>
+        <v>4.4270833333333336E-2</v>
       </c>
       <c r="K50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" s="4">
         <f>((D50*0.3)+(F50*0.1)+(G50*0.3)+(J50*0.1)+(K50*0.1)+(L50*0.1))</f>
-        <v>0.19520190083961309</v>
-      </c>
-      <c r="N50"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.25064773938852813</v>
+      </c>
+      <c r="N50">
+        <v>42</v>
+      </c>
+      <c r="O50">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>429</v>
+        <v>194</v>
       </c>
       <c r="B51" t="s">
-        <v>438</v>
+        <v>193</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="D51" s="1">
         <f>(C51-2)/(108622-2)</f>
-        <v>0</v>
+        <v>1.2704842570429018E-3</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F51" s="1">
-        <v>0</v>
+        <v>1.415929203539823E-3</v>
       </c>
       <c r="G51" s="2">
-        <v>0.28002160799999998</v>
+        <v>0.36410969199999998</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J51" s="2">
         <f>I51/384</f>
-        <v>0</v>
+        <v>2.8645833333333332E-2</v>
       </c>
       <c r="K51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" s="4">
         <f>((D51*0.3)+(F51*0.1)+(G51*0.3)+(J51*0.1)+(K51*0.1)+(L51*0.1))</f>
-        <v>0.1840064824</v>
-      </c>
-      <c r="N51"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.2126202291308002</v>
+      </c>
+      <c r="N51">
+        <v>46</v>
+      </c>
+      <c r="O51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>426</v>
+        <v>300</v>
       </c>
       <c r="B52" t="s">
-        <v>396</v>
+        <v>299</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D52" s="1">
         <f>(C52-2)/(108622-2)</f>
-        <v>9.2064076597311737E-6</v>
+        <v>2.0254096851408579E-4</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F52" s="1">
-        <v>0</v>
+        <v>1.5732546705998033E-4</v>
       </c>
       <c r="G52" s="2">
-        <v>0.249509697</v>
+        <v>0.52306200300000005</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I52">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="J52" s="2">
         <f>I52/384</f>
-        <v>5.7291666666666664E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -4793,80 +5055,90 @@
       </c>
       <c r="M52" s="4">
         <f>((D52*0.3)+(F52*0.1)+(G52*0.3)+(J52*0.1)+(K52*0.1)+(L52*0.1))</f>
-        <v>0.18058483768896461</v>
-      </c>
-      <c r="N52"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.26741176240392689</v>
+      </c>
+      <c r="N52">
+        <v>36</v>
+      </c>
+      <c r="O52">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>326</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>325</v>
       </c>
       <c r="C53">
-        <v>1411</v>
+        <v>10</v>
       </c>
       <c r="D53" s="1">
         <f>(C53-2)/(108622-2)</f>
-        <v>1.2971828392561223E-2</v>
+        <v>7.3651261277849389E-5</v>
       </c>
       <c r="E53">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="F53" s="1">
-        <v>4.7787610619469028E-3</v>
+        <v>0</v>
       </c>
       <c r="G53" s="2">
-        <v>0.20153628900000001</v>
+        <v>0.94841592199999991</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I53">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J53" s="2">
         <f>I53/384</f>
-        <v>7.2916666666666671E-2</v>
+        <v>0</v>
       </c>
       <c r="K53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="3">
         <v>1</v>
       </c>
       <c r="M53" s="4">
         <f>((D53*0.3)+(F53*0.1)+(G53*0.3)+(J53*0.1)+(K53*0.1)+(L53*0.1))</f>
-        <v>0.17212197799062973</v>
-      </c>
-      <c r="N53"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.48454687197838331</v>
+      </c>
+      <c r="N53">
+        <v>19</v>
+      </c>
+      <c r="O53">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>150</v>
+        <v>332</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>331</v>
       </c>
       <c r="C54">
-        <v>1346</v>
+        <v>3027</v>
       </c>
       <c r="D54" s="1">
         <f>(C54-2)/(108622-2)</f>
-        <v>1.2373411894678697E-2</v>
+        <v>2.7849383170686796E-2</v>
       </c>
       <c r="E54">
-        <v>609</v>
+        <v>1769</v>
       </c>
       <c r="F54" s="1">
-        <v>1.1976401179941002E-2</v>
+        <v>3.478859390363815E-2</v>
       </c>
       <c r="G54" s="2">
-        <v>0.207538106</v>
+        <v>0.95884328600000002</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I54">
         <v>3</v>
@@ -4879,396 +5151,441 @@
         <v>1</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" s="4">
         <f>((D54*0.3)+(F54*0.1)+(G54*0.3)+(J54*0.1)+(K54*0.1)+(L54*0.1))</f>
-        <v>0.1679523454863977</v>
-      </c>
-      <c r="N54"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.50026791014156979</v>
+      </c>
+      <c r="N54">
+        <v>10</v>
+      </c>
+      <c r="O54">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="B55" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="C55">
-        <v>60</v>
+        <v>1255</v>
       </c>
       <c r="D55" s="1">
         <f>(C55-2)/(108622-2)</f>
-        <v>5.3397164426440805E-4</v>
+        <v>1.1535628797643159E-2</v>
       </c>
       <c r="E55">
-        <v>21</v>
+        <v>420</v>
       </c>
       <c r="F55" s="1">
-        <v>4.1297935103244839E-4</v>
+        <v>8.2595870206489674E-3</v>
       </c>
       <c r="G55" s="2">
-        <v>0.19953911200000002</v>
+        <v>0.68244708700000001</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I55">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="J55" s="2">
         <f>I55/384</f>
-        <v>1.3020833333333334E-2</v>
+        <v>0.29427083333333331</v>
       </c>
       <c r="K55" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="3">
         <v>1</v>
       </c>
       <c r="M55" s="4">
         <f>((D55*0.3)+(F55*0.1)+(G55*0.3)+(J55*0.1)+(K55*0.1)+(L55*0.1))</f>
-        <v>0.16136530636171592</v>
-      </c>
-      <c r="N55"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.43844785677469111</v>
+      </c>
+      <c r="N55">
+        <v>22</v>
+      </c>
+      <c r="O55">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="B56" t="s">
-        <v>249</v>
+        <v>339</v>
       </c>
       <c r="C56">
-        <v>1180</v>
+        <v>11089</v>
       </c>
       <c r="D56" s="1">
         <f>(C56-2)/(108622-2)</f>
-        <v>1.0845148223163322E-2</v>
+        <v>0.10207144172343952</v>
       </c>
       <c r="E56">
-        <v>814</v>
+        <v>5089</v>
       </c>
       <c r="F56" s="1">
-        <v>1.6007866273352999E-2</v>
+        <v>0.10007866273352999</v>
       </c>
       <c r="G56" s="2">
-        <v>0.16055561200000001</v>
+        <v>0.94308672100000002</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J56" s="2">
         <f>I56/384</f>
-        <v>2.6041666666666665E-3</v>
+        <v>3.3854166666666664E-2</v>
       </c>
       <c r="K56" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="3">
         <v>1</v>
       </c>
       <c r="M56" s="4">
         <f>((D56*0.3)+(F56*0.1)+(G56*0.3)+(J56*0.1)+(K56*0.1)+(L56*0.1))</f>
-        <v>0.15328143136095096</v>
-      </c>
-      <c r="N56"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.52694073175705147</v>
+      </c>
+      <c r="N56">
+        <v>8</v>
+      </c>
+      <c r="O56">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>272</v>
+        <v>350</v>
       </c>
       <c r="B57" t="s">
-        <v>271</v>
+        <v>349</v>
       </c>
       <c r="C57">
-        <v>1220</v>
+        <v>33</v>
       </c>
       <c r="D57" s="1">
         <f>(C57-2)/(108622-2)</f>
-        <v>1.1213404529552568E-2</v>
+        <v>2.8539863745166634E-4</v>
       </c>
       <c r="E57">
-        <v>256</v>
+        <v>9</v>
       </c>
       <c r="F57" s="1">
-        <v>5.0344149459193707E-3</v>
+        <v>1.7699115044247788E-4</v>
       </c>
       <c r="G57" s="2">
-        <v>0.45997524199999995</v>
+        <v>0.31265499599999996</v>
       </c>
       <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
         <v>5</v>
-      </c>
-      <c r="I57">
-        <v>7</v>
       </c>
       <c r="J57" s="2">
         <f>I57/384</f>
-        <v>1.8229166666666668E-2</v>
+        <v>1.3020833333333334E-2</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" s="4">
         <f>((D57*0.3)+(F57*0.1)+(G57*0.3)+(J57*0.1)+(K57*0.1)+(L57*0.1))</f>
-        <v>0.14368295212012436</v>
-      </c>
-      <c r="N57"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.19520190083961309</v>
+      </c>
+      <c r="N57">
+        <v>49</v>
+      </c>
+      <c r="O57">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>348</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>347</v>
       </c>
       <c r="C58">
-        <v>53</v>
+        <v>6465</v>
       </c>
       <c r="D58" s="1">
         <f>(C58-2)/(108622-2)</f>
-        <v>4.6952679064628982E-4</v>
+        <v>5.9501012704842572E-2</v>
       </c>
       <c r="E58">
-        <v>23</v>
+        <v>1329</v>
       </c>
       <c r="F58" s="1">
-        <v>4.5231071779744348E-4</v>
+        <v>2.6135693215339234E-2</v>
       </c>
       <c r="G58" s="2">
-        <v>0.40987434</v>
+        <v>0.20160347000000001</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I58">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="J58" s="2">
         <f>I58/384</f>
-        <v>1.8229166666666668E-2</v>
+        <v>6.7708333333333329E-2</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" s="4">
         <f>((D58*0.3)+(F58*0.1)+(G58*0.3)+(J58*0.1)+(K58*0.1)+(L58*0.1))</f>
-        <v>0.12497130777564029</v>
-      </c>
-      <c r="N58"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.28771574746632</v>
+      </c>
+      <c r="N58">
+        <v>33</v>
+      </c>
+      <c r="O58">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C59">
-        <v>14192</v>
+        <v>916</v>
       </c>
       <c r="D59" s="1">
         <f>(C59-2)/(108622-2)</f>
-        <v>0.13063892469158533</v>
+        <v>8.4146566009942921E-3</v>
       </c>
       <c r="E59">
-        <v>2157</v>
+        <v>428</v>
       </c>
       <c r="F59" s="1">
-        <v>4.2418879056047194E-2</v>
+        <v>8.4169124877089482E-3</v>
       </c>
       <c r="G59" s="2">
-        <v>0.211732798</v>
+        <v>0.8396049659999999</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I59">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J59" s="2">
         <f>I59/384</f>
-        <v>4.4270833333333336E-2</v>
+        <v>5.208333333333333E-3</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" s="4">
         <f>((D59*0.3)+(F59*0.1)+(G59*0.3)+(J59*0.1)+(K59*0.1)+(L59*0.1))</f>
-        <v>0.11138048804641365</v>
-      </c>
-      <c r="N59"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.45576841136240254</v>
+      </c>
+      <c r="N59">
+        <v>21</v>
+      </c>
+      <c r="O59">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>355</v>
+        <v>431</v>
       </c>
       <c r="B60" t="s">
-        <v>354</v>
+        <v>116</v>
       </c>
       <c r="C60">
-        <v>75</v>
+        <v>4530</v>
       </c>
       <c r="D60" s="1">
         <f>(C60-2)/(108622-2)</f>
-        <v>6.7206775916037566E-4</v>
+        <v>4.1686613883262752E-2</v>
       </c>
       <c r="E60">
-        <v>20</v>
+        <v>1481</v>
       </c>
       <c r="F60" s="1">
-        <v>3.9331366764995085E-4</v>
+        <v>2.9124877089478859E-2</v>
       </c>
       <c r="G60" s="2">
-        <v>3.1623552999999999E-2</v>
+        <v>0.84022306999999985</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="J60" s="2">
         <f>I60/384</f>
-        <v>2.6041666666666665E-3</v>
+        <v>0.25520833333333331</v>
       </c>
       <c r="K60" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="3">
         <v>1</v>
       </c>
       <c r="M60" s="4">
         <f>((D60*0.3)+(F60*0.1)+(G60*0.3)+(J60*0.1)+(K60*0.1)+(L60*0.1))</f>
-        <v>0.10998843426117978</v>
-      </c>
-      <c r="N60"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.49300622620725998</v>
+      </c>
+      <c r="N60">
+        <v>13</v>
+      </c>
+      <c r="O60">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>204</v>
+        <v>432</v>
       </c>
       <c r="B61" t="s">
-        <v>203</v>
+        <v>351</v>
       </c>
       <c r="C61">
-        <v>19</v>
+        <v>27409</v>
       </c>
       <c r="D61" s="1">
         <f>(C61-2)/(108622-2)</f>
-        <v>1.5650893021542994E-4</v>
+        <v>0.25232001473025223</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>9695</v>
       </c>
       <c r="F61" s="1">
-        <v>0</v>
+        <v>0.19065880039331368</v>
       </c>
       <c r="G61" s="2">
-        <v>0.36237256700000003</v>
+        <v>0.87482138799999998</v>
       </c>
       <c r="H61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="J61" s="2">
         <f>I61/384</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="4">
         <f>((D61*0.3)+(F61*0.1)+(G61*0.3)+(J61*0.1)+(K61*0.1)+(L61*0.1))</f>
-        <v>0.10875872277906463</v>
-      </c>
-      <c r="N61"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.557208300858407</v>
+      </c>
+      <c r="N61">
+        <v>5</v>
+      </c>
+      <c r="O61">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>176</v>
+        <v>355</v>
       </c>
       <c r="B62" t="s">
-        <v>175</v>
+        <v>354</v>
       </c>
       <c r="C62">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D62" s="1">
         <f>(C62-2)/(108622-2)</f>
-        <v>3.6825630638924689E-4</v>
+        <v>6.7206775916037566E-4</v>
       </c>
       <c r="E62">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F62" s="1">
-        <v>2.5565388397246803E-4</v>
+        <v>3.9331366764995085E-4</v>
       </c>
       <c r="G62" s="2">
-        <v>0.33528630199999998</v>
+        <v>3.1623552999999999E-2</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I62">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J62" s="2">
         <f>I62/384</f>
-        <v>2.8645833333333332E-2</v>
+        <v>2.6041666666666665E-3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" s="4">
         <f>((D62*0.3)+(F62*0.1)+(G62*0.3)+(J62*0.1)+(K62*0.1)+(L62*0.1))</f>
-        <v>0.10358651621364735</v>
-      </c>
-      <c r="N62"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.10998843426117978</v>
+      </c>
+      <c r="N62">
+        <v>59</v>
+      </c>
+      <c r="O62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>164</v>
+        <v>359</v>
       </c>
       <c r="B63" t="s">
-        <v>163</v>
+        <v>358</v>
       </c>
       <c r="C63">
-        <v>25</v>
+        <v>1545</v>
       </c>
       <c r="D63" s="1">
         <f>(C63-2)/(108622-2)</f>
-        <v>2.1174737617381698E-4</v>
+        <v>1.42054870189652E-2</v>
       </c>
       <c r="E63">
-        <v>10</v>
+        <v>878</v>
       </c>
       <c r="F63" s="1">
-        <v>1.9665683382497542E-4</v>
+        <v>1.7266470009832842E-2</v>
       </c>
       <c r="G63" s="2">
-        <v>0.32043033999999998</v>
+        <v>0.16534326200000002</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -5281,153 +5598,173 @@
         <v>2.6041666666666665E-3</v>
       </c>
       <c r="K63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" s="4">
         <f>((D63*0.3)+(F63*0.1)+(G63*0.3)+(J63*0.1)+(K63*0.1)+(L63*0.1))</f>
-        <v>9.6472708562901299E-2</v>
-      </c>
-      <c r="N63"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.25585168837333949</v>
+      </c>
+      <c r="N63">
+        <v>40</v>
+      </c>
+      <c r="O63">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>236</v>
+        <v>430</v>
       </c>
       <c r="B64" t="s">
-        <v>235</v>
+        <v>364</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>18214</v>
       </c>
       <c r="D64" s="1">
         <f>(C64-2)/(108622-2)</f>
-        <v>0</v>
+        <v>0.16766709629902413</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" s="1">
-        <v>1.9665683382497542E-5</v>
+        <v>0</v>
       </c>
       <c r="G64" s="2">
-        <v>0.21332020700000001</v>
+        <v>0.95899510499999996</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I64">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="J64" s="2">
         <f>I64/384</f>
-        <v>0.10677083333333333</v>
+        <v>0</v>
       </c>
       <c r="K64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" s="4">
         <f>((D64*0.3)+(F64*0.1)+(G64*0.3)+(J64*0.1)+(K64*0.1)+(L64*0.1))</f>
-        <v>7.4675112001671581E-2</v>
-      </c>
-      <c r="N64"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.53799866038970723</v>
+      </c>
+      <c r="N64">
+        <v>6</v>
+      </c>
+      <c r="O64">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>11</v>
+        <v>371</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>370</v>
       </c>
       <c r="C65">
-        <v>475</v>
+        <v>60</v>
       </c>
       <c r="D65" s="1">
         <f>(C65-2)/(108622-2)</f>
-        <v>4.3546308230528446E-3</v>
+        <v>5.3397164426440805E-4</v>
       </c>
       <c r="E65">
-        <v>168</v>
+        <v>21</v>
       </c>
       <c r="F65" s="1">
-        <v>3.3038348082595871E-3</v>
+        <v>4.1297935103244839E-4</v>
       </c>
       <c r="G65" s="2">
-        <v>0.20038133699999999</v>
+        <v>0.19953911200000002</v>
       </c>
       <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
         <v>5</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
       </c>
       <c r="J65" s="2">
         <f>I65/384</f>
-        <v>0</v>
+        <v>1.3020833333333334E-2</v>
       </c>
       <c r="K65" s="3">
         <v>0</v>
       </c>
       <c r="L65" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" s="4">
         <f>((D65*0.3)+(F65*0.1)+(G65*0.3)+(J65*0.1)+(K65*0.1)+(L65*0.1))</f>
-        <v>6.1751173827741805E-2</v>
-      </c>
-      <c r="N65"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.16136530636171592</v>
+      </c>
+      <c r="N65">
+        <v>54</v>
+      </c>
+      <c r="O65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>426</v>
       </c>
       <c r="B66" t="s">
-        <v>98</v>
+        <v>396</v>
       </c>
       <c r="C66">
-        <v>2603</v>
+        <v>3</v>
       </c>
       <c r="D66" s="1">
         <f>(C66-2)/(108622-2)</f>
-        <v>2.3945866322960779E-2</v>
+        <v>9.2064076597311737E-6</v>
       </c>
       <c r="E66">
-        <v>612</v>
+        <v>0</v>
       </c>
       <c r="F66" s="1">
-        <v>1.2035398230088496E-2</v>
+        <v>0</v>
       </c>
       <c r="G66" s="2">
-        <v>0.13824662599999998</v>
+        <v>0.249509697</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J66" s="2">
         <f>I66/384</f>
-        <v>1.5625E-2</v>
+        <v>5.7291666666666664E-2</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
       </c>
       <c r="L66" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" s="4">
         <f>((D66*0.3)+(F66*0.1)+(G66*0.3)+(J66*0.1)+(K66*0.1)+(L66*0.1))</f>
-        <v>5.1423787519897075E-2</v>
-      </c>
-      <c r="N66"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.18058483768896461</v>
+      </c>
+      <c r="N66">
+        <v>51</v>
+      </c>
+      <c r="O66">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C67">
         <f>SUM(C2:C66)</f>
         <v>422803</v>
@@ -5437,21 +5774,20 @@
         <v>132342</v>
       </c>
       <c r="M67" s="4"/>
-      <c r="N67"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F68" s="1">
         <f>AVERAGE(E2:E66)</f>
         <v>2036.0307692307692</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F69" s="1">
         <f>_xlfn.STDEV.P(E2:E66)</f>
         <v>6579.0904210448443</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L70" s="3" t="s">
         <v>448</v>
       </c>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikna\Desktop\Politics of Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667E0A13-3190-44DF-AAB7-DFE332A7DE3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AD06AD-D8AC-4B63-8C57-D51360A3AF5E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shortlist" sheetId="8" r:id="rId1"/>
-    <sheet name="longlist" sheetId="6" r:id="rId2"/>
-    <sheet name="County-CC" sheetId="9" r:id="rId3"/>
-    <sheet name="CC" sheetId="10" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId2"/>
+    <sheet name="longlist" sheetId="6" r:id="rId3"/>
+    <sheet name="County-CC" sheetId="9" r:id="rId4"/>
+    <sheet name="CC" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="454">
   <si>
     <t>AD</t>
   </si>
@@ -1408,6 +1408,15 @@
   </si>
   <si>
     <t>Rank (Least First)</t>
+  </si>
+  <si>
+    <t>Ips per Nation</t>
+  </si>
+  <si>
+    <t>Botnet Hits Per IP</t>
+  </si>
+  <si>
+    <t>Signature Hits Per IP</t>
   </si>
 </sst>
 </file>
@@ -1918,12 +1927,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2096,34 +2106,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{442F76CE-3F66-42BB-AD05-A29D1E28F0FF}" name="Table3" displayName="Table3" ref="A1:O67" totalsRowCount="1">
-  <autoFilter ref="A1:O66" xr:uid="{5D7A7C19-206F-4AA4-8764-1A67075BA007}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{442F76CE-3F66-42BB-AD05-A29D1E28F0FF}" name="Table3" displayName="Table3" ref="A1:R67" totalsRowCount="1">
+  <autoFilter ref="A1:R66" xr:uid="{5D7A7C19-206F-4AA4-8764-1A67075BA007}"/>
+  <sortState ref="A2:R66">
     <sortCondition ref="A1:A66"/>
   </sortState>
-  <tableColumns count="15">
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6CAE0BB8-B52D-4A20-9ADF-6A97394DE9AD}" name="Country"/>
     <tableColumn id="8" xr3:uid="{9FD562AD-2C1B-4728-B765-378E325849FB}" name="CC"/>
+    <tableColumn id="14" xr3:uid="{FF856217-0361-4129-8C41-EA5770F1CABE}" name="Ips per Nation"/>
     <tableColumn id="3" xr3:uid="{86336C1B-8263-4341-ABC1-0904C1B77BC8}" name="Mirai Botnet Hits" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(C2:C66)</totalsRowFormula>
+      <totalsRowFormula>SUM(D2:D66)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{1E95DADB-7CF5-4583-BF8D-1A1063516CD7}" name="Botnet Hits Per IP" totalsRowFunction="custom">
+      <calculatedColumnFormula>D2/C2</calculatedColumnFormula>
+      <totalsRowFormula>MIN(E2:E31,E33:E66)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{CB13608A-F47A-4117-81FF-E4B85539B69D}" name="Mirai Botnet Hits Normalised" dataDxfId="13" totalsRowDxfId="6">
-      <calculatedColumnFormula>(C2-2)/(108622-2)</calculatedColumnFormula>
+      <calculatedColumnFormula>(E2-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{3CED1D76-1951-4C3A-814D-035739A9FCBB}" name="Mirai-Like Signature Hits" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(E2:E66)</totalsRowFormula>
+      <totalsRowFormula>SUM(G2:G66)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{CB08F8B3-73D8-4C99-A366-FA8017EE0D03}" name="Mirai-Like Normalised" dataDxfId="12" totalsRowDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{DB63B8B2-A67F-4DF4-9404-9BED1A77B912}" name="Signature Hits Per IP" totalsRowFunction="custom">
+      <calculatedColumnFormula>G2/C2</calculatedColumnFormula>
+      <totalsRowFormula>MIN(H2:H31,H33:H39,H41:H50,H53:H66)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{CB08F8B3-73D8-4C99-A366-FA8017EE0D03}" name="Mirai-Like Normalised" dataDxfId="12" totalsRowDxfId="5">
+      <calculatedColumnFormula>(H2-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="4" xr3:uid="{49EB2CD0-3630-48AA-8368-2CEFFC08A8D6}" name="Information Exposure from dependencies" dataDxfId="11" totalsRowDxfId="4"/>
     <tableColumn id="11" xr3:uid="{E090A22D-FB18-4748-A91D-414C31BC34CD}" name="Exposure to major surveillance scheme by proximity (Not used)"/>
     <tableColumn id="9" xr3:uid="{073C29FB-BAA7-451E-AA1E-76930F6E46F7}" name="BGP Hijacks"/>
     <tableColumn id="10" xr3:uid="{036D57D5-B326-42ED-8FFD-747DA6B50910}" name="BGP Hijacks Normalised" dataDxfId="10" totalsRowDxfId="3">
-      <calculatedColumnFormula>I2/384</calculatedColumnFormula>
+      <calculatedColumnFormula>L2/384</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{0A948547-E070-4D9E-A4DC-3394201B9DF2}" name="Any Internet/Telecom *mass* surveillance (Impossible to fully quantify)" dataDxfId="9" totalsRowDxfId="2"/>
     <tableColumn id="5" xr3:uid="{E8D3BBBC-FD07-4637-8DED-2FE5C7491C7E}" name="Citizens arrested over political social media posts (Impossible to fully quantify)" dataDxfId="8" totalsRowDxfId="1"/>
     <tableColumn id="13" xr3:uid="{D262404C-D46A-4B2C-B752-DCB3E9DDEB6B}" name="Ranking" dataDxfId="7" totalsRowDxfId="0">
-      <calculatedColumnFormula>((D2*0.3)+(F2*0.1)+(G2*0.3)+(J2*0.1)+(K2*0.1)+(L2*0.1))</calculatedColumnFormula>
+      <calculatedColumnFormula>((F2*0.3)+(I2*0.2)+(J2*0.2)+(M2*0.1)+(N2*0.1)+(O2*0.1))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" xr3:uid="{44793A50-3D54-444C-9EBC-D54795E726A2}" name="Rank (Most Malicious Routing First)"/>
     <tableColumn id="16" xr3:uid="{11DBCDCC-D62D-43BF-881E-5F64FBFFD0D1}" name="Rank (Least First)"/>
@@ -2135,7 +2156,7 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F3F186C1-4BC8-4073-9AAE-9C4BD46845C3}" name="Table1" displayName="Table1" ref="A1:D1048576" totalsRowShown="0">
   <autoFilter ref="A1:D1048576" xr:uid="{07CFB2B1-7468-43FC-A356-3280593350B7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C214">
+  <sortState ref="A2:C214">
     <sortCondition ref="A1:A1048576"/>
   </sortState>
   <tableColumns count="4">
@@ -2445,30 +2466,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA10CC7E-88B4-4460-87C0-163097071846}">
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:R70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="24.7109375" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="2" max="3" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="8" width="7.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" style="3" customWidth="1"/>
+    <col min="16" max="16" width="24.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>400</v>
       </c>
@@ -2476,46 +2498,55 @@
         <v>435</v>
       </c>
       <c r="C1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1" t="s">
         <v>440</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>442</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" t="s">
+        <v>453</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>441</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>399</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>449</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2523,49 +2554,61 @@
         <v>12</v>
       </c>
       <c r="C2">
+        <v>1072896</v>
+      </c>
+      <c r="D2">
         <v>14</v>
       </c>
-      <c r="D2" s="1">
-        <f>(C2-2)/(108622-2)</f>
-        <v>1.1047689191677407E-4</v>
-      </c>
       <c r="E2">
+        <f>D2/C2</f>
+        <v>1.3048795036984014E-5</v>
+      </c>
+      <c r="F2" s="1">
+        <f>(E2-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>3.1708282959700316E-3</v>
+      </c>
+      <c r="G2">
         <v>9</v>
       </c>
-      <c r="F2" s="1">
-        <v>1.7699115044247788E-4</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="H2">
+        <f>G2/C2</f>
+        <v>8.3885110952040091E-6</v>
+      </c>
+      <c r="I2" s="1">
+        <f>(H2-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>2.6350969467868815E-3</v>
+      </c>
+      <c r="J2" s="2">
         <v>0.33687151900000001</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>77</v>
       </c>
-      <c r="J2" s="2">
-        <f>I2/384</f>
+      <c r="M2" s="2">
+        <f>L2/384</f>
         <v>0.20052083333333334</v>
       </c>
-      <c r="K2" s="3">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3">
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
         <v>0</v>
       </c>
-      <c r="M2" s="4">
-        <f>((D2*0.3)+(F2*0.1)+(G2*0.3)+(J2*0.1)+(K2*0.1)+(L2*0.1))</f>
-        <v>0.22116438121595261</v>
-      </c>
-      <c r="N2">
-        <v>45</v>
-      </c>
-      <c r="O2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="4">
+        <f>((F2*0.3)+(I2*0.2)+(J2*0.2)+(M2*0.1)+(N2*0.1)+(O2*0.1))</f>
+        <v>0.18890465501148174</v>
+      </c>
+      <c r="Q2">
+        <v>55</v>
+      </c>
+      <c r="R2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2573,49 +2616,61 @@
         <v>14</v>
       </c>
       <c r="C3">
+        <v>18790144</v>
+      </c>
+      <c r="D3">
         <v>14192</v>
       </c>
-      <c r="D3" s="1">
-        <f>(C3-2)/(108622-2)</f>
-        <v>0.13063892469158533</v>
-      </c>
       <c r="E3">
+        <f>D3/C3</f>
+        <v>7.5528958160192919E-4</v>
+      </c>
+      <c r="F3" s="1">
+        <f>(E3-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.32960147867154899</v>
+      </c>
+      <c r="G3">
         <v>2157</v>
       </c>
-      <c r="F3" s="1">
-        <v>4.2418879056047194E-2</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="H3">
+        <f>G3/C3</f>
+        <v>1.147942240357498E-4</v>
+      </c>
+      <c r="I3" s="1">
+        <f>(H3-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.1238072644287336</v>
+      </c>
+      <c r="J3" s="2">
         <v>0.211732798</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>17</v>
       </c>
-      <c r="J3" s="2">
-        <f>I3/384</f>
+      <c r="M3" s="2">
+        <f>L3/384</f>
         <v>4.4270833333333336E-2</v>
       </c>
-      <c r="K3" s="3">
+      <c r="N3" s="3">
         <v>0</v>
       </c>
-      <c r="L3" s="3">
+      <c r="O3" s="3">
         <v>0</v>
       </c>
-      <c r="M3" s="4">
-        <f>((D3*0.3)+(F3*0.1)+(G3*0.3)+(J3*0.1)+(K3*0.1)+(L3*0.1))</f>
-        <v>0.11138048804641365</v>
-      </c>
-      <c r="N3">
+      <c r="P3" s="4">
+        <f>((F3*0.3)+(I3*0.2)+(J3*0.2)+(M3*0.1)+(N3*0.1)+(O3*0.1))</f>
+        <v>0.17041553942054474</v>
+      </c>
+      <c r="Q3">
         <v>58</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2623,49 +2678,61 @@
         <v>10</v>
       </c>
       <c r="C4">
+        <v>611104</v>
+      </c>
+      <c r="D4">
         <v>475</v>
       </c>
-      <c r="D4" s="1">
-        <f>(C4-2)/(108622-2)</f>
-        <v>4.3546308230528446E-3</v>
-      </c>
       <c r="E4">
+        <f>D4/C4</f>
+        <v>7.772817720060743E-4</v>
+      </c>
+      <c r="F4" s="1">
+        <f>(E4-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.33927344112194513</v>
+      </c>
+      <c r="G4">
         <v>168</v>
       </c>
-      <c r="F4" s="1">
-        <v>3.3038348082595871E-3</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="H4">
+        <f>G4/C4</f>
+        <v>2.7491228988846413E-4</v>
+      </c>
+      <c r="I4" s="1">
+        <f>(H4-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.30614571747054786</v>
+      </c>
+      <c r="J4" s="2">
         <v>0.20038133699999999</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>5</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>0</v>
       </c>
-      <c r="J4" s="2">
-        <f>I4/384</f>
+      <c r="M4" s="2">
+        <f>L4/384</f>
         <v>0</v>
       </c>
-      <c r="K4" s="3">
+      <c r="N4" s="3">
         <v>0</v>
       </c>
-      <c r="L4" s="3">
+      <c r="O4" s="3">
         <v>0</v>
       </c>
-      <c r="M4" s="4">
-        <f>((D4*0.3)+(F4*0.1)+(G4*0.3)+(J4*0.1)+(K4*0.1)+(L4*0.1))</f>
-        <v>6.1751173827741805E-2</v>
-      </c>
-      <c r="N4">
-        <v>64</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" s="4">
+        <f>((F4*0.3)+(I4*0.2)+(J4*0.2)+(M4*0.1)+(N4*0.1)+(O4*0.1))</f>
+        <v>0.20308744323069311</v>
+      </c>
+      <c r="Q4">
+        <v>51</v>
+      </c>
+      <c r="R4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2673,49 +2740,61 @@
         <v>18</v>
       </c>
       <c r="C5">
+        <v>48478976</v>
+      </c>
+      <c r="D5">
         <v>1695</v>
       </c>
-      <c r="D5" s="1">
-        <f>(C5-2)/(108622-2)</f>
-        <v>1.5586448167924876E-2</v>
-      </c>
       <c r="E5">
+        <f>D5/C5</f>
+        <v>3.4963609792418055E-5</v>
+      </c>
+      <c r="F5" s="1">
+        <f>(E5-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>1.280876164989349E-2</v>
+      </c>
+      <c r="G5">
         <v>561</v>
       </c>
-      <c r="F5" s="1">
-        <v>1.1032448377581121E-2</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="H5">
+        <f>G5/C5</f>
+        <v>1.157202660386226E-5</v>
+      </c>
+      <c r="I5" s="1">
+        <f>(H5-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>6.2604048718609062E-3</v>
+      </c>
+      <c r="J5" s="2">
         <v>0.95953077900000017</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>4</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>7</v>
       </c>
-      <c r="J5" s="2">
-        <f>I5/384</f>
+      <c r="M5" s="2">
+        <f>L5/384</f>
         <v>1.8229166666666668E-2</v>
       </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-      <c r="M5" s="4">
-        <f>((D5*0.3)+(F5*0.1)+(G5*0.3)+(J5*0.1)+(K5*0.1)+(L5*0.1))</f>
-        <v>0.49546132965480227</v>
-      </c>
-      <c r="N5">
-        <v>12</v>
-      </c>
-      <c r="O5">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4">
+        <f>((F5*0.3)+(I5*0.2)+(J5*0.2)+(M5*0.1)+(N5*0.1)+(O5*0.1))</f>
+        <v>0.39882378193600698</v>
+      </c>
+      <c r="Q5">
+        <v>20</v>
+      </c>
+      <c r="R5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2723,49 +2802,61 @@
         <v>22</v>
       </c>
       <c r="C6">
+        <v>713728</v>
+      </c>
+      <c r="D6">
         <v>122</v>
       </c>
-      <c r="D6" s="1">
-        <f>(C6-2)/(108622-2)</f>
-        <v>1.1047689191677407E-3</v>
-      </c>
       <c r="E6">
+        <f>D6/C6</f>
+        <v>1.7093346484935439E-4</v>
+      </c>
+      <c r="F6" s="1">
+        <f>(E6-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>7.2607049511598479E-2</v>
+      </c>
+      <c r="G6">
+        <v>44</v>
+      </c>
+      <c r="H6">
+        <f>G6/C6</f>
+        <v>6.1648134863701576E-5</v>
+      </c>
+      <c r="I6" s="1">
+        <f>(H6-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>6.3285825868717963E-2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.74409338699999994</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
+      <c r="M6" s="2">
+        <f>L6/384</f>
         <v>0</v>
       </c>
-      <c r="G6" s="2">
-        <v>0.74409338699999994</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
+      <c r="N6" s="3">
         <v>0</v>
       </c>
-      <c r="J6" s="2">
-        <f>I6/384</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4">
-        <f>((D6*0.3)+(F6*0.1)+(G6*0.3)+(J6*0.1)+(K6*0.1)+(L6*0.1))</f>
-        <v>0.32355944677575033</v>
-      </c>
-      <c r="N6">
-        <v>30</v>
-      </c>
-      <c r="O6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4">
+        <f>((F6*0.3)+(I6*0.2)+(J6*0.2)+(M6*0.1)+(N6*0.1)+(O6*0.1))</f>
+        <v>0.28325795742722315</v>
+      </c>
+      <c r="Q6">
+        <v>39</v>
+      </c>
+      <c r="R6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -2773,49 +2864,61 @@
         <v>36</v>
       </c>
       <c r="C7">
+        <v>802441</v>
+      </c>
+      <c r="D7">
         <v>118</v>
       </c>
-      <c r="D7" s="1">
-        <f>(C7-2)/(108622-2)</f>
-        <v>1.0679432885288161E-3</v>
-      </c>
       <c r="E7">
+        <f>D7/C7</f>
+        <v>1.4705130969130441E-4</v>
+      </c>
+      <c r="F7" s="1">
+        <f>(E7-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>6.2103897998338681E-2</v>
+      </c>
+      <c r="G7">
         <v>41</v>
       </c>
-      <c r="F7" s="1">
-        <v>8.0629301868239919E-4</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="H7">
+        <f>G7/C7</f>
+        <v>5.1094099130029498E-5</v>
+      </c>
+      <c r="I7" s="1">
+        <f>(H7-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>5.1267153654703253E-2</v>
+      </c>
+      <c r="J7" s="2">
         <v>0.77228255299999993</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>6</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
-        <f>I7/384</f>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <f>L7/384</f>
         <v>2.6041666666666665E-3</v>
       </c>
-      <c r="K7" s="3">
-        <v>1</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-      <c r="M7" s="4">
-        <f>((D7*0.3)+(F7*0.1)+(G7*0.3)+(J7*0.1)+(K7*0.1)+(L7*0.1))</f>
-        <v>0.43234619485509351</v>
-      </c>
-      <c r="N7">
-        <v>23</v>
-      </c>
-      <c r="O7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4">
+        <f>((F7*0.3)+(I7*0.2)+(J7*0.2)+(M7*0.1)+(N7*0.1)+(O7*0.1))</f>
+        <v>0.38360152739710895</v>
+      </c>
+      <c r="Q7">
+        <v>25</v>
+      </c>
+      <c r="R7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -2823,49 +2926,61 @@
         <v>28</v>
       </c>
       <c r="C8">
+        <v>1041408</v>
+      </c>
+      <c r="D8">
         <v>1411</v>
       </c>
-      <c r="D8" s="1">
-        <f>(C8-2)/(108622-2)</f>
-        <v>1.2971828392561223E-2</v>
-      </c>
       <c r="E8">
+        <f>D8/C8</f>
+        <v>1.354896447885939E-3</v>
+      </c>
+      <c r="F8" s="1">
+        <f>(E8-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.5933030467793613</v>
+      </c>
+      <c r="G8">
         <v>243</v>
       </c>
-      <c r="F8" s="1">
-        <v>4.7787610619469028E-3</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="H8">
+        <f>G8/C8</f>
+        <v>2.3333794247787612E-4</v>
+      </c>
+      <c r="I8" s="1">
+        <f>(H8-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.25880188932286935</v>
+      </c>
+      <c r="J8" s="2">
         <v>0.20153628900000001</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>28</v>
       </c>
-      <c r="J8" s="2">
-        <f>I8/384</f>
+      <c r="M8" s="2">
+        <f>L8/384</f>
         <v>7.2916666666666671E-2</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3">
-        <v>1</v>
-      </c>
-      <c r="M8" s="4">
-        <f>((D8*0.3)+(F8*0.1)+(G8*0.3)+(J8*0.1)+(K8*0.1)+(L8*0.1))</f>
-        <v>0.17212197799062973</v>
-      </c>
-      <c r="N8">
-        <v>52</v>
-      </c>
-      <c r="O8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4">
+        <f>((F8*0.3)+(I8*0.2)+(J8*0.2)+(M8*0.1)+(N8*0.1)+(O8*0.1))</f>
+        <v>0.37735021636504895</v>
+      </c>
+      <c r="Q8">
+        <v>26</v>
+      </c>
+      <c r="R8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -2873,49 +2988,61 @@
         <v>56</v>
       </c>
       <c r="C9">
+        <v>1826816</v>
+      </c>
+      <c r="D9">
         <v>193</v>
       </c>
-      <c r="D9" s="1">
-        <f>(C9-2)/(108622-2)</f>
-        <v>1.758423863008654E-3</v>
-      </c>
       <c r="E9">
+        <f>D9/C9</f>
+        <v>1.0564829736547085E-4</v>
+      </c>
+      <c r="F9" s="1">
+        <f>(E9-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>4.3895235141669611E-2</v>
+      </c>
+      <c r="G9">
         <v>63</v>
       </c>
-      <c r="F9" s="1">
-        <v>1.2389380530973451E-3</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="H9">
+        <f>G9/C9</f>
+        <v>3.4486231782511209E-5</v>
+      </c>
+      <c r="I9" s="1">
+        <f>(H9-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>3.2354529246313872E-2</v>
+      </c>
+      <c r="J9" s="2">
         <v>0.21544893199999998</v>
       </c>
-      <c r="H9">
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <v>4</v>
       </c>
-      <c r="J9" s="2">
-        <f>I9/384</f>
+      <c r="M9" s="2">
+        <f>L9/384</f>
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="K9" s="3">
-        <v>1</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1</v>
-      </c>
-      <c r="M9" s="4">
-        <f>((D9*0.3)+(F9*0.1)+(G9*0.3)+(J9*0.1)+(K9*0.1)+(L9*0.1))</f>
-        <v>0.26632776723087903</v>
-      </c>
-      <c r="N9">
-        <v>37</v>
-      </c>
-      <c r="O9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4">
+        <f>((F9*0.3)+(I9*0.2)+(J9*0.2)+(M9*0.1)+(N9*0.1)+(O9*0.1))</f>
+        <v>0.26377092945843034</v>
+      </c>
+      <c r="Q9">
+        <v>43</v>
+      </c>
+      <c r="R9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -2923,49 +3050,61 @@
         <v>50</v>
       </c>
       <c r="C10">
+        <v>81019136</v>
+      </c>
+      <c r="D10">
         <v>25121</v>
       </c>
-      <c r="D10" s="1">
-        <f>(C10-2)/(108622-2)</f>
-        <v>0.23125575400478735</v>
-      </c>
       <c r="E10">
+        <f>D10/C10</f>
+        <v>3.1006255114841017E-4</v>
+      </c>
+      <c r="F10" s="1">
+        <f>(E10-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.13379473812804316</v>
+      </c>
+      <c r="G10">
         <v>9028</v>
       </c>
-      <c r="F10" s="1">
-        <v>0.1775417895771878</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="H10">
+        <f>G10/C10</f>
+        <v>1.11430465020017E-4</v>
+      </c>
+      <c r="I10" s="1">
+        <f>(H10-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.11997669970096352</v>
+      </c>
+      <c r="J10" s="2">
         <v>0.37564697900000005</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>3</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>107</v>
       </c>
-      <c r="J10" s="2">
-        <f>I10/384</f>
+      <c r="M10" s="2">
+        <f>L10/384</f>
         <v>0.27864583333333331</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3">
-        <v>1</v>
-      </c>
-      <c r="M10" s="4">
-        <f>((D10*0.3)+(F10*0.1)+(G10*0.3)+(J10*0.1)+(K10*0.1)+(L10*0.1))</f>
-        <v>0.32768958219248834</v>
-      </c>
-      <c r="N10">
-        <v>29</v>
-      </c>
-      <c r="O10">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4">
+        <f>((F10*0.3)+(I10*0.2)+(J10*0.2)+(M10*0.1)+(N10*0.1)+(O10*0.1))</f>
+        <v>0.26712774051193899</v>
+      </c>
+      <c r="Q10">
+        <v>42</v>
+      </c>
+      <c r="R10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>178</v>
       </c>
@@ -2973,49 +3112,61 @@
         <v>177</v>
       </c>
       <c r="C11">
+        <v>249600</v>
+      </c>
+      <c r="D11">
         <v>569</v>
       </c>
-      <c r="D11" s="1">
-        <f>(C11-2)/(108622-2)</f>
-        <v>5.2200331430675749E-3</v>
-      </c>
       <c r="E11">
+        <f>D11/C11</f>
+        <v>2.2796474358974359E-3</v>
+      </c>
+      <c r="F11" s="1">
+        <f>(E11-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.99999999999999811</v>
+      </c>
+      <c r="G11">
         <v>69</v>
       </c>
-      <c r="F11" s="1">
-        <v>1.3569321533923305E-3</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="H11">
+        <f>G11/C11</f>
+        <v>2.7644230769230768E-4</v>
+      </c>
+      <c r="I11" s="1">
+        <f>(H11-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.30788806351996795</v>
+      </c>
+      <c r="J11" s="2">
         <v>0.576466535</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>5</v>
       </c>
-      <c r="J11" s="2">
-        <f>I11/384</f>
+      <c r="M11" s="2">
+        <f>L11/384</f>
         <v>1.3020833333333334E-2</v>
       </c>
-      <c r="K11" s="3">
+      <c r="N11" s="3">
         <v>0</v>
       </c>
-      <c r="L11" s="3">
-        <v>1</v>
-      </c>
-      <c r="M11" s="4">
-        <f>((D11*0.3)+(F11*0.1)+(G11*0.3)+(J11*0.1)+(K11*0.1)+(L11*0.1))</f>
-        <v>0.27594374699159285</v>
-      </c>
-      <c r="N11">
-        <v>35</v>
-      </c>
-      <c r="O11">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4">
+        <f>((F11*0.3)+(I11*0.2)+(J11*0.2)+(M11*0.1)+(N11*0.1)+(O11*0.1))</f>
+        <v>0.57817300303732633</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -3023,49 +3174,61 @@
         <v>60</v>
       </c>
       <c r="C12">
+        <v>80404992</v>
+      </c>
+      <c r="D12">
         <v>3338</v>
       </c>
-      <c r="D12" s="1">
-        <f>(C12-2)/(108622-2)</f>
-        <v>3.0712575952863194E-2</v>
-      </c>
       <c r="E12">
+        <f>D12/C12</f>
+        <v>4.1514835297788473E-5</v>
+      </c>
+      <c r="F12" s="1">
+        <f>(E12-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>1.5689930188707041E-2</v>
+      </c>
+      <c r="G12">
         <v>1131</v>
       </c>
-      <c r="F12" s="1">
-        <v>2.2241887905604718E-2</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="H12">
+        <f>G12/C12</f>
+        <v>1.406629080940646E-5</v>
+      </c>
+      <c r="I12" s="1">
+        <f>(H12-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>9.1008106330374774E-3</v>
+      </c>
+      <c r="J12" s="2">
         <v>0.91859541299999992</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <v>18</v>
       </c>
-      <c r="J12" s="2">
-        <f>I12/384</f>
+      <c r="M12" s="2">
+        <f>L12/384</f>
         <v>4.6875E-2</v>
       </c>
-      <c r="K12" s="3">
-        <v>1</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1</v>
-      </c>
-      <c r="M12" s="4">
-        <f>((D12*0.3)+(F12*0.1)+(G12*0.3)+(J12*0.1)+(K12*0.1)+(L12*0.1))</f>
-        <v>0.49170408547641942</v>
-      </c>
-      <c r="N12">
-        <v>15</v>
-      </c>
-      <c r="O12">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="4">
+        <f>((F12*0.3)+(I12*0.2)+(J12*0.2)+(M12*0.1)+(N12*0.1)+(O12*0.1))</f>
+        <v>0.39493372378321967</v>
+      </c>
+      <c r="Q12">
+        <v>22</v>
+      </c>
+      <c r="R12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -3073,49 +3236,61 @@
         <v>74</v>
       </c>
       <c r="C13">
+        <v>331979264</v>
+      </c>
+      <c r="D13">
         <v>108622</v>
       </c>
-      <c r="D13" s="1">
-        <f>(C13-2)/(108622-2)</f>
-        <v>1</v>
-      </c>
       <c r="E13">
+        <f>D13/C13</f>
+        <v>3.2719513469371388E-4</v>
+      </c>
+      <c r="F13" s="1">
+        <f>(E13-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.14132949031431105</v>
+      </c>
+      <c r="G13">
         <v>50850</v>
       </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="H13">
+        <f>G13/C13</f>
+        <v>1.5317221740692816E-4</v>
+      </c>
+      <c r="I13" s="1">
+        <f>(H13-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.16751116445327313</v>
+      </c>
+      <c r="J13" s="2">
         <v>0.91036587199999996</v>
       </c>
-      <c r="H13">
+      <c r="K13">
         <v>7</v>
       </c>
-      <c r="I13">
+      <c r="L13">
         <v>84</v>
       </c>
-      <c r="J13" s="2">
-        <f>I13/384</f>
+      <c r="M13" s="2">
+        <f>L13/384</f>
         <v>0.21875</v>
       </c>
-      <c r="K13" s="3">
-        <v>1</v>
-      </c>
-      <c r="L13" s="3">
-        <v>1</v>
-      </c>
-      <c r="M13" s="4">
-        <f>((D13*0.3)+(F13*0.1)+(G13*0.3)+(J13*0.1)+(K13*0.1)+(L13*0.1))</f>
-        <v>0.89498476159999996</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="4">
+        <f>((F13*0.3)+(I13*0.2)+(J13*0.2)+(M13*0.1)+(N13*0.1)+(O13*0.1))</f>
+        <v>0.47984925438494785</v>
+      </c>
+      <c r="Q13">
+        <v>12</v>
+      </c>
+      <c r="R13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -3123,98 +3298,121 @@
         <v>76</v>
       </c>
       <c r="C14">
+        <v>17253096</v>
+      </c>
+      <c r="D14">
         <v>5578</v>
       </c>
-      <c r="D14" s="1">
-        <f>(C14-2)/(108622-2)</f>
-        <v>5.1334929110661023E-2</v>
-      </c>
       <c r="E14">
+        <f>D14/C14</f>
+        <v>3.2330429274838554E-4</v>
+      </c>
+      <c r="F14" s="1">
+        <f>(E14-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.13961833392178777</v>
+      </c>
+      <c r="G14">
         <v>757</v>
       </c>
-      <c r="F14" s="1">
-        <v>1.4886922320550638E-2</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="H14">
+        <f>G14/C14</f>
+        <v>4.387618314996914E-5</v>
+      </c>
+      <c r="I14" s="1">
+        <f>(H14-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>4.3047571267287824E-2</v>
+      </c>
+      <c r="J14" s="2">
         <v>0.29700730400000003</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>3</v>
       </c>
-      <c r="I14">
+      <c r="L14">
         <v>5</v>
       </c>
-      <c r="J14" s="2">
-        <f>I14/384</f>
+      <c r="M14" s="2">
+        <f>L14/384</f>
         <v>1.3020833333333334E-2</v>
       </c>
-      <c r="K14" s="3">
-        <v>1</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="4">
-        <f>((D14*0.3)+(F14*0.1)+(G14*0.3)+(J14*0.1)+(K14*0.1)+(L14*0.1))</f>
-        <v>0.20729344549858669</v>
-      </c>
-      <c r="N14">
-        <v>47</v>
-      </c>
-      <c r="O14">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14" s="4">
+        <f>((F14*0.3)+(I14*0.2)+(J14*0.2)+(M14*0.1)+(N14*0.1)+(O14*0.1))</f>
+        <v>0.21119855856332725</v>
+      </c>
+      <c r="Q14">
+        <v>49</v>
+      </c>
+      <c r="R14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>427</v>
       </c>
       <c r="B15" t="s">
         <v>436</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>257024</v>
+      </c>
+      <c r="D15" t="s">
         <v>444</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" s="1">
+        <f>(E15-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>-2.5679113794029743E-3</v>
+      </c>
+      <c r="G15">
         <v>0</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15">
+        <f>G15/C15</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
         <v>0.364783048</v>
       </c>
-      <c r="H15">
+      <c r="K15">
         <v>3</v>
       </c>
-      <c r="I15">
+      <c r="L15">
         <v>0</v>
       </c>
-      <c r="J15" s="2">
-        <f>I15/384</f>
+      <c r="M15" s="2">
+        <f>L15/384</f>
         <v>0</v>
       </c>
-      <c r="K15" s="3">
-        <v>1</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
-      <c r="M15" s="4">
-        <f>((D15*0.3)+(F15*0.1)+(G15*0.3)+(J15*0.1)+(K15*0.1)+(L15*0.1))</f>
-        <v>0.30943491440000004</v>
-      </c>
-      <c r="N15">
-        <v>31</v>
-      </c>
-      <c r="O15">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="4">
+        <f>((F15*0.3)+(I15*0.2)+(J15*0.2)+(M15*0.1)+(N15*0.1)+(O15*0.1))</f>
+        <v>0.2721862361861791</v>
+      </c>
+      <c r="Q15">
+        <v>41</v>
+      </c>
+      <c r="R15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -3222,49 +3420,61 @@
         <v>98</v>
       </c>
       <c r="C16">
+        <v>2566912</v>
+      </c>
+      <c r="D16">
         <v>2603</v>
       </c>
-      <c r="D16" s="1">
-        <f>(C16-2)/(108622-2)</f>
-        <v>2.3945866322960779E-2</v>
-      </c>
       <c r="E16">
+        <f>D16/C16</f>
+        <v>1.0140589159269972E-3</v>
+      </c>
+      <c r="F16" s="1">
+        <f>(E16-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.44340584462658056</v>
+      </c>
+      <c r="G16">
         <v>612</v>
       </c>
-      <c r="F16" s="1">
-        <v>1.2035398230088496E-2</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="H16">
+        <f>G16/C16</f>
+        <v>2.3841876932282838E-4</v>
+      </c>
+      <c r="I16" s="1">
+        <f>(H16-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.26458780799574483</v>
+      </c>
+      <c r="J16" s="2">
         <v>0.13824662599999998</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <v>3</v>
       </c>
-      <c r="I16">
+      <c r="L16">
         <v>6</v>
       </c>
-      <c r="J16" s="2">
-        <f>I16/384</f>
+      <c r="M16" s="2">
+        <f>L16/384</f>
         <v>1.5625E-2</v>
       </c>
-      <c r="K16" s="3">
+      <c r="N16" s="3">
         <v>0</v>
       </c>
-      <c r="L16" s="3">
+      <c r="O16" s="3">
         <v>0</v>
       </c>
-      <c r="M16" s="4">
-        <f>((D16*0.3)+(F16*0.1)+(G16*0.3)+(J16*0.1)+(K16*0.1)+(L16*0.1))</f>
-        <v>5.1423787519897075E-2</v>
-      </c>
-      <c r="N16">
-        <v>65</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" s="4">
+        <f>((F16*0.3)+(I16*0.2)+(J16*0.2)+(M16*0.1)+(N16*0.1)+(O16*0.1))</f>
+        <v>0.21515114018712311</v>
+      </c>
+      <c r="Q16">
+        <v>48</v>
+      </c>
+      <c r="R16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -3272,49 +3482,61 @@
         <v>102</v>
       </c>
       <c r="C17">
+        <v>12530944</v>
+      </c>
+      <c r="D17">
         <v>13843</v>
       </c>
-      <c r="D17" s="1">
-        <f>(C17-2)/(108622-2)</f>
-        <v>0.12742588841833916</v>
-      </c>
       <c r="E17">
+        <f>D17/C17</f>
+        <v>1.1047052799852909E-3</v>
+      </c>
+      <c r="F17" s="1">
+        <f>(E17-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.48327127927976132</v>
+      </c>
+      <c r="G17">
         <v>11080</v>
       </c>
-      <c r="F17" s="1">
-        <v>0.21789577187807277</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="H17">
+        <f>G17/C17</f>
+        <v>8.8421111769392631E-4</v>
+      </c>
+      <c r="I17" s="1">
+        <f>(H17-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="J17" s="2">
         <v>0.99891935700000001</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <v>5</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <v>6</v>
       </c>
-      <c r="J17" s="2">
-        <f>I17/384</f>
+      <c r="M17" s="2">
+        <f>L17/384</f>
         <v>1.5625E-2</v>
       </c>
-      <c r="K17" s="3">
-        <v>1</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1</v>
-      </c>
-      <c r="M17" s="4">
-        <f>((D17*0.3)+(F17*0.1)+(G17*0.3)+(J17*0.1)+(K17*0.1)+(L17*0.1))</f>
-        <v>0.56125565081330897</v>
-      </c>
-      <c r="N17">
-        <v>4</v>
-      </c>
-      <c r="O17">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1</v>
+      </c>
+      <c r="P17" s="4">
+        <f>((F17*0.3)+(I17*0.2)+(J17*0.2)+(M17*0.1)+(N17*0.1)+(O17*0.1))</f>
+        <v>0.74632775518392847</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>101</v>
       </c>
@@ -3322,49 +3544,61 @@
         <v>100</v>
       </c>
       <c r="C18">
+        <v>1297720</v>
+      </c>
+      <c r="D18">
         <v>53</v>
       </c>
-      <c r="D18" s="1">
-        <f>(C18-2)/(108622-2)</f>
-        <v>4.6952679064628982E-4</v>
-      </c>
       <c r="E18">
+        <f>D18/C18</f>
+        <v>4.0840859353327371E-5</v>
+      </c>
+      <c r="F18" s="1">
+        <f>(E18-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>1.5393521786110212E-2</v>
+      </c>
+      <c r="G18">
         <v>23</v>
       </c>
-      <c r="F18" s="1">
-        <v>4.5231071779744348E-4</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="H18">
+        <f>G18/C18</f>
+        <v>1.7723391794840182E-5</v>
+      </c>
+      <c r="I18" s="1">
+        <f>(H18-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>1.3265425867117731E-2</v>
+      </c>
+      <c r="J18" s="2">
         <v>0.40987434</v>
       </c>
-      <c r="H18">
+      <c r="K18">
         <v>2</v>
       </c>
-      <c r="I18">
+      <c r="L18">
         <v>7</v>
       </c>
-      <c r="J18" s="2">
-        <f>I18/384</f>
+      <c r="M18" s="2">
+        <f>L18/384</f>
         <v>1.8229166666666668E-2</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>0</v>
       </c>
-      <c r="M18" s="4">
-        <f>((D18*0.3)+(F18*0.1)+(G18*0.3)+(J18*0.1)+(K18*0.1)+(L18*0.1))</f>
-        <v>0.12497130777564029</v>
-      </c>
-      <c r="N18">
-        <v>57</v>
-      </c>
-      <c r="O18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="4">
+        <f>((F18*0.3)+(I18*0.2)+(J18*0.2)+(M18*0.1)+(N18*0.1)+(O18*0.1))</f>
+        <v>9.1068926375923273E-2</v>
+      </c>
+      <c r="Q18">
+        <v>63</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>107</v>
       </c>
@@ -3372,49 +3606,61 @@
         <v>106</v>
       </c>
       <c r="C19">
+        <v>98304</v>
+      </c>
+      <c r="D19">
         <v>71</v>
       </c>
-      <c r="D19" s="1">
-        <f>(C19-2)/(108622-2)</f>
-        <v>6.3524212852145092E-4</v>
-      </c>
       <c r="E19">
+        <f>D19/C19</f>
+        <v>7.2224934895833337E-4</v>
+      </c>
+      <c r="F19" s="1">
+        <f>(E19-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.31507068916815417</v>
+      </c>
+      <c r="G19">
         <v>77</v>
       </c>
-      <c r="F19" s="1">
-        <v>1.5142576204523108E-3</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="H19">
+        <f>G19/C19</f>
+        <v>7.8328450520833337E-4</v>
+      </c>
+      <c r="I19" s="1">
+        <f>(H19-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.88506729522762562</v>
+      </c>
+      <c r="J19" s="2">
         <v>0</v>
       </c>
-      <c r="H19">
+      <c r="K19">
         <v>5</v>
       </c>
-      <c r="I19">
+      <c r="L19">
         <v>107</v>
       </c>
-      <c r="J19" s="2">
-        <f>I19/384</f>
+      <c r="M19" s="2">
+        <f>L19/384</f>
         <v>0.27864583333333331</v>
       </c>
-      <c r="K19" s="3">
-        <v>1</v>
-      </c>
-      <c r="L19" s="3">
-        <v>1</v>
-      </c>
-      <c r="M19" s="4">
-        <f>((D19*0.3)+(F19*0.1)+(G19*0.3)+(J19*0.1)+(K19*0.1)+(L19*0.1))</f>
-        <v>0.22820658173393502</v>
-      </c>
-      <c r="N19">
-        <v>44</v>
-      </c>
-      <c r="O19">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
+      <c r="P19" s="4">
+        <f>((F19*0.3)+(I19*0.2)+(J19*0.2)+(M19*0.1)+(N19*0.1)+(O19*0.1))</f>
+        <v>0.49939924912930467</v>
+      </c>
+      <c r="Q19">
+        <v>9</v>
+      </c>
+      <c r="R19">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>113</v>
       </c>
@@ -3422,49 +3668,61 @@
         <v>112</v>
       </c>
       <c r="C20">
+        <v>84059952</v>
+      </c>
+      <c r="D20">
         <v>3427</v>
       </c>
-      <c r="D20" s="1">
-        <f>(C20-2)/(108622-2)</f>
-        <v>3.1531946234579264E-2</v>
-      </c>
       <c r="E20">
+        <f>D20/C20</f>
+        <v>4.0768521971080833E-5</v>
+      </c>
+      <c r="F20" s="1">
+        <f>(E20-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>1.5361708472748002E-2</v>
+      </c>
+      <c r="G20">
         <v>1235</v>
       </c>
-      <c r="F20" s="1">
-        <v>2.4287118977384465E-2</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="H20">
+        <f>G20/C20</f>
+        <v>1.4691895136937505E-5</v>
+      </c>
+      <c r="I20" s="1">
+        <f>(H20-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>9.813233211281738E-3</v>
+      </c>
+      <c r="J20" s="2">
         <v>0.89230520600000018</v>
       </c>
-      <c r="H20">
+      <c r="K20">
         <v>7</v>
       </c>
-      <c r="I20">
+      <c r="L20">
         <v>26</v>
       </c>
-      <c r="J20" s="2">
-        <f>I20/384</f>
+      <c r="M20" s="2">
+        <f>L20/384</f>
         <v>6.7708333333333329E-2</v>
       </c>
-      <c r="K20" s="3">
-        <v>1</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1</v>
-      </c>
-      <c r="M20" s="4">
-        <f>((D20*0.3)+(F20*0.1)+(G20*0.3)+(J20*0.1)+(K20*0.1)+(L20*0.1))</f>
-        <v>0.48635069090144556</v>
-      </c>
-      <c r="N20">
-        <v>17</v>
-      </c>
-      <c r="O20">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1</v>
+      </c>
+      <c r="P20" s="4">
+        <f>((F20*0.3)+(I20*0.2)+(J20*0.2)+(M20*0.1)+(N20*0.1)+(O20*0.1))</f>
+        <v>0.3918030337174141</v>
+      </c>
+      <c r="Q20">
+        <v>23</v>
+      </c>
+      <c r="R20">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -3472,49 +3730,61 @@
         <v>127</v>
       </c>
       <c r="C21">
+        <v>27136</v>
+      </c>
+      <c r="D21">
         <v>31</v>
       </c>
-      <c r="D21" s="1">
-        <f>(C21-2)/(108622-2)</f>
-        <v>2.6698582213220402E-4</v>
-      </c>
       <c r="E21">
+        <f>D21/C21</f>
+        <v>1.1423938679245283E-3</v>
+      </c>
+      <c r="F21" s="1">
+        <f>(E21-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.49984637255869419</v>
+      </c>
+      <c r="G21">
         <v>6</v>
       </c>
-      <c r="F21" s="1">
-        <v>1.1799410029498526E-4</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="H21">
+        <f>G21/C21</f>
+        <v>2.2110849056603774E-4</v>
+      </c>
+      <c r="I21" s="1">
+        <f>(H21-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.24487529502335381</v>
+      </c>
+      <c r="J21" s="2">
         <v>0.46361996500000002</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
         <v>0</v>
       </c>
-      <c r="J21" s="2">
-        <f>I21/384</f>
+      <c r="M21" s="2">
+        <f>L21/384</f>
         <v>0</v>
       </c>
-      <c r="K21" s="3">
-        <v>1</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1</v>
-      </c>
-      <c r="M21" s="4">
-        <f>((D21*0.3)+(F21*0.1)+(G21*0.3)+(J21*0.1)+(K21*0.1)+(L21*0.1))</f>
-        <v>0.3391778846566692</v>
-      </c>
-      <c r="N21">
-        <v>28</v>
-      </c>
-      <c r="O21">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3">
+        <v>1</v>
+      </c>
+      <c r="P21" s="4">
+        <f>((F21*0.3)+(I21*0.2)+(J21*0.2)+(M21*0.1)+(N21*0.1)+(O21*0.1))</f>
+        <v>0.49165296377227896</v>
+      </c>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+      <c r="R21">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>120</v>
       </c>
@@ -3522,49 +3792,61 @@
         <v>119</v>
       </c>
       <c r="C22">
+        <v>1173760</v>
+      </c>
+      <c r="D22">
         <v>226</v>
       </c>
-      <c r="D22" s="1">
-        <f>(C22-2)/(108622-2)</f>
-        <v>2.0622353157797829E-3</v>
-      </c>
       <c r="E22">
+        <f>D22/C22</f>
+        <v>1.9254362050163577E-4</v>
+      </c>
+      <c r="F22" s="1">
+        <f>(E22-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>8.2110996602593411E-2</v>
+      </c>
+      <c r="G22">
         <v>152</v>
       </c>
-      <c r="F22" s="1">
-        <v>2.9891838741396264E-3</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="H22">
+        <f>G22/C22</f>
+        <v>1.2949836423118867E-4</v>
+      </c>
+      <c r="I22" s="1">
+        <f>(H22-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.14055197191859636</v>
+      </c>
+      <c r="J22" s="2">
         <v>0.27378087099999998</v>
       </c>
-      <c r="H22">
+      <c r="K22">
         <v>5</v>
       </c>
-      <c r="I22">
+      <c r="L22">
         <v>11</v>
       </c>
-      <c r="J22" s="2">
-        <f>I22/384</f>
+      <c r="M22" s="2">
+        <f>L22/384</f>
         <v>2.8645833333333332E-2</v>
       </c>
-      <c r="K22" s="3">
-        <v>1</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1</v>
-      </c>
-      <c r="M22" s="4">
-        <f>((D22*0.3)+(F22*0.1)+(G22*0.3)+(J22*0.1)+(K22*0.1)+(L22*0.1))</f>
-        <v>0.28591643361548125</v>
-      </c>
-      <c r="N22">
+      <c r="N22" s="3">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1</v>
+      </c>
+      <c r="P22" s="4">
+        <f>((F22*0.3)+(I22*0.2)+(J22*0.2)+(M22*0.1)+(N22*0.1)+(O22*0.1))</f>
+        <v>0.31036445089783066</v>
+      </c>
+      <c r="Q22">
         <v>34</v>
       </c>
-      <c r="O22">
+      <c r="R22">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -3572,49 +3854,61 @@
         <v>86</v>
       </c>
       <c r="C23">
+        <v>118974128</v>
+      </c>
+      <c r="D23">
         <v>3131</v>
       </c>
-      <c r="D23" s="1">
-        <f>(C23-2)/(108622-2)</f>
-        <v>2.8806849567298839E-2</v>
-      </c>
       <c r="E23">
+        <f>D23/C23</f>
+        <v>2.6316645918178109E-5</v>
+      </c>
+      <c r="F23" s="1">
+        <f>(E23-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>9.0059067107230127E-3</v>
+      </c>
+      <c r="G23">
         <v>1353</v>
       </c>
-      <c r="F23" s="1">
-        <v>2.6607669616519173E-2</v>
-      </c>
-      <c r="G23" s="2">
+      <c r="H23">
+        <f>G23/C23</f>
+        <v>1.1372220353655375E-5</v>
+      </c>
+      <c r="I23" s="1">
+        <f>(H23-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>6.0328705060366181E-3</v>
+      </c>
+      <c r="J23" s="2">
         <v>0.87709837900000009</v>
       </c>
-      <c r="H23">
+      <c r="K23">
         <v>7</v>
       </c>
-      <c r="I23">
+      <c r="L23">
         <v>65</v>
       </c>
-      <c r="J23" s="2">
-        <f>I23/384</f>
+      <c r="M23" s="2">
+        <f>L23/384</f>
         <v>0.16927083333333334</v>
       </c>
-      <c r="K23" s="3">
-        <v>1</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1</v>
-      </c>
-      <c r="M23" s="4">
-        <f>((D23*0.3)+(F23*0.1)+(G23*0.3)+(J23*0.1)+(K23*0.1)+(L23*0.1))</f>
-        <v>0.49135941886517487</v>
-      </c>
-      <c r="N23">
-        <v>16</v>
-      </c>
-      <c r="O23">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N23" s="3">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1</v>
+      </c>
+      <c r="P23" s="4">
+        <f>((F23*0.3)+(I23*0.2)+(J23*0.2)+(M23*0.1)+(N23*0.1)+(O23*0.1))</f>
+        <v>0.39625510524775764</v>
+      </c>
+      <c r="Q23">
+        <v>21</v>
+      </c>
+      <c r="R23">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>150</v>
       </c>
@@ -3622,49 +3916,61 @@
         <v>149</v>
       </c>
       <c r="C24">
+        <v>5894656</v>
+      </c>
+      <c r="D24">
         <v>1346</v>
       </c>
-      <c r="D24" s="1">
-        <f>(C24-2)/(108622-2)</f>
-        <v>1.2373411894678697E-2</v>
-      </c>
       <c r="E24">
+        <f>D24/C24</f>
+        <v>2.2834241726743681E-4</v>
+      </c>
+      <c r="F24" s="1">
+        <f>(E24-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>9.7854977157751322E-2</v>
+      </c>
+      <c r="G24">
         <v>609</v>
       </c>
-      <c r="F24" s="1">
-        <v>1.1976401179941002E-2</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="H24">
+        <f>G24/C24</f>
+        <v>1.033139168765743E-4</v>
+      </c>
+      <c r="I24" s="1">
+        <f>(H24-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.11073377745709817</v>
+      </c>
+      <c r="J24" s="2">
         <v>0.207538106</v>
       </c>
-      <c r="H24">
+      <c r="K24">
         <v>2</v>
       </c>
-      <c r="I24">
+      <c r="L24">
         <v>3</v>
       </c>
-      <c r="J24" s="2">
-        <f>I24/384</f>
+      <c r="M24" s="2">
+        <f>L24/384</f>
         <v>7.8125E-3</v>
       </c>
-      <c r="K24" s="3">
-        <v>1</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="4">
-        <f>((D24*0.3)+(F24*0.1)+(G24*0.3)+(J24*0.1)+(K24*0.1)+(L24*0.1))</f>
-        <v>0.1679523454863977</v>
-      </c>
-      <c r="N24">
+      <c r="P24" s="4">
+        <f>((F24*0.3)+(I24*0.2)+(J24*0.2)+(M24*0.1)+(N24*0.1)+(O24*0.1))</f>
+        <v>0.19379211983874506</v>
+      </c>
+      <c r="Q24">
         <v>53</v>
       </c>
-      <c r="O24">
+      <c r="R24">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>164</v>
       </c>
@@ -3672,49 +3978,61 @@
         <v>163</v>
       </c>
       <c r="C25">
+        <v>838144</v>
+      </c>
+      <c r="D25">
         <v>25</v>
       </c>
-      <c r="D25" s="1">
-        <f>(C25-2)/(108622-2)</f>
-        <v>2.1174737617381698E-4</v>
-      </c>
       <c r="E25">
+        <f>D25/C25</f>
+        <v>2.9827810018326205E-5</v>
+      </c>
+      <c r="F25" s="1">
+        <f>(E25-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>1.055008428966079E-2</v>
+      </c>
+      <c r="G25">
         <v>10</v>
       </c>
-      <c r="F25" s="1">
-        <v>1.9665683382497542E-4</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="H25">
+        <f>G25/C25</f>
+        <v>1.1931124007330483E-5</v>
+      </c>
+      <c r="I25" s="1">
+        <f>(H25-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>6.6693360233273354E-3</v>
+      </c>
+      <c r="J25" s="2">
         <v>0.32043033999999998</v>
       </c>
-      <c r="H25">
+      <c r="K25">
         <v>2</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25" s="2">
-        <f>I25/384</f>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2">
+        <f>L25/384</f>
         <v>2.6041666666666665E-3</v>
       </c>
-      <c r="K25" s="3">
+      <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3">
+      <c r="O25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="4">
-        <f>((D25*0.3)+(F25*0.1)+(G25*0.3)+(J25*0.1)+(K25*0.1)+(L25*0.1))</f>
-        <v>9.6472708562901299E-2</v>
-      </c>
-      <c r="N25">
-        <v>62</v>
-      </c>
-      <c r="O25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" s="4">
+        <f>((F25*0.3)+(I25*0.2)+(J25*0.2)+(M25*0.1)+(N25*0.1)+(O25*0.1))</f>
+        <v>6.8845377158230373E-2</v>
+      </c>
+      <c r="Q25">
+        <v>64</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -3722,49 +4040,61 @@
         <v>157</v>
       </c>
       <c r="C26">
+        <v>36346880</v>
+      </c>
+      <c r="D26">
         <v>21503</v>
       </c>
-      <c r="D26" s="1">
-        <f>(C26-2)/(108622-2)</f>
-        <v>0.19794697109187995</v>
-      </c>
       <c r="E26">
+        <f>D26/C26</f>
+        <v>5.916051116354416E-4</v>
+      </c>
+      <c r="F26" s="1">
+        <f>(E26-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.25761455885430007</v>
+      </c>
+      <c r="G26">
         <v>3218</v>
       </c>
-      <c r="F26" s="1">
-        <v>6.3284169124877096E-2</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="H26">
+        <f>G26/C26</f>
+        <v>8.853579729539372E-5</v>
+      </c>
+      <c r="I26" s="1">
+        <f>(H26-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>9.3904824091035927E-2</v>
+      </c>
+      <c r="J26" s="2">
         <v>0.96763678500000028</v>
       </c>
-      <c r="H26">
+      <c r="K26">
         <v>5</v>
       </c>
-      <c r="I26">
+      <c r="L26">
         <v>96</v>
       </c>
-      <c r="J26" s="2">
-        <f>I26/384</f>
+      <c r="M26" s="2">
+        <f>L26/384</f>
         <v>0.25</v>
       </c>
-      <c r="K26" s="3">
-        <v>1</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1</v>
-      </c>
-      <c r="M26" s="4">
-        <f>((D26*0.3)+(F26*0.1)+(G26*0.3)+(J26*0.1)+(K26*0.1)+(L26*0.1))</f>
-        <v>0.58100354374005181</v>
-      </c>
-      <c r="N26">
-        <v>3</v>
-      </c>
-      <c r="O26">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N26" s="3">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1</v>
+      </c>
+      <c r="P26" s="4">
+        <f>((F26*0.3)+(I26*0.2)+(J26*0.2)+(M26*0.1)+(N26*0.1)+(O26*0.1))</f>
+        <v>0.51459268947449721</v>
+      </c>
+      <c r="Q26">
+        <v>8</v>
+      </c>
+      <c r="R26">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>152</v>
       </c>
@@ -3772,49 +4102,61 @@
         <v>151</v>
       </c>
       <c r="C27">
+        <v>17662464</v>
+      </c>
+      <c r="D27">
         <v>4366</v>
       </c>
-      <c r="D27" s="1">
-        <f>(C27-2)/(108622-2)</f>
-        <v>4.0176763027066839E-2</v>
-      </c>
       <c r="E27">
+        <f>D27/C27</f>
+        <v>2.4719087891700726E-4</v>
+      </c>
+      <c r="F27" s="1">
+        <f>(E27-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.10614435670441152</v>
+      </c>
+      <c r="G27">
         <v>3023</v>
       </c>
-      <c r="F27" s="1">
-        <v>5.9449360865290068E-2</v>
-      </c>
-      <c r="G27" s="2">
+      <c r="H27">
+        <f>G27/C27</f>
+        <v>1.7115392280488159E-4</v>
+      </c>
+      <c r="I27" s="1">
+        <f>(H27-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.18798828130985856</v>
+      </c>
+      <c r="J27" s="2">
         <v>0.96478673299999973</v>
       </c>
-      <c r="H27">
+      <c r="K27">
         <v>4</v>
       </c>
-      <c r="I27">
+      <c r="L27">
         <v>12</v>
       </c>
-      <c r="J27" s="2">
-        <f>I27/384</f>
+      <c r="M27" s="2">
+        <f>L27/384</f>
         <v>3.125E-2</v>
       </c>
-      <c r="K27" s="3">
-        <v>1</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1</v>
-      </c>
-      <c r="M27" s="4">
-        <f>((D27*0.3)+(F27*0.1)+(G27*0.3)+(J27*0.1)+(K27*0.1)+(L27*0.1))</f>
-        <v>0.5105589848946489</v>
-      </c>
-      <c r="N27">
-        <v>9</v>
-      </c>
-      <c r="O27">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3">
+        <v>1</v>
+      </c>
+      <c r="P27" s="4">
+        <f>((F27*0.3)+(I27*0.2)+(J27*0.2)+(M27*0.1)+(N27*0.1)+(O27*0.1))</f>
+        <v>0.46552330987329515</v>
+      </c>
+      <c r="Q27">
+        <v>13</v>
+      </c>
+      <c r="R27">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>162</v>
       </c>
@@ -3822,49 +4164,61 @@
         <v>161</v>
       </c>
       <c r="C28">
+        <v>10873344</v>
+      </c>
+      <c r="D28">
         <v>4597</v>
       </c>
-      <c r="D28" s="1">
-        <f>(C28-2)/(108622-2)</f>
-        <v>4.2303443196464736E-2</v>
-      </c>
       <c r="E28">
+        <f>D28/C28</f>
+        <v>4.2277702241371194E-4</v>
+      </c>
+      <c r="F28" s="1">
+        <f>(E28-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.18336552274114737</v>
+      </c>
+      <c r="G28">
+        <v>729</v>
+      </c>
+      <c r="H28">
+        <f>G28/C28</f>
+        <v>6.7044692046899283E-5</v>
+      </c>
+      <c r="I28" s="1">
+        <f>(H28-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>6.9431290362656453E-2</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.91026548399999985</v>
+      </c>
+      <c r="K28">
+        <v>6</v>
+      </c>
+      <c r="L28">
         <v>0</v>
       </c>
-      <c r="F28" s="1">
+      <c r="M28" s="2">
+        <f>L28/384</f>
         <v>0</v>
       </c>
-      <c r="G28" s="2">
-        <v>0.91026548399999985</v>
-      </c>
-      <c r="H28">
-        <v>6</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28" s="2">
-        <f>I28/384</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="3">
-        <v>1</v>
-      </c>
-      <c r="L28" s="3">
-        <v>1</v>
-      </c>
-      <c r="M28" s="4">
-        <f>((D28*0.3)+(F28*0.1)+(G28*0.3)+(J28*0.1)+(K28*0.1)+(L28*0.1))</f>
-        <v>0.48577067815893937</v>
-      </c>
-      <c r="N28">
-        <v>18</v>
-      </c>
-      <c r="O28">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1</v>
+      </c>
+      <c r="P28" s="4">
+        <f>((F28*0.3)+(I28*0.2)+(J28*0.2)+(M28*0.1)+(N28*0.1)+(O28*0.1))</f>
+        <v>0.45094901169487545</v>
+      </c>
+      <c r="Q28">
+        <v>14</v>
+      </c>
+      <c r="R28">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>166</v>
       </c>
@@ -3872,49 +4226,61 @@
         <v>165</v>
       </c>
       <c r="C29">
+        <v>53441088</v>
+      </c>
+      <c r="D29">
         <v>6380</v>
       </c>
-      <c r="D29" s="1">
-        <f>(C29-2)/(108622-2)</f>
-        <v>5.8718468053765419E-2</v>
-      </c>
       <c r="E29">
+        <f>D29/C29</f>
+        <v>1.193837969765885E-4</v>
+      </c>
+      <c r="F29" s="1">
+        <f>(E29-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>4.9935981153541233E-2</v>
+      </c>
+      <c r="G29">
         <v>2880</v>
       </c>
-      <c r="F29" s="1">
-        <v>5.663716814159292E-2</v>
-      </c>
-      <c r="G29" s="2">
+      <c r="H29">
+        <f>G29/C29</f>
+        <v>5.3891118384416124E-5</v>
+      </c>
+      <c r="I29" s="1">
+        <f>(H29-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>5.4452329301542236E-2</v>
+      </c>
+      <c r="J29" s="2">
         <v>0.73185257599999998</v>
       </c>
-      <c r="H29">
+      <c r="K29">
         <v>4</v>
       </c>
-      <c r="I29">
+      <c r="L29">
         <v>9</v>
       </c>
-      <c r="J29" s="2">
-        <f>I29/384</f>
+      <c r="M29" s="2">
+        <f>L29/384</f>
         <v>2.34375E-2</v>
       </c>
-      <c r="K29" s="3">
-        <v>1</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="4">
-        <f>((D29*0.3)+(F29*0.1)+(G29*0.3)+(J29*0.1)+(K29*0.1)+(L29*0.1))</f>
-        <v>0.3451787800302889</v>
-      </c>
-      <c r="N29">
-        <v>27</v>
-      </c>
-      <c r="O29">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29" s="4">
+        <f>((F29*0.3)+(I29*0.2)+(J29*0.2)+(M29*0.1)+(N29*0.1)+(O29*0.1))</f>
+        <v>0.27458552540637082</v>
+      </c>
+      <c r="Q29">
+        <v>40</v>
+      </c>
+      <c r="R29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>172</v>
       </c>
@@ -3922,49 +4288,61 @@
         <v>171</v>
       </c>
       <c r="C30">
+        <v>202616832</v>
+      </c>
+      <c r="D30">
         <v>20580</v>
       </c>
-      <c r="D30" s="1">
-        <f>(C30-2)/(108622-2)</f>
-        <v>0.18944945682194808</v>
-      </c>
       <c r="E30">
+        <f>D30/C30</f>
+        <v>1.0157102841288132E-4</v>
+      </c>
+      <c r="F30" s="1">
+        <f>(E30-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>4.2102089871238563E-2</v>
+      </c>
+      <c r="G30">
         <v>9815</v>
       </c>
-      <c r="F30" s="1">
-        <v>0.19301868239921338</v>
-      </c>
-      <c r="G30" s="2">
+      <c r="H30">
+        <f>G30/C30</f>
+        <v>4.844118774890331E-5</v>
+      </c>
+      <c r="I30" s="1">
+        <f>(H30-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>4.824608445357681E-2</v>
+      </c>
+      <c r="J30" s="2">
         <v>0.95439287200000023</v>
       </c>
-      <c r="H30">
+      <c r="K30">
         <v>4</v>
       </c>
-      <c r="I30">
+      <c r="L30">
         <v>16</v>
       </c>
-      <c r="J30" s="2">
-        <f>I30/384</f>
+      <c r="M30" s="2">
+        <f>L30/384</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K30" s="3">
-        <v>1</v>
-      </c>
-      <c r="L30" s="3">
+      <c r="N30" s="3">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="4">
-        <f>((D30*0.3)+(F30*0.1)+(G30*0.3)+(J30*0.1)+(K30*0.1)+(L30*0.1))</f>
-        <v>0.46662123355317242</v>
-      </c>
-      <c r="N30">
-        <v>20</v>
-      </c>
-      <c r="O30">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30" s="4">
+        <f>((F30*0.3)+(I30*0.2)+(J30*0.2)+(M30*0.1)+(N30*0.1)+(O30*0.1))</f>
+        <v>0.31732508491875366</v>
+      </c>
+      <c r="Q30">
+        <v>31</v>
+      </c>
+      <c r="R30">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>170</v>
       </c>
@@ -3972,49 +4350,61 @@
         <v>169</v>
       </c>
       <c r="C31">
+        <v>668544</v>
+      </c>
+      <c r="D31">
         <v>430</v>
       </c>
-      <c r="D31" s="1">
-        <f>(C31-2)/(108622-2)</f>
-        <v>3.9403424783649417E-3</v>
-      </c>
       <c r="E31">
+        <f>D31/C31</f>
+        <v>6.431887803944093E-4</v>
+      </c>
+      <c r="F31" s="1">
+        <f>(E31-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.28030058048843309</v>
+      </c>
+      <c r="G31">
         <v>148</v>
       </c>
-      <c r="F31" s="1">
-        <v>2.910521140609636E-3</v>
-      </c>
-      <c r="G31" s="2">
+      <c r="H31">
+        <f>G31/C31</f>
+        <v>2.2137660348458741E-4</v>
+      </c>
+      <c r="I31" s="1">
+        <f>(H31-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.24518061531652949</v>
+      </c>
+      <c r="J31" s="2">
         <v>0.98476949599999997</v>
       </c>
-      <c r="H31">
+      <c r="K31">
         <v>5</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31" s="2">
-        <f>I31/384</f>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31" s="2">
+        <f>L31/384</f>
         <v>2.6041666666666665E-3</v>
       </c>
-      <c r="K31" s="3">
-        <v>1</v>
-      </c>
-      <c r="L31" s="3">
-        <v>1</v>
-      </c>
-      <c r="M31" s="4">
-        <f>((D31*0.3)+(F31*0.1)+(G31*0.3)+(J31*0.1)+(K31*0.1)+(L31*0.1))</f>
-        <v>0.49716442032423702</v>
-      </c>
-      <c r="N31">
-        <v>11</v>
-      </c>
-      <c r="O31">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N31" s="3">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3">
+        <v>1</v>
+      </c>
+      <c r="P31" s="4">
+        <f>((F31*0.3)+(I31*0.2)+(J31*0.2)+(M31*0.1)+(N31*0.1)+(O31*0.1))</f>
+        <v>0.53034061307650249</v>
+      </c>
+      <c r="Q31">
+        <v>6</v>
+      </c>
+      <c r="R31">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>186</v>
       </c>
@@ -4022,49 +4412,61 @@
         <v>185</v>
       </c>
       <c r="C32">
+        <v>2732032</v>
+      </c>
+      <c r="D32">
         <v>733</v>
       </c>
-      <c r="D32" s="1">
-        <f>(C32-2)/(108622-2)</f>
-        <v>6.7298839992634878E-3</v>
-      </c>
       <c r="E32">
+        <f>D32/C32</f>
+        <v>2.6829846795352325E-4</v>
+      </c>
+      <c r="F32" s="1">
+        <f>(E32-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.11542727963423018</v>
+      </c>
+      <c r="G32">
         <v>241</v>
       </c>
-      <c r="F32" s="1">
-        <v>4.7394296951819076E-3</v>
-      </c>
-      <c r="G32" s="2">
+      <c r="H32">
+        <f>G32/C32</f>
+        <v>8.8212729572713646E-5</v>
+      </c>
+      <c r="I32" s="1">
+        <f>(H32-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>9.353692263989416E-2</v>
+      </c>
+      <c r="J32" s="2">
         <v>0.28920037100000001</v>
       </c>
-      <c r="H32">
+      <c r="K32">
         <v>2</v>
       </c>
-      <c r="I32">
+      <c r="L32">
         <v>2</v>
       </c>
-      <c r="J32" s="2">
-        <f>I32/384</f>
+      <c r="M32" s="2">
+        <f>L32/384</f>
         <v>5.208333333333333E-3</v>
       </c>
-      <c r="K32" s="3">
-        <v>1</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1</v>
-      </c>
-      <c r="M32" s="4">
-        <f>((D32*0.3)+(F32*0.1)+(G32*0.3)+(J32*0.1)+(K32*0.1)+(L32*0.1))</f>
-        <v>0.28977385280263057</v>
-      </c>
-      <c r="N32">
-        <v>32</v>
-      </c>
-      <c r="O32">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N32" s="3">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1</v>
+      </c>
+      <c r="P32" s="4">
+        <f>((F32*0.3)+(I32*0.2)+(J32*0.2)+(M32*0.1)+(N32*0.1)+(O32*0.1))</f>
+        <v>0.31169647595158123</v>
+      </c>
+      <c r="Q32">
+        <v>33</v>
+      </c>
+      <c r="R32">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>174</v>
       </c>
@@ -4072,49 +4474,61 @@
         <v>173</v>
       </c>
       <c r="C33">
+        <v>3834112</v>
+      </c>
+      <c r="D33">
         <v>119</v>
       </c>
-      <c r="D33" s="1">
-        <f>(C33-2)/(108622-2)</f>
-        <v>1.0771496961885473E-3</v>
-      </c>
       <c r="E33">
+        <f>D33/C33</f>
+        <v>3.1037173666288308E-5</v>
+      </c>
+      <c r="F33" s="1">
+        <f>(E33-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>1.1081951265028506E-2</v>
+      </c>
+      <c r="G33">
         <v>26</v>
       </c>
-      <c r="F33" s="1">
-        <v>5.1130776794493606E-4</v>
-      </c>
-      <c r="G33" s="2">
+      <c r="H33">
+        <f>G33/C33</f>
+        <v>6.7812312212058494E-6</v>
+      </c>
+      <c r="I33" s="1">
+        <f>(H33-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>8.0476678217167839E-4</v>
+      </c>
+      <c r="J33" s="2">
         <v>0.32096185300000002</v>
       </c>
-      <c r="H33">
+      <c r="K33">
         <v>0</v>
       </c>
-      <c r="I33">
+      <c r="L33">
         <v>34</v>
       </c>
-      <c r="J33" s="2">
-        <f>I33/384</f>
+      <c r="M33" s="2">
+        <f>L33/384</f>
         <v>8.8541666666666671E-2</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>0</v>
       </c>
-      <c r="L33" s="3">
-        <v>1</v>
-      </c>
-      <c r="M33" s="4">
-        <f>((D33*0.3)+(F33*0.1)+(G33*0.3)+(J33*0.1)+(K33*0.1)+(L33*0.1))</f>
-        <v>0.20551699825231773</v>
-      </c>
-      <c r="N33">
-        <v>48</v>
-      </c>
-      <c r="O33">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O33" s="3">
+        <v>1</v>
+      </c>
+      <c r="P33" s="4">
+        <f>((F33*0.3)+(I33*0.2)+(J33*0.2)+(M33*0.1)+(N33*0.1)+(O33*0.1))</f>
+        <v>0.17653207600260956</v>
+      </c>
+      <c r="Q33">
+        <v>57</v>
+      </c>
+      <c r="R33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>180</v>
       </c>
@@ -4122,49 +4536,61 @@
         <v>179</v>
       </c>
       <c r="C34">
+        <v>112320768</v>
+      </c>
+      <c r="D34">
         <v>15101</v>
       </c>
-      <c r="D34" s="1">
-        <f>(C34-2)/(108622-2)</f>
-        <v>0.13900754925428099</v>
-      </c>
       <c r="E34">
+        <f>D34/C34</f>
+        <v>1.3444530578708293E-4</v>
+      </c>
+      <c r="F34" s="1">
+        <f>(E34-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>5.6559893778177106E-2</v>
+      </c>
+      <c r="G34">
+        <v>6397</v>
+      </c>
+      <c r="H34">
+        <f>G34/C34</f>
+        <v>5.6952958156411464E-5</v>
+      </c>
+      <c r="I34" s="1">
+        <f>(H34-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>5.7939075937621883E-2</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.97789078000000007</v>
+      </c>
+      <c r="K34">
+        <v>5</v>
+      </c>
+      <c r="L34">
         <v>0</v>
       </c>
-      <c r="F34" s="1">
+      <c r="M34" s="2">
+        <f>L34/384</f>
         <v>0</v>
       </c>
-      <c r="G34" s="2">
-        <v>0.97789078000000007</v>
-      </c>
-      <c r="H34">
-        <v>5</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2">
-        <f>I34/384</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="3">
-        <v>1</v>
-      </c>
-      <c r="L34" s="3">
-        <v>1</v>
-      </c>
-      <c r="M34" s="4">
-        <f>((D34*0.3)+(F34*0.1)+(G34*0.3)+(J34*0.1)+(K34*0.1)+(L34*0.1))</f>
-        <v>0.53506949877628429</v>
-      </c>
-      <c r="N34">
-        <v>7</v>
-      </c>
-      <c r="O34">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N34" s="3">
+        <v>1</v>
+      </c>
+      <c r="O34" s="3">
+        <v>1</v>
+      </c>
+      <c r="P34" s="4">
+        <f>((F34*0.3)+(I34*0.2)+(J34*0.2)+(M34*0.1)+(N34*0.1)+(O34*0.1))</f>
+        <v>0.42413393932097754</v>
+      </c>
+      <c r="Q34">
+        <v>17</v>
+      </c>
+      <c r="R34">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>176</v>
       </c>
@@ -4172,49 +4598,61 @@
         <v>175</v>
       </c>
       <c r="C35">
+        <v>274176</v>
+      </c>
+      <c r="D35">
         <v>42</v>
       </c>
-      <c r="D35" s="1">
-        <f>(C35-2)/(108622-2)</f>
-        <v>3.6825630638924689E-4</v>
-      </c>
       <c r="E35">
+        <f>D35/C35</f>
+        <v>1.5318627450980392E-4</v>
+      </c>
+      <c r="F35" s="1">
+        <f>(E35-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>6.4801998927286844E-2</v>
+      </c>
+      <c r="G35">
         <v>13</v>
       </c>
-      <c r="F35" s="1">
-        <v>2.5565388397246803E-4</v>
-      </c>
-      <c r="G35" s="2">
+      <c r="H35">
+        <f>G35/C35</f>
+        <v>4.7414799253034548E-5</v>
+      </c>
+      <c r="I35" s="1">
+        <f>(H35-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>4.7077258877524848E-2</v>
+      </c>
+      <c r="J35" s="2">
         <v>0.33528630199999998</v>
       </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
         <v>11</v>
       </c>
-      <c r="J35" s="2">
-        <f>I35/384</f>
+      <c r="M35" s="2">
+        <f>L35/384</f>
         <v>2.8645833333333332E-2</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>0</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="4">
-        <f>((D35*0.3)+(F35*0.1)+(G35*0.3)+(J35*0.1)+(K35*0.1)+(L35*0.1))</f>
-        <v>0.10358651621364735</v>
-      </c>
-      <c r="N35">
-        <v>61</v>
-      </c>
-      <c r="O35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O35" s="3">
+        <v>1</v>
+      </c>
+      <c r="P35" s="4">
+        <f>((F35*0.3)+(I35*0.2)+(J35*0.2)+(M35*0.1)+(N35*0.1)+(O35*0.1))</f>
+        <v>0.19877789518702438</v>
+      </c>
+      <c r="Q35">
+        <v>52</v>
+      </c>
+      <c r="R35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>190</v>
       </c>
@@ -4222,49 +4660,61 @@
         <v>189</v>
       </c>
       <c r="C36">
+        <v>504064</v>
+      </c>
+      <c r="D36">
         <v>39</v>
       </c>
-      <c r="D36" s="1">
-        <f>(C36-2)/(108622-2)</f>
-        <v>3.4063708341005341E-4</v>
-      </c>
       <c r="E36">
+        <f>D36/C36</f>
+        <v>7.7371127475876075E-5</v>
+      </c>
+      <c r="F36" s="1">
+        <f>(E36-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>3.1459196695763622E-2</v>
+      </c>
+      <c r="G36">
         <v>12</v>
       </c>
-      <c r="F36" s="1">
-        <v>2.3598820058997051E-4</v>
-      </c>
-      <c r="G36" s="2">
+      <c r="H36">
+        <f>G36/C36</f>
+        <v>2.3806500761808026E-5</v>
+      </c>
+      <c r="I36" s="1">
+        <f>(H36-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>2.0192718379768965E-2</v>
+      </c>
+      <c r="J36" s="2">
         <v>0.971624759</v>
       </c>
-      <c r="H36">
+      <c r="K36">
         <v>5</v>
       </c>
-      <c r="I36">
+      <c r="L36">
         <v>22</v>
       </c>
-      <c r="J36" s="2">
-        <f>I36/384</f>
+      <c r="M36" s="2">
+        <f>L36/384</f>
         <v>5.7291666666666664E-2</v>
       </c>
-      <c r="K36" s="3">
+      <c r="N36" s="3">
         <v>0</v>
       </c>
-      <c r="L36" s="3">
-        <v>1</v>
-      </c>
-      <c r="M36" s="4">
-        <f>((D36*0.3)+(F36*0.1)+(G36*0.3)+(J36*0.1)+(K36*0.1)+(L36*0.1))</f>
-        <v>0.39734238431174862</v>
-      </c>
-      <c r="N36">
-        <v>26</v>
-      </c>
-      <c r="O36">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O36" s="3">
+        <v>1</v>
+      </c>
+      <c r="P36" s="4">
+        <f>((F36*0.3)+(I36*0.2)+(J36*0.2)+(M36*0.1)+(N36*0.1)+(O36*0.1))</f>
+        <v>0.31353042115134955</v>
+      </c>
+      <c r="Q36">
+        <v>32</v>
+      </c>
+      <c r="R36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>204</v>
       </c>
@@ -4272,49 +4722,61 @@
         <v>203</v>
       </c>
       <c r="C37">
+        <v>326656</v>
+      </c>
+      <c r="D37">
         <v>19</v>
       </c>
-      <c r="D37" s="1">
-        <f>(C37-2)/(108622-2)</f>
-        <v>1.5650893021542994E-4</v>
-      </c>
       <c r="E37">
+        <f>D37/C37</f>
+        <v>5.8165164576802506E-5</v>
+      </c>
+      <c r="F37" s="1">
+        <f>(E37-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>2.3012591397706131E-2</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <f>G37/C37</f>
+        <v>6.1226489028213164E-6</v>
+      </c>
+      <c r="I37" s="1">
+        <f>(H37-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>5.4789691857658376E-5</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.36237256700000003</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37">
         <v>0</v>
       </c>
-      <c r="F37" s="1">
+      <c r="M37" s="2">
+        <f>L37/384</f>
         <v>0</v>
       </c>
-      <c r="G37" s="2">
-        <v>0.36237256700000003</v>
-      </c>
-      <c r="H37">
-        <v>5</v>
-      </c>
-      <c r="I37">
+      <c r="N37" s="3">
         <v>0</v>
       </c>
-      <c r="J37" s="2">
-        <f>I37/384</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0</v>
-      </c>
-      <c r="L37" s="3">
-        <v>0</v>
-      </c>
-      <c r="M37" s="4">
-        <f>((D37*0.3)+(F37*0.1)+(G37*0.3)+(J37*0.1)+(K37*0.1)+(L37*0.1))</f>
-        <v>0.10875872277906463</v>
-      </c>
-      <c r="N37">
-        <v>60</v>
-      </c>
-      <c r="O37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O37" s="3">
+        <v>1</v>
+      </c>
+      <c r="P37" s="4">
+        <f>((F37*0.3)+(I37*0.2)+(J37*0.2)+(M37*0.1)+(N37*0.1)+(O37*0.1))</f>
+        <v>0.17938924875768339</v>
+      </c>
+      <c r="Q37">
+        <v>56</v>
+      </c>
+      <c r="R37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>236</v>
       </c>
@@ -4322,49 +4784,61 @@
         <v>235</v>
       </c>
       <c r="C38">
+        <v>153856</v>
+      </c>
+      <c r="D38">
         <v>2</v>
       </c>
-      <c r="D38" s="1">
-        <f>(C38-2)/(108622-2)</f>
+      <c r="E38">
+        <f>D38/C38</f>
+        <v>1.2999168053244593E-5</v>
+      </c>
+      <c r="F38" s="1">
+        <f>(E38-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>3.1490028063560624E-3</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <f>G38/C38</f>
+        <v>6.4995840266222963E-6</v>
+      </c>
+      <c r="I38" s="1">
+        <f>(H38-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>4.8403399358571547E-4</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.21332020700000001</v>
+      </c>
+      <c r="K38">
         <v>0</v>
       </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38" s="1">
-        <v>1.9665683382497542E-5</v>
-      </c>
-      <c r="G38" s="2">
-        <v>0.21332020700000001</v>
-      </c>
-      <c r="H38">
+      <c r="L38">
+        <v>41</v>
+      </c>
+      <c r="M38" s="2">
+        <f>L38/384</f>
+        <v>0.10677083333333333</v>
+      </c>
+      <c r="N38" s="3">
         <v>0</v>
       </c>
-      <c r="I38">
-        <v>41</v>
-      </c>
-      <c r="J38" s="2">
-        <f>I38/384</f>
-        <v>0.10677083333333333</v>
-      </c>
-      <c r="K38" s="3">
+      <c r="O38" s="3">
         <v>0</v>
       </c>
-      <c r="L38" s="3">
-        <v>0</v>
-      </c>
-      <c r="M38" s="4">
-        <f>((D38*0.3)+(F38*0.1)+(G38*0.3)+(J38*0.1)+(K38*0.1)+(L38*0.1))</f>
-        <v>7.4675112001671581E-2</v>
-      </c>
-      <c r="N38">
-        <v>63</v>
-      </c>
-      <c r="O38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P38" s="4">
+        <f>((F38*0.3)+(I38*0.2)+(J38*0.2)+(M38*0.1)+(N38*0.1)+(O38*0.1))</f>
+        <v>5.4382632373957296E-2</v>
+      </c>
+      <c r="Q38">
+        <v>65</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>240</v>
       </c>
@@ -4372,49 +4846,61 @@
         <v>239</v>
       </c>
       <c r="C39">
+        <v>6588160</v>
+      </c>
+      <c r="D39">
         <v>2033</v>
       </c>
-      <c r="D39" s="1">
-        <f>(C39-2)/(108622-2)</f>
-        <v>1.8698213956914012E-2</v>
-      </c>
       <c r="E39">
+        <f>D39/C39</f>
+        <v>3.0858388381581505E-4</v>
+      </c>
+      <c r="F39" s="1">
+        <f>(E39-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.1331444338766398</v>
+      </c>
+      <c r="G39">
         <v>1264</v>
       </c>
-      <c r="F39" s="1">
-        <v>2.4857423795476893E-2</v>
-      </c>
-      <c r="G39" s="2">
+      <c r="H39">
+        <f>G39/C39</f>
+        <v>1.9185933553526326E-4</v>
+      </c>
+      <c r="I39" s="1">
+        <f>(H39-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.21156708802816418</v>
+      </c>
+      <c r="J39" s="2">
         <v>0.18629210407246843</v>
       </c>
-      <c r="H39">
+      <c r="K39">
         <v>4</v>
       </c>
-      <c r="I39">
+      <c r="L39">
         <v>9</v>
       </c>
-      <c r="J39" s="2">
-        <f>I39/384</f>
+      <c r="M39" s="2">
+        <f>L39/384</f>
         <v>2.34375E-2</v>
       </c>
-      <c r="K39" s="3">
-        <v>1</v>
-      </c>
-      <c r="L39" s="3">
-        <v>1</v>
-      </c>
-      <c r="M39" s="4">
-        <f>((D39*0.3)+(F39*0.1)+(G39*0.3)+(J39*0.1)+(K39*0.1)+(L39*0.1))</f>
-        <v>0.26632658778836243</v>
-      </c>
-      <c r="N39">
-        <v>38</v>
-      </c>
-      <c r="O39">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N39" s="3">
+        <v>1</v>
+      </c>
+      <c r="O39" s="3">
+        <v>1</v>
+      </c>
+      <c r="P39" s="4">
+        <f>((F39*0.3)+(I39*0.2)+(J39*0.2)+(M39*0.1)+(N39*0.1)+(O39*0.1))</f>
+        <v>0.32185891858311849</v>
+      </c>
+      <c r="Q39">
+        <v>30</v>
+      </c>
+      <c r="R39">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>238</v>
       </c>
@@ -4422,49 +4908,61 @@
         <v>237</v>
       </c>
       <c r="C40">
+        <v>28781312</v>
+      </c>
+      <c r="D40">
         <v>6798</v>
       </c>
-      <c r="D40" s="1">
-        <f>(C40-2)/(108622-2)</f>
-        <v>6.2566746455533048E-2</v>
-      </c>
       <c r="E40">
+        <f>D40/C40</f>
+        <v>2.3619493093296094E-4</v>
+      </c>
+      <c r="F40" s="1">
+        <f>(E40-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.10130844022434322</v>
+      </c>
+      <c r="G40">
         <v>4666</v>
       </c>
-      <c r="F40" s="1">
-        <v>9.176007866273353E-2</v>
-      </c>
-      <c r="G40" s="2">
+      <c r="H40">
+        <f>G40/C40</f>
+        <v>1.621190861625766E-4</v>
+      </c>
+      <c r="I40" s="1">
+        <f>(H40-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.17769963506578787</v>
+      </c>
+      <c r="J40" s="2">
         <v>0.95181365800000006</v>
       </c>
-      <c r="H40">
+      <c r="K40">
         <v>4</v>
       </c>
-      <c r="I40">
+      <c r="L40">
         <v>4</v>
       </c>
-      <c r="J40" s="2">
-        <f>I40/384</f>
+      <c r="M40" s="2">
+        <f>L40/384</f>
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="K40" s="3">
+      <c r="N40" s="3">
         <v>0</v>
       </c>
-      <c r="L40" s="3">
-        <v>1</v>
-      </c>
-      <c r="M40" s="4">
-        <f>((D40*0.3)+(F40*0.1)+(G40*0.3)+(J40*0.1)+(K40*0.1)+(L40*0.1))</f>
-        <v>0.41453179586959998</v>
-      </c>
-      <c r="N40">
-        <v>24</v>
-      </c>
-      <c r="O40">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O40" s="3">
+        <v>1</v>
+      </c>
+      <c r="P40" s="4">
+        <f>((F40*0.3)+(I40*0.2)+(J40*0.2)+(M40*0.1)+(N40*0.1)+(O40*0.1))</f>
+        <v>0.35733685734712728</v>
+      </c>
+      <c r="Q40">
+        <v>28</v>
+      </c>
+      <c r="R40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>206</v>
       </c>
@@ -4472,49 +4970,61 @@
         <v>205</v>
       </c>
       <c r="C41">
+        <v>6474752</v>
+      </c>
+      <c r="D41">
         <v>1565</v>
       </c>
-      <c r="D41" s="1">
-        <f>(C41-2)/(108622-2)</f>
-        <v>1.4389615172159823E-2</v>
-      </c>
       <c r="E41">
+        <f>D41/C41</f>
+        <v>2.4170809939901946E-4</v>
+      </c>
+      <c r="F41" s="1">
+        <f>(E41-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.10373308085388123</v>
+      </c>
+      <c r="G41">
         <v>1664</v>
       </c>
-      <c r="F41" s="1">
-        <v>3.2723697148475908E-2</v>
-      </c>
-      <c r="G41" s="2">
+      <c r="H41">
+        <f>G41/C41</f>
+        <v>2.569982603194686E-4</v>
+      </c>
+      <c r="I41" s="1">
+        <f>(H41-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.28574566815718305</v>
+      </c>
+      <c r="J41" s="2">
         <v>0.34709993</v>
       </c>
-      <c r="H41">
+      <c r="K41">
         <v>2</v>
       </c>
-      <c r="I41">
+      <c r="L41">
         <v>160</v>
       </c>
-      <c r="J41" s="2">
-        <f>I41/384</f>
+      <c r="M41" s="2">
+        <f>L41/384</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3">
-        <v>1</v>
-      </c>
-      <c r="M41" s="4">
-        <f>((D41*0.3)+(F41*0.1)+(G41*0.3)+(J41*0.1)+(K41*0.1)+(L41*0.1))</f>
-        <v>0.25338589993316218</v>
-      </c>
-      <c r="N41">
-        <v>41</v>
-      </c>
-      <c r="O41">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O41" s="3">
+        <v>1</v>
+      </c>
+      <c r="P41" s="4">
+        <f>((F41*0.3)+(I41*0.2)+(J41*0.2)+(M41*0.1)+(N41*0.1)+(O41*0.1))</f>
+        <v>0.29935571055426768</v>
+      </c>
+      <c r="Q41">
+        <v>36</v>
+      </c>
+      <c r="R41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>428</v>
       </c>
@@ -4522,49 +5032,60 @@
         <v>437</v>
       </c>
       <c r="C42">
+        <v>36864</v>
+      </c>
+      <c r="D42">
         <v>7</v>
       </c>
-      <c r="D42" s="1">
-        <f>(C42-2)/(108622-2)</f>
-        <v>4.6032038298655862E-5</v>
-      </c>
       <c r="E42">
+        <f>D42/C42</f>
+        <v>1.8988715277777778E-4</v>
+      </c>
+      <c r="F42" s="1">
+        <f>(E42-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>8.0942706604931289E-2</v>
+      </c>
+      <c r="G42">
         <v>0</v>
       </c>
-      <c r="F42" s="1">
+      <c r="H42">
+        <f>G42/C42</f>
         <v>0</v>
       </c>
-      <c r="G42" s="2">
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
         <v>0.18697333499999999</v>
       </c>
-      <c r="H42">
+      <c r="K42">
         <v>4</v>
       </c>
-      <c r="I42">
+      <c r="L42">
         <v>0</v>
       </c>
-      <c r="J42" s="2">
-        <f>I42/384</f>
+      <c r="M42" s="2">
+        <f>L42/384</f>
         <v>0</v>
       </c>
-      <c r="K42" s="3">
-        <v>1</v>
-      </c>
-      <c r="L42" s="3">
-        <v>1</v>
-      </c>
-      <c r="M42" s="4">
-        <f>((D42*0.3)+(F42*0.1)+(G42*0.3)+(J42*0.1)+(K42*0.1)+(L42*0.1))</f>
-        <v>0.25610581011148958</v>
-      </c>
-      <c r="N42">
-        <v>39</v>
-      </c>
-      <c r="O42">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N42" s="3">
+        <v>1</v>
+      </c>
+      <c r="O42" s="3">
+        <v>1</v>
+      </c>
+      <c r="P42" s="4">
+        <f>((F42*0.3)+(I42*0.2)+(J42*0.2)+(M42*0.1)+(N42*0.1)+(O42*0.1))</f>
+        <v>0.26167747898147942</v>
+      </c>
+      <c r="Q42">
+        <v>44</v>
+      </c>
+      <c r="R42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>250</v>
       </c>
@@ -4572,49 +5093,61 @@
         <v>249</v>
       </c>
       <c r="C43">
+        <v>2227968</v>
+      </c>
+      <c r="D43">
         <v>1180</v>
       </c>
-      <c r="D43" s="1">
-        <f>(C43-2)/(108622-2)</f>
-        <v>1.0845148223163322E-2</v>
-      </c>
       <c r="E43">
+        <f>D43/C43</f>
+        <v>5.2963058715385495E-4</v>
+      </c>
+      <c r="F43" s="1">
+        <f>(E43-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.23035873473438501</v>
+      </c>
+      <c r="G43">
         <v>814</v>
       </c>
-      <c r="F43" s="1">
-        <v>1.6007866273352999E-2</v>
-      </c>
-      <c r="G43" s="2">
+      <c r="H43">
+        <f>G43/C43</f>
+        <v>3.6535533724003217E-4</v>
+      </c>
+      <c r="I43" s="1">
+        <f>(H43-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.40914000018716556</v>
+      </c>
+      <c r="J43" s="2">
         <v>0.16055561200000001</v>
       </c>
-      <c r="H43">
+      <c r="K43">
         <v>0</v>
       </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43" s="2">
-        <f>I43/384</f>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43" s="2">
+        <f>L43/384</f>
         <v>2.6041666666666665E-3</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3">
-        <v>1</v>
-      </c>
-      <c r="M43" s="4">
-        <f>((D43*0.3)+(F43*0.1)+(G43*0.3)+(J43*0.1)+(K43*0.1)+(L43*0.1))</f>
-        <v>0.15328143136095096</v>
-      </c>
-      <c r="N43">
-        <v>55</v>
-      </c>
-      <c r="O43">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O43" s="3">
+        <v>1</v>
+      </c>
+      <c r="P43" s="4">
+        <f>((F43*0.3)+(I43*0.2)+(J43*0.2)+(M43*0.1)+(N43*0.1)+(O43*0.1))</f>
+        <v>0.28330715952441532</v>
+      </c>
+      <c r="Q43">
+        <v>38</v>
+      </c>
+      <c r="R43">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>274</v>
       </c>
@@ -4622,49 +5155,61 @@
         <v>273</v>
       </c>
       <c r="C44">
+        <v>5219840</v>
+      </c>
+      <c r="D44">
         <v>1916</v>
       </c>
-      <c r="D44" s="1">
-        <f>(C44-2)/(108622-2)</f>
-        <v>1.7621064260725464E-2</v>
-      </c>
       <c r="E44">
+        <f>D44/C44</f>
+        <v>3.6706105934281513E-4</v>
+      </c>
+      <c r="F44" s="1">
+        <f>(E44-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.15886215619118318</v>
+      </c>
+      <c r="G44">
         <v>611</v>
       </c>
-      <c r="F44" s="1">
-        <v>1.2015732546705998E-2</v>
-      </c>
-      <c r="G44" s="2">
+      <c r="H44">
+        <f>G44/C44</f>
+        <v>1.1705339627268268E-4</v>
+      </c>
+      <c r="I44" s="1">
+        <f>(H44-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.12637995332953683</v>
+      </c>
+      <c r="J44" s="2">
         <v>0.12371065000000001</v>
       </c>
-      <c r="H44">
+      <c r="K44">
         <v>4</v>
       </c>
-      <c r="I44">
+      <c r="L44">
         <v>7</v>
       </c>
-      <c r="J44" s="2">
-        <f>I44/384</f>
+      <c r="M44" s="2">
+        <f>L44/384</f>
         <v>1.8229166666666668E-2</v>
       </c>
-      <c r="K44" s="3">
-        <v>1</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1</v>
-      </c>
-      <c r="M44" s="4">
-        <f>((D44*0.3)+(F44*0.1)+(G44*0.3)+(J44*0.1)+(K44*0.1)+(L44*0.1))</f>
-        <v>0.24542400419955493</v>
-      </c>
-      <c r="N44">
-        <v>43</v>
-      </c>
-      <c r="O44">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N44" s="3">
+        <v>1</v>
+      </c>
+      <c r="O44" s="3">
+        <v>1</v>
+      </c>
+      <c r="P44" s="4">
+        <f>((F44*0.3)+(I44*0.2)+(J44*0.2)+(M44*0.1)+(N44*0.1)+(O44*0.1))</f>
+        <v>0.29949968418992901</v>
+      </c>
+      <c r="Q44">
+        <v>35</v>
+      </c>
+      <c r="R44">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>272</v>
       </c>
@@ -4672,49 +5217,61 @@
         <v>271</v>
       </c>
       <c r="C45">
+        <v>5394944</v>
+      </c>
+      <c r="D45">
         <v>1220</v>
       </c>
-      <c r="D45" s="1">
-        <f>(C45-2)/(108622-2)</f>
-        <v>1.1213404529552568E-2</v>
-      </c>
       <c r="E45">
+        <f>D45/C45</f>
+        <v>2.2613765777735597E-4</v>
+      </c>
+      <c r="F45" s="1">
+        <f>(E45-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>9.6885344274061966E-2</v>
+      </c>
+      <c r="G45">
         <v>256</v>
       </c>
-      <c r="F45" s="1">
-        <v>5.0344149459193707E-3</v>
-      </c>
-      <c r="G45" s="2">
+      <c r="H45">
+        <f>G45/C45</f>
+        <v>4.7451836386068141E-5</v>
+      </c>
+      <c r="I45" s="1">
+        <f>(H45-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>4.7119435839296675E-2</v>
+      </c>
+      <c r="J45" s="2">
         <v>0.45997524199999995</v>
       </c>
-      <c r="H45">
+      <c r="K45">
         <v>5</v>
       </c>
-      <c r="I45">
+      <c r="L45">
         <v>7</v>
       </c>
-      <c r="J45" s="2">
-        <f>I45/384</f>
+      <c r="M45" s="2">
+        <f>L45/384</f>
         <v>1.8229166666666668E-2</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="4">
-        <f>((D45*0.3)+(F45*0.1)+(G45*0.3)+(J45*0.1)+(K45*0.1)+(L45*0.1))</f>
-        <v>0.14368295212012436</v>
-      </c>
-      <c r="N45">
-        <v>56</v>
-      </c>
-      <c r="O45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O45" s="3">
+        <v>1</v>
+      </c>
+      <c r="P45" s="4">
+        <f>((F45*0.3)+(I45*0.2)+(J45*0.2)+(M45*0.1)+(N45*0.1)+(O45*0.1))</f>
+        <v>0.23230745551674462</v>
+      </c>
+      <c r="Q45">
+        <v>46</v>
+      </c>
+      <c r="R45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>294</v>
       </c>
@@ -4722,49 +5279,61 @@
         <v>293</v>
       </c>
       <c r="C46">
+        <v>45552000</v>
+      </c>
+      <c r="D46">
         <v>63284</v>
       </c>
-      <c r="D46" s="1">
-        <f>(C46-2)/(108622-2)</f>
-        <v>0.58259988952310804</v>
-      </c>
       <c r="E46">
+        <f>D46/C46</f>
+        <v>1.3892694063926941E-3</v>
+      </c>
+      <c r="F46" s="1">
+        <f>(E46-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.60841995682228722</v>
+      </c>
+      <c r="G46">
+        <v>29494</v>
+      </c>
+      <c r="H46">
+        <f>G46/C46</f>
+        <v>6.4747980330172111E-4</v>
+      </c>
+      <c r="I46" s="1">
+        <f>(H46-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.73041629360839377</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.86038705400000004</v>
+      </c>
+      <c r="K46">
+        <v>6</v>
+      </c>
+      <c r="L46">
         <v>0</v>
       </c>
-      <c r="F46" s="1">
+      <c r="M46" s="2">
+        <f>L46/384</f>
         <v>0</v>
       </c>
-      <c r="G46" s="2">
-        <v>0.86038705400000004</v>
-      </c>
-      <c r="H46">
-        <v>6</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2">
-        <f>I46/384</f>
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1</v>
-      </c>
-      <c r="M46" s="4">
-        <f>((D46*0.3)+(F46*0.1)+(G46*0.3)+(J46*0.1)+(K46*0.1)+(L46*0.1))</f>
-        <v>0.63289608305693235</v>
-      </c>
-      <c r="N46">
+      <c r="N46" s="3">
+        <v>1</v>
+      </c>
+      <c r="O46" s="3">
+        <v>1</v>
+      </c>
+      <c r="P46" s="4">
+        <f>((F46*0.3)+(I46*0.2)+(J46*0.2)+(M46*0.1)+(N46*0.1)+(O46*0.1))</f>
+        <v>0.70068665656836493</v>
+      </c>
+      <c r="Q46">
         <v>2</v>
       </c>
-      <c r="O46">
+      <c r="R46">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>429</v>
       </c>
@@ -4772,49 +5341,60 @@
         <v>438</v>
       </c>
       <c r="C47">
+        <v>342528</v>
+      </c>
+      <c r="D47">
         <v>2</v>
       </c>
-      <c r="D47" s="1">
-        <f>(C47-2)/(108622-2)</f>
+      <c r="E47">
+        <f>D47/C47</f>
+        <v>5.8389387144992528E-6</v>
+      </c>
+      <c r="F47" s="1">
+        <f>(E47-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>1.1175518276544003E-18</v>
+      </c>
+      <c r="G47">
         <v>0</v>
       </c>
-      <c r="E47">
+      <c r="H47">
+        <f>G47/C47</f>
         <v>0</v>
       </c>
-      <c r="F47" s="1">
+      <c r="I47" s="1">
         <v>0</v>
       </c>
-      <c r="G47" s="2">
+      <c r="J47" s="2">
         <v>0.28002160799999998</v>
       </c>
-      <c r="H47">
+      <c r="K47">
         <v>0</v>
       </c>
-      <c r="I47">
+      <c r="L47">
         <v>0</v>
       </c>
-      <c r="J47" s="2">
-        <f>I47/384</f>
+      <c r="M47" s="2">
+        <f>L47/384</f>
         <v>0</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3">
-        <v>1</v>
-      </c>
-      <c r="M47" s="4">
-        <f>((D47*0.3)+(F47*0.1)+(G47*0.3)+(J47*0.1)+(K47*0.1)+(L47*0.1))</f>
-        <v>0.1840064824</v>
-      </c>
-      <c r="N47">
-        <v>50</v>
-      </c>
-      <c r="O47">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O47" s="3">
+        <v>1</v>
+      </c>
+      <c r="P47" s="4">
+        <f>((F47*0.3)+(I47*0.2)+(J47*0.2)+(M47*0.1)+(N47*0.1)+(O47*0.1))</f>
+        <v>0.1560043216</v>
+      </c>
+      <c r="Q47">
+        <v>61</v>
+      </c>
+      <c r="R47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>296</v>
       </c>
@@ -4822,49 +5402,61 @@
         <v>295</v>
       </c>
       <c r="C48">
+        <v>7722496</v>
+      </c>
+      <c r="D48">
         <v>564</v>
       </c>
-      <c r="D48" s="1">
-        <f>(C48-2)/(108622-2)</f>
-        <v>5.1740011047689194E-3</v>
-      </c>
       <c r="E48">
+        <f>D48/C48</f>
+        <v>7.3033381953192331E-5</v>
+      </c>
+      <c r="F48" s="1">
+        <f>(E48-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>2.9551496232836403E-2</v>
+      </c>
+      <c r="G48">
         <v>207</v>
       </c>
-      <c r="F48" s="1">
-        <v>4.0707964601769909E-3</v>
-      </c>
-      <c r="G48" s="2">
+      <c r="H48">
+        <f>G48/C48</f>
+        <v>2.6804805078565272E-5</v>
+      </c>
+      <c r="I48" s="1">
+        <f>(H48-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>2.3607112426778012E-2</v>
+      </c>
+      <c r="J48" s="2">
         <v>0.95277895000000001</v>
       </c>
-      <c r="H48">
+      <c r="K48">
         <v>5</v>
       </c>
-      <c r="I48">
+      <c r="L48">
         <v>17</v>
       </c>
-      <c r="J48" s="2">
-        <f>I48/384</f>
+      <c r="M48" s="2">
+        <f>L48/384</f>
         <v>4.4270833333333336E-2</v>
       </c>
-      <c r="K48" s="3">
-        <v>1</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1</v>
-      </c>
-      <c r="M48" s="4">
-        <f>((D48*0.3)+(F48*0.1)+(G48*0.3)+(J48*0.1)+(K48*0.1)+(L48*0.1))</f>
-        <v>0.4922200483107817</v>
-      </c>
-      <c r="N48">
-        <v>14</v>
-      </c>
-      <c r="O48">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N48" s="3">
+        <v>1</v>
+      </c>
+      <c r="O48" s="3">
+        <v>1</v>
+      </c>
+      <c r="P48" s="4">
+        <f>((F48*0.3)+(I48*0.2)+(J48*0.2)+(M48*0.1)+(N48*0.1)+(O48*0.1))</f>
+        <v>0.4085697446885399</v>
+      </c>
+      <c r="Q48">
+        <v>18</v>
+      </c>
+      <c r="R48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>304</v>
       </c>
@@ -4872,49 +5464,61 @@
         <v>303</v>
       </c>
       <c r="C49">
+        <v>5943556</v>
+      </c>
+      <c r="D49">
         <v>8020</v>
       </c>
-      <c r="D49" s="1">
-        <f>(C49-2)/(108622-2)</f>
-        <v>7.3816976615724547E-2</v>
-      </c>
       <c r="E49">
+        <f>D49/C49</f>
+        <v>1.3493605511582629E-3</v>
+      </c>
+      <c r="F49" s="1">
+        <f>(E49-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.59086841047004379</v>
+      </c>
+      <c r="G49">
         <v>1358</v>
       </c>
-      <c r="F49" s="1">
-        <v>2.6705998033431662E-2</v>
-      </c>
-      <c r="G49" s="2">
+      <c r="H49">
+        <f>G49/C49</f>
+        <v>2.2848274669238415E-4</v>
+      </c>
+      <c r="I49" s="1">
+        <f>(H49-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.25327291366339522</v>
+      </c>
+      <c r="J49" s="2">
         <v>0.91705547199999993</v>
       </c>
-      <c r="H49">
+      <c r="K49">
         <v>5</v>
       </c>
-      <c r="I49">
+      <c r="L49">
         <v>14</v>
       </c>
-      <c r="J49" s="2">
-        <f>I49/384</f>
+      <c r="M49" s="2">
+        <f>L49/384</f>
         <v>3.6458333333333336E-2</v>
       </c>
-      <c r="K49" s="3">
-        <v>1</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
+        <v>1</v>
+      </c>
+      <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="4">
-        <f>((D49*0.3)+(F49*0.1)+(G49*0.3)+(J49*0.1)+(K49*0.1)+(L49*0.1))</f>
-        <v>0.40357816772139388</v>
-      </c>
-      <c r="N49">
-        <v>25</v>
-      </c>
-      <c r="O49">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P49" s="4">
+        <f>((F49*0.3)+(I49*0.2)+(J49*0.2)+(M49*0.1)+(N49*0.1)+(O49*0.1))</f>
+        <v>0.51497203360702548</v>
+      </c>
+      <c r="Q49">
+        <v>7</v>
+      </c>
+      <c r="R49">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>369</v>
       </c>
@@ -4922,49 +5526,61 @@
         <v>368</v>
       </c>
       <c r="C50">
+        <v>26393088</v>
+      </c>
+      <c r="D50">
         <v>1304</v>
       </c>
-      <c r="D50" s="1">
-        <f>(C50-2)/(108622-2)</f>
-        <v>1.1986742772969987E-2</v>
-      </c>
       <c r="E50">
+        <f>D50/C50</f>
+        <v>4.9406875012124383E-5</v>
+      </c>
+      <c r="F50" s="1">
+        <f>(E50-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>1.9160776446918101E-2</v>
+      </c>
+      <c r="G50">
         <v>672</v>
       </c>
-      <c r="F50" s="1">
-        <v>1.3215339233038349E-2</v>
-      </c>
-      <c r="G50" s="2">
+      <c r="H50">
+        <f>G50/C50</f>
+        <v>2.5461211662689866E-5</v>
+      </c>
+      <c r="I50" s="1">
+        <f>(H50-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>2.2077061812793935E-2</v>
+      </c>
+      <c r="J50" s="2">
         <v>0.47101033099999995</v>
       </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50">
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
         <v>17</v>
       </c>
-      <c r="J50" s="2">
-        <f>I50/384</f>
+      <c r="M50" s="2">
+        <f>L50/384</f>
         <v>4.4270833333333336E-2</v>
       </c>
-      <c r="K50" s="3">
-        <v>1</v>
-      </c>
-      <c r="L50" s="3">
+      <c r="N50" s="3">
+        <v>1</v>
+      </c>
+      <c r="O50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="4">
-        <f>((D50*0.3)+(F50*0.1)+(G50*0.3)+(J50*0.1)+(K50*0.1)+(L50*0.1))</f>
-        <v>0.25064773938852813</v>
-      </c>
-      <c r="N50">
-        <v>42</v>
-      </c>
-      <c r="O50">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P50" s="4">
+        <f>((F50*0.3)+(I50*0.2)+(J50*0.2)+(M50*0.1)+(N50*0.1)+(O50*0.1))</f>
+        <v>0.20879279482996754</v>
+      </c>
+      <c r="Q50">
+        <v>50</v>
+      </c>
+      <c r="R50">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>194</v>
       </c>
@@ -4972,49 +5588,61 @@
         <v>193</v>
       </c>
       <c r="C51">
+        <v>538624</v>
+      </c>
+      <c r="D51">
         <v>140</v>
       </c>
-      <c r="D51" s="1">
-        <f>(C51-2)/(108622-2)</f>
-        <v>1.2704842570429018E-3</v>
-      </c>
       <c r="E51">
+        <f>D51/C51</f>
+        <v>2.5992157794676806E-4</v>
+      </c>
+      <c r="F51" s="1">
+        <f>(E51-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.11174320069040819</v>
+      </c>
+      <c r="G51">
         <v>72</v>
       </c>
-      <c r="F51" s="1">
-        <v>1.415929203539823E-3</v>
-      </c>
-      <c r="G51" s="2">
+      <c r="H51">
+        <f>G51/C51</f>
+        <v>1.3367395437262358E-4</v>
+      </c>
+      <c r="I51" s="1">
+        <f>(H51-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.14530702964972236</v>
+      </c>
+      <c r="J51" s="2">
         <v>0.36410969199999998</v>
       </c>
-      <c r="H51">
+      <c r="K51">
         <v>2</v>
       </c>
-      <c r="I51">
+      <c r="L51">
         <v>11</v>
       </c>
-      <c r="J51" s="2">
-        <f>I51/384</f>
+      <c r="M51" s="2">
+        <f>L51/384</f>
         <v>2.8645833333333332E-2</v>
       </c>
-      <c r="K51" s="3">
-        <v>1</v>
-      </c>
-      <c r="L51" s="3">
+      <c r="N51" s="3">
+        <v>1</v>
+      </c>
+      <c r="O51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="4">
-        <f>((D51*0.3)+(F51*0.1)+(G51*0.3)+(J51*0.1)+(K51*0.1)+(L51*0.1))</f>
-        <v>0.2126202291308002</v>
-      </c>
-      <c r="N51">
-        <v>46</v>
-      </c>
-      <c r="O51">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P51" s="4">
+        <f>((F51*0.3)+(I51*0.2)+(J51*0.2)+(M51*0.1)+(N51*0.1)+(O51*0.1))</f>
+        <v>0.23827088787040027</v>
+      </c>
+      <c r="Q51">
+        <v>45</v>
+      </c>
+      <c r="R51">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>300</v>
       </c>
@@ -5022,49 +5650,61 @@
         <v>299</v>
       </c>
       <c r="C52">
+        <v>1200384</v>
+      </c>
+      <c r="D52">
         <v>24</v>
       </c>
-      <c r="D52" s="1">
-        <f>(C52-2)/(108622-2)</f>
-        <v>2.0254096851408579E-4</v>
-      </c>
       <c r="E52">
+        <f>D52/C52</f>
+        <v>1.9993602047344849E-5</v>
+      </c>
+      <c r="F52" s="1">
+        <f>(E52-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>6.2250903496851402E-3</v>
+      </c>
+      <c r="G52">
         <v>8</v>
       </c>
-      <c r="F52" s="1">
-        <v>1.5732546705998033E-4</v>
-      </c>
-      <c r="G52" s="2">
+      <c r="H52">
+        <f>G52/C52</f>
+        <v>6.6645340157816163E-6</v>
+      </c>
+      <c r="I52" s="1">
+        <f>(H52-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>6.7187492016948221E-4</v>
+      </c>
+      <c r="J52" s="2">
         <v>0.52306200300000005</v>
       </c>
-      <c r="H52">
+      <c r="K52">
         <v>5</v>
       </c>
-      <c r="I52">
+      <c r="L52">
         <v>40</v>
       </c>
-      <c r="J52" s="2">
-        <f>I52/384</f>
+      <c r="M52" s="2">
+        <f>L52/384</f>
         <v>0.10416666666666667</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3">
-        <v>1</v>
-      </c>
-      <c r="M52" s="4">
-        <f>((D52*0.3)+(F52*0.1)+(G52*0.3)+(J52*0.1)+(K52*0.1)+(L52*0.1))</f>
-        <v>0.26741176240392689</v>
-      </c>
-      <c r="N52">
-        <v>36</v>
-      </c>
-      <c r="O52">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O52" s="3">
+        <v>1</v>
+      </c>
+      <c r="P52" s="4">
+        <f>((F52*0.3)+(I52*0.2)+(J52*0.2)+(M52*0.1)+(N52*0.1)+(O52*0.1))</f>
+        <v>0.21703096935560612</v>
+      </c>
+      <c r="Q52">
+        <v>47</v>
+      </c>
+      <c r="R52">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>326</v>
       </c>
@@ -5072,49 +5712,61 @@
         <v>325</v>
       </c>
       <c r="C53">
+        <v>843776</v>
+      </c>
+      <c r="D53">
         <v>10</v>
       </c>
-      <c r="D53" s="1">
-        <f>(C53-2)/(108622-2)</f>
-        <v>7.3651261277849389E-5</v>
-      </c>
       <c r="E53">
+        <f>D53/C53</f>
+        <v>1.1851486650485437E-5</v>
+      </c>
+      <c r="F53" s="1">
+        <f>(E53-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>2.6442631133779433E-3</v>
+      </c>
+      <c r="G53">
+        <v>6</v>
+      </c>
+      <c r="H53">
+        <f>G53/C53</f>
+        <v>7.1108919902912624E-6</v>
+      </c>
+      <c r="I53" s="1">
+        <f>(H53-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>1.1801762298407588E-3</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0.94841592199999991</v>
+      </c>
+      <c r="K53">
+        <v>7</v>
+      </c>
+      <c r="L53">
         <v>0</v>
       </c>
-      <c r="F53" s="1">
+      <c r="M53" s="2">
+        <f>L53/384</f>
         <v>0</v>
       </c>
-      <c r="G53" s="2">
-        <v>0.94841592199999991</v>
-      </c>
-      <c r="H53">
-        <v>7</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2">
-        <f>I53/384</f>
-        <v>0</v>
-      </c>
-      <c r="K53" s="3">
-        <v>1</v>
-      </c>
-      <c r="L53" s="3">
-        <v>1</v>
-      </c>
-      <c r="M53" s="4">
-        <f>((D53*0.3)+(F53*0.1)+(G53*0.3)+(J53*0.1)+(K53*0.1)+(L53*0.1))</f>
-        <v>0.48454687197838331</v>
-      </c>
-      <c r="N53">
-        <v>19</v>
-      </c>
-      <c r="O53">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N53" s="3">
+        <v>1</v>
+      </c>
+      <c r="O53" s="3">
+        <v>1</v>
+      </c>
+      <c r="P53" s="4">
+        <f>((F53*0.3)+(I53*0.2)+(J53*0.2)+(M53*0.1)+(N53*0.1)+(O53*0.1))</f>
+        <v>0.39071249857998147</v>
+      </c>
+      <c r="Q53">
+        <v>24</v>
+      </c>
+      <c r="R53">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>332</v>
       </c>
@@ -5122,49 +5774,61 @@
         <v>331</v>
       </c>
       <c r="C54">
+        <v>8643072</v>
+      </c>
+      <c r="D54">
         <v>3027</v>
       </c>
-      <c r="D54" s="1">
-        <f>(C54-2)/(108622-2)</f>
-        <v>2.7849383170686796E-2</v>
-      </c>
       <c r="E54">
+        <f>D54/C54</f>
+        <v>3.5022269859605472E-4</v>
+      </c>
+      <c r="F54" s="1">
+        <f>(E54-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.15145680047735691</v>
+      </c>
+      <c r="G54">
         <v>1769</v>
       </c>
-      <c r="F54" s="1">
-        <v>3.478859390363815E-2</v>
-      </c>
-      <c r="G54" s="2">
+      <c r="H54">
+        <f>G54/C54</f>
+        <v>2.0467259789112019E-4</v>
+      </c>
+      <c r="I54" s="1">
+        <f>(H54-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.2261585110755483</v>
+      </c>
+      <c r="J54" s="2">
         <v>0.95884328600000002</v>
       </c>
-      <c r="H54">
+      <c r="K54">
         <v>4</v>
       </c>
-      <c r="I54">
+      <c r="L54">
         <v>3</v>
       </c>
-      <c r="J54" s="2">
-        <f>I54/384</f>
+      <c r="M54" s="2">
+        <f>L54/384</f>
         <v>7.8125E-3</v>
       </c>
-      <c r="K54" s="3">
-        <v>1</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1</v>
-      </c>
-      <c r="M54" s="4">
-        <f>((D54*0.3)+(F54*0.1)+(G54*0.3)+(J54*0.1)+(K54*0.1)+(L54*0.1))</f>
-        <v>0.50026791014156979</v>
-      </c>
-      <c r="N54">
-        <v>10</v>
-      </c>
-      <c r="O54">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N54" s="3">
+        <v>1</v>
+      </c>
+      <c r="O54" s="3">
+        <v>1</v>
+      </c>
+      <c r="P54" s="4">
+        <f>((F54*0.3)+(I54*0.2)+(J54*0.2)+(M54*0.1)+(N54*0.1)+(O54*0.1))</f>
+        <v>0.48321864955831673</v>
+      </c>
+      <c r="Q54">
+        <v>11</v>
+      </c>
+      <c r="R54">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>336</v>
       </c>
@@ -5172,49 +5836,61 @@
         <v>335</v>
       </c>
       <c r="C55">
+        <v>3389696</v>
+      </c>
+      <c r="D55">
         <v>1255</v>
       </c>
-      <c r="D55" s="1">
-        <f>(C55-2)/(108622-2)</f>
-        <v>1.1535628797643159E-2</v>
-      </c>
       <c r="E55">
+        <f>D55/C55</f>
+        <v>3.7023969111094329E-4</v>
+      </c>
+      <c r="F55" s="1">
+        <f>(E55-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.16026008911828157</v>
+      </c>
+      <c r="G55">
         <v>420</v>
       </c>
-      <c r="F55" s="1">
-        <v>8.2595870206489674E-3</v>
-      </c>
-      <c r="G55" s="2">
+      <c r="H55">
+        <f>G55/C55</f>
+        <v>1.2390491654708859E-4</v>
+      </c>
+      <c r="I55" s="1">
+        <f>(H55-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.13418229344129518</v>
+      </c>
+      <c r="J55" s="2">
         <v>0.68244708700000001</v>
       </c>
-      <c r="H55">
+      <c r="K55">
         <v>4</v>
       </c>
-      <c r="I55">
+      <c r="L55">
         <v>113</v>
       </c>
-      <c r="J55" s="2">
-        <f>I55/384</f>
+      <c r="M55" s="2">
+        <f>L55/384</f>
         <v>0.29427083333333331</v>
       </c>
-      <c r="K55" s="3">
-        <v>1</v>
-      </c>
-      <c r="L55" s="3">
-        <v>1</v>
-      </c>
-      <c r="M55" s="4">
-        <f>((D55*0.3)+(F55*0.1)+(G55*0.3)+(J55*0.1)+(K55*0.1)+(L55*0.1))</f>
-        <v>0.43844785677469111</v>
-      </c>
-      <c r="N55">
-        <v>22</v>
-      </c>
-      <c r="O55">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N55" s="3">
+        <v>1</v>
+      </c>
+      <c r="O55" s="3">
+        <v>1</v>
+      </c>
+      <c r="P55" s="4">
+        <f>((F55*0.3)+(I55*0.2)+(J55*0.2)+(M55*0.1)+(N55*0.1)+(O55*0.1))</f>
+        <v>0.44083098615707683</v>
+      </c>
+      <c r="Q55">
+        <v>15</v>
+      </c>
+      <c r="R55">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>340</v>
       </c>
@@ -5222,49 +5898,61 @@
         <v>339</v>
       </c>
       <c r="C56">
+        <v>16281856</v>
+      </c>
+      <c r="D56">
         <v>11089</v>
       </c>
-      <c r="D56" s="1">
-        <f>(C56-2)/(108622-2)</f>
-        <v>0.10207144172343952</v>
-      </c>
       <c r="E56">
+        <f>D56/C56</f>
+        <v>6.8106486140155024E-4</v>
+      </c>
+      <c r="F56" s="1">
+        <f>(E56-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.29695813148890926</v>
+      </c>
+      <c r="G56">
         <v>5089</v>
       </c>
-      <c r="F56" s="1">
-        <v>0.10007866273352999</v>
-      </c>
-      <c r="G56" s="2">
+      <c r="H56">
+        <f>G56/C56</f>
+        <v>3.125565046147073E-4</v>
+      </c>
+      <c r="I56" s="1">
+        <f>(H56-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.34901400870678445</v>
+      </c>
+      <c r="J56" s="2">
         <v>0.94308672100000002</v>
       </c>
-      <c r="H56">
+      <c r="K56">
         <v>5</v>
       </c>
-      <c r="I56">
+      <c r="L56">
         <v>13</v>
       </c>
-      <c r="J56" s="2">
-        <f>I56/384</f>
+      <c r="M56" s="2">
+        <f>L56/384</f>
         <v>3.3854166666666664E-2</v>
       </c>
-      <c r="K56" s="3">
-        <v>1</v>
-      </c>
-      <c r="L56" s="3">
-        <v>1</v>
-      </c>
-      <c r="M56" s="4">
-        <f>((D56*0.3)+(F56*0.1)+(G56*0.3)+(J56*0.1)+(K56*0.1)+(L56*0.1))</f>
-        <v>0.52694073175705147</v>
-      </c>
-      <c r="N56">
-        <v>8</v>
-      </c>
-      <c r="O56">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N56" s="3">
+        <v>1</v>
+      </c>
+      <c r="O56" s="3">
+        <v>1</v>
+      </c>
+      <c r="P56" s="4">
+        <f>((F56*0.3)+(I56*0.2)+(J56*0.2)+(M56*0.1)+(N56*0.1)+(O56*0.1))</f>
+        <v>0.55089300205469627</v>
+      </c>
+      <c r="Q56">
+        <v>5</v>
+      </c>
+      <c r="R56">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>350</v>
       </c>
@@ -5272,49 +5960,61 @@
         <v>349</v>
       </c>
       <c r="C57">
+        <v>228608</v>
+      </c>
+      <c r="D57">
         <v>33</v>
       </c>
-      <c r="D57" s="1">
-        <f>(C57-2)/(108622-2)</f>
-        <v>2.8539863745166634E-4</v>
-      </c>
       <c r="E57">
+        <f>D57/C57</f>
+        <v>1.4435190369540873E-4</v>
+      </c>
+      <c r="F57" s="1">
+        <f>(E57-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>6.091672414476218E-2</v>
+      </c>
+      <c r="G57">
         <v>9</v>
       </c>
-      <c r="F57" s="1">
-        <v>1.7699115044247788E-4</v>
-      </c>
-      <c r="G57" s="2">
+      <c r="H57">
+        <f>G57/C57</f>
+        <v>3.9368701007838745E-5</v>
+      </c>
+      <c r="I57" s="1">
+        <f>(H57-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>3.7914563217679741E-2</v>
+      </c>
+      <c r="J57" s="2">
         <v>0.31265499599999996</v>
       </c>
-      <c r="H57">
+      <c r="K57">
         <v>0</v>
       </c>
-      <c r="I57">
+      <c r="L57">
         <v>5</v>
       </c>
-      <c r="J57" s="2">
-        <f>I57/384</f>
+      <c r="M57" s="2">
+        <f>L57/384</f>
         <v>1.3020833333333334E-2</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3">
-        <v>1</v>
-      </c>
-      <c r="M57" s="4">
-        <f>((D57*0.3)+(F57*0.1)+(G57*0.3)+(J57*0.1)+(K57*0.1)+(L57*0.1))</f>
-        <v>0.19520190083961309</v>
-      </c>
-      <c r="N57">
-        <v>49</v>
-      </c>
-      <c r="O57">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O57" s="3">
+        <v>1</v>
+      </c>
+      <c r="P57" s="4">
+        <f>((F57*0.3)+(I57*0.2)+(J57*0.2)+(M57*0.1)+(N57*0.1)+(O57*0.1))</f>
+        <v>0.18969101242029793</v>
+      </c>
+      <c r="Q57">
+        <v>54</v>
+      </c>
+      <c r="R57">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>348</v>
       </c>
@@ -5322,49 +6022,61 @@
         <v>347</v>
       </c>
       <c r="C58">
+        <v>11929056</v>
+      </c>
+      <c r="D58">
         <v>6465</v>
       </c>
-      <c r="D58" s="1">
-        <f>(C58-2)/(108622-2)</f>
-        <v>5.9501012704842572E-2</v>
-      </c>
       <c r="E58">
+        <f>D58/C58</f>
+        <v>5.4195403223859459E-4</v>
+      </c>
+      <c r="F58" s="1">
+        <f>(E58-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.2357784721924899</v>
+      </c>
+      <c r="G58">
         <v>1329</v>
       </c>
-      <c r="F58" s="1">
-        <v>2.6135693215339234E-2</v>
-      </c>
-      <c r="G58" s="2">
+      <c r="H58">
+        <f>G58/C58</f>
+        <v>1.1140864792654171E-4</v>
+      </c>
+      <c r="I58" s="1">
+        <f>(H58-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.11995185493998688</v>
+      </c>
+      <c r="J58" s="2">
         <v>0.20160347000000001</v>
       </c>
-      <c r="H58">
+      <c r="K58">
         <v>5</v>
       </c>
-      <c r="I58">
+      <c r="L58">
         <v>26</v>
       </c>
-      <c r="J58" s="2">
-        <f>I58/384</f>
+      <c r="M58" s="2">
+        <f>L58/384</f>
         <v>6.7708333333333329E-2</v>
       </c>
-      <c r="K58" s="3">
-        <v>1</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1</v>
-      </c>
-      <c r="M58" s="4">
-        <f>((D58*0.3)+(F58*0.1)+(G58*0.3)+(J58*0.1)+(K58*0.1)+(L58*0.1))</f>
-        <v>0.28771574746632</v>
-      </c>
-      <c r="N58">
-        <v>33</v>
-      </c>
-      <c r="O58">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N58" s="3">
+        <v>1</v>
+      </c>
+      <c r="O58" s="3">
+        <v>1</v>
+      </c>
+      <c r="P58" s="4">
+        <f>((F58*0.3)+(I58*0.2)+(J58*0.2)+(M58*0.1)+(N58*0.1)+(O58*0.1))</f>
+        <v>0.34181543997907771</v>
+      </c>
+      <c r="Q58">
+        <v>29</v>
+      </c>
+      <c r="R58">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -5372,49 +6084,61 @@
         <v>2</v>
       </c>
       <c r="C59">
+        <v>3736960</v>
+      </c>
+      <c r="D59">
         <v>916</v>
       </c>
-      <c r="D59" s="1">
-        <f>(C59-2)/(108622-2)</f>
-        <v>8.4146566009942921E-3</v>
-      </c>
       <c r="E59">
+        <f>D59/C59</f>
+        <v>2.4511902723069016E-4</v>
+      </c>
+      <c r="F59" s="1">
+        <f>(E59-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.10523317544667414</v>
+      </c>
+      <c r="G59">
         <v>428</v>
       </c>
-      <c r="F59" s="1">
-        <v>8.4169124877089482E-3</v>
-      </c>
-      <c r="G59" s="2">
+      <c r="H59">
+        <f>G59/C59</f>
+        <v>1.1453159787634869E-4</v>
+      </c>
+      <c r="I59" s="1">
+        <f>(H59-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.12350819231979644</v>
+      </c>
+      <c r="J59" s="2">
         <v>0.8396049659999999</v>
       </c>
-      <c r="H59">
+      <c r="K59">
         <v>6</v>
       </c>
-      <c r="I59">
+      <c r="L59">
         <v>2</v>
       </c>
-      <c r="J59" s="2">
-        <f>I59/384</f>
+      <c r="M59" s="2">
+        <f>L59/384</f>
         <v>5.208333333333333E-3</v>
       </c>
-      <c r="K59" s="3">
-        <v>1</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1</v>
-      </c>
-      <c r="M59" s="4">
-        <f>((D59*0.3)+(F59*0.1)+(G59*0.3)+(J59*0.1)+(K59*0.1)+(L59*0.1))</f>
-        <v>0.45576841136240254</v>
-      </c>
-      <c r="N59">
-        <v>21</v>
-      </c>
-      <c r="O59">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N59" s="3">
+        <v>1</v>
+      </c>
+      <c r="O59" s="3">
+        <v>1</v>
+      </c>
+      <c r="P59" s="4">
+        <f>((F59*0.3)+(I59*0.2)+(J59*0.2)+(M59*0.1)+(N59*0.1)+(O59*0.1))</f>
+        <v>0.42471341763129489</v>
+      </c>
+      <c r="Q59">
+        <v>16</v>
+      </c>
+      <c r="R59">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>431</v>
       </c>
@@ -5422,49 +6146,61 @@
         <v>116</v>
       </c>
       <c r="C60">
+        <v>123758120</v>
+      </c>
+      <c r="D60">
         <v>4530</v>
       </c>
-      <c r="D60" s="1">
-        <f>(C60-2)/(108622-2)</f>
-        <v>4.1686613883262752E-2</v>
-      </c>
       <c r="E60">
+        <f>D60/C60</f>
+        <v>3.6603658814468096E-5</v>
+      </c>
+      <c r="F60" s="1">
+        <f>(E60-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>1.3530040079489443E-2</v>
+      </c>
+      <c r="G60">
         <v>1481</v>
       </c>
-      <c r="F60" s="1">
-        <v>2.9124877089478859E-2</v>
-      </c>
-      <c r="G60" s="2">
+      <c r="H60">
+        <f>G60/C60</f>
+        <v>1.196689154618703E-5</v>
+      </c>
+      <c r="I60" s="1">
+        <f>(H60-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>6.7100672029695814E-3</v>
+      </c>
+      <c r="J60" s="2">
         <v>0.84022306999999985</v>
       </c>
-      <c r="H60">
+      <c r="K60">
         <v>7</v>
       </c>
-      <c r="I60">
+      <c r="L60">
         <v>98</v>
       </c>
-      <c r="J60" s="2">
-        <f>I60/384</f>
+      <c r="M60" s="2">
+        <f>L60/384</f>
         <v>0.25520833333333331</v>
       </c>
-      <c r="K60" s="3">
-        <v>1</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1</v>
-      </c>
-      <c r="M60" s="4">
-        <f>((D60*0.3)+(F60*0.1)+(G60*0.3)+(J60*0.1)+(K60*0.1)+(L60*0.1))</f>
-        <v>0.49300622620725998</v>
-      </c>
-      <c r="N60">
-        <v>13</v>
-      </c>
-      <c r="O60">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N60" s="3">
+        <v>1</v>
+      </c>
+      <c r="O60" s="3">
+        <v>1</v>
+      </c>
+      <c r="P60" s="4">
+        <f>((F60*0.3)+(I60*0.2)+(J60*0.2)+(M60*0.1)+(N60*0.1)+(O60*0.1))</f>
+        <v>0.39896647279777409</v>
+      </c>
+      <c r="Q60">
+        <v>19</v>
+      </c>
+      <c r="R60">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>432</v>
       </c>
@@ -5472,49 +6208,61 @@
         <v>351</v>
       </c>
       <c r="C61">
+        <v>1596006656</v>
+      </c>
+      <c r="D61">
         <v>27409</v>
       </c>
-      <c r="D61" s="1">
-        <f>(C61-2)/(108622-2)</f>
-        <v>0.25232001473025223</v>
-      </c>
       <c r="E61">
+        <f>D61/C61</f>
+        <v>1.7173487276484139E-5</v>
+      </c>
+      <c r="F61" s="1">
+        <f>(E61-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>4.9848298904799802E-3</v>
+      </c>
+      <c r="G61">
         <v>9695</v>
       </c>
-      <c r="F61" s="1">
-        <v>0.19065880039331368</v>
-      </c>
-      <c r="G61" s="2">
+      <c r="H61">
+        <f>G61/C61</f>
+        <v>6.0745360701052115E-6</v>
+      </c>
+      <c r="I61" s="1">
+        <f>(H61-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>1.9291599165314246E-18</v>
+      </c>
+      <c r="J61" s="2">
         <v>0.87482138799999998</v>
       </c>
-      <c r="H61">
+      <c r="K61">
         <v>4</v>
       </c>
-      <c r="I61">
+      <c r="L61">
         <v>384</v>
       </c>
-      <c r="J61" s="2">
-        <f>I61/384</f>
-        <v>1</v>
-      </c>
-      <c r="K61" s="3">
-        <v>1</v>
-      </c>
-      <c r="L61" s="3">
+      <c r="M61" s="2">
+        <f>L61/384</f>
+        <v>1</v>
+      </c>
+      <c r="N61" s="3">
+        <v>1</v>
+      </c>
+      <c r="O61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="4">
-        <f>((D61*0.3)+(F61*0.1)+(G61*0.3)+(J61*0.1)+(K61*0.1)+(L61*0.1))</f>
-        <v>0.557208300858407</v>
-      </c>
-      <c r="N61">
-        <v>5</v>
-      </c>
-      <c r="O61">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P61" s="4">
+        <f>((F61*0.3)+(I61*0.2)+(J61*0.2)+(M61*0.1)+(N61*0.1)+(O61*0.1))</f>
+        <v>0.37645972656714399</v>
+      </c>
+      <c r="Q61">
+        <v>27</v>
+      </c>
+      <c r="R61">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>355</v>
       </c>
@@ -5522,49 +6270,61 @@
         <v>354</v>
       </c>
       <c r="C62">
+        <v>224000</v>
+      </c>
+      <c r="D62">
         <v>75</v>
       </c>
-      <c r="D62" s="1">
-        <f>(C62-2)/(108622-2)</f>
-        <v>6.7206775916037566E-4</v>
-      </c>
       <c r="E62">
+        <f>D62/C62</f>
+        <v>3.3482142857142857E-4</v>
+      </c>
+      <c r="F62" s="1">
+        <f>(E62-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.14468346400521909</v>
+      </c>
+      <c r="G62">
         <v>20</v>
       </c>
-      <c r="F62" s="1">
-        <v>3.9331366764995085E-4</v>
-      </c>
-      <c r="G62" s="2">
+      <c r="H62">
+        <f>G62/C62</f>
+        <v>8.9285714285714286E-5</v>
+      </c>
+      <c r="I62" s="1">
+        <f>(H62-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>9.4758810823867223E-2</v>
+      </c>
+      <c r="J62" s="2">
         <v>3.1623552999999999E-2</v>
       </c>
-      <c r="H62">
+      <c r="K62">
         <v>4</v>
       </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62" s="2">
-        <f>I62/384</f>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62" s="2">
+        <f>L62/384</f>
         <v>2.6041666666666665E-3</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3">
-        <v>1</v>
-      </c>
-      <c r="M62" s="4">
-        <f>((D62*0.3)+(F62*0.1)+(G62*0.3)+(J62*0.1)+(K62*0.1)+(L62*0.1))</f>
-        <v>0.10998843426117978</v>
-      </c>
-      <c r="N62">
+      <c r="O62" s="3">
+        <v>1</v>
+      </c>
+      <c r="P62" s="4">
+        <f>((F62*0.3)+(I62*0.2)+(J62*0.2)+(M62*0.1)+(N62*0.1)+(O62*0.1))</f>
+        <v>0.16894192863300583</v>
+      </c>
+      <c r="Q62">
         <v>59</v>
       </c>
-      <c r="O62">
+      <c r="R62">
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>359</v>
       </c>
@@ -5572,49 +6332,61 @@
         <v>358</v>
       </c>
       <c r="C63">
+        <v>6774272</v>
+      </c>
+      <c r="D63">
         <v>1545</v>
       </c>
-      <c r="D63" s="1">
-        <f>(C63-2)/(108622-2)</f>
-        <v>1.42054870189652E-2</v>
-      </c>
       <c r="E63">
+        <f>D63/C63</f>
+        <v>2.2806878731766308E-4</v>
+      </c>
+      <c r="F63" s="1">
+        <f>(E63-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>9.7734637230218843E-2</v>
+      </c>
+      <c r="G63">
         <v>878</v>
       </c>
-      <c r="F63" s="1">
-        <v>1.7266470009832842E-2</v>
-      </c>
-      <c r="G63" s="2">
+      <c r="H63">
+        <f>G63/C63</f>
+        <v>1.2960802282518328E-4</v>
+      </c>
+      <c r="I63" s="1">
+        <f>(H63-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.14067684838575348</v>
+      </c>
+      <c r="J63" s="2">
         <v>0.16534326200000002</v>
       </c>
-      <c r="H63">
+      <c r="K63">
         <v>2</v>
       </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="J63" s="2">
-        <f>I63/384</f>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63" s="2">
+        <f>L63/384</f>
         <v>2.6041666666666665E-3</v>
       </c>
-      <c r="K63" s="3">
-        <v>1</v>
-      </c>
-      <c r="L63" s="3">
-        <v>1</v>
-      </c>
-      <c r="M63" s="4">
-        <f>((D63*0.3)+(F63*0.1)+(G63*0.3)+(J63*0.1)+(K63*0.1)+(L63*0.1))</f>
-        <v>0.25585168837333949</v>
-      </c>
-      <c r="N63">
-        <v>40</v>
-      </c>
-      <c r="O63">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N63" s="3">
+        <v>1</v>
+      </c>
+      <c r="O63" s="3">
+        <v>1</v>
+      </c>
+      <c r="P63" s="4">
+        <f>((F63*0.3)+(I63*0.2)+(J63*0.2)+(M63*0.1)+(N63*0.1)+(O63*0.1))</f>
+        <v>0.29078482991288301</v>
+      </c>
+      <c r="Q63">
+        <v>37</v>
+      </c>
+      <c r="R63">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>430</v>
       </c>
@@ -5622,49 +6394,61 @@
         <v>364</v>
       </c>
       <c r="C64">
+        <v>15632128</v>
+      </c>
+      <c r="D64">
         <v>18214</v>
       </c>
-      <c r="D64" s="1">
-        <f>(C64-2)/(108622-2)</f>
-        <v>0.16766709629902413</v>
-      </c>
       <c r="E64">
+        <f>D64/C64</f>
+        <v>1.1651644612940733E-3</v>
+      </c>
+      <c r="F64" s="1">
+        <f>(E64-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.50986066945210273</v>
+      </c>
+      <c r="G64">
+        <v>6315</v>
+      </c>
+      <c r="H64">
+        <f>G64/C64</f>
+        <v>4.0397570951312576E-4</v>
+      </c>
+      <c r="I64" s="1">
+        <f>(H64-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.45311991524966994</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0.95899510499999996</v>
+      </c>
+      <c r="K64">
+        <v>4</v>
+      </c>
+      <c r="L64">
         <v>0</v>
       </c>
-      <c r="F64" s="1">
+      <c r="M64" s="2">
+        <f>L64/384</f>
         <v>0</v>
       </c>
-      <c r="G64" s="2">
-        <v>0.95899510499999996</v>
-      </c>
-      <c r="H64">
-        <v>4</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2">
-        <f>I64/384</f>
-        <v>0</v>
-      </c>
-      <c r="K64" s="3">
-        <v>1</v>
-      </c>
-      <c r="L64" s="3">
-        <v>1</v>
-      </c>
-      <c r="M64" s="4">
-        <f>((D64*0.3)+(F64*0.1)+(G64*0.3)+(J64*0.1)+(K64*0.1)+(L64*0.1))</f>
-        <v>0.53799866038970723</v>
-      </c>
-      <c r="N64">
-        <v>6</v>
-      </c>
-      <c r="O64">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N64" s="3">
+        <v>1</v>
+      </c>
+      <c r="O64" s="3">
+        <v>1</v>
+      </c>
+      <c r="P64" s="4">
+        <f>((F64*0.3)+(I64*0.2)+(J64*0.2)+(M64*0.1)+(N64*0.1)+(O64*0.1))</f>
+        <v>0.63538120488556482</v>
+      </c>
+      <c r="Q64">
+        <v>3</v>
+      </c>
+      <c r="R64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>371</v>
       </c>
@@ -5672,49 +6456,61 @@
         <v>370</v>
       </c>
       <c r="C65">
+        <v>832512</v>
+      </c>
+      <c r="D65">
         <v>60</v>
       </c>
-      <c r="D65" s="1">
-        <f>(C65-2)/(108622-2)</f>
-        <v>5.3397164426440805E-4</v>
-      </c>
       <c r="E65">
+        <f>D65/C65</f>
+        <v>7.2071033210332103E-5</v>
+      </c>
+      <c r="F65" s="1">
+        <f>(E65-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>2.9128264133892055E-2</v>
+      </c>
+      <c r="G65">
         <v>21</v>
       </c>
-      <c r="F65" s="1">
-        <v>4.1297935103244839E-4</v>
-      </c>
-      <c r="G65" s="2">
+      <c r="H65">
+        <f>G65/C65</f>
+        <v>2.5224861623616237E-5</v>
+      </c>
+      <c r="I65" s="1">
+        <f>(H65-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>2.1807912293209431E-2</v>
+      </c>
+      <c r="J65" s="2">
         <v>0.19953911200000002</v>
       </c>
-      <c r="H65">
+      <c r="K65">
         <v>0</v>
       </c>
-      <c r="I65">
+      <c r="L65">
         <v>5</v>
       </c>
-      <c r="J65" s="2">
-        <f>I65/384</f>
+      <c r="M65" s="2">
+        <f>L65/384</f>
         <v>1.3020833333333334E-2</v>
       </c>
-      <c r="K65" s="3">
+      <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3">
-        <v>1</v>
-      </c>
-      <c r="M65" s="4">
-        <f>((D65*0.3)+(F65*0.1)+(G65*0.3)+(J65*0.1)+(K65*0.1)+(L65*0.1))</f>
-        <v>0.16136530636171592</v>
-      </c>
-      <c r="N65">
-        <v>54</v>
-      </c>
-      <c r="O65">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O65" s="3">
+        <v>1</v>
+      </c>
+      <c r="P65" s="4">
+        <f>((F65*0.3)+(I65*0.2)+(J65*0.2)+(M65*0.1)+(N65*0.1)+(O65*0.1))</f>
+        <v>0.15430996743214284</v>
+      </c>
+      <c r="Q65">
+        <v>62</v>
+      </c>
+      <c r="R65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>426</v>
       </c>
@@ -5722,73 +6518,112 @@
         <v>396</v>
       </c>
       <c r="C66">
+        <v>81664</v>
+      </c>
+      <c r="D66">
         <v>3</v>
       </c>
-      <c r="D66" s="1">
-        <f>(C66-2)/(108622-2)</f>
-        <v>9.2064076597311737E-6</v>
-      </c>
       <c r="E66">
+        <f>D66/C66</f>
+        <v>3.6735893416927902E-5</v>
+      </c>
+      <c r="F66" s="1">
+        <f>(E66-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>1.3588195637718568E-2</v>
+      </c>
+      <c r="G66">
         <v>0</v>
       </c>
-      <c r="F66" s="1">
+      <c r="H66">
+        <f>G66/C66</f>
         <v>0</v>
       </c>
-      <c r="G66" s="2">
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="2">
         <v>0.249509697</v>
       </c>
-      <c r="H66">
+      <c r="K66">
         <v>0</v>
       </c>
-      <c r="I66">
+      <c r="L66">
         <v>22</v>
       </c>
-      <c r="J66" s="2">
-        <f>I66/384</f>
+      <c r="M66" s="2">
+        <f>L66/384</f>
         <v>5.7291666666666664E-2</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>0</v>
       </c>
-      <c r="L66" s="3">
-        <v>1</v>
-      </c>
-      <c r="M66" s="4">
-        <f>((D66*0.3)+(F66*0.1)+(G66*0.3)+(J66*0.1)+(K66*0.1)+(L66*0.1))</f>
-        <v>0.18058483768896461</v>
-      </c>
-      <c r="N66">
-        <v>51</v>
-      </c>
-      <c r="O66">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C67">
-        <f>SUM(C2:C66)</f>
+      <c r="O66" s="3">
+        <v>1</v>
+      </c>
+      <c r="P66" s="4">
+        <f>((F66*0.3)+(I66*0.2)+(J66*0.2)+(M66*0.1)+(N66*0.1)+(O66*0.1))</f>
+        <v>0.15970756475798226</v>
+      </c>
+      <c r="Q66">
+        <v>60</v>
+      </c>
+      <c r="R66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <f>SUM(D2:D66)</f>
         <v>422803</v>
       </c>
       <c r="E67">
-        <f>SUM(E2:E66)</f>
-        <v>132342</v>
-      </c>
-      <c r="M67" s="4"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F68" s="1">
-        <f>AVERAGE(E2:E66)</f>
-        <v>2036.0307692307692</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F69" s="1">
-        <f>_xlfn.STDEV.P(E2:E66)</f>
-        <v>6579.0904210448443</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L70" s="3" t="s">
+        <f>MIN(E2:E31,E33:E66)</f>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f>SUM(G2:G66)</f>
+        <v>175329</v>
+      </c>
+      <c r="H67">
+        <f>MIN(H2:H31,H33:H39,H41:H50,H53:H66)</f>
+        <v>0</v>
+      </c>
+      <c r="P67" s="4"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <f>MAX(E2:E31,E33:E66)</f>
+        <v>2.2796474358974359E-3</v>
+      </c>
+      <c r="H68">
+        <f>MAX(H2:H31,H33:H39,H41:H50,H53:H66)</f>
+        <v>8.8421111769392631E-4</v>
+      </c>
+      <c r="I68" s="1">
+        <f>AVERAGE(G2:G66)</f>
+        <v>2697.3692307692309</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>2.2796474358974402E-3</v>
+      </c>
+      <c r="H69" s="5">
+        <v>6.0745360701052098E-6</v>
+      </c>
+      <c r="I69" s="1">
+        <f>_xlfn.STDEV.P(G2:G66)</f>
+        <v>7401.9161979942855</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E70" s="5">
+        <v>5.8389387144992503E-6</v>
+      </c>
+      <c r="H70">
+        <v>8.8421111769392598E-4</v>
+      </c>
+      <c r="O70" s="3" t="s">
         <v>448</v>
       </c>
     </row>
@@ -5801,6 +6636,1517 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A43455-C8CD-4C48-BD11-FB46A79EA223}">
+  <dimension ref="A1:B187"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>9028</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38">
+        <v>50850</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52">
+        <v>11080</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72">
+        <v>4021</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87">
+        <v>9815</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>173</v>
+      </c>
+      <c r="B88">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B89">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>177</v>
+      </c>
+      <c r="B90">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>179</v>
+      </c>
+      <c r="B91">
+        <v>6397</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>181</v>
+      </c>
+      <c r="B92">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>189</v>
+      </c>
+      <c r="B96">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>191</v>
+      </c>
+      <c r="B97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>193</v>
+      </c>
+      <c r="B98">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>195</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>197</v>
+      </c>
+      <c r="B100">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>199</v>
+      </c>
+      <c r="B101">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>201</v>
+      </c>
+      <c r="B102">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>203</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>205</v>
+      </c>
+      <c r="B104">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>207</v>
+      </c>
+      <c r="B105">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>209</v>
+      </c>
+      <c r="B106">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>211</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>213</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>215</v>
+      </c>
+      <c r="B109">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>217</v>
+      </c>
+      <c r="B110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>219</v>
+      </c>
+      <c r="B111">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>221</v>
+      </c>
+      <c r="B112">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>223</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>225</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>227</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>229</v>
+      </c>
+      <c r="B116">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>231</v>
+      </c>
+      <c r="B117">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>233</v>
+      </c>
+      <c r="B118">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>235</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>237</v>
+      </c>
+      <c r="B120">
+        <v>4666</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>239</v>
+      </c>
+      <c r="B121">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>241</v>
+      </c>
+      <c r="B122">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>243</v>
+      </c>
+      <c r="B123">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>245</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>247</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>249</v>
+      </c>
+      <c r="B126">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>251</v>
+      </c>
+      <c r="B127">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>253</v>
+      </c>
+      <c r="B128">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>255</v>
+      </c>
+      <c r="B129">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>257</v>
+      </c>
+      <c r="B130">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>259</v>
+      </c>
+      <c r="B131">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>261</v>
+      </c>
+      <c r="B132">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>263</v>
+      </c>
+      <c r="B133">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>265</v>
+      </c>
+      <c r="B134">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>267</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>269</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>271</v>
+      </c>
+      <c r="B137">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>273</v>
+      </c>
+      <c r="B138">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>275</v>
+      </c>
+      <c r="B139">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>277</v>
+      </c>
+      <c r="B140">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>279</v>
+      </c>
+      <c r="B141">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>281</v>
+      </c>
+      <c r="B142">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>283</v>
+      </c>
+      <c r="B143">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>285</v>
+      </c>
+      <c r="B144">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>287</v>
+      </c>
+      <c r="B145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>289</v>
+      </c>
+      <c r="B146">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>291</v>
+      </c>
+      <c r="B147">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>293</v>
+      </c>
+      <c r="B148">
+        <v>29494</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>295</v>
+      </c>
+      <c r="B149">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>297</v>
+      </c>
+      <c r="B150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>299</v>
+      </c>
+      <c r="B151">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>301</v>
+      </c>
+      <c r="B152">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>303</v>
+      </c>
+      <c r="B153">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>305</v>
+      </c>
+      <c r="B154">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>307</v>
+      </c>
+      <c r="B155">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>309</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>311</v>
+      </c>
+      <c r="B157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>313</v>
+      </c>
+      <c r="B158">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>315</v>
+      </c>
+      <c r="B159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>317</v>
+      </c>
+      <c r="B160">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>319</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>321</v>
+      </c>
+      <c r="B162">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>323</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>325</v>
+      </c>
+      <c r="B164">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>327</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>329</v>
+      </c>
+      <c r="B166">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>331</v>
+      </c>
+      <c r="B167">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>333</v>
+      </c>
+      <c r="B168">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>335</v>
+      </c>
+      <c r="B169">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>337</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>339</v>
+      </c>
+      <c r="B171">
+        <v>5089</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>341</v>
+      </c>
+      <c r="B172">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>343</v>
+      </c>
+      <c r="B173">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>345</v>
+      </c>
+      <c r="B174">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>347</v>
+      </c>
+      <c r="B175">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>349</v>
+      </c>
+      <c r="B176">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>351</v>
+      </c>
+      <c r="B177">
+        <v>9695</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>352</v>
+      </c>
+      <c r="B178">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>354</v>
+      </c>
+      <c r="B179">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>356</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>358</v>
+      </c>
+      <c r="B181">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>360</v>
+      </c>
+      <c r="B182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>362</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>364</v>
+      </c>
+      <c r="B184">
+        <v>6315</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>366</v>
+      </c>
+      <c r="B185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>368</v>
+      </c>
+      <c r="B186">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>370</v>
+      </c>
+      <c r="B187">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2413B972-2BB9-41F4-8DD9-22C30F350830}">
   <dimension ref="A1:D213"/>
   <sheetViews>
@@ -8806,7 +11152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADFB703-D294-4F77-8A9C-F034CD10C4E8}">
   <dimension ref="A1:B212"/>
   <sheetViews>
@@ -10517,7 +12863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F98D28-F666-472F-ADFE-7B1DB303A91C}">
   <dimension ref="A1:A65"/>
   <sheetViews>
@@ -10853,7 +13199,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A65">
+  <sortState ref="A1:A65">
     <sortCondition ref="A1:A65"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikna\Desktop\Politics of Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AD06AD-D8AC-4B63-8C57-D51360A3AF5E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459EF644-9D61-4C4F-941A-1080A91660BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8355" yWindow="1890" windowWidth="19530" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shortlist" sheetId="8" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="452">
   <si>
     <t>AD</t>
   </si>
@@ -1314,9 +1315,6 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Cuba</t>
-  </si>
-  <si>
     <t>Myanmar</t>
   </si>
   <si>
@@ -1363,9 +1361,6 @@
   </si>
   <si>
     <t>Mirai Botnet Hits Normalised</t>
-  </si>
-  <si>
-    <t>No Data</t>
   </si>
   <si>
     <t>Citizens arrested over political social media posts (Impossible to fully quantify)</t>
@@ -2106,40 +2101,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{442F76CE-3F66-42BB-AD05-A29D1E28F0FF}" name="Table3" displayName="Table3" ref="A1:R67" totalsRowCount="1">
-  <autoFilter ref="A1:R66" xr:uid="{5D7A7C19-206F-4AA4-8764-1A67075BA007}"/>
-  <sortState ref="A2:R66">
-    <sortCondition ref="A1:A66"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{442F76CE-3F66-42BB-AD05-A29D1E28F0FF}" name="Table3" displayName="Table3" ref="A1:R66" totalsRowCount="1">
+  <autoFilter ref="A1:R65" xr:uid="{5D7A7C19-206F-4AA4-8764-1A67075BA007}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R65">
+    <sortCondition descending="1" ref="P1:P65"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6CAE0BB8-B52D-4A20-9ADF-6A97394DE9AD}" name="Country"/>
     <tableColumn id="8" xr3:uid="{9FD562AD-2C1B-4728-B765-378E325849FB}" name="CC"/>
     <tableColumn id="14" xr3:uid="{FF856217-0361-4129-8C41-EA5770F1CABE}" name="Ips per Nation"/>
     <tableColumn id="3" xr3:uid="{86336C1B-8263-4341-ABC1-0904C1B77BC8}" name="Mirai Botnet Hits" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(D2:D66)</totalsRowFormula>
+      <totalsRowFormula>SUM(D2:D65)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{1E95DADB-7CF5-4583-BF8D-1A1063516CD7}" name="Botnet Hits Per IP" totalsRowFunction="custom">
       <calculatedColumnFormula>D2/C2</calculatedColumnFormula>
-      <totalsRowFormula>MIN(E2:E31,E33:E66)</totalsRowFormula>
+      <totalsRowFormula>MIN(E2:E31,E33:E65)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{CB13608A-F47A-4117-81FF-E4B85539B69D}" name="Mirai Botnet Hits Normalised" dataDxfId="13" totalsRowDxfId="6">
       <calculatedColumnFormula>(E2-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{3CED1D76-1951-4C3A-814D-035739A9FCBB}" name="Mirai-Like Signature Hits" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(G2:G66)</totalsRowFormula>
+      <totalsRowFormula>SUM(G2:G65)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="18" xr3:uid="{DB63B8B2-A67F-4DF4-9404-9BED1A77B912}" name="Signature Hits Per IP" totalsRowFunction="custom">
       <calculatedColumnFormula>G2/C2</calculatedColumnFormula>
-      <totalsRowFormula>MIN(H2:H31,H33:H39,H41:H50,H53:H66)</totalsRowFormula>
+      <totalsRowFormula>MIN(H2:H31,H33:H39,H41:H49,H52:H65)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{CB08F8B3-73D8-4C99-A366-FA8017EE0D03}" name="Mirai-Like Normalised" dataDxfId="12" totalsRowDxfId="5">
       <calculatedColumnFormula>(H2-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{49EB2CD0-3630-48AA-8368-2CEFFC08A8D6}" name="Information Exposure from dependencies" dataDxfId="11" totalsRowDxfId="4"/>
     <tableColumn id="11" xr3:uid="{E090A22D-FB18-4748-A91D-414C31BC34CD}" name="Exposure to major surveillance scheme by proximity (Not used)"/>
-    <tableColumn id="9" xr3:uid="{073C29FB-BAA7-451E-AA1E-76930F6E46F7}" name="BGP Hijacks"/>
+    <tableColumn id="19" xr3:uid="{8B057D4D-62DE-4645-87B1-85329498A9A6}" name="BGP Hijacks"/>
     <tableColumn id="10" xr3:uid="{036D57D5-B326-42ED-8FFD-747DA6B50910}" name="BGP Hijacks Normalised" dataDxfId="10" totalsRowDxfId="3">
-      <calculatedColumnFormula>L2/384</calculatedColumnFormula>
+      <calculatedColumnFormula>L2/631</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{0A948547-E070-4D9E-A4DC-3394201B9DF2}" name="Any Internet/Telecom *mass* surveillance (Impossible to fully quantify)" dataDxfId="9" totalsRowDxfId="2"/>
     <tableColumn id="5" xr3:uid="{E8D3BBBC-FD07-4637-8DED-2FE5C7491C7E}" name="Citizens arrested over political social media posts (Impossible to fully quantify)" dataDxfId="8" totalsRowDxfId="1"/>
@@ -2156,7 +2151,7 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F3F186C1-4BC8-4073-9AAE-9C4BD46845C3}" name="Table1" displayName="Table1" ref="A1:D1048576" totalsRowShown="0">
   <autoFilter ref="A1:D1048576" xr:uid="{07CFB2B1-7468-43FC-A356-3280593350B7}"/>
-  <sortState ref="A2:C214">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C214">
     <sortCondition ref="A1:A1048576"/>
   </sortState>
   <tableColumns count="4">
@@ -2466,10 +2461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA10CC7E-88B4-4460-87C0-163097071846}">
-  <dimension ref="A1:R70"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2495,721 +2490,721 @@
         <v>400</v>
       </c>
       <c r="B1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="G1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1" t="s">
         <v>451</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="K1" t="s">
         <v>440</v>
-      </c>
-      <c r="E1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G1" t="s">
-        <v>442</v>
-      </c>
-      <c r="H1" t="s">
-        <v>453</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="K1" t="s">
-        <v>441</v>
       </c>
       <c r="L1" t="s">
         <v>399</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q1" t="s">
         <v>447</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>449</v>
-      </c>
       <c r="R1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="C2">
-        <v>1072896</v>
+        <v>12530944</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>13843</v>
       </c>
       <c r="E2">
-        <f>D2/C2</f>
-        <v>1.3048795036984014E-5</v>
+        <f t="shared" ref="E2:E40" si="0">D2/C2</f>
+        <v>1.1047052799852909E-3</v>
       </c>
       <c r="F2" s="1">
-        <f>(E2-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>3.1708282959700316E-3</v>
+        <f t="shared" ref="F2:F40" si="1">(E2-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.48327127927976132</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>11080</v>
       </c>
       <c r="H2">
-        <f>G2/C2</f>
-        <v>8.3885110952040091E-6</v>
+        <f t="shared" ref="H2:H33" si="2">G2/C2</f>
+        <v>8.8421111769392631E-4</v>
       </c>
       <c r="I2" s="1">
-        <f>(H2-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>2.6350969467868815E-3</v>
+        <f t="shared" ref="I2:I40" si="3">(H2-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>1.0000000000000004</v>
       </c>
       <c r="J2" s="2">
-        <v>0.33687151900000001</v>
+        <v>0.99891935700000001</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L2">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="M2" s="2">
-        <f>L2/384</f>
-        <v>0.20052083333333334</v>
+        <f t="shared" ref="M2:M33" si="4">L2/631</f>
+        <v>4.7543581616481777E-3</v>
       </c>
       <c r="N2" s="3">
         <v>1</v>
       </c>
       <c r="O2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" s="4">
         <f>((F2*0.3)+(I2*0.2)+(J2*0.2)+(M2*0.1)+(N2*0.1)+(O2*0.1))</f>
-        <v>0.18890465501148174</v>
+        <v>0.74524069100009327</v>
       </c>
       <c r="Q2">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>293</v>
       </c>
       <c r="C3">
-        <v>18790144</v>
+        <v>45552000</v>
       </c>
       <c r="D3">
-        <v>14192</v>
+        <v>63284</v>
       </c>
       <c r="E3">
-        <f>D3/C3</f>
-        <v>7.5528958160192919E-4</v>
+        <f t="shared" si="0"/>
+        <v>1.3892694063926941E-3</v>
       </c>
       <c r="F3" s="1">
-        <f>(E3-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.32960147867154899</v>
+        <f t="shared" si="1"/>
+        <v>0.60841995682228722</v>
       </c>
       <c r="G3">
-        <v>2157</v>
+        <v>29494</v>
       </c>
       <c r="H3">
-        <f>G3/C3</f>
-        <v>1.147942240357498E-4</v>
+        <f t="shared" si="2"/>
+        <v>6.4747980330172111E-4</v>
       </c>
       <c r="I3" s="1">
-        <f>(H3-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.1238072644287336</v>
+        <f t="shared" si="3"/>
+        <v>0.73041629360839377</v>
       </c>
       <c r="J3" s="2">
-        <v>0.211732798</v>
+        <v>0.86038705400000004</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L3">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="M3" s="2">
-        <f>L3/384</f>
-        <v>4.4270833333333336E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.11410459587955626</v>
       </c>
       <c r="N3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="4">
         <f>((F3*0.3)+(I3*0.2)+(J3*0.2)+(M3*0.1)+(N3*0.1)+(O3*0.1))</f>
-        <v>0.17041553942054474</v>
+        <v>0.71209711615632054</v>
       </c>
       <c r="Q3">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="R3">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4">
+        <v>15632128</v>
+      </c>
+      <c r="D4">
+        <v>18214</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.1651644612940733E-3</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.50986066945210273</v>
+      </c>
+      <c r="G4">
+        <v>6315</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>4.0397570951312576E-4</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="3"/>
+        <v>0.45311991524966994</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.95899510499999996</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>611104</v>
-      </c>
-      <c r="D4">
-        <v>475</v>
-      </c>
-      <c r="E4">
-        <f>D4/C4</f>
-        <v>7.772817720060743E-4</v>
-      </c>
-      <c r="F4" s="1">
-        <f>(E4-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.33927344112194513</v>
-      </c>
-      <c r="G4">
-        <v>168</v>
-      </c>
-      <c r="H4">
-        <f>G4/C4</f>
-        <v>2.7491228988846413E-4</v>
-      </c>
-      <c r="I4" s="1">
-        <f>(H4-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.30614571747054786</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.20038133699999999</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
       <c r="M4" s="2">
-        <f>L4/384</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1.7432646592709985E-2</v>
       </c>
       <c r="N4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="4">
         <f>((F4*0.3)+(I4*0.2)+(J4*0.2)+(M4*0.1)+(N4*0.1)+(O4*0.1))</f>
-        <v>0.20308744323069311</v>
+        <v>0.63712446954483581</v>
       </c>
       <c r="Q4">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="R4">
-        <v>15</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="C5">
-        <v>48478976</v>
+        <v>249600</v>
       </c>
       <c r="D5">
-        <v>1695</v>
+        <v>569</v>
       </c>
       <c r="E5">
-        <f>D5/C5</f>
-        <v>3.4963609792418055E-5</v>
+        <f t="shared" si="0"/>
+        <v>2.2796474358974359E-3</v>
       </c>
       <c r="F5" s="1">
-        <f>(E5-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>1.280876164989349E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.99999999999999811</v>
       </c>
       <c r="G5">
-        <v>561</v>
+        <v>69</v>
       </c>
       <c r="H5">
-        <f>G5/C5</f>
-        <v>1.157202660386226E-5</v>
+        <f t="shared" si="2"/>
+        <v>2.7644230769230768E-4</v>
       </c>
       <c r="I5" s="1">
-        <f>(H5-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>6.2604048718609062E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.30788806351996795</v>
       </c>
       <c r="J5" s="2">
-        <v>0.95953077900000017</v>
+        <v>0.576466535</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M5" s="2">
-        <f>L5/384</f>
-        <v>1.8229166666666668E-2</v>
+        <f t="shared" si="4"/>
+        <v>9.5087163232963554E-3</v>
       </c>
       <c r="N5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="3">
         <v>1</v>
       </c>
       <c r="P5" s="4">
         <f>((F5*0.3)+(I5*0.2)+(J5*0.2)+(M5*0.1)+(N5*0.1)+(O5*0.1))</f>
-        <v>0.39882378193600698</v>
+        <v>0.57782179133632272</v>
       </c>
       <c r="Q5">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="R5">
-        <v>46</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>340</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>339</v>
       </c>
       <c r="C6">
-        <v>713728</v>
+        <v>16281856</v>
       </c>
       <c r="D6">
-        <v>122</v>
+        <v>11089</v>
       </c>
       <c r="E6">
-        <f>D6/C6</f>
-        <v>1.7093346484935439E-4</v>
+        <f t="shared" si="0"/>
+        <v>6.8106486140155024E-4</v>
       </c>
       <c r="F6" s="1">
-        <f>(E6-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>7.2607049511598479E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.29695813148890926</v>
       </c>
       <c r="G6">
-        <v>44</v>
+        <v>5089</v>
       </c>
       <c r="H6">
-        <f>G6/C6</f>
-        <v>6.1648134863701576E-5</v>
+        <f t="shared" si="2"/>
+        <v>3.125565046147073E-4</v>
       </c>
       <c r="I6" s="1">
-        <f>(H6-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>6.3285825868717963E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.34901400870678445</v>
       </c>
       <c r="J6" s="2">
-        <v>0.74409338699999994</v>
+        <v>0.94308672100000002</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M6" s="2">
-        <f>L6/384</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1.7432646592709985E-2</v>
       </c>
       <c r="N6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="3">
         <v>1</v>
       </c>
       <c r="P6" s="4">
         <f>((F6*0.3)+(I6*0.2)+(J6*0.2)+(M6*0.1)+(N6*0.1)+(O6*0.1))</f>
-        <v>0.28325795742722315</v>
+        <v>0.54925085004730068</v>
       </c>
       <c r="Q6">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="R6">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="C7">
-        <v>802441</v>
+        <v>27136</v>
       </c>
       <c r="D7">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="E7">
-        <f>D7/C7</f>
-        <v>1.4705130969130441E-4</v>
+        <f t="shared" si="0"/>
+        <v>1.1423938679245283E-3</v>
       </c>
       <c r="F7" s="1">
-        <f>(E7-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>6.2103897998338681E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.49984637255869419</v>
       </c>
       <c r="G7">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="H7">
-        <f>G7/C7</f>
-        <v>5.1094099130029498E-5</v>
+        <f t="shared" si="2"/>
+        <v>2.2110849056603774E-4</v>
       </c>
       <c r="I7" s="1">
-        <f>(H7-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>5.1267153654703253E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.24487529502335381</v>
       </c>
       <c r="J7" s="2">
-        <v>0.77228255299999993</v>
+        <v>0.46361996500000002</v>
       </c>
       <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4">
+        <f>((F7*0.3)+(I7*0.2)+(J7*0.2)+(M7*0.1)+(N7*0.1)+(O7*0.1))/0.9</f>
+        <v>0.54628107085808775</v>
+      </c>
+      <c r="Q7">
         <v>6</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7" s="2">
-        <f>L7/384</f>
-        <v>2.6041666666666665E-3</v>
-      </c>
-      <c r="N7" s="3">
-        <v>1</v>
-      </c>
-      <c r="O7" s="3">
-        <v>1</v>
-      </c>
-      <c r="P7" s="4">
-        <f>((F7*0.3)+(I7*0.2)+(J7*0.2)+(M7*0.1)+(N7*0.1)+(O7*0.1))</f>
-        <v>0.38360152739710895</v>
-      </c>
-      <c r="Q7">
-        <v>25</v>
-      </c>
       <c r="R7">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="C8">
-        <v>1041408</v>
+        <v>668544</v>
       </c>
       <c r="D8">
-        <v>1411</v>
+        <v>430</v>
       </c>
       <c r="E8">
-        <f>D8/C8</f>
-        <v>1.354896447885939E-3</v>
+        <f t="shared" si="0"/>
+        <v>6.431887803944093E-4</v>
       </c>
       <c r="F8" s="1">
-        <f>(E8-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.5933030467793613</v>
+        <f t="shared" si="1"/>
+        <v>0.28030058048843309</v>
       </c>
       <c r="G8">
-        <v>243</v>
+        <v>148</v>
       </c>
       <c r="H8">
-        <f>G8/C8</f>
-        <v>2.3333794247787612E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.2137660348458741E-4</v>
       </c>
       <c r="I8" s="1">
-        <f>(H8-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.25880188932286935</v>
+        <f t="shared" si="3"/>
+        <v>0.24518061531652949</v>
       </c>
       <c r="J8" s="2">
-        <v>0.20153628900000001</v>
+        <v>0.98476949599999997</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L8">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2">
-        <f>L8/384</f>
-        <v>7.2916666666666671E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.5847860538827259E-3</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="3">
         <v>1</v>
       </c>
       <c r="P8" s="4">
-        <f>((F8*0.3)+(I8*0.2)+(J8*0.2)+(M8*0.1)+(N8*0.1)+(O8*0.1))</f>
-        <v>0.37735021636504895</v>
+        <f t="shared" ref="P8:P15" si="5">((F8*0.3)+(I8*0.2)+(J8*0.2)+(M8*0.1)+(N8*0.1)+(O8*0.1))</f>
+        <v>0.53023867501522404</v>
       </c>
       <c r="Q8">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="R8">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9">
+        <v>36346880</v>
+      </c>
+      <c r="D9">
+        <v>21503</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>5.916051116354416E-4</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25761455885430007</v>
+      </c>
+      <c r="G9">
+        <v>3218</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>8.853579729539372E-5</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3904824091035927E-2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.96763678500000028</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>156</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="4"/>
+        <v>0.24722662440570523</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="5"/>
+        <v>0.51431535191506772</v>
+      </c>
+      <c r="Q9">
+        <v>8</v>
+      </c>
+      <c r="R9">
         <v>57</v>
-      </c>
-      <c r="B9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9">
-        <v>1826816</v>
-      </c>
-      <c r="D9">
-        <v>193</v>
-      </c>
-      <c r="E9">
-        <f>D9/C9</f>
-        <v>1.0564829736547085E-4</v>
-      </c>
-      <c r="F9" s="1">
-        <f>(E9-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>4.3895235141669611E-2</v>
-      </c>
-      <c r="G9">
-        <v>63</v>
-      </c>
-      <c r="H9">
-        <f>G9/C9</f>
-        <v>3.4486231782511209E-5</v>
-      </c>
-      <c r="I9" s="1">
-        <f>(H9-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>3.2354529246313872E-2</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.21544893199999998</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
-      <c r="M9" s="2">
-        <f>L9/384</f>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1</v>
-      </c>
-      <c r="P9" s="4">
-        <f>((F9*0.3)+(I9*0.2)+(J9*0.2)+(M9*0.1)+(N9*0.1)+(O9*0.1))</f>
-        <v>0.26377092945843034</v>
-      </c>
-      <c r="Q9">
-        <v>43</v>
-      </c>
-      <c r="R9">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>304</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>303</v>
       </c>
       <c r="C10">
-        <v>81019136</v>
+        <v>5943556</v>
       </c>
       <c r="D10">
-        <v>25121</v>
+        <v>8020</v>
       </c>
       <c r="E10">
-        <f>D10/C10</f>
-        <v>3.1006255114841017E-4</v>
+        <f t="shared" si="0"/>
+        <v>1.3493605511582629E-3</v>
       </c>
       <c r="F10" s="1">
-        <f>(E10-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.13379473812804316</v>
+        <f t="shared" si="1"/>
+        <v>0.59086841047004379</v>
       </c>
       <c r="G10">
-        <v>9028</v>
+        <v>1358</v>
       </c>
       <c r="H10">
-        <f>G10/C10</f>
-        <v>1.11430465020017E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.2848274669238415E-4</v>
       </c>
       <c r="I10" s="1">
-        <f>(H10-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.11997669970096352</v>
+        <f t="shared" si="3"/>
+        <v>0.25327291366339522</v>
       </c>
       <c r="J10" s="2">
-        <v>0.37564697900000005</v>
+        <v>0.91705547199999993</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L10">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="M10" s="2">
-        <f>L10/384</f>
-        <v>0.27864583333333331</v>
+        <f t="shared" si="4"/>
+        <v>2.694136291600634E-2</v>
       </c>
       <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="3">
-        <v>1</v>
-      </c>
       <c r="P10" s="4">
-        <f>((F10*0.3)+(I10*0.2)+(J10*0.2)+(M10*0.1)+(N10*0.1)+(O10*0.1))</f>
-        <v>0.26712774051193899</v>
+        <f t="shared" si="5"/>
+        <v>0.51402033656529278</v>
       </c>
       <c r="Q10">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="R10">
-        <v>24</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>332</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>331</v>
       </c>
       <c r="C11">
-        <v>249600</v>
+        <v>8643072</v>
       </c>
       <c r="D11">
-        <v>569</v>
+        <v>3027</v>
       </c>
       <c r="E11">
-        <f>D11/C11</f>
-        <v>2.2796474358974359E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.5022269859605472E-4</v>
       </c>
       <c r="F11" s="1">
-        <f>(E11-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.99999999999999811</v>
+        <f t="shared" si="1"/>
+        <v>0.15145680047735691</v>
       </c>
       <c r="G11">
-        <v>69</v>
+        <v>1769</v>
       </c>
       <c r="H11">
-        <f>G11/C11</f>
-        <v>2.7644230769230768E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.0467259789112019E-4</v>
       </c>
       <c r="I11" s="1">
-        <f>(H11-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.30788806351996795</v>
+        <f t="shared" si="3"/>
+        <v>0.2261585110755483</v>
       </c>
       <c r="J11" s="2">
-        <v>0.576466535</v>
+        <v>0.95884328600000002</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M11" s="2">
-        <f>L11/384</f>
-        <v>1.3020833333333334E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.1093502377179081E-2</v>
       </c>
       <c r="N11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="3">
         <v>1</v>
       </c>
       <c r="P11" s="4">
-        <f>((F11*0.3)+(I11*0.2)+(J11*0.2)+(M11*0.1)+(N11*0.1)+(O11*0.1))</f>
-        <v>0.57817300303732633</v>
+        <f t="shared" si="5"/>
+        <v>0.48354674979603463</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R11">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C12">
-        <v>80404992</v>
+        <v>331979264</v>
       </c>
       <c r="D12">
-        <v>3338</v>
+        <v>108622</v>
       </c>
       <c r="E12">
-        <f>D12/C12</f>
-        <v>4.1514835297788473E-5</v>
+        <f t="shared" si="0"/>
+        <v>3.2719513469371388E-4</v>
       </c>
       <c r="F12" s="1">
-        <f>(E12-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>1.5689930188707041E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.14132949031431105</v>
       </c>
       <c r="G12">
-        <v>1131</v>
+        <v>50850</v>
       </c>
       <c r="H12">
-        <f>G12/C12</f>
-        <v>1.406629080940646E-5</v>
+        <f t="shared" si="2"/>
+        <v>1.5317221740692816E-4</v>
       </c>
       <c r="I12" s="1">
-        <f>(H12-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>9.1008106330374774E-3</v>
+        <f t="shared" si="3"/>
+        <v>0.16751116445327313</v>
       </c>
       <c r="J12" s="2">
-        <v>0.91859541299999992</v>
+        <v>0.91036587199999996</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L12">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="M12" s="2">
-        <f>L12/384</f>
-        <v>4.6875E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.15372424722662439</v>
       </c>
       <c r="N12" s="3">
         <v>1</v>
@@ -3218,60 +3213,60 @@
         <v>1</v>
       </c>
       <c r="P12" s="4">
-        <f>((F12*0.3)+(I12*0.2)+(J12*0.2)+(M12*0.1)+(N12*0.1)+(O12*0.1))</f>
-        <v>0.39493372378321967</v>
+        <f t="shared" si="5"/>
+        <v>0.4733466791076103</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="R12">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="C13">
-        <v>331979264</v>
+        <v>98304</v>
       </c>
       <c r="D13">
-        <v>108622</v>
+        <v>71</v>
       </c>
       <c r="E13">
-        <f>D13/C13</f>
-        <v>3.2719513469371388E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.2224934895833337E-4</v>
       </c>
       <c r="F13" s="1">
-        <f>(E13-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.14132949031431105</v>
+        <f t="shared" si="1"/>
+        <v>0.31507068916815417</v>
       </c>
       <c r="G13">
-        <v>50850</v>
+        <v>77</v>
       </c>
       <c r="H13">
-        <f>G13/C13</f>
-        <v>1.5317221740692816E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.8328450520833337E-4</v>
       </c>
       <c r="I13" s="1">
-        <f>(H13-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.16751116445327313</v>
+        <f t="shared" si="3"/>
+        <v>0.88506729522762562</v>
       </c>
       <c r="J13" s="2">
-        <v>0.91036587199999996</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L13">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="M13" s="2">
-        <f>L13/384</f>
-        <v>0.21875</v>
+        <f t="shared" si="4"/>
+        <v>3.1695721077654518E-3</v>
       </c>
       <c r="N13" s="3">
         <v>1</v>
@@ -3280,120 +3275,122 @@
         <v>1</v>
       </c>
       <c r="P13" s="4">
-        <f>((F13*0.3)+(I13*0.2)+(J13*0.2)+(M13*0.1)+(N13*0.1)+(O13*0.1))</f>
-        <v>0.47984925438494785</v>
+        <f t="shared" si="5"/>
+        <v>0.47185162300674788</v>
       </c>
       <c r="Q13">
         <v>12</v>
       </c>
       <c r="R13">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="C14">
-        <v>17253096</v>
+        <v>17662464</v>
       </c>
       <c r="D14">
-        <v>5578</v>
+        <v>4366</v>
       </c>
       <c r="E14">
-        <f>D14/C14</f>
-        <v>3.2330429274838554E-4</v>
+        <f t="shared" si="0"/>
+        <v>2.4719087891700726E-4</v>
       </c>
       <c r="F14" s="1">
-        <f>(E14-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.13961833392178777</v>
+        <f t="shared" si="1"/>
+        <v>0.10614435670441152</v>
       </c>
       <c r="G14">
-        <v>757</v>
+        <v>3023</v>
       </c>
       <c r="H14">
-        <f>G14/C14</f>
-        <v>4.387618314996914E-5</v>
+        <f t="shared" si="2"/>
+        <v>1.7115392280488159E-4</v>
       </c>
       <c r="I14" s="1">
-        <f>(H14-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>4.3047571267287824E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.18798828130985856</v>
       </c>
       <c r="J14" s="2">
-        <v>0.29700730400000003</v>
+        <v>0.96478673299999973</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="M14" s="2">
-        <f>L14/384</f>
-        <v>1.3020833333333334E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.7543581616481777E-2</v>
       </c>
       <c r="N14" s="3">
         <v>1</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="4">
-        <f>((F14*0.3)+(I14*0.2)+(J14*0.2)+(M14*0.1)+(N14*0.1)+(O14*0.1))</f>
-        <v>0.21119855856332725</v>
+        <f t="shared" si="5"/>
+        <v>0.46715266803494326</v>
       </c>
       <c r="Q14">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="R14">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>427</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s">
-        <v>436</v>
+        <v>161</v>
       </c>
       <c r="C15">
-        <v>257024</v>
-      </c>
-      <c r="D15" t="s">
-        <v>444</v>
+        <v>10873344</v>
+      </c>
+      <c r="D15">
+        <v>4597</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.2277702241371194E-4</v>
       </c>
       <c r="F15" s="1">
-        <f>(E15-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>-2.5679113794029743E-3</v>
+        <f t="shared" si="1"/>
+        <v>0.18336552274114737</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="H15">
-        <f>G15/C15</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>6.7044692046899283E-5</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>6.9431290362656453E-2</v>
       </c>
       <c r="J15" s="2">
-        <v>0.364783048</v>
+        <v>0.91026548399999985</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="M15" s="2">
-        <f>L15/384</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0.15213946117274169</v>
       </c>
       <c r="N15" s="3">
         <v>1</v>
@@ -3402,122 +3399,122 @@
         <v>1</v>
       </c>
       <c r="P15" s="4">
-        <f>((F15*0.3)+(I15*0.2)+(J15*0.2)+(M15*0.1)+(N15*0.1)+(O15*0.1))</f>
-        <v>0.2721862361861791</v>
+        <f t="shared" si="5"/>
+        <v>0.46616295781214967</v>
       </c>
       <c r="Q15">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="R15">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>326</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>325</v>
       </c>
       <c r="C16">
-        <v>2566912</v>
+        <v>843776</v>
       </c>
       <c r="D16">
-        <v>2603</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <f>D16/C16</f>
-        <v>1.0140589159269972E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.1851486650485437E-5</v>
       </c>
       <c r="F16" s="1">
-        <f>(E16-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.44340584462658056</v>
+        <f t="shared" si="1"/>
+        <v>2.6442631133779433E-3</v>
       </c>
       <c r="G16">
-        <v>612</v>
+        <v>6</v>
       </c>
       <c r="H16">
-        <f>G16/C16</f>
-        <v>2.3841876932282838E-4</v>
+        <f t="shared" si="2"/>
+        <v>7.1108919902912624E-6</v>
       </c>
       <c r="I16" s="1">
-        <f>(H16-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.26458780799574483</v>
+        <f t="shared" si="3"/>
+        <v>1.1801762298407588E-3</v>
       </c>
       <c r="J16" s="2">
-        <v>0.13824662599999998</v>
+        <v>0.94841592199999991</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
-        <f>L16/384</f>
-        <v>1.5625E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="N16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="4">
-        <f>((F16*0.3)+(I16*0.2)+(J16*0.2)+(M16*0.1)+(N16*0.1)+(O16*0.1))</f>
-        <v>0.21515114018712311</v>
+        <f>((F16*0.3)+(I16*0.2)+(J16*0.2)+(M16*0.1)+(N16*0.1)+(O16*0.1))/0.9</f>
+        <v>0.43412499842220165</v>
       </c>
       <c r="Q16">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="R16">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>336</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>335</v>
       </c>
       <c r="C17">
-        <v>12530944</v>
+        <v>3389696</v>
       </c>
       <c r="D17">
-        <v>13843</v>
+        <v>1255</v>
       </c>
       <c r="E17">
-        <f>D17/C17</f>
-        <v>1.1047052799852909E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.7023969111094329E-4</v>
       </c>
       <c r="F17" s="1">
-        <f>(E17-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.48327127927976132</v>
+        <f t="shared" si="1"/>
+        <v>0.16026008911828157</v>
       </c>
       <c r="G17">
-        <v>11080</v>
+        <v>420</v>
       </c>
       <c r="H17">
-        <f>G17/C17</f>
-        <v>8.8421111769392631E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.2390491654708859E-4</v>
       </c>
       <c r="I17" s="1">
-        <f>(H17-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>1.0000000000000004</v>
+        <f t="shared" si="3"/>
+        <v>0.13418229344129518</v>
       </c>
       <c r="J17" s="2">
-        <v>0.99891935700000001</v>
+        <v>0.68244708700000001</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L17">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="M17" s="2">
-        <f>L17/384</f>
-        <v>1.5625E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.17908082408874801</v>
       </c>
       <c r="N17" s="3">
         <v>1</v>
@@ -3526,122 +3523,122 @@
         <v>1</v>
       </c>
       <c r="P17" s="4">
-        <f>((F17*0.3)+(I17*0.2)+(J17*0.2)+(M17*0.1)+(N17*0.1)+(O17*0.1))</f>
-        <v>0.74632775518392847</v>
+        <f t="shared" ref="P17:P32" si="6">((F17*0.3)+(I17*0.2)+(J17*0.2)+(M17*0.1)+(N17*0.1)+(O17*0.1))</f>
+        <v>0.42931198523261827</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R17">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="C18">
-        <v>1297720</v>
+        <v>112320768</v>
       </c>
       <c r="D18">
-        <v>53</v>
+        <v>15101</v>
       </c>
       <c r="E18">
-        <f>D18/C18</f>
-        <v>4.0840859353327371E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.3444530578708293E-4</v>
       </c>
       <c r="F18" s="1">
-        <f>(E18-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>1.5393521786110212E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.6559893778177106E-2</v>
       </c>
       <c r="G18">
-        <v>23</v>
+        <v>6397</v>
       </c>
       <c r="H18">
-        <f>G18/C18</f>
-        <v>1.7723391794840182E-5</v>
+        <f t="shared" si="2"/>
+        <v>5.6952958156411464E-5</v>
       </c>
       <c r="I18" s="1">
-        <f>(H18-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>1.3265425867117731E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.7939075937621883E-2</v>
       </c>
       <c r="J18" s="2">
-        <v>0.40987434</v>
+        <v>0.97789078000000007</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L18">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="M18" s="2">
-        <f>L18/384</f>
-        <v>1.8229166666666668E-2</v>
+        <f t="shared" si="4"/>
+        <v>4.7543581616481777E-2</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="4">
-        <f>((F18*0.3)+(I18*0.2)+(J18*0.2)+(M18*0.1)+(N18*0.1)+(O18*0.1))</f>
-        <v>9.1068926375923273E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.42888829748262569</v>
       </c>
       <c r="Q18">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="R18">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>98304</v>
+        <v>3736960</v>
       </c>
       <c r="D19">
-        <v>71</v>
+        <v>916</v>
       </c>
       <c r="E19">
-        <f>D19/C19</f>
-        <v>7.2224934895833337E-4</v>
+        <f t="shared" si="0"/>
+        <v>2.4511902723069016E-4</v>
       </c>
       <c r="F19" s="1">
-        <f>(E19-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.31507068916815417</v>
+        <f t="shared" si="1"/>
+        <v>0.10523317544667414</v>
       </c>
       <c r="G19">
-        <v>77</v>
+        <v>428</v>
       </c>
       <c r="H19">
-        <f>G19/C19</f>
-        <v>7.8328450520833337E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.1453159787634869E-4</v>
       </c>
       <c r="I19" s="1">
-        <f>(H19-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.88506729522762562</v>
+        <f t="shared" si="3"/>
+        <v>0.12350819231979644</v>
       </c>
       <c r="J19" s="2">
-        <v>0</v>
+        <v>0.8396049659999999</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L19">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="M19" s="2">
-        <f>L19/384</f>
-        <v>0.27864583333333331</v>
+        <f t="shared" si="4"/>
+        <v>6.3391442155309036E-3</v>
       </c>
       <c r="N19" s="3">
         <v>1</v>
@@ -3650,60 +3647,60 @@
         <v>1</v>
       </c>
       <c r="P19" s="4">
-        <f>((F19*0.3)+(I19*0.2)+(J19*0.2)+(M19*0.1)+(N19*0.1)+(O19*0.1))</f>
-        <v>0.49939924912930467</v>
+        <f t="shared" si="6"/>
+        <v>0.42482649871951461</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="R19">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>296</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>295</v>
       </c>
       <c r="C20">
-        <v>84059952</v>
+        <v>7722496</v>
       </c>
       <c r="D20">
-        <v>3427</v>
+        <v>564</v>
       </c>
       <c r="E20">
-        <f>D20/C20</f>
-        <v>4.0768521971080833E-5</v>
+        <f t="shared" si="0"/>
+        <v>7.3033381953192331E-5</v>
       </c>
       <c r="F20" s="1">
-        <f>(E20-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>1.5361708472748002E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.9551496232836403E-2</v>
       </c>
       <c r="G20">
-        <v>1235</v>
+        <v>207</v>
       </c>
       <c r="H20">
-        <f>G20/C20</f>
-        <v>1.4691895136937505E-5</v>
+        <f t="shared" si="2"/>
+        <v>2.6804805078565272E-5</v>
       </c>
       <c r="I20" s="1">
-        <f>(H20-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>9.813233211281738E-3</v>
+        <f t="shared" si="3"/>
+        <v>2.3607112426778012E-2</v>
       </c>
       <c r="J20" s="2">
-        <v>0.89230520600000018</v>
+        <v>0.95277895000000001</v>
       </c>
       <c r="K20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="M20" s="2">
-        <f>L20/384</f>
-        <v>6.7708333333333329E-2</v>
+        <f t="shared" si="4"/>
+        <v>7.9239302694136295E-3</v>
       </c>
       <c r="N20" s="3">
         <v>1</v>
@@ -3712,60 +3709,60 @@
         <v>1</v>
       </c>
       <c r="P20" s="4">
-        <f>((F20*0.3)+(I20*0.2)+(J20*0.2)+(M20*0.1)+(N20*0.1)+(O20*0.1))</f>
-        <v>0.3918030337174141</v>
+        <f t="shared" si="6"/>
+        <v>0.40493505438214794</v>
       </c>
       <c r="Q20">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="R20">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>27136</v>
+        <v>48478976</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>1695</v>
       </c>
       <c r="E21">
-        <f>D21/C21</f>
-        <v>1.1423938679245283E-3</v>
+        <f t="shared" si="0"/>
+        <v>3.4963609792418055E-5</v>
       </c>
       <c r="F21" s="1">
-        <f>(E21-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.49984637255869419</v>
+        <f t="shared" si="1"/>
+        <v>1.280876164989349E-2</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>561</v>
       </c>
       <c r="H21">
-        <f>G21/C21</f>
-        <v>2.2110849056603774E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.157202660386226E-5</v>
       </c>
       <c r="I21" s="1">
-        <f>(H21-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.24487529502335381</v>
+        <f t="shared" si="3"/>
+        <v>6.2604048718609062E-3</v>
       </c>
       <c r="J21" s="2">
-        <v>0.46361996500000002</v>
+        <v>0.95953077900000017</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M21" s="2">
-        <f>L21/384</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4.1204437400950873E-2</v>
       </c>
       <c r="N21" s="3">
         <v>1</v>
@@ -3774,60 +3771,60 @@
         <v>1</v>
       </c>
       <c r="P21" s="4">
-        <f>((F21*0.3)+(I21*0.2)+(J21*0.2)+(M21*0.1)+(N21*0.1)+(O21*0.1))</f>
-        <v>0.49165296377227896</v>
+        <f t="shared" si="6"/>
+        <v>0.40112130900943532</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R21">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="C22">
-        <v>1173760</v>
+        <v>118974128</v>
       </c>
       <c r="D22">
-        <v>226</v>
+        <v>3131</v>
       </c>
       <c r="E22">
-        <f>D22/C22</f>
-        <v>1.9254362050163577E-4</v>
+        <f t="shared" si="0"/>
+        <v>2.6316645918178109E-5</v>
       </c>
       <c r="F22" s="1">
-        <f>(E22-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>8.2110996602593411E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.0059067107230127E-3</v>
       </c>
       <c r="G22">
-        <v>152</v>
+        <v>1353</v>
       </c>
       <c r="H22">
-        <f>G22/C22</f>
-        <v>1.2949836423118867E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.1372220353655375E-5</v>
       </c>
       <c r="I22" s="1">
-        <f>(H22-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.14055197191859636</v>
+        <f t="shared" si="3"/>
+        <v>6.0328705060366181E-3</v>
       </c>
       <c r="J22" s="2">
-        <v>0.27378087099999998</v>
+        <v>0.87709837900000009</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L22">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="M22" s="2">
-        <f>L22/384</f>
-        <v>2.8645833333333332E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.16957210776545167</v>
       </c>
       <c r="N22" s="3">
         <v>1</v>
@@ -3836,60 +3833,60 @@
         <v>1</v>
       </c>
       <c r="P22" s="4">
-        <f>((F22*0.3)+(I22*0.2)+(J22*0.2)+(M22*0.1)+(N22*0.1)+(O22*0.1))</f>
-        <v>0.31036445089783066</v>
+        <f t="shared" si="6"/>
+        <v>0.39628523269096938</v>
       </c>
       <c r="Q22">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="R22">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C23">
-        <v>118974128</v>
+        <v>80404992</v>
       </c>
       <c r="D23">
-        <v>3131</v>
+        <v>3338</v>
       </c>
       <c r="E23">
-        <f>D23/C23</f>
-        <v>2.6316645918178109E-5</v>
+        <f t="shared" si="0"/>
+        <v>4.1514835297788473E-5</v>
       </c>
       <c r="F23" s="1">
-        <f>(E23-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>9.0059067107230127E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.5689930188707041E-2</v>
       </c>
       <c r="G23">
-        <v>1353</v>
+        <v>1131</v>
       </c>
       <c r="H23">
-        <f>G23/C23</f>
-        <v>1.1372220353655375E-5</v>
+        <f t="shared" si="2"/>
+        <v>1.406629080940646E-5</v>
       </c>
       <c r="I23" s="1">
-        <f>(H23-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>6.0328705060366181E-3</v>
+        <f t="shared" si="3"/>
+        <v>9.1008106330374774E-3</v>
       </c>
       <c r="J23" s="2">
-        <v>0.87709837900000009</v>
+        <v>0.91859541299999992</v>
       </c>
       <c r="K23">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="M23" s="2">
-        <f>L23/384</f>
-        <v>0.16927083333333334</v>
+        <f t="shared" si="4"/>
+        <v>5.5467511885895403E-2</v>
       </c>
       <c r="N23" s="3">
         <v>1</v>
@@ -3898,184 +3895,184 @@
         <v>1</v>
       </c>
       <c r="P23" s="4">
-        <f>((F23*0.3)+(I23*0.2)+(J23*0.2)+(M23*0.1)+(N23*0.1)+(O23*0.1))</f>
-        <v>0.39625510524775764</v>
+        <f t="shared" si="6"/>
+        <v>0.39579297497180921</v>
       </c>
       <c r="Q23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R23">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>430</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="C24">
-        <v>5894656</v>
+        <v>123758120</v>
       </c>
       <c r="D24">
-        <v>1346</v>
+        <v>4530</v>
       </c>
       <c r="E24">
-        <f>D24/C24</f>
-        <v>2.2834241726743681E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.6603658814468096E-5</v>
       </c>
       <c r="F24" s="1">
-        <f>(E24-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>9.7854977157751322E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.3530040079489443E-2</v>
       </c>
       <c r="G24">
-        <v>609</v>
+        <v>1481</v>
       </c>
       <c r="H24">
-        <f>G24/C24</f>
-        <v>1.033139168765743E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.196689154618703E-5</v>
       </c>
       <c r="I24" s="1">
-        <f>(H24-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.11073377745709817</v>
+        <f t="shared" si="3"/>
+        <v>6.7100672029695814E-3</v>
       </c>
       <c r="J24" s="2">
-        <v>0.207538106</v>
+        <v>0.84022306999999985</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="M24" s="2">
-        <f>L24/384</f>
-        <v>7.8125E-3</v>
+        <f t="shared" si="4"/>
+        <v>0.2076069730586371</v>
       </c>
       <c r="N24" s="3">
         <v>1</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="4">
-        <f>((F24*0.3)+(I24*0.2)+(J24*0.2)+(M24*0.1)+(N24*0.1)+(O24*0.1))</f>
-        <v>0.19379211983874506</v>
+        <f t="shared" si="6"/>
+        <v>0.39420633677030448</v>
       </c>
       <c r="Q24">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="R24">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="C25">
-        <v>838144</v>
+        <v>84059952</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>3427</v>
       </c>
       <c r="E25">
-        <f>D25/C25</f>
-        <v>2.9827810018326205E-5</v>
+        <f t="shared" si="0"/>
+        <v>4.0768521971080833E-5</v>
       </c>
       <c r="F25" s="1">
-        <f>(E25-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>1.055008428966079E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.5361708472748002E-2</v>
       </c>
       <c r="G25">
-        <v>10</v>
+        <v>1235</v>
       </c>
       <c r="H25">
-        <f>G25/C25</f>
-        <v>1.1931124007330483E-5</v>
+        <f t="shared" si="2"/>
+        <v>1.4691895136937505E-5</v>
       </c>
       <c r="I25" s="1">
-        <f>(H25-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>6.6693360233273354E-3</v>
+        <f t="shared" si="3"/>
+        <v>9.813233211281738E-3</v>
       </c>
       <c r="J25" s="2">
-        <v>0.32043033999999998</v>
+        <v>0.89230520600000018</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="M25" s="2">
-        <f>L25/384</f>
-        <v>2.6041666666666665E-3</v>
+        <f t="shared" si="4"/>
+        <v>5.8637083993660855E-2</v>
       </c>
       <c r="N25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="4">
-        <f>((F25*0.3)+(I25*0.2)+(J25*0.2)+(M25*0.1)+(N25*0.1)+(O25*0.1))</f>
-        <v>6.8845377158230373E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.39089590878344693</v>
       </c>
       <c r="Q25">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c r="C26">
-        <v>36346880</v>
+        <v>802441</v>
       </c>
       <c r="D26">
-        <v>21503</v>
+        <v>118</v>
       </c>
       <c r="E26">
-        <f>D26/C26</f>
-        <v>5.916051116354416E-4</v>
+        <f t="shared" si="0"/>
+        <v>1.4705130969130441E-4</v>
       </c>
       <c r="F26" s="1">
-        <f>(E26-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.25761455885430007</v>
+        <f t="shared" si="1"/>
+        <v>6.2103897998338681E-2</v>
       </c>
       <c r="G26">
-        <v>3218</v>
+        <v>41</v>
       </c>
       <c r="H26">
-        <f>G26/C26</f>
-        <v>8.853579729539372E-5</v>
+        <f t="shared" si="2"/>
+        <v>5.1094099130029498E-5</v>
       </c>
       <c r="I26" s="1">
-        <f>(H26-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>9.3904824091035927E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.1267153654703253E-2</v>
       </c>
       <c r="J26" s="2">
-        <v>0.96763678500000028</v>
+        <v>0.77228255299999993</v>
       </c>
       <c r="K26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L26">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2">
-        <f>L26/384</f>
-        <v>0.25</v>
+        <f t="shared" si="4"/>
+        <v>1.5847860538827259E-3</v>
       </c>
       <c r="N26" s="3">
         <v>1</v>
@@ -4084,308 +4081,308 @@
         <v>1</v>
       </c>
       <c r="P26" s="4">
-        <f>((F26*0.3)+(I26*0.2)+(J26*0.2)+(M26*0.1)+(N26*0.1)+(O26*0.1))</f>
-        <v>0.51459268947449721</v>
+        <f t="shared" si="6"/>
+        <v>0.3834995893358305</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="R26">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="C27">
-        <v>17662464</v>
+        <v>1041408</v>
       </c>
       <c r="D27">
-        <v>4366</v>
+        <v>1411</v>
       </c>
       <c r="E27">
-        <f>D27/C27</f>
-        <v>2.4719087891700726E-4</v>
+        <f t="shared" si="0"/>
+        <v>1.354896447885939E-3</v>
       </c>
       <c r="F27" s="1">
-        <f>(E27-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.10614435670441152</v>
+        <f t="shared" si="1"/>
+        <v>0.5933030467793613</v>
       </c>
       <c r="G27">
-        <v>3023</v>
+        <v>243</v>
       </c>
       <c r="H27">
-        <f>G27/C27</f>
-        <v>1.7115392280488159E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.3333794247787612E-4</v>
       </c>
       <c r="I27" s="1">
-        <f>(H27-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.18798828130985856</v>
+        <f t="shared" si="3"/>
+        <v>0.25880188932286935</v>
       </c>
       <c r="J27" s="2">
-        <v>0.96478673299999973</v>
+        <v>0.20153628900000001</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="M27" s="2">
-        <f>L27/384</f>
-        <v>3.125E-2</v>
+        <f t="shared" si="4"/>
+        <v>6.4976228209191758E-2</v>
       </c>
       <c r="N27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>1</v>
       </c>
       <c r="P27" s="4">
-        <f>((F27*0.3)+(I27*0.2)+(J27*0.2)+(M27*0.1)+(N27*0.1)+(O27*0.1))</f>
-        <v>0.46552330987329515</v>
+        <f t="shared" si="6"/>
+        <v>0.37655617251930151</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="R27">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>162</v>
+        <v>431</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>351</v>
       </c>
       <c r="C28">
-        <v>10873344</v>
+        <v>1596006656</v>
       </c>
       <c r="D28">
-        <v>4597</v>
+        <v>27409</v>
       </c>
       <c r="E28">
-        <f>D28/C28</f>
-        <v>4.2277702241371194E-4</v>
+        <f t="shared" si="0"/>
+        <v>1.7173487276484139E-5</v>
       </c>
       <c r="F28" s="1">
-        <f>(E28-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.18336552274114737</v>
+        <f t="shared" si="1"/>
+        <v>4.9848298904799802E-3</v>
       </c>
       <c r="G28">
-        <v>729</v>
+        <v>9695</v>
       </c>
       <c r="H28">
-        <f>G28/C28</f>
-        <v>6.7044692046899283E-5</v>
+        <f t="shared" si="2"/>
+        <v>6.0745360701052115E-6</v>
       </c>
       <c r="I28" s="1">
-        <f>(H28-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>6.9431290362656453E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.9291599165314246E-18</v>
       </c>
       <c r="J28" s="2">
-        <v>0.91026548399999985</v>
+        <v>0.87482138799999998</v>
       </c>
       <c r="K28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L28">
+        <v>631</v>
+      </c>
+      <c r="M28" s="2">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="2">
-        <f>L28/384</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="3">
-        <v>1</v>
-      </c>
-      <c r="O28" s="3">
-        <v>1</v>
-      </c>
       <c r="P28" s="4">
-        <f>((F28*0.3)+(I28*0.2)+(J28*0.2)+(M28*0.1)+(N28*0.1)+(O28*0.1))</f>
-        <v>0.45094901169487545</v>
+        <f t="shared" si="6"/>
+        <v>0.37645972656714399</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="R28">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>166</v>
+        <v>238</v>
       </c>
       <c r="B29" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="C29">
-        <v>53441088</v>
+        <v>28781312</v>
       </c>
       <c r="D29">
-        <v>6380</v>
+        <v>6798</v>
       </c>
       <c r="E29">
-        <f>D29/C29</f>
-        <v>1.193837969765885E-4</v>
+        <f t="shared" si="0"/>
+        <v>2.3619493093296094E-4</v>
       </c>
       <c r="F29" s="1">
-        <f>(E29-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>4.9935981153541233E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.10130844022434322</v>
       </c>
       <c r="G29">
-        <v>2880</v>
+        <v>4666</v>
       </c>
       <c r="H29">
-        <f>G29/C29</f>
-        <v>5.3891118384416124E-5</v>
+        <f t="shared" si="2"/>
+        <v>1.621190861625766E-4</v>
       </c>
       <c r="I29" s="1">
-        <f>(H29-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>5.4452329301542236E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.17769963506578787</v>
       </c>
       <c r="J29" s="2">
-        <v>0.73185257599999998</v>
+        <v>0.95181365800000006</v>
       </c>
       <c r="K29">
         <v>4</v>
       </c>
       <c r="L29">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M29" s="2">
-        <f>L29/384</f>
-        <v>2.34375E-2</v>
+        <f t="shared" si="4"/>
+        <v>9.5087163232963554E-3</v>
       </c>
       <c r="N29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="4">
-        <f>((F29*0.3)+(I29*0.2)+(J29*0.2)+(M29*0.1)+(N29*0.1)+(O29*0.1))</f>
-        <v>0.27458552540637082</v>
+        <f t="shared" si="6"/>
+        <v>0.35724606231279021</v>
       </c>
       <c r="Q29">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="R29">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>348</v>
       </c>
       <c r="B30" t="s">
-        <v>171</v>
+        <v>347</v>
       </c>
       <c r="C30">
-        <v>202616832</v>
+        <v>11929056</v>
       </c>
       <c r="D30">
-        <v>20580</v>
+        <v>6465</v>
       </c>
       <c r="E30">
-        <f>D30/C30</f>
-        <v>1.0157102841288132E-4</v>
+        <f t="shared" si="0"/>
+        <v>5.4195403223859459E-4</v>
       </c>
       <c r="F30" s="1">
-        <f>(E30-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>4.2102089871238563E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.2357784721924899</v>
       </c>
       <c r="G30">
-        <v>9815</v>
+        <v>1329</v>
       </c>
       <c r="H30">
-        <f>G30/C30</f>
-        <v>4.844118774890331E-5</v>
+        <f t="shared" si="2"/>
+        <v>1.1140864792654171E-4</v>
       </c>
       <c r="I30" s="1">
-        <f>(H30-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>4.824608445357681E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.11995185493998688</v>
       </c>
       <c r="J30" s="2">
-        <v>0.95439287200000023</v>
+        <v>0.20160347000000001</v>
       </c>
       <c r="K30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L30">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M30" s="2">
-        <f>L30/384</f>
-        <v>4.1666666666666664E-2</v>
+        <f t="shared" si="4"/>
+        <v>5.5467511885895403E-2</v>
       </c>
       <c r="N30" s="3">
         <v>1</v>
       </c>
       <c r="O30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="4">
-        <f>((F30*0.3)+(I30*0.2)+(J30*0.2)+(M30*0.1)+(N30*0.1)+(O30*0.1))</f>
-        <v>0.31732508491875366</v>
+        <f t="shared" si="6"/>
+        <v>0.34059135783433392</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R30">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="B31" t="s">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="C31">
-        <v>668544</v>
+        <v>6588160</v>
       </c>
       <c r="D31">
-        <v>430</v>
+        <v>2033</v>
       </c>
       <c r="E31">
-        <f>D31/C31</f>
-        <v>6.431887803944093E-4</v>
+        <f t="shared" si="0"/>
+        <v>3.0858388381581505E-4</v>
       </c>
       <c r="F31" s="1">
-        <f>(E31-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.28030058048843309</v>
+        <f t="shared" si="1"/>
+        <v>0.1331444338766398</v>
       </c>
       <c r="G31">
-        <v>148</v>
+        <v>1264</v>
       </c>
       <c r="H31">
-        <f>G31/C31</f>
-        <v>2.2137660348458741E-4</v>
+        <f t="shared" si="2"/>
+        <v>1.9185933553526326E-4</v>
       </c>
       <c r="I31" s="1">
-        <f>(H31-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.24518061531652949</v>
+        <f t="shared" si="3"/>
+        <v>0.21156708802816418</v>
       </c>
       <c r="J31" s="2">
-        <v>0.98476949599999997</v>
+        <v>0.18629210407246843</v>
       </c>
       <c r="K31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="M31" s="2">
-        <f>L31/384</f>
-        <v>2.6041666666666665E-3</v>
+        <f t="shared" si="4"/>
+        <v>4.4374009508716325E-2</v>
       </c>
       <c r="N31" s="3">
         <v>1</v>
@@ -4394,122 +4391,122 @@
         <v>1</v>
       </c>
       <c r="P31" s="4">
-        <f>((F31*0.3)+(I31*0.2)+(J31*0.2)+(M31*0.1)+(N31*0.1)+(O31*0.1))</f>
-        <v>0.53034061307650249</v>
+        <f t="shared" si="6"/>
+        <v>0.3239525695339901</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="R31">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B32" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C32">
-        <v>2732032</v>
+        <v>202616832</v>
       </c>
       <c r="D32">
-        <v>733</v>
+        <v>20580</v>
       </c>
       <c r="E32">
-        <f>D32/C32</f>
-        <v>2.6829846795352325E-4</v>
+        <f t="shared" si="0"/>
+        <v>1.0157102841288132E-4</v>
       </c>
       <c r="F32" s="1">
-        <f>(E32-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.11542727963423018</v>
+        <f t="shared" si="1"/>
+        <v>4.2102089871238563E-2</v>
       </c>
       <c r="G32">
-        <v>241</v>
+        <v>9815</v>
       </c>
       <c r="H32">
-        <f>G32/C32</f>
-        <v>8.8212729572713646E-5</v>
+        <f t="shared" si="2"/>
+        <v>4.844118774890331E-5</v>
       </c>
       <c r="I32" s="1">
-        <f>(H32-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>9.353692263989416E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.824608445357681E-2</v>
       </c>
       <c r="J32" s="2">
-        <v>0.28920037100000001</v>
+        <v>0.95439287200000023</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L32">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="M32" s="2">
-        <f>L32/384</f>
-        <v>5.208333333333333E-3</v>
+        <f t="shared" si="4"/>
+        <v>3.486529318541997E-2</v>
       </c>
       <c r="N32" s="3">
         <v>1</v>
       </c>
       <c r="O32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="4">
-        <f>((F32*0.3)+(I32*0.2)+(J32*0.2)+(M32*0.1)+(N32*0.1)+(O32*0.1))</f>
-        <v>0.31169647595158123</v>
+        <f t="shared" si="6"/>
+        <v>0.316644947570629</v>
       </c>
       <c r="Q32">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R32">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
       <c r="C33">
-        <v>3834112</v>
+        <v>713728</v>
       </c>
       <c r="D33">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E33">
-        <f>D33/C33</f>
-        <v>3.1037173666288308E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.7093346484935439E-4</v>
       </c>
       <c r="F33" s="1">
-        <f>(E33-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>1.1081951265028506E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.2607049511598479E-2</v>
       </c>
       <c r="G33">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="H33">
-        <f>G33/C33</f>
-        <v>6.7812312212058494E-6</v>
+        <f t="shared" si="2"/>
+        <v>6.1648134863701576E-5</v>
       </c>
       <c r="I33" s="1">
-        <f>(H33-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>8.0476678217167839E-4</v>
+        <f t="shared" si="3"/>
+        <v>6.3285825868717963E-2</v>
       </c>
       <c r="J33" s="2">
-        <v>0.32096185300000002</v>
+        <v>0.74409338699999994</v>
       </c>
       <c r="K33">
+        <v>5</v>
+      </c>
+      <c r="L33">
         <v>0</v>
       </c>
-      <c r="L33">
-        <v>34</v>
-      </c>
       <c r="M33" s="2">
-        <f>L33/384</f>
-        <v>8.8541666666666671E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
@@ -4518,60 +4515,60 @@
         <v>1</v>
       </c>
       <c r="P33" s="4">
-        <f>((F33*0.3)+(I33*0.2)+(J33*0.2)+(M33*0.1)+(N33*0.1)+(O33*0.1))</f>
-        <v>0.17653207600260956</v>
+        <f>((F33*0.3)+(I33*0.2)+(J33*0.2)+(M33*0.1)+(N33*0.1)+(O33*0.1))/0.9</f>
+        <v>0.31473106380802574</v>
       </c>
       <c r="Q33">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="R33">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B34" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C34">
-        <v>112320768</v>
+        <v>2732032</v>
       </c>
       <c r="D34">
-        <v>15101</v>
+        <v>733</v>
       </c>
       <c r="E34">
-        <f>D34/C34</f>
-        <v>1.3444530578708293E-4</v>
+        <f t="shared" si="0"/>
+        <v>2.6829846795352325E-4</v>
       </c>
       <c r="F34" s="1">
-        <f>(E34-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>5.6559893778177106E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.11542727963423018</v>
       </c>
       <c r="G34">
-        <v>6397</v>
+        <v>241</v>
       </c>
       <c r="H34">
-        <f>G34/C34</f>
-        <v>5.6952958156411464E-5</v>
+        <f t="shared" ref="H34:H64" si="7">G34/C34</f>
+        <v>8.8212729572713646E-5</v>
       </c>
       <c r="I34" s="1">
-        <f>(H34-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>5.7939075937621883E-2</v>
+        <f t="shared" si="3"/>
+        <v>9.353692263989416E-2</v>
       </c>
       <c r="J34" s="2">
-        <v>0.97789078000000007</v>
+        <v>0.28920037100000001</v>
       </c>
       <c r="K34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M34" s="2">
-        <f>L34/384</f>
-        <v>0</v>
+        <f t="shared" ref="M34:M64" si="8">L34/631</f>
+        <v>4.7543581616481777E-3</v>
       </c>
       <c r="N34" s="3">
         <v>1</v>
@@ -4580,60 +4577,60 @@
         <v>1</v>
       </c>
       <c r="P34" s="4">
-        <f>((F34*0.3)+(I34*0.2)+(J34*0.2)+(M34*0.1)+(N34*0.1)+(O34*0.1))</f>
-        <v>0.42413393932097754</v>
+        <f t="shared" ref="P34:P46" si="9">((F34*0.3)+(I34*0.2)+(J34*0.2)+(M34*0.1)+(N34*0.1)+(O34*0.1))</f>
+        <v>0.31165107843441275</v>
       </c>
       <c r="Q34">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="R34">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C35">
-        <v>274176</v>
+        <v>504064</v>
       </c>
       <c r="D35">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E35">
-        <f>D35/C35</f>
-        <v>1.5318627450980392E-4</v>
+        <f t="shared" si="0"/>
+        <v>7.7371127475876075E-5</v>
       </c>
       <c r="F35" s="1">
-        <f>(E35-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>6.4801998927286844E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.1459196695763622E-2</v>
       </c>
       <c r="G35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H35">
-        <f>G35/C35</f>
-        <v>4.7414799253034548E-5</v>
+        <f t="shared" si="7"/>
+        <v>2.3806500761808026E-5</v>
       </c>
       <c r="I35" s="1">
-        <f>(H35-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>4.7077258877524848E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.0192718379768965E-2</v>
       </c>
       <c r="J35" s="2">
-        <v>0.33528630199999998</v>
+        <v>0.971624759</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M35" s="2">
-        <f>L35/384</f>
-        <v>2.8645833333333332E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.5847860538827259E-2</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
@@ -4642,370 +4639,370 @@
         <v>1</v>
       </c>
       <c r="P35" s="4">
-        <f>((F35*0.3)+(I35*0.2)+(J35*0.2)+(M35*0.1)+(N35*0.1)+(O35*0.1))</f>
-        <v>0.19877789518702438</v>
+        <f t="shared" si="9"/>
+        <v>0.30938604053856567</v>
       </c>
       <c r="Q35">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="R35">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>190</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="C36">
-        <v>504064</v>
+        <v>1173760</v>
       </c>
       <c r="D36">
-        <v>39</v>
+        <v>226</v>
       </c>
       <c r="E36">
-        <f>D36/C36</f>
-        <v>7.7371127475876075E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.9254362050163577E-4</v>
       </c>
       <c r="F36" s="1">
-        <f>(E36-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>3.1459196695763622E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.2110996602593411E-2</v>
       </c>
       <c r="G36">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="H36">
-        <f>G36/C36</f>
-        <v>2.3806500761808026E-5</v>
+        <f t="shared" si="7"/>
+        <v>1.2949836423118867E-4</v>
       </c>
       <c r="I36" s="1">
-        <f>(H36-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>2.0192718379768965E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.14055197191859636</v>
       </c>
       <c r="J36" s="2">
-        <v>0.971624759</v>
+        <v>0.27378087099999998</v>
       </c>
       <c r="K36">
         <v>5</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="M36" s="2">
-        <f>L36/384</f>
-        <v>5.7291666666666664E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.1695721077654518E-3</v>
       </c>
       <c r="N36" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="3">
         <v>1</v>
       </c>
       <c r="P36" s="4">
-        <f>((F36*0.3)+(I36*0.2)+(J36*0.2)+(M36*0.1)+(N36*0.1)+(O36*0.1))</f>
-        <v>0.31353042115134955</v>
+        <f t="shared" si="9"/>
+        <v>0.30781682477527383</v>
       </c>
       <c r="Q36">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R36">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>204</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>273</v>
       </c>
       <c r="C37">
-        <v>326656</v>
+        <v>5219840</v>
       </c>
       <c r="D37">
-        <v>19</v>
+        <v>1916</v>
       </c>
       <c r="E37">
-        <f>D37/C37</f>
-        <v>5.8165164576802506E-5</v>
+        <f t="shared" si="0"/>
+        <v>3.6706105934281513E-4</v>
       </c>
       <c r="F37" s="1">
-        <f>(E37-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>2.3012591397706131E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.15886215619118318</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>611</v>
       </c>
       <c r="H37">
-        <f>G37/C37</f>
-        <v>6.1226489028213164E-6</v>
+        <f t="shared" si="7"/>
+        <v>1.1705339627268268E-4</v>
       </c>
       <c r="I37" s="1">
-        <f>(H37-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>5.4789691857658376E-5</v>
+        <f t="shared" si="3"/>
+        <v>0.12637995332953683</v>
       </c>
       <c r="J37" s="2">
-        <v>0.36237256700000003</v>
+        <v>0.12371065000000001</v>
       </c>
       <c r="K37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M37" s="2">
-        <f>L37/384</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1.2678288431061807E-2</v>
       </c>
       <c r="N37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" s="3">
         <v>1</v>
       </c>
       <c r="P37" s="4">
-        <f>((F37*0.3)+(I37*0.2)+(J37*0.2)+(M37*0.1)+(N37*0.1)+(O37*0.1))</f>
-        <v>0.17938924875768339</v>
+        <f t="shared" si="9"/>
+        <v>0.2989445963663685</v>
       </c>
       <c r="Q37">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="R37">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>236</v>
+        <v>359</v>
       </c>
       <c r="B38" t="s">
-        <v>235</v>
+        <v>358</v>
       </c>
       <c r="C38">
-        <v>153856</v>
+        <v>6774272</v>
       </c>
       <c r="D38">
+        <v>1545</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>2.2806878731766308E-4</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="1"/>
+        <v>9.7734637230218843E-2</v>
+      </c>
+      <c r="G38">
+        <v>878</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="7"/>
+        <v>1.2960802282518328E-4</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14067684838575348</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.16534326200000002</v>
+      </c>
+      <c r="K38">
         <v>2</v>
       </c>
-      <c r="E38">
-        <f>D38/C38</f>
-        <v>1.2999168053244593E-5</v>
-      </c>
-      <c r="F38" s="1">
-        <f>(E38-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>3.1490028063560624E-3</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <f>G38/C38</f>
-        <v>6.4995840266222963E-6</v>
-      </c>
-      <c r="I38" s="1">
-        <f>(H38-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>4.8403399358571547E-4</v>
-      </c>
-      <c r="J38" s="2">
-        <v>0.21332020700000001</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
       <c r="L38">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="M38" s="2">
-        <f>L38/384</f>
-        <v>0.10677083333333333</v>
+        <f t="shared" si="8"/>
+        <v>3.1695721077654518E-3</v>
       </c>
       <c r="N38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="4">
-        <f>((F38*0.3)+(I38*0.2)+(J38*0.2)+(M38*0.1)+(N38*0.1)+(O38*0.1))</f>
-        <v>5.4382632373957296E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.29084137045699288</v>
       </c>
       <c r="Q38">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="R38">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B39" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C39">
-        <v>6588160</v>
+        <v>2227968</v>
       </c>
       <c r="D39">
-        <v>2033</v>
+        <v>1180</v>
       </c>
       <c r="E39">
-        <f>D39/C39</f>
-        <v>3.0858388381581505E-4</v>
+        <f t="shared" si="0"/>
+        <v>5.2963058715385495E-4</v>
       </c>
       <c r="F39" s="1">
-        <f>(E39-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.1331444338766398</v>
+        <f t="shared" si="1"/>
+        <v>0.23035873473438501</v>
       </c>
       <c r="G39">
-        <v>1264</v>
+        <v>814</v>
       </c>
       <c r="H39">
-        <f>G39/C39</f>
-        <v>1.9185933553526326E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.6535533724003217E-4</v>
       </c>
       <c r="I39" s="1">
-        <f>(H39-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.21156708802816418</v>
+        <f t="shared" si="3"/>
+        <v>0.40914000018716556</v>
       </c>
       <c r="J39" s="2">
-        <v>0.18629210407246843</v>
+        <v>0.16055561200000001</v>
       </c>
       <c r="K39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M39" s="2">
-        <f>L39/384</f>
-        <v>2.34375E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.7543581616481777E-3</v>
       </c>
       <c r="N39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" s="3">
         <v>1</v>
       </c>
       <c r="P39" s="4">
-        <f>((F39*0.3)+(I39*0.2)+(J39*0.2)+(M39*0.1)+(N39*0.1)+(O39*0.1))</f>
-        <v>0.32185891858311849</v>
+        <f t="shared" si="9"/>
+        <v>0.28352217867391344</v>
       </c>
       <c r="Q39">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R39">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="B40" t="s">
-        <v>237</v>
+        <v>165</v>
       </c>
       <c r="C40">
-        <v>28781312</v>
+        <v>53441088</v>
       </c>
       <c r="D40">
-        <v>6798</v>
+        <v>6380</v>
       </c>
       <c r="E40">
-        <f>D40/C40</f>
-        <v>2.3619493093296094E-4</v>
+        <f t="shared" si="0"/>
+        <v>1.193837969765885E-4</v>
       </c>
       <c r="F40" s="1">
-        <f>(E40-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.10130844022434322</v>
+        <f t="shared" si="1"/>
+        <v>4.9935981153541233E-2</v>
       </c>
       <c r="G40">
-        <v>4666</v>
+        <v>2880</v>
       </c>
       <c r="H40">
-        <f>G40/C40</f>
-        <v>1.621190861625766E-4</v>
+        <f t="shared" si="7"/>
+        <v>5.3891118384416124E-5</v>
       </c>
       <c r="I40" s="1">
-        <f>(H40-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.17769963506578787</v>
+        <f t="shared" si="3"/>
+        <v>5.4452329301542236E-2</v>
       </c>
       <c r="J40" s="2">
-        <v>0.95181365800000006</v>
+        <v>0.73185257599999998</v>
       </c>
       <c r="K40">
         <v>4</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M40" s="2">
-        <f>L40/384</f>
-        <v>1.0416666666666666E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.7432646592709985E-2</v>
       </c>
       <c r="N40" s="3">
+        <v>1</v>
+      </c>
+      <c r="O40" s="3">
         <v>0</v>
       </c>
-      <c r="O40" s="3">
-        <v>1</v>
-      </c>
       <c r="P40" s="4">
-        <f>((F40*0.3)+(I40*0.2)+(J40*0.2)+(M40*0.1)+(N40*0.1)+(O40*0.1))</f>
-        <v>0.35733685734712728</v>
+        <f t="shared" si="9"/>
+        <v>0.27398504006564184</v>
       </c>
       <c r="Q40">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="R40">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>206</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>205</v>
+        <v>50</v>
       </c>
       <c r="C41">
-        <v>6474752</v>
+        <v>81019136</v>
       </c>
       <c r="D41">
-        <v>1565</v>
+        <v>25121</v>
       </c>
       <c r="E41">
-        <f>D41/C41</f>
-        <v>2.4170809939901946E-4</v>
+        <f t="shared" ref="E41:E65" si="10">D41/C41</f>
+        <v>3.1006255114841017E-4</v>
       </c>
       <c r="F41" s="1">
-        <f>(E41-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.10373308085388123</v>
+        <f t="shared" ref="F41:F65" si="11">(E41-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.13379473812804316</v>
       </c>
       <c r="G41">
-        <v>1664</v>
+        <v>9028</v>
       </c>
       <c r="H41">
-        <f>G41/C41</f>
-        <v>2.569982603194686E-4</v>
+        <f t="shared" si="7"/>
+        <v>1.11430465020017E-4</v>
       </c>
       <c r="I41" s="1">
         <f>(H41-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.28574566815718305</v>
+        <v>0.11997669970096352</v>
       </c>
       <c r="J41" s="2">
-        <v>0.34709993</v>
+        <v>0.37564697900000005</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L41">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="M41" s="2">
-        <f>L41/384</f>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="8"/>
+        <v>0.33438985736925514</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -5014,59 +5011,60 @@
         <v>1</v>
       </c>
       <c r="P41" s="4">
-        <f>((F41*0.3)+(I41*0.2)+(J41*0.2)+(M41*0.1)+(N41*0.1)+(O41*0.1))</f>
-        <v>0.29935571055426768</v>
+        <f t="shared" si="9"/>
+        <v>0.27270214291553119</v>
       </c>
       <c r="Q41">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R41">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>428</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>437</v>
+        <v>56</v>
       </c>
       <c r="C42">
-        <v>36864</v>
+        <v>1826816</v>
       </c>
       <c r="D42">
-        <v>7</v>
+        <v>193</v>
       </c>
       <c r="E42">
-        <f>D42/C42</f>
-        <v>1.8988715277777778E-4</v>
+        <f t="shared" si="10"/>
+        <v>1.0564829736547085E-4</v>
       </c>
       <c r="F42" s="1">
-        <f>(E42-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>8.0942706604931289E-2</v>
+        <f t="shared" si="11"/>
+        <v>4.3895235141669611E-2</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="H42">
-        <f>G42/C42</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>3.4486231782511209E-5</v>
       </c>
       <c r="I42" s="1">
-        <v>0</v>
+        <f>(H42-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>3.2354529246313872E-2</v>
       </c>
       <c r="J42" s="2">
-        <v>0.18697333499999999</v>
+        <v>0.21544893199999998</v>
       </c>
       <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42">
         <v>4</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
       <c r="M42" s="2">
-        <f>L42/384</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>6.3391442155309036E-3</v>
       </c>
       <c r="N42" s="3">
         <v>1</v>
@@ -5075,493 +5073,493 @@
         <v>1</v>
       </c>
       <c r="P42" s="4">
-        <f>((F42*0.3)+(I42*0.2)+(J42*0.2)+(M42*0.1)+(N42*0.1)+(O42*0.1))</f>
-        <v>0.26167747898147942</v>
+        <f t="shared" si="9"/>
+        <v>0.26336317721331676</v>
       </c>
       <c r="Q42">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="R42">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>250</v>
+        <v>427</v>
       </c>
       <c r="B43" t="s">
-        <v>249</v>
+        <v>436</v>
       </c>
       <c r="C43">
-        <v>2227968</v>
+        <v>36864</v>
       </c>
       <c r="D43">
-        <v>1180</v>
+        <v>7</v>
       </c>
       <c r="E43">
-        <f>D43/C43</f>
-        <v>5.2963058715385495E-4</v>
+        <f t="shared" si="10"/>
+        <v>1.8988715277777778E-4</v>
       </c>
       <c r="F43" s="1">
-        <f>(E43-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.23035873473438501</v>
+        <f t="shared" si="11"/>
+        <v>8.0942706604931289E-2</v>
       </c>
       <c r="G43">
-        <v>814</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <f>G43/C43</f>
-        <v>3.6535533724003217E-4</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="I43" s="1">
-        <f>(H43-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.40914000018716556</v>
+        <v>0</v>
       </c>
       <c r="J43" s="2">
-        <v>0.16055561200000001</v>
+        <v>0.18697333499999999</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M43" s="2">
-        <f>L43/384</f>
-        <v>2.6041666666666665E-3</v>
+        <f t="shared" si="8"/>
+        <v>6.3391442155309036E-3</v>
       </c>
       <c r="N43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" s="3">
         <v>1</v>
       </c>
       <c r="P43" s="4">
-        <f>((F43*0.3)+(I43*0.2)+(J43*0.2)+(M43*0.1)+(N43*0.1)+(O43*0.1))</f>
-        <v>0.28330715952441532</v>
+        <f t="shared" si="9"/>
+        <v>0.26231139340303244</v>
       </c>
       <c r="Q43">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R43">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c r="B44" t="s">
-        <v>273</v>
+        <v>205</v>
       </c>
       <c r="C44">
-        <v>5219840</v>
+        <v>6474752</v>
       </c>
       <c r="D44">
-        <v>1916</v>
+        <v>1565</v>
       </c>
       <c r="E44">
-        <f>D44/C44</f>
-        <v>3.6706105934281513E-4</v>
+        <f t="shared" si="10"/>
+        <v>2.4170809939901946E-4</v>
       </c>
       <c r="F44" s="1">
-        <f>(E44-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.15886215619118318</v>
+        <f t="shared" si="11"/>
+        <v>0.10373308085388123</v>
       </c>
       <c r="G44">
-        <v>611</v>
+        <v>1664</v>
       </c>
       <c r="H44">
-        <f>G44/C44</f>
-        <v>1.1705339627268268E-4</v>
+        <f t="shared" si="7"/>
+        <v>2.569982603194686E-4</v>
       </c>
       <c r="I44" s="1">
-        <f>(H44-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.12637995332953683</v>
+        <f t="shared" ref="I44:I56" si="12">(H44-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.28574566815718305</v>
       </c>
       <c r="J44" s="2">
-        <v>0.12371065000000001</v>
+        <v>0.34709993</v>
       </c>
       <c r="K44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L44">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M44" s="2">
-        <f>L44/384</f>
-        <v>1.8229166666666668E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.7543581616481777E-3</v>
       </c>
       <c r="N44" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <v>1</v>
       </c>
       <c r="P44" s="4">
-        <f>((F44*0.3)+(I44*0.2)+(J44*0.2)+(M44*0.1)+(N44*0.1)+(O44*0.1))</f>
-        <v>0.29949968418992901</v>
+        <f t="shared" si="9"/>
+        <v>0.25816447970376577</v>
       </c>
       <c r="Q44">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R44">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>272</v>
+        <v>194</v>
       </c>
       <c r="B45" t="s">
-        <v>271</v>
+        <v>193</v>
       </c>
       <c r="C45">
-        <v>5394944</v>
+        <v>538624</v>
       </c>
       <c r="D45">
-        <v>1220</v>
+        <v>140</v>
       </c>
       <c r="E45">
-        <f>D45/C45</f>
-        <v>2.2613765777735597E-4</v>
+        <f t="shared" si="10"/>
+        <v>2.5992157794676806E-4</v>
       </c>
       <c r="F45" s="1">
-        <f>(E45-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>9.6885344274061966E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.11174320069040819</v>
       </c>
       <c r="G45">
-        <v>256</v>
+        <v>72</v>
       </c>
       <c r="H45">
-        <f>G45/C45</f>
-        <v>4.7451836386068141E-5</v>
+        <f t="shared" si="7"/>
+        <v>1.3367395437262358E-4</v>
       </c>
       <c r="I45" s="1">
-        <f>(H45-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>4.7119435839296675E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.14530702964972236</v>
       </c>
       <c r="J45" s="2">
-        <v>0.45997524199999995</v>
+        <v>0.36410969199999998</v>
       </c>
       <c r="K45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L45">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M45" s="2">
-        <f>L45/384</f>
-        <v>1.8229166666666668E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.5847860538827259E-3</v>
       </c>
       <c r="N45" s="3">
+        <v>1</v>
+      </c>
+      <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3">
-        <v>1</v>
-      </c>
       <c r="P45" s="4">
-        <f>((F45*0.3)+(I45*0.2)+(J45*0.2)+(M45*0.1)+(N45*0.1)+(O45*0.1))</f>
-        <v>0.23230745551674462</v>
+        <f t="shared" si="9"/>
+        <v>0.23556478314245521</v>
       </c>
       <c r="Q45">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="R45">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="B46" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="C46">
-        <v>45552000</v>
+        <v>5394944</v>
       </c>
       <c r="D46">
-        <v>63284</v>
+        <v>1220</v>
       </c>
       <c r="E46">
-        <f>D46/C46</f>
-        <v>1.3892694063926941E-3</v>
+        <f t="shared" si="10"/>
+        <v>2.2613765777735597E-4</v>
       </c>
       <c r="F46" s="1">
-        <f>(E46-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.60841995682228722</v>
+        <f t="shared" si="11"/>
+        <v>9.6885344274061966E-2</v>
       </c>
       <c r="G46">
-        <v>29494</v>
+        <v>256</v>
       </c>
       <c r="H46">
-        <f>G46/C46</f>
-        <v>6.4747980330172111E-4</v>
+        <f t="shared" si="7"/>
+        <v>4.7451836386068141E-5</v>
       </c>
       <c r="I46" s="1">
-        <f>(H46-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.73041629360839377</v>
+        <f t="shared" si="12"/>
+        <v>4.7119435839296675E-2</v>
       </c>
       <c r="J46" s="2">
-        <v>0.86038705400000004</v>
+        <v>0.45997524199999995</v>
       </c>
       <c r="K46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L46">
+        <v>9</v>
+      </c>
+      <c r="M46" s="2">
+        <f t="shared" si="8"/>
+        <v>1.4263074484944533E-2</v>
+      </c>
+      <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="2">
-        <f>L46/384</f>
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1</v>
-      </c>
       <c r="O46" s="3">
         <v>1</v>
       </c>
       <c r="P46" s="4">
-        <f>((F46*0.3)+(I46*0.2)+(J46*0.2)+(M46*0.1)+(N46*0.1)+(O46*0.1))</f>
-        <v>0.70068665656836493</v>
+        <f t="shared" si="9"/>
+        <v>0.23191084629857239</v>
       </c>
       <c r="Q46">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="R46">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>429</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>438</v>
+        <v>10</v>
       </c>
       <c r="C47">
-        <v>342528</v>
+        <v>611104</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>475</v>
       </c>
       <c r="E47">
-        <f>D47/C47</f>
-        <v>5.8389387144992528E-6</v>
+        <f t="shared" si="10"/>
+        <v>7.772817720060743E-4</v>
       </c>
       <c r="F47" s="1">
-        <f>(E47-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>1.1175518276544003E-18</v>
+        <f t="shared" si="11"/>
+        <v>0.33927344112194513</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="H47">
-        <f>G47/C47</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>2.7491228988846413E-4</v>
       </c>
       <c r="I47" s="1">
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>0.30614571747054786</v>
       </c>
       <c r="J47" s="2">
-        <v>0.28002160799999998</v>
+        <v>0.20038133699999999</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
       <c r="M47" s="2">
-        <f>L47/384</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" s="4">
-        <f>((F47*0.3)+(I47*0.2)+(J47*0.2)+(M47*0.1)+(N47*0.1)+(O47*0.1))</f>
-        <v>0.1560043216</v>
+        <f>((F47*0.3)+(I47*0.2)+(J47*0.2)+(M47*0.1)+(N47*0.1)+(O47*0.1))/0.9</f>
+        <v>0.22565271470077011</v>
       </c>
       <c r="Q47">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="R47">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>296</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
-        <v>295</v>
+        <v>98</v>
       </c>
       <c r="C48">
-        <v>7722496</v>
+        <v>2566912</v>
       </c>
       <c r="D48">
-        <v>564</v>
+        <v>2603</v>
       </c>
       <c r="E48">
-        <f>D48/C48</f>
-        <v>7.3033381953192331E-5</v>
+        <f t="shared" si="10"/>
+        <v>1.0140589159269972E-3</v>
       </c>
       <c r="F48" s="1">
-        <f>(E48-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>2.9551496232836403E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.44340584462658056</v>
       </c>
       <c r="G48">
-        <v>207</v>
+        <v>612</v>
       </c>
       <c r="H48">
-        <f>G48/C48</f>
-        <v>2.6804805078565272E-5</v>
+        <f t="shared" si="7"/>
+        <v>2.3841876932282838E-4</v>
       </c>
       <c r="I48" s="1">
-        <f>(H48-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>2.3607112426778012E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.26458780799574483</v>
       </c>
       <c r="J48" s="2">
-        <v>0.95277895000000001</v>
+        <v>0.13824662599999998</v>
       </c>
       <c r="K48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L48">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M48" s="2">
-        <f>L48/384</f>
-        <v>4.4270833333333336E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.4263074484944533E-2</v>
       </c>
       <c r="N48" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" s="4">
-        <f>((F48*0.3)+(I48*0.2)+(J48*0.2)+(M48*0.1)+(N48*0.1)+(O48*0.1))</f>
-        <v>0.4085697446885399</v>
+        <f t="shared" ref="P48:P56" si="13">((F48*0.3)+(I48*0.2)+(J48*0.2)+(M48*0.1)+(N48*0.1)+(O48*0.1))</f>
+        <v>0.21501494763561757</v>
       </c>
       <c r="Q48">
+        <v>47</v>
+      </c>
+      <c r="R48">
         <v>18</v>
-      </c>
-      <c r="R48">
-        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B49" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C49">
-        <v>5943556</v>
+        <v>1200384</v>
       </c>
       <c r="D49">
-        <v>8020</v>
+        <v>24</v>
       </c>
       <c r="E49">
-        <f>D49/C49</f>
-        <v>1.3493605511582629E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.9993602047344849E-5</v>
       </c>
       <c r="F49" s="1">
-        <f>(E49-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.59086841047004379</v>
+        <f t="shared" si="11"/>
+        <v>6.2250903496851402E-3</v>
       </c>
       <c r="G49">
-        <v>1358</v>
+        <v>8</v>
       </c>
       <c r="H49">
-        <f>G49/C49</f>
-        <v>2.2848274669238415E-4</v>
+        <f t="shared" si="7"/>
+        <v>6.6645340157816163E-6</v>
       </c>
       <c r="I49" s="1">
-        <f>(H49-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.25327291366339522</v>
+        <f t="shared" si="12"/>
+        <v>6.7187492016948221E-4</v>
       </c>
       <c r="J49" s="2">
-        <v>0.91705547199999993</v>
+        <v>0.52306200300000005</v>
       </c>
       <c r="K49">
         <v>5</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="M49" s="2">
-        <f>L49/384</f>
-        <v>3.6458333333333336E-2</v>
+        <f t="shared" si="8"/>
+        <v>6.3391442155309036E-2</v>
       </c>
       <c r="N49" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" s="4">
-        <f>((F49*0.3)+(I49*0.2)+(J49*0.2)+(M49*0.1)+(N49*0.1)+(O49*0.1))</f>
-        <v>0.51497203360702548</v>
+        <f t="shared" si="13"/>
+        <v>0.21295344690447038</v>
       </c>
       <c r="Q49">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="R49">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>368</v>
+        <v>76</v>
       </c>
       <c r="C50">
-        <v>26393088</v>
+        <v>17253096</v>
       </c>
       <c r="D50">
-        <v>1304</v>
+        <v>5578</v>
       </c>
       <c r="E50">
-        <f>D50/C50</f>
-        <v>4.9406875012124383E-5</v>
+        <f t="shared" si="10"/>
+        <v>3.2330429274838554E-4</v>
       </c>
       <c r="F50" s="1">
-        <f>(E50-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>1.9160776446918101E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.13961833392178777</v>
       </c>
       <c r="G50">
-        <v>672</v>
+        <v>757</v>
       </c>
       <c r="H50">
-        <f>G50/C50</f>
-        <v>2.5461211662689866E-5</v>
+        <f t="shared" si="7"/>
+        <v>4.387618314996914E-5</v>
       </c>
       <c r="I50" s="1">
-        <f>(H50-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>2.2077061812793935E-2</v>
+        <f t="shared" si="12"/>
+        <v>4.3047571267287824E-2</v>
       </c>
       <c r="J50" s="2">
-        <v>0.47101033099999995</v>
+        <v>0.29700730400000003</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L50">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M50" s="2">
-        <f>L50/384</f>
-        <v>4.4270833333333336E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.3771790808240888E-2</v>
       </c>
       <c r="N50" s="3">
         <v>1</v>
@@ -5570,11 +5568,11 @@
         <v>0</v>
       </c>
       <c r="P50" s="4">
-        <f>((F50*0.3)+(I50*0.2)+(J50*0.2)+(M50*0.1)+(N50*0.1)+(O50*0.1))</f>
-        <v>0.20879279482996754</v>
+        <f t="shared" si="13"/>
+        <v>0.21227365431081802</v>
       </c>
       <c r="Q50">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R50">
         <v>16</v>
@@ -5582,48 +5580,48 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>194</v>
+        <v>369</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
+        <v>368</v>
       </c>
       <c r="C51">
-        <v>538624</v>
+        <v>26393088</v>
       </c>
       <c r="D51">
-        <v>140</v>
+        <v>1304</v>
       </c>
       <c r="E51">
-        <f>D51/C51</f>
-        <v>2.5992157794676806E-4</v>
+        <f t="shared" si="10"/>
+        <v>4.9406875012124383E-5</v>
       </c>
       <c r="F51" s="1">
-        <f>(E51-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.11174320069040819</v>
+        <f t="shared" si="11"/>
+        <v>1.9160776446918101E-2</v>
       </c>
       <c r="G51">
-        <v>72</v>
+        <v>672</v>
       </c>
       <c r="H51">
-        <f>G51/C51</f>
-        <v>1.3367395437262358E-4</v>
+        <f t="shared" si="7"/>
+        <v>2.5461211662689866E-5</v>
       </c>
       <c r="I51" s="1">
-        <f>(H51-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.14530702964972236</v>
+        <f t="shared" si="12"/>
+        <v>2.2077061812793935E-2</v>
       </c>
       <c r="J51" s="2">
-        <v>0.36410969199999998</v>
+        <v>0.47101033099999995</v>
       </c>
       <c r="K51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L51">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M51" s="2">
-        <f>L51/384</f>
-        <v>2.8645833333333332E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.4374009508716325E-2</v>
       </c>
       <c r="N51" s="3">
         <v>1</v>
@@ -5632,60 +5630,60 @@
         <v>0</v>
       </c>
       <c r="P51" s="4">
-        <f>((F51*0.3)+(I51*0.2)+(J51*0.2)+(M51*0.1)+(N51*0.1)+(O51*0.1))</f>
-        <v>0.23827088787040027</v>
+        <f t="shared" si="13"/>
+        <v>0.20880311244750585</v>
       </c>
       <c r="Q51">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="R51">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>300</v>
+        <v>176</v>
       </c>
       <c r="B52" t="s">
-        <v>299</v>
+        <v>175</v>
       </c>
       <c r="C52">
-        <v>1200384</v>
+        <v>274176</v>
       </c>
       <c r="D52">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E52">
-        <f>D52/C52</f>
-        <v>1.9993602047344849E-5</v>
+        <f t="shared" si="10"/>
+        <v>1.5318627450980392E-4</v>
       </c>
       <c r="F52" s="1">
-        <f>(E52-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>6.2250903496851402E-3</v>
+        <f t="shared" si="11"/>
+        <v>6.4801998927286844E-2</v>
       </c>
       <c r="G52">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H52">
-        <f>G52/C52</f>
-        <v>6.6645340157816163E-6</v>
+        <f t="shared" si="7"/>
+        <v>4.7414799253034548E-5</v>
       </c>
       <c r="I52" s="1">
-        <f>(H52-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>6.7187492016948221E-4</v>
+        <f t="shared" si="12"/>
+        <v>4.7077258877524848E-2</v>
       </c>
       <c r="J52" s="2">
-        <v>0.52306200300000005</v>
+        <v>0.33528630199999998</v>
       </c>
       <c r="K52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L52">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="M52" s="2">
-        <f>L52/384</f>
-        <v>0.10416666666666667</v>
+        <f t="shared" si="8"/>
+        <v>9.5087163232963554E-3</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -5694,308 +5692,307 @@
         <v>1</v>
       </c>
       <c r="P52" s="4">
-        <f>((F52*0.3)+(I52*0.2)+(J52*0.2)+(M52*0.1)+(N52*0.1)+(O52*0.1))</f>
-        <v>0.21703096935560612</v>
+        <f t="shared" si="13"/>
+        <v>0.19686418348602067</v>
       </c>
       <c r="Q52">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="R52">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>326</v>
+        <v>150</v>
       </c>
       <c r="B53" t="s">
-        <v>325</v>
+        <v>149</v>
       </c>
       <c r="C53">
-        <v>843776</v>
+        <v>5894656</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <v>1346</v>
       </c>
       <c r="E53">
-        <f>D53/C53</f>
-        <v>1.1851486650485437E-5</v>
+        <f t="shared" si="10"/>
+        <v>2.2834241726743681E-4</v>
       </c>
       <c r="F53" s="1">
-        <f>(E53-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>2.6442631133779433E-3</v>
+        <f t="shared" si="11"/>
+        <v>9.7854977157751322E-2</v>
       </c>
       <c r="G53">
-        <v>6</v>
+        <v>609</v>
       </c>
       <c r="H53">
-        <f>G53/C53</f>
-        <v>7.1108919902912624E-6</v>
+        <f t="shared" si="7"/>
+        <v>1.033139168765743E-4</v>
       </c>
       <c r="I53" s="1">
-        <f>(H53-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>1.1801762298407588E-3</v>
+        <f t="shared" si="12"/>
+        <v>0.11073377745709817</v>
       </c>
       <c r="J53" s="2">
-        <v>0.94841592199999991</v>
+        <v>0.207538106</v>
       </c>
       <c r="K53">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53" s="2">
+        <f t="shared" si="8"/>
+        <v>4.7543581616481777E-3</v>
+      </c>
+      <c r="N53" s="3">
+        <v>1</v>
+      </c>
+      <c r="O53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="2">
-        <f>L53/384</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="3">
-        <v>1</v>
-      </c>
-      <c r="O53" s="3">
-        <v>1</v>
-      </c>
       <c r="P53" s="4">
-        <f>((F53*0.3)+(I53*0.2)+(J53*0.2)+(M53*0.1)+(N53*0.1)+(O53*0.1))</f>
-        <v>0.39071249857998147</v>
+        <f t="shared" si="13"/>
+        <v>0.19348630565490987</v>
       </c>
       <c r="Q53">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="R53">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>332</v>
+        <v>350</v>
       </c>
       <c r="B54" t="s">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="C54">
-        <v>8643072</v>
+        <v>228608</v>
       </c>
       <c r="D54">
-        <v>3027</v>
+        <v>33</v>
       </c>
       <c r="E54">
-        <f>D54/C54</f>
-        <v>3.5022269859605472E-4</v>
+        <f t="shared" si="10"/>
+        <v>1.4435190369540873E-4</v>
       </c>
       <c r="F54" s="1">
-        <f>(E54-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.15145680047735691</v>
+        <f t="shared" si="11"/>
+        <v>6.091672414476218E-2</v>
       </c>
       <c r="G54">
-        <v>1769</v>
+        <v>9</v>
       </c>
       <c r="H54">
-        <f>G54/C54</f>
-        <v>2.0467259789112019E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.9368701007838745E-5</v>
       </c>
       <c r="I54" s="1">
-        <f>(H54-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.2261585110755483</v>
+        <f t="shared" si="12"/>
+        <v>3.7914563217679741E-2</v>
       </c>
       <c r="J54" s="2">
-        <v>0.95884328600000002</v>
+        <v>0.31265499599999996</v>
       </c>
       <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
         <v>4</v>
       </c>
-      <c r="L54">
-        <v>3</v>
-      </c>
       <c r="M54" s="2">
-        <f>L54/384</f>
-        <v>7.8125E-3</v>
+        <f t="shared" si="8"/>
+        <v>6.3391442155309036E-3</v>
       </c>
       <c r="N54" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
         <v>1</v>
       </c>
       <c r="P54" s="4">
-        <f>((F54*0.3)+(I54*0.2)+(J54*0.2)+(M54*0.1)+(N54*0.1)+(O54*0.1))</f>
-        <v>0.48321864955831673</v>
+        <f t="shared" si="13"/>
+        <v>0.1890228435085177</v>
       </c>
       <c r="Q54">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="R54">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>336</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>335</v>
+        <v>12</v>
       </c>
       <c r="C55">
-        <v>3389696</v>
+        <v>1072896</v>
       </c>
       <c r="D55">
-        <v>1255</v>
+        <v>14</v>
       </c>
       <c r="E55">
-        <f>D55/C55</f>
-        <v>3.7023969111094329E-4</v>
+        <f t="shared" si="10"/>
+        <v>1.3048795036984014E-5</v>
       </c>
       <c r="F55" s="1">
-        <f>(E55-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.16026008911828157</v>
+        <f t="shared" si="11"/>
+        <v>3.1708282959700316E-3</v>
       </c>
       <c r="G55">
-        <v>420</v>
+        <v>9</v>
       </c>
       <c r="H55">
-        <f>G55/C55</f>
-        <v>1.2390491654708859E-4</v>
+        <f t="shared" si="7"/>
+        <v>8.3885110952040091E-6</v>
       </c>
       <c r="I55" s="1">
-        <f>(H55-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.13418229344129518</v>
+        <f t="shared" si="12"/>
+        <v>2.6350969467868815E-3</v>
       </c>
       <c r="J55" s="2">
-        <v>0.68244708700000001</v>
+        <v>0.33687151900000001</v>
       </c>
       <c r="K55">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L55">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="M55" s="2">
-        <f>L55/384</f>
-        <v>0.29427083333333331</v>
+        <f t="shared" si="8"/>
+        <v>0.17115689381933438</v>
       </c>
       <c r="N55" s="3">
         <v>1</v>
       </c>
       <c r="O55" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" s="4">
-        <f>((F55*0.3)+(I55*0.2)+(J55*0.2)+(M55*0.1)+(N55*0.1)+(O55*0.1))</f>
-        <v>0.44083098615707683</v>
+        <f t="shared" si="13"/>
+        <v>0.18596826106008185</v>
       </c>
       <c r="Q55">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="R55">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>340</v>
+        <v>204</v>
       </c>
       <c r="B56" t="s">
-        <v>339</v>
+        <v>203</v>
       </c>
       <c r="C56">
-        <v>16281856</v>
+        <v>326656</v>
       </c>
       <c r="D56">
-        <v>11089</v>
+        <v>19</v>
       </c>
       <c r="E56">
-        <f>D56/C56</f>
-        <v>6.8106486140155024E-4</v>
+        <f t="shared" si="10"/>
+        <v>5.8165164576802506E-5</v>
       </c>
       <c r="F56" s="1">
-        <f>(E56-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.29695813148890926</v>
+        <f t="shared" si="11"/>
+        <v>2.3012591397706131E-2</v>
       </c>
       <c r="G56">
-        <v>5089</v>
+        <v>2</v>
       </c>
       <c r="H56">
-        <f>G56/C56</f>
-        <v>3.125565046147073E-4</v>
+        <f t="shared" si="7"/>
+        <v>6.1226489028213164E-6</v>
       </c>
       <c r="I56" s="1">
-        <f>(H56-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.34901400870678445</v>
+        <f t="shared" si="12"/>
+        <v>5.4789691857658376E-5</v>
       </c>
       <c r="J56" s="2">
-        <v>0.94308672100000002</v>
+        <v>0.36237256700000003</v>
       </c>
       <c r="K56">
         <v>5</v>
       </c>
       <c r="L56">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M56" s="2">
-        <f>L56/384</f>
-        <v>3.3854166666666664E-2</v>
+        <f t="shared" si="8"/>
+        <v>7.9239302694136295E-3</v>
       </c>
       <c r="N56" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" s="3">
         <v>1</v>
       </c>
       <c r="P56" s="4">
-        <f>((F56*0.3)+(I56*0.2)+(J56*0.2)+(M56*0.1)+(N56*0.1)+(O56*0.1))</f>
-        <v>0.55089300205469627</v>
+        <f t="shared" si="13"/>
+        <v>0.18018164178462476</v>
       </c>
       <c r="Q56">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="R56">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>350</v>
+        <v>428</v>
       </c>
       <c r="B57" t="s">
-        <v>349</v>
+        <v>437</v>
       </c>
       <c r="C57">
-        <v>228608</v>
+        <v>342528</v>
       </c>
       <c r="D57">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <f>D57/C57</f>
-        <v>1.4435190369540873E-4</v>
+        <f t="shared" si="10"/>
+        <v>5.8389387144992528E-6</v>
       </c>
       <c r="F57" s="1">
-        <f>(E57-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>6.091672414476218E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.1175518276544003E-18</v>
       </c>
       <c r="G57">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <f>G57/C57</f>
-        <v>3.9368701007838745E-5</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="I57" s="1">
-        <f>(H57-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>3.7914563217679741E-2</v>
+        <v>0</v>
       </c>
       <c r="J57" s="2">
-        <v>0.31265499599999996</v>
+        <v>0.28002160799999998</v>
       </c>
       <c r="K57">
         <v>0</v>
       </c>
       <c r="L57">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M57" s="2">
-        <f>L57/384</f>
-        <v>1.3020833333333334E-2</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -6004,308 +6001,307 @@
         <v>1</v>
       </c>
       <c r="P57" s="4">
-        <f>((F57*0.3)+(I57*0.2)+(J57*0.2)+(M57*0.1)+(N57*0.1)+(O57*0.1))</f>
-        <v>0.18969101242029793</v>
+        <f>((F57*0.3)+(I57*0.2)+(J57*0.2)+(M57*0.1)+(N57*0.1)+(O57*0.1))/0.9</f>
+        <v>0.1733381351111111</v>
       </c>
       <c r="Q57">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R57">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>348</v>
+        <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>347</v>
+        <v>14</v>
       </c>
       <c r="C58">
-        <v>11929056</v>
+        <v>18790144</v>
       </c>
       <c r="D58">
-        <v>6465</v>
+        <v>14192</v>
       </c>
       <c r="E58">
-        <f>D58/C58</f>
-        <v>5.4195403223859459E-4</v>
+        <f t="shared" si="10"/>
+        <v>7.5528958160192919E-4</v>
       </c>
       <c r="F58" s="1">
-        <f>(E58-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.2357784721924899</v>
+        <f t="shared" si="11"/>
+        <v>0.32960147867154899</v>
       </c>
       <c r="G58">
-        <v>1329</v>
+        <v>2157</v>
       </c>
       <c r="H58">
-        <f>G58/C58</f>
-        <v>1.1140864792654171E-4</v>
+        <f t="shared" si="7"/>
+        <v>1.147942240357498E-4</v>
       </c>
       <c r="I58" s="1">
         <f>(H58-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.11995185493998688</v>
+        <v>0.1238072644287336</v>
       </c>
       <c r="J58" s="2">
-        <v>0.20160347000000001</v>
+        <v>0.211732798</v>
       </c>
       <c r="K58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L58">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M58" s="2">
-        <f>L58/384</f>
-        <v>6.7708333333333329E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.8034865293185421E-2</v>
       </c>
       <c r="N58" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58" s="4">
-        <f>((F58*0.3)+(I58*0.2)+(J58*0.2)+(M58*0.1)+(N58*0.1)+(O58*0.1))</f>
-        <v>0.34181543997907771</v>
+        <f t="shared" ref="P58:P65" si="14">((F58*0.3)+(I58*0.2)+(J58*0.2)+(M58*0.1)+(N58*0.1)+(O58*0.1))</f>
+        <v>0.16979194261652997</v>
       </c>
       <c r="Q58">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="R58">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>355</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>354</v>
       </c>
       <c r="C59">
-        <v>3736960</v>
+        <v>224000</v>
       </c>
       <c r="D59">
-        <v>916</v>
+        <v>75</v>
       </c>
       <c r="E59">
-        <f>D59/C59</f>
-        <v>2.4511902723069016E-4</v>
+        <f t="shared" si="10"/>
+        <v>3.3482142857142857E-4</v>
       </c>
       <c r="F59" s="1">
-        <f>(E59-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.10523317544667414</v>
+        <f t="shared" si="11"/>
+        <v>0.14468346400521909</v>
       </c>
       <c r="G59">
-        <v>428</v>
+        <v>20</v>
       </c>
       <c r="H59">
-        <f>G59/C59</f>
-        <v>1.1453159787634869E-4</v>
+        <f t="shared" si="7"/>
+        <v>8.9285714285714286E-5</v>
       </c>
       <c r="I59" s="1">
         <f>(H59-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.12350819231979644</v>
+        <v>9.4758810823867223E-2</v>
       </c>
       <c r="J59" s="2">
-        <v>0.8396049659999999</v>
+        <v>3.1623552999999999E-2</v>
       </c>
       <c r="K59">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M59" s="2">
-        <f>L59/384</f>
-        <v>5.208333333333333E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.5847860538827259E-3</v>
       </c>
       <c r="N59" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>1</v>
       </c>
       <c r="P59" s="4">
-        <f>((F59*0.3)+(I59*0.2)+(J59*0.2)+(M59*0.1)+(N59*0.1)+(O59*0.1))</f>
-        <v>0.42471341763129489</v>
+        <f t="shared" si="14"/>
+        <v>0.16883999057172744</v>
       </c>
       <c r="Q59">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="R59">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>431</v>
+        <v>174</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="C60">
-        <v>123758120</v>
+        <v>3834112</v>
       </c>
       <c r="D60">
-        <v>4530</v>
+        <v>119</v>
       </c>
       <c r="E60">
-        <f>D60/C60</f>
-        <v>3.6603658814468096E-5</v>
+        <f t="shared" si="10"/>
+        <v>3.1037173666288308E-5</v>
       </c>
       <c r="F60" s="1">
-        <f>(E60-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>1.3530040079489443E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.1081951265028506E-2</v>
       </c>
       <c r="G60">
-        <v>1481</v>
+        <v>26</v>
       </c>
       <c r="H60">
-        <f>G60/C60</f>
-        <v>1.196689154618703E-5</v>
+        <f t="shared" si="7"/>
+        <v>6.7812312212058494E-6</v>
       </c>
       <c r="I60" s="1">
         <f>(H60-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>6.7100672029695814E-3</v>
+        <v>8.0476678217167839E-4</v>
       </c>
       <c r="J60" s="2">
-        <v>0.84022306999999985</v>
+        <v>0.32096185300000002</v>
       </c>
       <c r="K60">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="M60" s="2">
-        <f>L60/384</f>
-        <v>0.25520833333333331</v>
+        <f t="shared" si="8"/>
+        <v>3.1695721077654518E-3</v>
       </c>
       <c r="N60" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" s="3">
         <v>1</v>
       </c>
       <c r="P60" s="4">
-        <f>((F60*0.3)+(I60*0.2)+(J60*0.2)+(M60*0.1)+(N60*0.1)+(O60*0.1))</f>
-        <v>0.39896647279777409</v>
+        <f t="shared" si="14"/>
+        <v>0.16799486654671944</v>
       </c>
       <c r="Q60">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="R60">
-        <v>47</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B61" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="C61">
-        <v>1596006656</v>
+        <v>81664</v>
       </c>
       <c r="D61">
-        <v>27409</v>
+        <v>3</v>
       </c>
       <c r="E61">
-        <f>D61/C61</f>
-        <v>1.7173487276484139E-5</v>
+        <f t="shared" si="10"/>
+        <v>3.6735893416927902E-5</v>
       </c>
       <c r="F61" s="1">
-        <f>(E61-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>4.9848298904799802E-3</v>
+        <f t="shared" si="11"/>
+        <v>1.3588195637718568E-2</v>
       </c>
       <c r="G61">
-        <v>9695</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <f>G61/C61</f>
-        <v>6.0745360701052115E-6</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="I61" s="1">
-        <f>(H61-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>1.9291599165314246E-18</v>
+        <v>0</v>
       </c>
       <c r="J61" s="2">
-        <v>0.87482138799999998</v>
+        <v>0.249509697</v>
       </c>
       <c r="K61">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>384</v>
+        <v>22</v>
       </c>
       <c r="M61" s="2">
-        <f>L61/384</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>3.486529318541997E-2</v>
       </c>
       <c r="N61" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" s="4">
-        <f>((F61*0.3)+(I61*0.2)+(J61*0.2)+(M61*0.1)+(N61*0.1)+(O61*0.1))</f>
-        <v>0.37645972656714399</v>
+        <f t="shared" si="14"/>
+        <v>0.15746492740985757</v>
       </c>
       <c r="Q61">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="R61">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="B62" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="C62">
-        <v>224000</v>
+        <v>832512</v>
       </c>
       <c r="D62">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E62">
-        <f>D62/C62</f>
-        <v>3.3482142857142857E-4</v>
+        <f t="shared" si="10"/>
+        <v>7.2071033210332103E-5</v>
       </c>
       <c r="F62" s="1">
-        <f>(E62-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.14468346400521909</v>
+        <f t="shared" si="11"/>
+        <v>2.9128264133892055E-2</v>
       </c>
       <c r="G62">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H62">
-        <f>G62/C62</f>
-        <v>8.9285714285714286E-5</v>
+        <f t="shared" si="7"/>
+        <v>2.5224861623616237E-5</v>
       </c>
       <c r="I62" s="1">
         <f>(H62-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>9.4758810823867223E-2</v>
+        <v>2.1807912293209431E-2</v>
       </c>
       <c r="J62" s="2">
-        <v>3.1623552999999999E-2</v>
+        <v>0.19953911200000002</v>
       </c>
       <c r="K62">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M62" s="2">
-        <f>L62/384</f>
-        <v>2.6041666666666665E-3</v>
+        <f t="shared" si="8"/>
+        <v>7.9239302694136295E-3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -6314,317 +6310,256 @@
         <v>1</v>
       </c>
       <c r="P62" s="4">
-        <f>((F62*0.3)+(I62*0.2)+(J62*0.2)+(M62*0.1)+(N62*0.1)+(O62*0.1))</f>
-        <v>0.16894192863300583</v>
+        <f t="shared" si="14"/>
+        <v>0.15380027712575087</v>
       </c>
       <c r="Q62">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="R62">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>359</v>
+        <v>101</v>
       </c>
       <c r="B63" t="s">
-        <v>358</v>
+        <v>100</v>
       </c>
       <c r="C63">
-        <v>6774272</v>
+        <v>1297720</v>
       </c>
       <c r="D63">
-        <v>1545</v>
+        <v>53</v>
       </c>
       <c r="E63">
-        <f>D63/C63</f>
-        <v>2.2806878731766308E-4</v>
+        <f t="shared" si="10"/>
+        <v>4.0840859353327371E-5</v>
       </c>
       <c r="F63" s="1">
-        <f>(E63-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>9.7734637230218843E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.5393521786110212E-2</v>
       </c>
       <c r="G63">
-        <v>878</v>
+        <v>23</v>
       </c>
       <c r="H63">
-        <f>G63/C63</f>
-        <v>1.2960802282518328E-4</v>
+        <f t="shared" si="7"/>
+        <v>1.7723391794840182E-5</v>
       </c>
       <c r="I63" s="1">
         <f>(H63-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.14067684838575348</v>
+        <v>1.3265425867117731E-2</v>
       </c>
       <c r="J63" s="2">
-        <v>0.16534326200000002</v>
+        <v>0.40987434</v>
       </c>
       <c r="K63">
         <v>2</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M63" s="2">
-        <f>L63/384</f>
-        <v>2.6041666666666665E-3</v>
+        <f t="shared" si="8"/>
+        <v>7.9239302694136295E-3</v>
       </c>
       <c r="N63" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P63" s="4">
-        <f>((F63*0.3)+(I63*0.2)+(J63*0.2)+(M63*0.1)+(N63*0.1)+(O63*0.1))</f>
-        <v>0.29078482991288301</v>
+        <f t="shared" si="14"/>
+        <v>9.0038402736197981E-2</v>
       </c>
       <c r="Q63">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="R63">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>430</v>
+        <v>164</v>
       </c>
       <c r="B64" t="s">
-        <v>364</v>
+        <v>163</v>
       </c>
       <c r="C64">
-        <v>15632128</v>
+        <v>838144</v>
       </c>
       <c r="D64">
-        <v>18214</v>
+        <v>25</v>
       </c>
       <c r="E64">
-        <f>D64/C64</f>
-        <v>1.1651644612940733E-3</v>
+        <f t="shared" si="10"/>
+        <v>2.9827810018326205E-5</v>
       </c>
       <c r="F64" s="1">
-        <f>(E64-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.50986066945210273</v>
+        <f t="shared" si="11"/>
+        <v>1.055008428966079E-2</v>
       </c>
       <c r="G64">
-        <v>6315</v>
+        <v>10</v>
       </c>
       <c r="H64">
-        <f>G64/C64</f>
-        <v>4.0397570951312576E-4</v>
+        <f t="shared" si="7"/>
+        <v>1.1931124007330483E-5</v>
       </c>
       <c r="I64" s="1">
         <f>(H64-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.45311991524966994</v>
+        <v>6.6693360233273354E-3</v>
       </c>
       <c r="J64" s="2">
-        <v>0.95899510499999996</v>
+        <v>0.32043033999999998</v>
       </c>
       <c r="K64">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64" s="2">
+        <f t="shared" si="8"/>
+        <v>1.5847860538827259E-3</v>
+      </c>
+      <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="2">
-        <f>L64/384</f>
+      <c r="O64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3">
-        <v>1</v>
-      </c>
-      <c r="O64" s="3">
-        <v>1</v>
-      </c>
       <c r="P64" s="4">
-        <f>((F64*0.3)+(I64*0.2)+(J64*0.2)+(M64*0.1)+(N64*0.1)+(O64*0.1))</f>
-        <v>0.63538120488556482</v>
+        <f t="shared" si="14"/>
+        <v>6.8743439096951978E-2</v>
       </c>
       <c r="Q64">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="R64">
-        <v>63</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>371</v>
+        <v>236</v>
       </c>
       <c r="B65" t="s">
-        <v>370</v>
+        <v>235</v>
       </c>
       <c r="C65">
-        <v>832512</v>
+        <v>153856</v>
       </c>
       <c r="D65">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <f>D65/C65</f>
-        <v>7.2071033210332103E-5</v>
+        <f t="shared" si="10"/>
+        <v>1.2999168053244593E-5</v>
       </c>
       <c r="F65" s="1">
-        <f>(E65-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>2.9128264133892055E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.1490028063560624E-3</v>
       </c>
       <c r="G65">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <f>G65/C65</f>
-        <v>2.5224861623616237E-5</v>
+        <f t="shared" ref="H65:H96" si="15">G65/C65</f>
+        <v>6.4995840266222963E-6</v>
       </c>
       <c r="I65" s="1">
         <f>(H65-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>2.1807912293209431E-2</v>
+        <v>4.8403399358571547E-4</v>
       </c>
       <c r="J65" s="2">
-        <v>0.19953911200000002</v>
+        <v>0.21332020700000001</v>
       </c>
       <c r="K65">
         <v>0</v>
       </c>
       <c r="L65">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="M65" s="2">
-        <f>L65/384</f>
-        <v>1.3020833333333334E-2</v>
+        <f t="shared" ref="M65:M96" si="16">L65/631</f>
+        <v>6.4976228209191758E-2</v>
       </c>
       <c r="N65" s="3">
         <v>0</v>
       </c>
       <c r="O65" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P65" s="4">
-        <f>((F65*0.3)+(I65*0.2)+(J65*0.2)+(M65*0.1)+(N65*0.1)+(O65*0.1))</f>
-        <v>0.15430996743214284</v>
+        <f t="shared" si="14"/>
+        <v>5.020317186154314E-2</v>
       </c>
       <c r="Q65">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>426</v>
-      </c>
-      <c r="B66" t="s">
-        <v>396</v>
-      </c>
-      <c r="C66">
-        <v>81664</v>
-      </c>
       <c r="D66">
-        <v>3</v>
+        <f>SUM(D2:D65)</f>
+        <v>422803</v>
       </c>
       <c r="E66">
-        <f>D66/C66</f>
-        <v>3.6735893416927902E-5</v>
-      </c>
-      <c r="F66" s="1">
-        <f>(E66-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>1.3588195637718568E-2</v>
+        <f>MIN(E2:E31,E33:E65)</f>
+        <v>5.8389387144992528E-6</v>
       </c>
       <c r="G66">
+        <f>SUM(G2:G65)</f>
+        <v>175329</v>
+      </c>
+      <c r="H66">
+        <f>MIN(H2:H31,H33:H39,H41:H49,H52:H65)</f>
         <v>0</v>
       </c>
-      <c r="H66">
-        <f>G66/C66</f>
-        <v>0</v>
-      </c>
-      <c r="I66" s="1">
-        <v>0</v>
-      </c>
-      <c r="J66" s="2">
-        <v>0.249509697</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>22</v>
-      </c>
-      <c r="M66" s="2">
-        <f>L66/384</f>
-        <v>5.7291666666666664E-2</v>
-      </c>
-      <c r="N66" s="3">
-        <v>0</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1</v>
-      </c>
-      <c r="P66" s="4">
-        <f>((F66*0.3)+(I66*0.2)+(J66*0.2)+(M66*0.1)+(N66*0.1)+(O66*0.1))</f>
-        <v>0.15970756475798226</v>
-      </c>
-      <c r="Q66">
-        <v>60</v>
-      </c>
-      <c r="R66">
-        <v>6</v>
-      </c>
+      <c r="P66" s="4"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D67">
-        <f>SUM(D2:D66)</f>
-        <v>422803</v>
-      </c>
       <c r="E67">
-        <f>MIN(E2:E31,E33:E66)</f>
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <f>SUM(G2:G66)</f>
-        <v>175329</v>
+        <f>MAX(E2:E31,E33:E65)</f>
+        <v>2.2796474358974359E-3</v>
       </c>
       <c r="H67">
-        <f>MIN(H2:H31,H33:H39,H41:H50,H53:H66)</f>
-        <v>0</v>
-      </c>
-      <c r="P67" s="4"/>
+        <f>MAX(H2:H31,H33:H39,H41:H49,H52:H65)</f>
+        <v>8.8421111769392631E-4</v>
+      </c>
+      <c r="I67" s="1">
+        <f>AVERAGE(G2:G65)</f>
+        <v>2739.515625</v>
+      </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E68">
-        <f>MAX(E2:E31,E33:E66)</f>
-        <v>2.2796474358974359E-3</v>
-      </c>
-      <c r="H68">
-        <f>MAX(H2:H31,H33:H39,H41:H50,H53:H66)</f>
-        <v>8.8421111769392631E-4</v>
+        <v>2.2796474358974402E-3</v>
+      </c>
+      <c r="H68" s="5">
+        <v>6.0745360701052098E-6</v>
       </c>
       <c r="I68" s="1">
-        <f>AVERAGE(G2:G66)</f>
-        <v>2697.3692307692309</v>
+        <f>_xlfn.STDEV.P(G2:G65)</f>
+        <v>7451.7763570007828</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E69">
-        <v>2.2796474358974402E-3</v>
-      </c>
-      <c r="H69" s="5">
-        <v>6.0745360701052098E-6</v>
-      </c>
-      <c r="I69" s="1">
-        <f>_xlfn.STDEV.P(G2:G66)</f>
-        <v>7401.9161979942855</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E70" s="5">
+      <c r="E69" s="5">
         <v>5.8389387144992503E-6</v>
       </c>
-      <c r="H70">
+      <c r="H69">
         <v>8.8421111769392598E-4</v>
       </c>
-      <c r="O70" s="3" t="s">
-        <v>448</v>
+      <c r="O69" s="3" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -9049,7 +8984,7 @@
         <v>116</v>
       </c>
       <c r="B64" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C64">
         <v>1481</v>
@@ -10939,7 +10874,7 @@
         <v>351</v>
       </c>
       <c r="B199" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C199">
         <v>9695</v>
@@ -11660,7 +11595,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B63" t="s">
         <v>116</v>
@@ -12740,7 +12675,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B198" t="s">
         <v>351</v>
@@ -12940,7 +12875,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -13075,7 +13010,7 @@
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -13115,7 +13050,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
@@ -13199,7 +13134,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A65">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A65">
     <sortCondition ref="A1:A65"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikna\Desktop\Politics of Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459EF644-9D61-4C4F-941A-1080A91660BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC30DAB0-6EC6-467E-AB99-ADDFA1314D21}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8355" yWindow="1890" windowWidth="19530" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="1095" windowWidth="24435" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shortlist" sheetId="8" r:id="rId1"/>
@@ -2463,8 +2463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA10CC7E-88B4-4460-87C0-163097071846}">
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2555,22 +2555,22 @@
         <v>13843</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E40" si="0">D2/C2</f>
+        <f>D2/C2</f>
         <v>1.1047052799852909E-3</v>
       </c>
       <c r="F2" s="1">
-        <f t="shared" ref="F2:F40" si="1">(E2-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <f>(E2-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>0.48327127927976132</v>
       </c>
       <c r="G2">
         <v>11080</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H33" si="2">G2/C2</f>
+        <f>G2/C2</f>
         <v>8.8421111769392631E-4</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" ref="I2:I40" si="3">(H2-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <f>(H2-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>1.0000000000000004</v>
       </c>
       <c r="J2" s="2">
@@ -2583,7 +2583,7 @@
         <v>3</v>
       </c>
       <c r="M2" s="2">
-        <f t="shared" ref="M2:M33" si="4">L2/631</f>
+        <f>L2/631</f>
         <v>4.7543581616481777E-3</v>
       </c>
       <c r="N2" s="3">
@@ -2617,22 +2617,22 @@
         <v>63284</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
+        <f>D3/C3</f>
         <v>1.3892694063926941E-3</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" si="1"/>
+        <f>(E3-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>0.60841995682228722</v>
       </c>
       <c r="G3">
         <v>29494</v>
       </c>
       <c r="H3">
-        <f t="shared" si="2"/>
+        <f>G3/C3</f>
         <v>6.4747980330172111E-4</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" si="3"/>
+        <f>(H3-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>0.73041629360839377</v>
       </c>
       <c r="J3" s="2">
@@ -2645,7 +2645,7 @@
         <v>72</v>
       </c>
       <c r="M3" s="2">
-        <f t="shared" si="4"/>
+        <f>L3/631</f>
         <v>0.11410459587955626</v>
       </c>
       <c r="N3" s="3">
@@ -2679,22 +2679,22 @@
         <v>18214</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>D4/C4</f>
         <v>1.1651644612940733E-3</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="1"/>
+        <f>(E4-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>0.50986066945210273</v>
       </c>
       <c r="G4">
         <v>6315</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f>G4/C4</f>
         <v>4.0397570951312576E-4</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="3"/>
+        <f>(H4-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>0.45311991524966994</v>
       </c>
       <c r="J4" s="2">
@@ -2707,7 +2707,7 @@
         <v>11</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" si="4"/>
+        <f>L4/631</f>
         <v>1.7432646592709985E-2</v>
       </c>
       <c r="N4" s="3">
@@ -2741,22 +2741,22 @@
         <v>569</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f>D5/C5</f>
         <v>2.2796474358974359E-3</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="1"/>
+        <f>(E5-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>0.99999999999999811</v>
       </c>
       <c r="G5">
         <v>69</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f>G5/C5</f>
         <v>2.7644230769230768E-4</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="3"/>
+        <f>(H5-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>0.30788806351996795</v>
       </c>
       <c r="J5" s="2">
@@ -2769,7 +2769,7 @@
         <v>6</v>
       </c>
       <c r="M5" s="2">
-        <f t="shared" si="4"/>
+        <f>L5/631</f>
         <v>9.5087163232963554E-3</v>
       </c>
       <c r="N5" s="3">
@@ -2803,22 +2803,22 @@
         <v>11089</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f>D6/C6</f>
         <v>6.8106486140155024E-4</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="1"/>
+        <f>(E6-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>0.29695813148890926</v>
       </c>
       <c r="G6">
         <v>5089</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f>G6/C6</f>
         <v>3.125565046147073E-4</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="3"/>
+        <f>(H6-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>0.34901400870678445</v>
       </c>
       <c r="J6" s="2">
@@ -2831,7 +2831,7 @@
         <v>11</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" si="4"/>
+        <f>L6/631</f>
         <v>1.7432646592709985E-2</v>
       </c>
       <c r="N6" s="3">
@@ -2865,22 +2865,22 @@
         <v>31</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f>D7/C7</f>
         <v>1.1423938679245283E-3</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="1"/>
+        <f>(E7-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>0.49984637255869419</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f>G7/C7</f>
         <v>2.2110849056603774E-4</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="3"/>
+        <f>(H7-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>0.24487529502335381</v>
       </c>
       <c r="J7" s="2">
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="2">
-        <f t="shared" si="4"/>
+        <f>L7/631</f>
         <v>0</v>
       </c>
       <c r="N7" s="3">
@@ -2927,22 +2927,22 @@
         <v>430</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f>D8/C8</f>
         <v>6.431887803944093E-4</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="1"/>
+        <f>(E8-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>0.28030058048843309</v>
       </c>
       <c r="G8">
         <v>148</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f>G8/C8</f>
         <v>2.2137660348458741E-4</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="3"/>
+        <f>(H8-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>0.24518061531652949</v>
       </c>
       <c r="J8" s="2">
@@ -2955,7 +2955,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" si="4"/>
+        <f>L8/631</f>
         <v>1.5847860538827259E-3</v>
       </c>
       <c r="N8" s="3">
@@ -2965,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" ref="P8:P15" si="5">((F8*0.3)+(I8*0.2)+(J8*0.2)+(M8*0.1)+(N8*0.1)+(O8*0.1))</f>
+        <f>((F8*0.3)+(I8*0.2)+(J8*0.2)+(M8*0.1)+(N8*0.1)+(O8*0.1))</f>
         <v>0.53023867501522404</v>
       </c>
       <c r="Q8">
@@ -2989,22 +2989,22 @@
         <v>21503</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>D9/C9</f>
         <v>5.916051116354416E-4</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="1"/>
+        <f>(E9-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>0.25761455885430007</v>
       </c>
       <c r="G9">
         <v>3218</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f>G9/C9</f>
         <v>8.853579729539372E-5</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="3"/>
+        <f>(H9-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>9.3904824091035927E-2</v>
       </c>
       <c r="J9" s="2">
@@ -3017,7 +3017,7 @@
         <v>156</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" si="4"/>
+        <f>L9/631</f>
         <v>0.24722662440570523</v>
       </c>
       <c r="N9" s="3">
@@ -3027,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="5"/>
+        <f>((F9*0.3)+(I9*0.2)+(J9*0.2)+(M9*0.1)+(N9*0.1)+(O9*0.1))</f>
         <v>0.51431535191506772</v>
       </c>
       <c r="Q9">
@@ -3051,22 +3051,22 @@
         <v>8020</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f>D10/C10</f>
         <v>1.3493605511582629E-3</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="1"/>
+        <f>(E10-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>0.59086841047004379</v>
       </c>
       <c r="G10">
         <v>1358</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f>G10/C10</f>
         <v>2.2848274669238415E-4</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="3"/>
+        <f>(H10-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>0.25327291366339522</v>
       </c>
       <c r="J10" s="2">
@@ -3079,7 +3079,7 @@
         <v>17</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="4"/>
+        <f>L10/631</f>
         <v>2.694136291600634E-2</v>
       </c>
       <c r="N10" s="3">
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="5"/>
+        <f>((F10*0.3)+(I10*0.2)+(J10*0.2)+(M10*0.1)+(N10*0.1)+(O10*0.1))</f>
         <v>0.51402033656529278</v>
       </c>
       <c r="Q10">
@@ -3113,22 +3113,22 @@
         <v>3027</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>D11/C11</f>
         <v>3.5022269859605472E-4</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="1"/>
+        <f>(E11-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>0.15145680047735691</v>
       </c>
       <c r="G11">
         <v>1769</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f>G11/C11</f>
         <v>2.0467259789112019E-4</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="3"/>
+        <f>(H11-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>0.2261585110755483</v>
       </c>
       <c r="J11" s="2">
@@ -3141,7 +3141,7 @@
         <v>7</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" si="4"/>
+        <f>L11/631</f>
         <v>1.1093502377179081E-2</v>
       </c>
       <c r="N11" s="3">
@@ -3151,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="5"/>
+        <f>((F11*0.3)+(I11*0.2)+(J11*0.2)+(M11*0.1)+(N11*0.1)+(O11*0.1))</f>
         <v>0.48354674979603463</v>
       </c>
       <c r="Q11">
@@ -3175,22 +3175,22 @@
         <v>108622</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>D12/C12</f>
         <v>3.2719513469371388E-4</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="1"/>
+        <f>(E12-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>0.14132949031431105</v>
       </c>
       <c r="G12">
         <v>50850</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f>G12/C12</f>
         <v>1.5317221740692816E-4</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="3"/>
+        <f>(H12-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>0.16751116445327313</v>
       </c>
       <c r="J12" s="2">
@@ -3203,7 +3203,7 @@
         <v>97</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" si="4"/>
+        <f>L12/631</f>
         <v>0.15372424722662439</v>
       </c>
       <c r="N12" s="3">
@@ -3213,7 +3213,7 @@
         <v>1</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="5"/>
+        <f>((F12*0.3)+(I12*0.2)+(J12*0.2)+(M12*0.1)+(N12*0.1)+(O12*0.1))</f>
         <v>0.4733466791076103</v>
       </c>
       <c r="Q12">
@@ -3237,22 +3237,22 @@
         <v>71</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f>D13/C13</f>
         <v>7.2224934895833337E-4</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
+        <f>(E13-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>0.31507068916815417</v>
       </c>
       <c r="G13">
         <v>77</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f>G13/C13</f>
         <v>7.8328450520833337E-4</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="3"/>
+        <f>(H13-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>0.88506729522762562</v>
       </c>
       <c r="J13" s="2">
@@ -3265,7 +3265,7 @@
         <v>2</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" si="4"/>
+        <f>L13/631</f>
         <v>3.1695721077654518E-3</v>
       </c>
       <c r="N13" s="3">
@@ -3275,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="5"/>
+        <f>((F13*0.3)+(I13*0.2)+(J13*0.2)+(M13*0.1)+(N13*0.1)+(O13*0.1))</f>
         <v>0.47185162300674788</v>
       </c>
       <c r="Q13">
@@ -3299,22 +3299,22 @@
         <v>4366</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f>D14/C14</f>
         <v>2.4719087891700726E-4</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="1"/>
+        <f>(E14-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>0.10614435670441152</v>
       </c>
       <c r="G14">
         <v>3023</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f>G14/C14</f>
         <v>1.7115392280488159E-4</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="3"/>
+        <f>(H14-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>0.18798828130985856</v>
       </c>
       <c r="J14" s="2">
@@ -3327,7 +3327,7 @@
         <v>30</v>
       </c>
       <c r="M14" s="2">
-        <f t="shared" si="4"/>
+        <f>L14/631</f>
         <v>4.7543581616481777E-2</v>
       </c>
       <c r="N14" s="3">
@@ -3337,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="5"/>
+        <f>((F14*0.3)+(I14*0.2)+(J14*0.2)+(M14*0.1)+(N14*0.1)+(O14*0.1))</f>
         <v>0.46715266803494326</v>
       </c>
       <c r="Q14">
@@ -3361,22 +3361,22 @@
         <v>4597</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f>D15/C15</f>
         <v>4.2277702241371194E-4</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="1"/>
+        <f>(E15-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>0.18336552274114737</v>
       </c>
       <c r="G15">
         <v>729</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f>G15/C15</f>
         <v>6.7044692046899283E-5</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="3"/>
+        <f>(H15-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>6.9431290362656453E-2</v>
       </c>
       <c r="J15" s="2">
@@ -3389,7 +3389,7 @@
         <v>96</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="4"/>
+        <f>L15/631</f>
         <v>0.15213946117274169</v>
       </c>
       <c r="N15" s="3">
@@ -3399,7 +3399,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" si="5"/>
+        <f>((F15*0.3)+(I15*0.2)+(J15*0.2)+(M15*0.1)+(N15*0.1)+(O15*0.1))</f>
         <v>0.46616295781214967</v>
       </c>
       <c r="Q15">
@@ -3423,22 +3423,22 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f>D16/C16</f>
         <v>1.1851486650485437E-5</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="1"/>
+        <f>(E16-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>2.6442631133779433E-3</v>
       </c>
       <c r="G16">
         <v>6</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f>G16/C16</f>
         <v>7.1108919902912624E-6</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="3"/>
+        <f>(H16-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>1.1801762298407588E-3</v>
       </c>
       <c r="J16" s="2">
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="2">
-        <f t="shared" si="4"/>
+        <f>L16/631</f>
         <v>0</v>
       </c>
       <c r="N16" s="3">
@@ -3485,22 +3485,22 @@
         <v>1255</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f>D17/C17</f>
         <v>3.7023969111094329E-4</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="1"/>
+        <f>(E17-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>0.16026008911828157</v>
       </c>
       <c r="G17">
         <v>420</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f>G17/C17</f>
         <v>1.2390491654708859E-4</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="3"/>
+        <f>(H17-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>0.13418229344129518</v>
       </c>
       <c r="J17" s="2">
@@ -3513,7 +3513,7 @@
         <v>113</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="4"/>
+        <f>L17/631</f>
         <v>0.17908082408874801</v>
       </c>
       <c r="N17" s="3">
@@ -3523,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" ref="P17:P32" si="6">((F17*0.3)+(I17*0.2)+(J17*0.2)+(M17*0.1)+(N17*0.1)+(O17*0.1))</f>
+        <f>((F17*0.3)+(I17*0.2)+(J17*0.2)+(M17*0.1)+(N17*0.1)+(O17*0.1))</f>
         <v>0.42931198523261827</v>
       </c>
       <c r="Q17">
@@ -3547,22 +3547,22 @@
         <v>15101</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f>D18/C18</f>
         <v>1.3444530578708293E-4</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="1"/>
+        <f>(E18-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>5.6559893778177106E-2</v>
       </c>
       <c r="G18">
         <v>6397</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f>G18/C18</f>
         <v>5.6952958156411464E-5</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="3"/>
+        <f>(H18-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>5.7939075937621883E-2</v>
       </c>
       <c r="J18" s="2">
@@ -3575,7 +3575,7 @@
         <v>30</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" si="4"/>
+        <f>L18/631</f>
         <v>4.7543581616481777E-2</v>
       </c>
       <c r="N18" s="3">
@@ -3585,7 +3585,7 @@
         <v>1</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="6"/>
+        <f>((F18*0.3)+(I18*0.2)+(J18*0.2)+(M18*0.1)+(N18*0.1)+(O18*0.1))</f>
         <v>0.42888829748262569</v>
       </c>
       <c r="Q18">
@@ -3609,22 +3609,22 @@
         <v>916</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f>D19/C19</f>
         <v>2.4511902723069016E-4</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="1"/>
+        <f>(E19-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>0.10523317544667414</v>
       </c>
       <c r="G19">
         <v>428</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f>G19/C19</f>
         <v>1.1453159787634869E-4</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="3"/>
+        <f>(H19-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>0.12350819231979644</v>
       </c>
       <c r="J19" s="2">
@@ -3637,7 +3637,7 @@
         <v>4</v>
       </c>
       <c r="M19" s="2">
-        <f t="shared" si="4"/>
+        <f>L19/631</f>
         <v>6.3391442155309036E-3</v>
       </c>
       <c r="N19" s="3">
@@ -3647,7 +3647,7 @@
         <v>1</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="6"/>
+        <f>((F19*0.3)+(I19*0.2)+(J19*0.2)+(M19*0.1)+(N19*0.1)+(O19*0.1))</f>
         <v>0.42482649871951461</v>
       </c>
       <c r="Q19">
@@ -3671,22 +3671,22 @@
         <v>564</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f>D20/C20</f>
         <v>7.3033381953192331E-5</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="1"/>
+        <f>(E20-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>2.9551496232836403E-2</v>
       </c>
       <c r="G20">
         <v>207</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f>G20/C20</f>
         <v>2.6804805078565272E-5</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="3"/>
+        <f>(H20-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>2.3607112426778012E-2</v>
       </c>
       <c r="J20" s="2">
@@ -3699,7 +3699,7 @@
         <v>5</v>
       </c>
       <c r="M20" s="2">
-        <f t="shared" si="4"/>
+        <f>L20/631</f>
         <v>7.9239302694136295E-3</v>
       </c>
       <c r="N20" s="3">
@@ -3709,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="6"/>
+        <f>((F20*0.3)+(I20*0.2)+(J20*0.2)+(M20*0.1)+(N20*0.1)+(O20*0.1))</f>
         <v>0.40493505438214794</v>
       </c>
       <c r="Q20">
@@ -3733,22 +3733,22 @@
         <v>1695</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f>D21/C21</f>
         <v>3.4963609792418055E-5</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="1"/>
+        <f>(E21-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>1.280876164989349E-2</v>
       </c>
       <c r="G21">
         <v>561</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
+        <f>G21/C21</f>
         <v>1.157202660386226E-5</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="3"/>
+        <f>(H21-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>6.2604048718609062E-3</v>
       </c>
       <c r="J21" s="2">
@@ -3761,7 +3761,7 @@
         <v>26</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="4"/>
+        <f>L21/631</f>
         <v>4.1204437400950873E-2</v>
       </c>
       <c r="N21" s="3">
@@ -3771,7 +3771,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="6"/>
+        <f>((F21*0.3)+(I21*0.2)+(J21*0.2)+(M21*0.1)+(N21*0.1)+(O21*0.1))</f>
         <v>0.40112130900943532</v>
       </c>
       <c r="Q21">
@@ -3795,22 +3795,22 @@
         <v>3131</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f>D22/C22</f>
         <v>2.6316645918178109E-5</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="1"/>
+        <f>(E22-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>9.0059067107230127E-3</v>
       </c>
       <c r="G22">
         <v>1353</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
+        <f>G22/C22</f>
         <v>1.1372220353655375E-5</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="3"/>
+        <f>(H22-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>6.0328705060366181E-3</v>
       </c>
       <c r="J22" s="2">
@@ -3823,7 +3823,7 @@
         <v>107</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="4"/>
+        <f>L22/631</f>
         <v>0.16957210776545167</v>
       </c>
       <c r="N22" s="3">
@@ -3833,7 +3833,7 @@
         <v>1</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="6"/>
+        <f>((F22*0.3)+(I22*0.2)+(J22*0.2)+(M22*0.1)+(N22*0.1)+(O22*0.1))</f>
         <v>0.39628523269096938</v>
       </c>
       <c r="Q22">
@@ -3857,22 +3857,22 @@
         <v>3338</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f>D23/C23</f>
         <v>4.1514835297788473E-5</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="1"/>
+        <f>(E23-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>1.5689930188707041E-2</v>
       </c>
       <c r="G23">
         <v>1131</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
+        <f>G23/C23</f>
         <v>1.406629080940646E-5</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="3"/>
+        <f>(H23-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>9.1008106330374774E-3</v>
       </c>
       <c r="J23" s="2">
@@ -3885,7 +3885,7 @@
         <v>35</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="4"/>
+        <f>L23/631</f>
         <v>5.5467511885895403E-2</v>
       </c>
       <c r="N23" s="3">
@@ -3895,7 +3895,7 @@
         <v>1</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="6"/>
+        <f>((F23*0.3)+(I23*0.2)+(J23*0.2)+(M23*0.1)+(N23*0.1)+(O23*0.1))</f>
         <v>0.39579297497180921</v>
       </c>
       <c r="Q23">
@@ -3919,22 +3919,22 @@
         <v>4530</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f>D24/C24</f>
         <v>3.6603658814468096E-5</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="1"/>
+        <f>(E24-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>1.3530040079489443E-2</v>
       </c>
       <c r="G24">
         <v>1481</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f>G24/C24</f>
         <v>1.196689154618703E-5</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="3"/>
+        <f>(H24-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>6.7100672029695814E-3</v>
       </c>
       <c r="J24" s="2">
@@ -3947,7 +3947,7 @@
         <v>131</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="4"/>
+        <f>L24/631</f>
         <v>0.2076069730586371</v>
       </c>
       <c r="N24" s="3">
@@ -3957,7 +3957,7 @@
         <v>1</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="6"/>
+        <f>((F24*0.3)+(I24*0.2)+(J24*0.2)+(M24*0.1)+(N24*0.1)+(O24*0.1))</f>
         <v>0.39420633677030448</v>
       </c>
       <c r="Q24">
@@ -3981,22 +3981,22 @@
         <v>3427</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f>D25/C25</f>
         <v>4.0768521971080833E-5</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="1"/>
+        <f>(E25-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>1.5361708472748002E-2</v>
       </c>
       <c r="G25">
         <v>1235</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
+        <f>G25/C25</f>
         <v>1.4691895136937505E-5</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="3"/>
+        <f>(H25-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>9.813233211281738E-3</v>
       </c>
       <c r="J25" s="2">
@@ -4009,7 +4009,7 @@
         <v>37</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="4"/>
+        <f>L25/631</f>
         <v>5.8637083993660855E-2</v>
       </c>
       <c r="N25" s="3">
@@ -4019,7 +4019,7 @@
         <v>1</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="6"/>
+        <f>((F25*0.3)+(I25*0.2)+(J25*0.2)+(M25*0.1)+(N25*0.1)+(O25*0.1))</f>
         <v>0.39089590878344693</v>
       </c>
       <c r="Q25">
@@ -4043,22 +4043,22 @@
         <v>118</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f>D26/C26</f>
         <v>1.4705130969130441E-4</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="1"/>
+        <f>(E26-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>6.2103897998338681E-2</v>
       </c>
       <c r="G26">
         <v>41</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
+        <f>G26/C26</f>
         <v>5.1094099130029498E-5</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="3"/>
+        <f>(H26-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>5.1267153654703253E-2</v>
       </c>
       <c r="J26" s="2">
@@ -4071,7 +4071,7 @@
         <v>1</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="4"/>
+        <f>L26/631</f>
         <v>1.5847860538827259E-3</v>
       </c>
       <c r="N26" s="3">
@@ -4081,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="6"/>
+        <f>((F26*0.3)+(I26*0.2)+(J26*0.2)+(M26*0.1)+(N26*0.1)+(O26*0.1))</f>
         <v>0.3834995893358305</v>
       </c>
       <c r="Q26">
@@ -4105,22 +4105,22 @@
         <v>1411</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f>D27/C27</f>
         <v>1.354896447885939E-3</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="1"/>
+        <f>(E27-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>0.5933030467793613</v>
       </c>
       <c r="G27">
         <v>243</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
+        <f>G27/C27</f>
         <v>2.3333794247787612E-4</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="3"/>
+        <f>(H27-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>0.25880188932286935</v>
       </c>
       <c r="J27" s="2">
@@ -4133,7 +4133,7 @@
         <v>41</v>
       </c>
       <c r="M27" s="2">
-        <f t="shared" si="4"/>
+        <f>L27/631</f>
         <v>6.4976228209191758E-2</v>
       </c>
       <c r="N27" s="3">
@@ -4143,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="6"/>
+        <f>((F27*0.3)+(I27*0.2)+(J27*0.2)+(M27*0.1)+(N27*0.1)+(O27*0.1))</f>
         <v>0.37655617251930151</v>
       </c>
       <c r="Q27">
@@ -4167,22 +4167,22 @@
         <v>27409</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f>D28/C28</f>
         <v>1.7173487276484139E-5</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="1"/>
+        <f>(E28-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>4.9848298904799802E-3</v>
       </c>
       <c r="G28">
         <v>9695</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
+        <f>G28/C28</f>
         <v>6.0745360701052115E-6</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="3"/>
+        <f>(H28-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>1.9291599165314246E-18</v>
       </c>
       <c r="J28" s="2">
@@ -4195,7 +4195,7 @@
         <v>631</v>
       </c>
       <c r="M28" s="2">
-        <f t="shared" si="4"/>
+        <f>L28/631</f>
         <v>1</v>
       </c>
       <c r="N28" s="3">
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="6"/>
+        <f>((F28*0.3)+(I28*0.2)+(J28*0.2)+(M28*0.1)+(N28*0.1)+(O28*0.1))</f>
         <v>0.37645972656714399</v>
       </c>
       <c r="Q28">
@@ -4229,22 +4229,22 @@
         <v>6798</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f>D29/C29</f>
         <v>2.3619493093296094E-4</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="1"/>
+        <f>(E29-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>0.10130844022434322</v>
       </c>
       <c r="G29">
         <v>4666</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
+        <f>G29/C29</f>
         <v>1.621190861625766E-4</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="3"/>
+        <f>(H29-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>0.17769963506578787</v>
       </c>
       <c r="J29" s="2">
@@ -4257,7 +4257,7 @@
         <v>6</v>
       </c>
       <c r="M29" s="2">
-        <f t="shared" si="4"/>
+        <f>L29/631</f>
         <v>9.5087163232963554E-3</v>
       </c>
       <c r="N29" s="3">
@@ -4267,7 +4267,7 @@
         <v>1</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="6"/>
+        <f>((F29*0.3)+(I29*0.2)+(J29*0.2)+(M29*0.1)+(N29*0.1)+(O29*0.1))</f>
         <v>0.35724606231279021</v>
       </c>
       <c r="Q29">
@@ -4291,22 +4291,22 @@
         <v>6465</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f>D30/C30</f>
         <v>5.4195403223859459E-4</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="1"/>
+        <f>(E30-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>0.2357784721924899</v>
       </c>
       <c r="G30">
         <v>1329</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
+        <f>G30/C30</f>
         <v>1.1140864792654171E-4</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="3"/>
+        <f>(H30-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>0.11995185493998688</v>
       </c>
       <c r="J30" s="2">
@@ -4319,7 +4319,7 @@
         <v>35</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" si="4"/>
+        <f>L30/631</f>
         <v>5.5467511885895403E-2</v>
       </c>
       <c r="N30" s="3">
@@ -4329,7 +4329,7 @@
         <v>1</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="6"/>
+        <f>((F30*0.3)+(I30*0.2)+(J30*0.2)+(M30*0.1)+(N30*0.1)+(O30*0.1))</f>
         <v>0.34059135783433392</v>
       </c>
       <c r="Q30">
@@ -4341,48 +4341,47 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>240</v>
+        <v>427</v>
       </c>
       <c r="B31" t="s">
-        <v>239</v>
+        <v>436</v>
       </c>
       <c r="C31">
-        <v>6588160</v>
+        <v>36864</v>
       </c>
       <c r="D31">
-        <v>2033</v>
+        <v>7</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
-        <v>3.0858388381581505E-4</v>
+        <f>D31/C31</f>
+        <v>1.8988715277777778E-4</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1331444338766398</v>
+        <f>(E31-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>8.0942706604931289E-2</v>
       </c>
       <c r="G31">
-        <v>1264</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
-        <v>1.9185933553526326E-4</v>
+        <f>G31/C31</f>
+        <v>0</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="3"/>
-        <v>0.21156708802816418</v>
+        <v>0</v>
       </c>
       <c r="J31" s="2">
-        <v>0.18629210407246843</v>
+        <v>0.18697333499999999</v>
       </c>
       <c r="K31">
         <v>4</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" si="4"/>
-        <v>4.4374009508716325E-2</v>
+        <f>L31/631</f>
+        <v>6.3391442155309036E-3</v>
       </c>
       <c r="N31" s="3">
         <v>1</v>
@@ -4391,8 +4390,8 @@
         <v>1</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" si="6"/>
-        <v>0.3239525695339901</v>
+        <f>((F31*0.3)+(I31*0.2)+(J31*0.2)+(M31*0.1)+(N31*0.1)+(O31*0.1))/0.8</f>
+        <v>0.32788924175379053</v>
       </c>
       <c r="Q31">
         <v>30</v>
@@ -4403,58 +4402,58 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="B32" t="s">
-        <v>171</v>
+        <v>239</v>
       </c>
       <c r="C32">
-        <v>202616832</v>
+        <v>6588160</v>
       </c>
       <c r="D32">
-        <v>20580</v>
+        <v>2033</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
-        <v>1.0157102841288132E-4</v>
+        <f>D32/C32</f>
+        <v>3.0858388381581505E-4</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="1"/>
-        <v>4.2102089871238563E-2</v>
+        <f>(E32-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.1331444338766398</v>
       </c>
       <c r="G32">
-        <v>9815</v>
+        <v>1264</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
-        <v>4.844118774890331E-5</v>
+        <f>G32/C32</f>
+        <v>1.9185933553526326E-4</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="3"/>
-        <v>4.824608445357681E-2</v>
+        <f>(H32-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.21156708802816418</v>
       </c>
       <c r="J32" s="2">
-        <v>0.95439287200000023</v>
+        <v>0.18629210407246843</v>
       </c>
       <c r="K32">
         <v>4</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M32" s="2">
-        <f t="shared" si="4"/>
-        <v>3.486529318541997E-2</v>
+        <f>L32/631</f>
+        <v>4.4374009508716325E-2</v>
       </c>
       <c r="N32" s="3">
         <v>1</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" si="6"/>
-        <v>0.316644947570629</v>
+        <f>((F32*0.3)+(I32*0.2)+(J32*0.2)+(M32*0.1)+(N32*0.1)+(O32*0.1))</f>
+        <v>0.3239525695339901</v>
       </c>
       <c r="Q32">
         <v>31</v>
@@ -4465,58 +4464,58 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>172</v>
       </c>
       <c r="B33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33">
+        <v>202616832</v>
+      </c>
+      <c r="D33">
+        <v>20580</v>
+      </c>
+      <c r="E33">
+        <f>D33/C33</f>
+        <v>1.0157102841288132E-4</v>
+      </c>
+      <c r="F33" s="1">
+        <f>(E33-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>4.2102089871238563E-2</v>
+      </c>
+      <c r="G33">
+        <v>9815</v>
+      </c>
+      <c r="H33">
+        <f>G33/C33</f>
+        <v>4.844118774890331E-5</v>
+      </c>
+      <c r="I33" s="1">
+        <f>(H33-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>4.824608445357681E-2</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.95439287200000023</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
         <v>22</v>
       </c>
-      <c r="C33">
-        <v>713728</v>
-      </c>
-      <c r="D33">
-        <v>122</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>1.7093346484935439E-4</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" si="1"/>
-        <v>7.2607049511598479E-2</v>
-      </c>
-      <c r="G33">
-        <v>44</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="2"/>
-        <v>6.1648134863701576E-5</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" si="3"/>
-        <v>6.3285825868717963E-2</v>
-      </c>
-      <c r="J33" s="2">
-        <v>0.74409338699999994</v>
-      </c>
-      <c r="K33">
-        <v>5</v>
-      </c>
-      <c r="L33">
+      <c r="M33" s="2">
+        <f>L33/631</f>
+        <v>3.486529318541997E-2</v>
+      </c>
+      <c r="N33" s="3">
+        <v>1</v>
+      </c>
+      <c r="O33" s="3">
         <v>0</v>
       </c>
-      <c r="M33" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>1</v>
-      </c>
       <c r="P33" s="4">
-        <f>((F33*0.3)+(I33*0.2)+(J33*0.2)+(M33*0.1)+(N33*0.1)+(O33*0.1))/0.9</f>
-        <v>0.31473106380802574</v>
+        <f>((F33*0.3)+(I33*0.2)+(J33*0.2)+(M33*0.1)+(N33*0.1)+(O33*0.1))</f>
+        <v>0.316644947570629</v>
       </c>
       <c r="Q33">
         <v>32</v>
@@ -4527,58 +4526,58 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>185</v>
+        <v>22</v>
       </c>
       <c r="C34">
-        <v>2732032</v>
+        <v>713728</v>
       </c>
       <c r="D34">
-        <v>733</v>
+        <v>122</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
-        <v>2.6829846795352325E-4</v>
+        <f>D34/C34</f>
+        <v>1.7093346484935439E-4</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="1"/>
-        <v>0.11542727963423018</v>
+        <f>(E34-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>7.2607049511598479E-2</v>
       </c>
       <c r="G34">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34:H64" si="7">G34/C34</f>
-        <v>8.8212729572713646E-5</v>
+        <f>G34/C34</f>
+        <v>6.1648134863701576E-5</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="3"/>
-        <v>9.353692263989416E-2</v>
+        <f>(H34-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>6.3285825868717963E-2</v>
       </c>
       <c r="J34" s="2">
-        <v>0.28920037100000001</v>
+        <v>0.74409338699999994</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M34" s="2">
-        <f t="shared" ref="M34:M64" si="8">L34/631</f>
-        <v>4.7543581616481777E-3</v>
+        <f>L34/631</f>
+        <v>0</v>
       </c>
       <c r="N34" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="3">
         <v>1</v>
       </c>
       <c r="P34" s="4">
-        <f t="shared" ref="P34:P46" si="9">((F34*0.3)+(I34*0.2)+(J34*0.2)+(M34*0.1)+(N34*0.1)+(O34*0.1))</f>
-        <v>0.31165107843441275</v>
+        <f>((F34*0.3)+(I34*0.2)+(J34*0.2)+(M34*0.1)+(N34*0.1)+(O34*0.1))/0.9</f>
+        <v>0.31473106380802574</v>
       </c>
       <c r="Q34">
         <v>33</v>
@@ -4589,58 +4588,58 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C35">
-        <v>504064</v>
+        <v>2732032</v>
       </c>
       <c r="D35">
-        <v>39</v>
+        <v>733</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
-        <v>7.7371127475876075E-5</v>
+        <f>D35/C35</f>
+        <v>2.6829846795352325E-4</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="1"/>
-        <v>3.1459196695763622E-2</v>
+        <f>(E35-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.11542727963423018</v>
       </c>
       <c r="G35">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="H35">
-        <f t="shared" si="7"/>
-        <v>2.3806500761808026E-5</v>
+        <f>G35/C35</f>
+        <v>8.8212729572713646E-5</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="3"/>
-        <v>2.0192718379768965E-2</v>
+        <f>(H35-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>9.353692263989416E-2</v>
       </c>
       <c r="J35" s="2">
-        <v>0.971624759</v>
+        <v>0.28920037100000001</v>
       </c>
       <c r="K35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M35" s="2">
-        <f t="shared" si="8"/>
-        <v>1.5847860538827259E-2</v>
+        <f>L35/631</f>
+        <v>4.7543581616481777E-3</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="3">
         <v>1</v>
       </c>
       <c r="P35" s="4">
-        <f t="shared" si="9"/>
-        <v>0.30938604053856567</v>
+        <f>((F35*0.3)+(I35*0.2)+(J35*0.2)+(M35*0.1)+(N35*0.1)+(O35*0.1))</f>
+        <v>0.31165107843441275</v>
       </c>
       <c r="Q35">
         <v>34</v>
@@ -4651,58 +4650,58 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="C36">
-        <v>1173760</v>
+        <v>504064</v>
       </c>
       <c r="D36">
-        <v>226</v>
+        <v>39</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
-        <v>1.9254362050163577E-4</v>
+        <f>D36/C36</f>
+        <v>7.7371127475876075E-5</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="1"/>
-        <v>8.2110996602593411E-2</v>
+        <f>(E36-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>3.1459196695763622E-2</v>
       </c>
       <c r="G36">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="H36">
-        <f t="shared" si="7"/>
-        <v>1.2949836423118867E-4</v>
+        <f>G36/C36</f>
+        <v>2.3806500761808026E-5</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="3"/>
-        <v>0.14055197191859636</v>
+        <f>(H36-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>2.0192718379768965E-2</v>
       </c>
       <c r="J36" s="2">
-        <v>0.27378087099999998</v>
+        <v>0.971624759</v>
       </c>
       <c r="K36">
         <v>5</v>
       </c>
       <c r="L36">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M36" s="2">
-        <f t="shared" si="8"/>
-        <v>3.1695721077654518E-3</v>
+        <f>L36/631</f>
+        <v>1.5847860538827259E-2</v>
       </c>
       <c r="N36" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" s="3">
         <v>1</v>
       </c>
       <c r="P36" s="4">
-        <f t="shared" si="9"/>
-        <v>0.30781682477527383</v>
+        <f>((F36*0.3)+(I36*0.2)+(J36*0.2)+(M36*0.1)+(N36*0.1)+(O36*0.1))</f>
+        <v>0.30938604053856567</v>
       </c>
       <c r="Q36">
         <v>35</v>
@@ -4713,48 +4712,48 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>274</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
-        <v>273</v>
+        <v>119</v>
       </c>
       <c r="C37">
-        <v>5219840</v>
+        <v>1173760</v>
       </c>
       <c r="D37">
-        <v>1916</v>
+        <v>226</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
-        <v>3.6706105934281513E-4</v>
+        <f>D37/C37</f>
+        <v>1.9254362050163577E-4</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="1"/>
-        <v>0.15886215619118318</v>
+        <f>(E37-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>8.2110996602593411E-2</v>
       </c>
       <c r="G37">
-        <v>611</v>
+        <v>152</v>
       </c>
       <c r="H37">
-        <f t="shared" si="7"/>
-        <v>1.1705339627268268E-4</v>
+        <f>G37/C37</f>
+        <v>1.2949836423118867E-4</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="3"/>
-        <v>0.12637995332953683</v>
+        <f>(H37-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.14055197191859636</v>
       </c>
       <c r="J37" s="2">
-        <v>0.12371065000000001</v>
+        <v>0.27378087099999998</v>
       </c>
       <c r="K37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L37">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M37" s="2">
-        <f t="shared" si="8"/>
-        <v>1.2678288431061807E-2</v>
+        <f>L37/631</f>
+        <v>3.1695721077654518E-3</v>
       </c>
       <c r="N37" s="3">
         <v>1</v>
@@ -4763,8 +4762,8 @@
         <v>1</v>
       </c>
       <c r="P37" s="4">
-        <f t="shared" si="9"/>
-        <v>0.2989445963663685</v>
+        <f>((F37*0.3)+(I37*0.2)+(J37*0.2)+(M37*0.1)+(N37*0.1)+(O37*0.1))</f>
+        <v>0.30781682477527383</v>
       </c>
       <c r="Q37">
         <v>36</v>
@@ -4775,48 +4774,48 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="B38" t="s">
-        <v>358</v>
+        <v>273</v>
       </c>
       <c r="C38">
-        <v>6774272</v>
+        <v>5219840</v>
       </c>
       <c r="D38">
-        <v>1545</v>
+        <v>1916</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
-        <v>2.2806878731766308E-4</v>
+        <f>D38/C38</f>
+        <v>3.6706105934281513E-4</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="1"/>
-        <v>9.7734637230218843E-2</v>
+        <f>(E38-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.15886215619118318</v>
       </c>
       <c r="G38">
-        <v>878</v>
+        <v>611</v>
       </c>
       <c r="H38">
-        <f t="shared" si="7"/>
-        <v>1.2960802282518328E-4</v>
+        <f>G38/C38</f>
+        <v>1.1705339627268268E-4</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="3"/>
-        <v>0.14067684838575348</v>
+        <f>(H38-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.12637995332953683</v>
       </c>
       <c r="J38" s="2">
-        <v>0.16534326200000002</v>
+        <v>0.12371065000000001</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L38">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M38" s="2">
-        <f t="shared" si="8"/>
-        <v>3.1695721077654518E-3</v>
+        <f>L38/631</f>
+        <v>1.2678288431061807E-2</v>
       </c>
       <c r="N38" s="3">
         <v>1</v>
@@ -4825,8 +4824,8 @@
         <v>1</v>
       </c>
       <c r="P38" s="4">
-        <f t="shared" si="9"/>
-        <v>0.29084137045699288</v>
+        <f>((F38*0.3)+(I38*0.2)+(J38*0.2)+(M38*0.1)+(N38*0.1)+(O38*0.1))</f>
+        <v>0.2989445963663685</v>
       </c>
       <c r="Q38">
         <v>37</v>
@@ -4837,58 +4836,58 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>250</v>
+        <v>359</v>
       </c>
       <c r="B39" t="s">
-        <v>249</v>
+        <v>358</v>
       </c>
       <c r="C39">
-        <v>2227968</v>
+        <v>6774272</v>
       </c>
       <c r="D39">
-        <v>1180</v>
+        <v>1545</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
-        <v>5.2963058715385495E-4</v>
+        <f>D39/C39</f>
+        <v>2.2806878731766308E-4</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="1"/>
-        <v>0.23035873473438501</v>
+        <f>(E39-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>9.7734637230218843E-2</v>
       </c>
       <c r="G39">
-        <v>814</v>
+        <v>878</v>
       </c>
       <c r="H39">
-        <f t="shared" si="7"/>
-        <v>3.6535533724003217E-4</v>
+        <f>G39/C39</f>
+        <v>1.2960802282518328E-4</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="3"/>
-        <v>0.40914000018716556</v>
+        <f>(H39-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.14067684838575348</v>
       </c>
       <c r="J39" s="2">
-        <v>0.16055561200000001</v>
+        <v>0.16534326200000002</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M39" s="2">
-        <f t="shared" si="8"/>
-        <v>4.7543581616481777E-3</v>
+        <f>L39/631</f>
+        <v>3.1695721077654518E-3</v>
       </c>
       <c r="N39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="3">
         <v>1</v>
       </c>
       <c r="P39" s="4">
-        <f t="shared" si="9"/>
-        <v>0.28352217867391344</v>
+        <f>((F39*0.3)+(I39*0.2)+(J39*0.2)+(M39*0.1)+(N39*0.1)+(O39*0.1))</f>
+        <v>0.29084137045699288</v>
       </c>
       <c r="Q39">
         <v>38</v>
@@ -4899,58 +4898,58 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>166</v>
+        <v>250</v>
       </c>
       <c r="B40" t="s">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="C40">
-        <v>53441088</v>
+        <v>2227968</v>
       </c>
       <c r="D40">
-        <v>6380</v>
+        <v>1180</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
-        <v>1.193837969765885E-4</v>
+        <f>D40/C40</f>
+        <v>5.2963058715385495E-4</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="1"/>
-        <v>4.9935981153541233E-2</v>
+        <f>(E40-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.23035873473438501</v>
       </c>
       <c r="G40">
-        <v>2880</v>
+        <v>814</v>
       </c>
       <c r="H40">
-        <f t="shared" si="7"/>
-        <v>5.3891118384416124E-5</v>
+        <f>G40/C40</f>
+        <v>3.6535533724003217E-4</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="3"/>
-        <v>5.4452329301542236E-2</v>
+        <f>(H40-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.40914000018716556</v>
       </c>
       <c r="J40" s="2">
-        <v>0.73185257599999998</v>
+        <v>0.16055561200000001</v>
       </c>
       <c r="K40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="M40" s="2">
-        <f t="shared" si="8"/>
-        <v>1.7432646592709985E-2</v>
+        <f>L40/631</f>
+        <v>4.7543581616481777E-3</v>
       </c>
       <c r="N40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="4">
-        <f t="shared" si="9"/>
-        <v>0.27398504006564184</v>
+        <f>((F40*0.3)+(I40*0.2)+(J40*0.2)+(M40*0.1)+(N40*0.1)+(O40*0.1))</f>
+        <v>0.28352217867391344</v>
       </c>
       <c r="Q40">
         <v>39</v>
@@ -4961,58 +4960,58 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>166</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="C41">
-        <v>81019136</v>
+        <v>53441088</v>
       </c>
       <c r="D41">
-        <v>25121</v>
+        <v>6380</v>
       </c>
       <c r="E41">
-        <f t="shared" ref="E41:E65" si="10">D41/C41</f>
-        <v>3.1006255114841017E-4</v>
+        <f>D41/C41</f>
+        <v>1.193837969765885E-4</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" ref="F41:F65" si="11">(E41-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.13379473812804316</v>
+        <f>(E41-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>4.9935981153541233E-2</v>
       </c>
       <c r="G41">
-        <v>9028</v>
+        <v>2880</v>
       </c>
       <c r="H41">
-        <f t="shared" si="7"/>
-        <v>1.11430465020017E-4</v>
+        <f>G41/C41</f>
+        <v>5.3891118384416124E-5</v>
       </c>
       <c r="I41" s="1">
         <f>(H41-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.11997669970096352</v>
+        <v>5.4452329301542236E-2</v>
       </c>
       <c r="J41" s="2">
-        <v>0.37564697900000005</v>
+        <v>0.73185257599999998</v>
       </c>
       <c r="K41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L41">
-        <v>211</v>
+        <v>11</v>
       </c>
       <c r="M41" s="2">
-        <f t="shared" si="8"/>
-        <v>0.33438985736925514</v>
+        <f>L41/631</f>
+        <v>1.7432646592709985E-2</v>
       </c>
       <c r="N41" s="3">
+        <v>1</v>
+      </c>
+      <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3">
-        <v>1</v>
-      </c>
       <c r="P41" s="4">
-        <f t="shared" si="9"/>
-        <v>0.27270214291553119</v>
+        <f>((F41*0.3)+(I41*0.2)+(J41*0.2)+(M41*0.1)+(N41*0.1)+(O41*0.1))</f>
+        <v>0.27398504006564184</v>
       </c>
       <c r="Q41">
         <v>40</v>
@@ -5023,58 +5022,58 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C42">
-        <v>1826816</v>
+        <v>81019136</v>
       </c>
       <c r="D42">
-        <v>193</v>
+        <v>25121</v>
       </c>
       <c r="E42">
-        <f t="shared" si="10"/>
-        <v>1.0564829736547085E-4</v>
+        <f>D42/C42</f>
+        <v>3.1006255114841017E-4</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="11"/>
-        <v>4.3895235141669611E-2</v>
+        <f>(E42-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.13379473812804316</v>
       </c>
       <c r="G42">
-        <v>63</v>
+        <v>9028</v>
       </c>
       <c r="H42">
-        <f t="shared" si="7"/>
-        <v>3.4486231782511209E-5</v>
+        <f>G42/C42</f>
+        <v>1.11430465020017E-4</v>
       </c>
       <c r="I42" s="1">
         <f>(H42-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>3.2354529246313872E-2</v>
+        <v>0.11997669970096352</v>
       </c>
       <c r="J42" s="2">
-        <v>0.21544893199999998</v>
+        <v>0.37564697900000005</v>
       </c>
       <c r="K42">
         <v>3</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="M42" s="2">
-        <f t="shared" si="8"/>
-        <v>6.3391442155309036E-3</v>
+        <f>L42/631</f>
+        <v>0.33438985736925514</v>
       </c>
       <c r="N42" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" s="3">
         <v>1</v>
       </c>
       <c r="P42" s="4">
-        <f t="shared" si="9"/>
-        <v>0.26336317721331676</v>
+        <f>((F42*0.3)+(I42*0.2)+(J42*0.2)+(M42*0.1)+(N42*0.1)+(O42*0.1))</f>
+        <v>0.27270214291553119</v>
       </c>
       <c r="Q42">
         <v>41</v>
@@ -5085,46 +5084,47 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>427</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>436</v>
+        <v>56</v>
       </c>
       <c r="C43">
-        <v>36864</v>
+        <v>1826816</v>
       </c>
       <c r="D43">
-        <v>7</v>
+        <v>193</v>
       </c>
       <c r="E43">
-        <f t="shared" si="10"/>
-        <v>1.8988715277777778E-4</v>
+        <f>D43/C43</f>
+        <v>1.0564829736547085E-4</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="11"/>
-        <v>8.0942706604931289E-2</v>
+        <f>(E43-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>4.3895235141669611E-2</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="H43">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>G43/C43</f>
+        <v>3.4486231782511209E-5</v>
       </c>
       <c r="I43" s="1">
-        <v>0</v>
+        <f>(H43-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>3.2354529246313872E-2</v>
       </c>
       <c r="J43" s="2">
-        <v>0.18697333499999999</v>
+        <v>0.21544893199999998</v>
       </c>
       <c r="K43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L43">
         <v>4</v>
       </c>
       <c r="M43" s="2">
-        <f t="shared" si="8"/>
+        <f>L43/631</f>
         <v>6.3391442155309036E-3</v>
       </c>
       <c r="N43" s="3">
@@ -5134,8 +5134,8 @@
         <v>1</v>
       </c>
       <c r="P43" s="4">
-        <f t="shared" si="9"/>
-        <v>0.26231139340303244</v>
+        <f>((F43*0.3)+(I43*0.2)+(J43*0.2)+(M43*0.1)+(N43*0.1)+(O43*0.1))</f>
+        <v>0.26336317721331676</v>
       </c>
       <c r="Q43">
         <v>42</v>
@@ -5158,22 +5158,22 @@
         <v>1565</v>
       </c>
       <c r="E44">
-        <f t="shared" si="10"/>
+        <f>D44/C44</f>
         <v>2.4170809939901946E-4</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="11"/>
+        <f>(E44-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>0.10373308085388123</v>
       </c>
       <c r="G44">
         <v>1664</v>
       </c>
       <c r="H44">
-        <f t="shared" si="7"/>
+        <f>G44/C44</f>
         <v>2.569982603194686E-4</v>
       </c>
       <c r="I44" s="1">
-        <f t="shared" ref="I44:I56" si="12">(H44-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <f>(H44-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>0.28574566815718305</v>
       </c>
       <c r="J44" s="2">
@@ -5186,7 +5186,7 @@
         <v>3</v>
       </c>
       <c r="M44" s="2">
-        <f t="shared" si="8"/>
+        <f>L44/631</f>
         <v>4.7543581616481777E-3</v>
       </c>
       <c r="N44" s="3">
@@ -5196,7 +5196,7 @@
         <v>1</v>
       </c>
       <c r="P44" s="4">
-        <f t="shared" si="9"/>
+        <f>((F44*0.3)+(I44*0.2)+(J44*0.2)+(M44*0.1)+(N44*0.1)+(O44*0.1))</f>
         <v>0.25816447970376577</v>
       </c>
       <c r="Q44">
@@ -5220,22 +5220,22 @@
         <v>140</v>
       </c>
       <c r="E45">
-        <f t="shared" si="10"/>
+        <f>D45/C45</f>
         <v>2.5992157794676806E-4</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="11"/>
+        <f>(E45-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>0.11174320069040819</v>
       </c>
       <c r="G45">
         <v>72</v>
       </c>
       <c r="H45">
-        <f t="shared" si="7"/>
+        <f>G45/C45</f>
         <v>1.3367395437262358E-4</v>
       </c>
       <c r="I45" s="1">
-        <f t="shared" si="12"/>
+        <f>(H45-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>0.14530702964972236</v>
       </c>
       <c r="J45" s="2">
@@ -5248,7 +5248,7 @@
         <v>1</v>
       </c>
       <c r="M45" s="2">
-        <f t="shared" si="8"/>
+        <f>L45/631</f>
         <v>1.5847860538827259E-3</v>
       </c>
       <c r="N45" s="3">
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="4">
-        <f t="shared" si="9"/>
+        <f>((F45*0.3)+(I45*0.2)+(J45*0.2)+(M45*0.1)+(N45*0.1)+(O45*0.1))</f>
         <v>0.23556478314245521</v>
       </c>
       <c r="Q45">
@@ -5282,22 +5282,22 @@
         <v>1220</v>
       </c>
       <c r="E46">
-        <f t="shared" si="10"/>
+        <f>D46/C46</f>
         <v>2.2613765777735597E-4</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="11"/>
+        <f>(E46-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>9.6885344274061966E-2</v>
       </c>
       <c r="G46">
         <v>256</v>
       </c>
       <c r="H46">
-        <f t="shared" si="7"/>
+        <f>G46/C46</f>
         <v>4.7451836386068141E-5</v>
       </c>
       <c r="I46" s="1">
-        <f t="shared" si="12"/>
+        <f>(H46-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>4.7119435839296675E-2</v>
       </c>
       <c r="J46" s="2">
@@ -5310,7 +5310,7 @@
         <v>9</v>
       </c>
       <c r="M46" s="2">
-        <f t="shared" si="8"/>
+        <f>L46/631</f>
         <v>1.4263074484944533E-2</v>
       </c>
       <c r="N46" s="3">
@@ -5320,7 +5320,7 @@
         <v>1</v>
       </c>
       <c r="P46" s="4">
-        <f t="shared" si="9"/>
+        <f>((F46*0.3)+(I46*0.2)+(J46*0.2)+(M46*0.1)+(N46*0.1)+(O46*0.1))</f>
         <v>0.23191084629857239</v>
       </c>
       <c r="Q46">
@@ -5344,22 +5344,22 @@
         <v>475</v>
       </c>
       <c r="E47">
-        <f t="shared" si="10"/>
+        <f>D47/C47</f>
         <v>7.772817720060743E-4</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="11"/>
+        <f>(E47-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>0.33927344112194513</v>
       </c>
       <c r="G47">
         <v>168</v>
       </c>
       <c r="H47">
-        <f t="shared" si="7"/>
+        <f>G47/C47</f>
         <v>2.7491228988846413E-4</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" si="12"/>
+        <f>(H47-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
         <v>0.30614571747054786</v>
       </c>
       <c r="J47" s="2">
@@ -5372,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="2">
-        <f t="shared" si="8"/>
+        <f>L47/631</f>
         <v>0</v>
       </c>
       <c r="N47" s="3">
@@ -5394,58 +5394,57 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>428</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>437</v>
       </c>
       <c r="C48">
-        <v>2566912</v>
+        <v>342528</v>
       </c>
       <c r="D48">
-        <v>2603</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <f t="shared" si="10"/>
-        <v>1.0140589159269972E-3</v>
+        <f>D48/C48</f>
+        <v>5.8389387144992528E-6</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="11"/>
-        <v>0.44340584462658056</v>
+        <f>(E48-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>1.1175518276544003E-18</v>
       </c>
       <c r="G48">
-        <v>612</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <f t="shared" si="7"/>
-        <v>2.3841876932282838E-4</v>
+        <f>G48/C48</f>
+        <v>0</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="12"/>
-        <v>0.26458780799574483</v>
+        <v>0</v>
       </c>
       <c r="J48" s="2">
-        <v>0.13824662599999998</v>
+        <v>0.28002160799999998</v>
       </c>
       <c r="K48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M48" s="2">
-        <f t="shared" si="8"/>
-        <v>1.4263074484944533E-2</v>
+        <f>L48/631</f>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" s="4">
-        <f t="shared" ref="P48:P56" si="13">((F48*0.3)+(I48*0.2)+(J48*0.2)+(M48*0.1)+(N48*0.1)+(O48*0.1))</f>
-        <v>0.21501494763561757</v>
+        <f>((F48*0.3)+(I48*0.2)+(J48*0.2)+(M48*0.1)+(N48*0.1)+(O48*0.1))/0.7</f>
+        <v>0.22286331657142858</v>
       </c>
       <c r="Q48">
         <v>47</v>
@@ -5456,58 +5455,58 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>300</v>
+        <v>99</v>
       </c>
       <c r="B49" t="s">
-        <v>299</v>
+        <v>98</v>
       </c>
       <c r="C49">
-        <v>1200384</v>
+        <v>2566912</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>2603</v>
       </c>
       <c r="E49">
-        <f t="shared" si="10"/>
-        <v>1.9993602047344849E-5</v>
+        <f>D49/C49</f>
+        <v>1.0140589159269972E-3</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="11"/>
-        <v>6.2250903496851402E-3</v>
+        <f>(E49-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.44340584462658056</v>
       </c>
       <c r="G49">
-        <v>8</v>
+        <v>612</v>
       </c>
       <c r="H49">
-        <f t="shared" si="7"/>
-        <v>6.6645340157816163E-6</v>
+        <f>G49/C49</f>
+        <v>2.3841876932282838E-4</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="12"/>
-        <v>6.7187492016948221E-4</v>
+        <f>(H49-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.26458780799574483</v>
       </c>
       <c r="J49" s="2">
-        <v>0.52306200300000005</v>
+        <v>0.13824662599999998</v>
       </c>
       <c r="K49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L49">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="M49" s="2">
-        <f t="shared" si="8"/>
-        <v>6.3391442155309036E-2</v>
+        <f>L49/631</f>
+        <v>1.4263074484944533E-2</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
       <c r="O49" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" s="4">
-        <f t="shared" si="13"/>
-        <v>0.21295344690447038</v>
+        <f>((F49*0.3)+(I49*0.2)+(J49*0.2)+(M49*0.1)+(N49*0.1)+(O49*0.1))</f>
+        <v>0.21501494763561757</v>
       </c>
       <c r="Q49">
         <v>48</v>
@@ -5518,58 +5517,58 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>299</v>
       </c>
       <c r="C50">
-        <v>17253096</v>
+        <v>1200384</v>
       </c>
       <c r="D50">
-        <v>5578</v>
+        <v>24</v>
       </c>
       <c r="E50">
-        <f t="shared" si="10"/>
-        <v>3.2330429274838554E-4</v>
+        <f>D50/C50</f>
+        <v>1.9993602047344849E-5</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="11"/>
-        <v>0.13961833392178777</v>
+        <f>(E50-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>6.2250903496851402E-3</v>
       </c>
       <c r="G50">
-        <v>757</v>
+        <v>8</v>
       </c>
       <c r="H50">
-        <f t="shared" si="7"/>
-        <v>4.387618314996914E-5</v>
+        <f>G50/C50</f>
+        <v>6.6645340157816163E-6</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="12"/>
-        <v>4.3047571267287824E-2</v>
+        <f>(H50-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>6.7187492016948221E-4</v>
       </c>
       <c r="J50" s="2">
-        <v>0.29700730400000003</v>
+        <v>0.52306200300000005</v>
       </c>
       <c r="K50">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L50">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M50" s="2">
-        <f t="shared" si="8"/>
-        <v>2.3771790808240888E-2</v>
+        <f>L50/631</f>
+        <v>6.3391442155309036E-2</v>
       </c>
       <c r="N50" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" s="4">
-        <f t="shared" si="13"/>
-        <v>0.21227365431081802</v>
+        <f>((F50*0.3)+(I50*0.2)+(J50*0.2)+(M50*0.1)+(N50*0.1)+(O50*0.1))</f>
+        <v>0.21295344690447038</v>
       </c>
       <c r="Q50">
         <v>49</v>
@@ -5580,48 +5579,48 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="B51" t="s">
-        <v>368</v>
+        <v>76</v>
       </c>
       <c r="C51">
-        <v>26393088</v>
+        <v>17253096</v>
       </c>
       <c r="D51">
-        <v>1304</v>
+        <v>5578</v>
       </c>
       <c r="E51">
-        <f t="shared" si="10"/>
-        <v>4.9406875012124383E-5</v>
+        <f>D51/C51</f>
+        <v>3.2330429274838554E-4</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="11"/>
-        <v>1.9160776446918101E-2</v>
+        <f>(E51-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.13961833392178777</v>
       </c>
       <c r="G51">
-        <v>672</v>
+        <v>757</v>
       </c>
       <c r="H51">
-        <f t="shared" si="7"/>
-        <v>2.5461211662689866E-5</v>
+        <f>G51/C51</f>
+        <v>4.387618314996914E-5</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="12"/>
-        <v>2.2077061812793935E-2</v>
+        <f>(H51-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>4.3047571267287824E-2</v>
       </c>
       <c r="J51" s="2">
-        <v>0.47101033099999995</v>
+        <v>0.29700730400000003</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L51">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M51" s="2">
-        <f t="shared" si="8"/>
-        <v>4.4374009508716325E-2</v>
+        <f>L51/631</f>
+        <v>2.3771790808240888E-2</v>
       </c>
       <c r="N51" s="3">
         <v>1</v>
@@ -5630,8 +5629,8 @@
         <v>0</v>
       </c>
       <c r="P51" s="4">
-        <f t="shared" si="13"/>
-        <v>0.20880311244750585</v>
+        <f>((F51*0.3)+(I51*0.2)+(J51*0.2)+(M51*0.1)+(N51*0.1)+(O51*0.1))</f>
+        <v>0.21227365431081802</v>
       </c>
       <c r="Q51">
         <v>50</v>
@@ -5642,58 +5641,58 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>176</v>
+        <v>369</v>
       </c>
       <c r="B52" t="s">
-        <v>175</v>
+        <v>368</v>
       </c>
       <c r="C52">
-        <v>274176</v>
+        <v>26393088</v>
       </c>
       <c r="D52">
-        <v>42</v>
+        <v>1304</v>
       </c>
       <c r="E52">
-        <f t="shared" si="10"/>
-        <v>1.5318627450980392E-4</v>
+        <f>D52/C52</f>
+        <v>4.9406875012124383E-5</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="11"/>
-        <v>6.4801998927286844E-2</v>
+        <f>(E52-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>1.9160776446918101E-2</v>
       </c>
       <c r="G52">
-        <v>13</v>
+        <v>672</v>
       </c>
       <c r="H52">
-        <f t="shared" si="7"/>
-        <v>4.7414799253034548E-5</v>
+        <f>G52/C52</f>
+        <v>2.5461211662689866E-5</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" si="12"/>
-        <v>4.7077258877524848E-2</v>
+        <f>(H52-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>2.2077061812793935E-2</v>
       </c>
       <c r="J52" s="2">
-        <v>0.33528630199999998</v>
+        <v>0.47101033099999995</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="L52">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="M52" s="2">
-        <f t="shared" si="8"/>
-        <v>9.5087163232963554E-3</v>
+        <f>L52/631</f>
+        <v>4.4374009508716325E-2</v>
       </c>
       <c r="N52" s="3">
+        <v>1</v>
+      </c>
+      <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3">
-        <v>1</v>
-      </c>
       <c r="P52" s="4">
-        <f t="shared" si="13"/>
-        <v>0.19686418348602067</v>
+        <f>((F52*0.3)+(I52*0.2)+(J52*0.2)+(M52*0.1)+(N52*0.1)+(O52*0.1))</f>
+        <v>0.20880311244750585</v>
       </c>
       <c r="Q52">
         <v>51</v>
@@ -5704,58 +5703,58 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="C53">
-        <v>5894656</v>
+        <v>274176</v>
       </c>
       <c r="D53">
-        <v>1346</v>
+        <v>42</v>
       </c>
       <c r="E53">
-        <f t="shared" si="10"/>
-        <v>2.2834241726743681E-4</v>
+        <f>D53/C53</f>
+        <v>1.5318627450980392E-4</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="11"/>
-        <v>9.7854977157751322E-2</v>
+        <f>(E53-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>6.4801998927286844E-2</v>
       </c>
       <c r="G53">
-        <v>609</v>
+        <v>13</v>
       </c>
       <c r="H53">
-        <f t="shared" si="7"/>
-        <v>1.033139168765743E-4</v>
+        <f>G53/C53</f>
+        <v>4.7414799253034548E-5</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" si="12"/>
-        <v>0.11073377745709817</v>
+        <f>(H53-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>4.7077258877524848E-2</v>
       </c>
       <c r="J53" s="2">
-        <v>0.207538106</v>
+        <v>0.33528630199999998</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M53" s="2">
-        <f t="shared" si="8"/>
-        <v>4.7543581616481777E-3</v>
+        <f>L53/631</f>
+        <v>9.5087163232963554E-3</v>
       </c>
       <c r="N53" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" s="4">
-        <f t="shared" si="13"/>
-        <v>0.19348630565490987</v>
+        <f>((F53*0.3)+(I53*0.2)+(J53*0.2)+(M53*0.1)+(N53*0.1)+(O53*0.1))</f>
+        <v>0.19686418348602067</v>
       </c>
       <c r="Q53">
         <v>52</v>
@@ -5766,48 +5765,47 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>350</v>
+        <v>426</v>
       </c>
       <c r="B54" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="C54">
-        <v>228608</v>
+        <v>81664</v>
       </c>
       <c r="D54">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E54">
-        <f t="shared" si="10"/>
-        <v>1.4435190369540873E-4</v>
+        <f>D54/C54</f>
+        <v>3.6735893416927902E-5</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="11"/>
-        <v>6.091672414476218E-2</v>
+        <f>(E54-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>1.3588195637718568E-2</v>
       </c>
       <c r="G54">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <f t="shared" si="7"/>
-        <v>3.9368701007838745E-5</v>
+        <f>G54/C54</f>
+        <v>0</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="12"/>
-        <v>3.7914563217679741E-2</v>
+        <v>0</v>
       </c>
       <c r="J54" s="2">
-        <v>0.31265499599999996</v>
+        <v>0.249509697</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M54" s="2">
-        <f t="shared" si="8"/>
-        <v>6.3391442155309036E-3</v>
+        <f>L54/631</f>
+        <v>3.486529318541997E-2</v>
       </c>
       <c r="N54" s="3">
         <v>0</v>
@@ -5816,8 +5814,8 @@
         <v>1</v>
       </c>
       <c r="P54" s="4">
-        <f t="shared" si="13"/>
-        <v>0.1890228435085177</v>
+        <f>((F54*0.3)+(I54*0.2)+(J54*0.2)+(M54*0.1)+(N54*0.1)+(O54*0.1))/0.8</f>
+        <v>0.19683115926232195</v>
       </c>
       <c r="Q54">
         <v>53</v>
@@ -5828,48 +5826,48 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="C55">
-        <v>1072896</v>
+        <v>5894656</v>
       </c>
       <c r="D55">
-        <v>14</v>
+        <v>1346</v>
       </c>
       <c r="E55">
-        <f t="shared" si="10"/>
-        <v>1.3048795036984014E-5</v>
+        <f>D55/C55</f>
+        <v>2.2834241726743681E-4</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" si="11"/>
-        <v>3.1708282959700316E-3</v>
+        <f>(E55-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>9.7854977157751322E-2</v>
       </c>
       <c r="G55">
-        <v>9</v>
+        <v>609</v>
       </c>
       <c r="H55">
-        <f t="shared" si="7"/>
-        <v>8.3885110952040091E-6</v>
+        <f>G55/C55</f>
+        <v>1.033139168765743E-4</v>
       </c>
       <c r="I55" s="1">
-        <f t="shared" si="12"/>
-        <v>2.6350969467868815E-3</v>
+        <f>(H55-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.11073377745709817</v>
       </c>
       <c r="J55" s="2">
-        <v>0.33687151900000001</v>
+        <v>0.207538106</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L55">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="M55" s="2">
-        <f t="shared" si="8"/>
-        <v>0.17115689381933438</v>
+        <f>L55/631</f>
+        <v>4.7543581616481777E-3</v>
       </c>
       <c r="N55" s="3">
         <v>1</v>
@@ -5878,8 +5876,8 @@
         <v>0</v>
       </c>
       <c r="P55" s="4">
-        <f t="shared" si="13"/>
-        <v>0.18596826106008185</v>
+        <f>((F55*0.3)+(I55*0.2)+(J55*0.2)+(M55*0.1)+(N55*0.1)+(O55*0.1))</f>
+        <v>0.19348630565490987</v>
       </c>
       <c r="Q55">
         <v>54</v>
@@ -5890,48 +5888,48 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>204</v>
+        <v>350</v>
       </c>
       <c r="B56" t="s">
-        <v>203</v>
+        <v>349</v>
       </c>
       <c r="C56">
-        <v>326656</v>
+        <v>228608</v>
       </c>
       <c r="D56">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E56">
-        <f t="shared" si="10"/>
-        <v>5.8165164576802506E-5</v>
+        <f>D56/C56</f>
+        <v>1.4435190369540873E-4</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="11"/>
-        <v>2.3012591397706131E-2</v>
+        <f>(E56-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>6.091672414476218E-2</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H56">
-        <f t="shared" si="7"/>
-        <v>6.1226489028213164E-6</v>
+        <f>G56/C56</f>
+        <v>3.9368701007838745E-5</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="12"/>
-        <v>5.4789691857658376E-5</v>
+        <f>(H56-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>3.7914563217679741E-2</v>
       </c>
       <c r="J56" s="2">
-        <v>0.36237256700000003</v>
+        <v>0.31265499599999996</v>
       </c>
       <c r="K56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M56" s="2">
-        <f t="shared" si="8"/>
-        <v>7.9239302694136295E-3</v>
+        <f>L56/631</f>
+        <v>6.3391442155309036E-3</v>
       </c>
       <c r="N56" s="3">
         <v>0</v>
@@ -5940,8 +5938,8 @@
         <v>1</v>
       </c>
       <c r="P56" s="4">
-        <f t="shared" si="13"/>
-        <v>0.18018164178462476</v>
+        <f>((F56*0.3)+(I56*0.2)+(J56*0.2)+(M56*0.1)+(N56*0.1)+(O56*0.1))</f>
+        <v>0.1890228435085177</v>
       </c>
       <c r="Q56">
         <v>55</v>
@@ -5952,57 +5950,58 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>428</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>437</v>
+        <v>12</v>
       </c>
       <c r="C57">
-        <v>342528</v>
+        <v>1072896</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E57">
-        <f t="shared" si="10"/>
-        <v>5.8389387144992528E-6</v>
+        <f>D57/C57</f>
+        <v>1.3048795036984014E-5</v>
       </c>
       <c r="F57" s="1">
-        <f t="shared" si="11"/>
-        <v>1.1175518276544003E-18</v>
+        <f>(E57-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>3.1708282959700316E-3</v>
       </c>
       <c r="G57">
+        <v>9</v>
+      </c>
+      <c r="H57">
+        <f>G57/C57</f>
+        <v>8.3885110952040091E-6</v>
+      </c>
+      <c r="I57" s="1">
+        <f>(H57-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>2.6350969467868815E-3</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0.33687151900000001</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>108</v>
+      </c>
+      <c r="M57" s="2">
+        <f>L57/631</f>
+        <v>0.17115689381933438</v>
+      </c>
+      <c r="N57" s="3">
+        <v>1</v>
+      </c>
+      <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="H57">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I57" s="1">
-        <v>0</v>
-      </c>
-      <c r="J57" s="2">
-        <v>0.28002160799999998</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1</v>
-      </c>
       <c r="P57" s="4">
-        <f>((F57*0.3)+(I57*0.2)+(J57*0.2)+(M57*0.1)+(N57*0.1)+(O57*0.1))/0.9</f>
-        <v>0.1733381351111111</v>
+        <f>((F57*0.3)+(I57*0.2)+(J57*0.2)+(M57*0.1)+(N57*0.1)+(O57*0.1))</f>
+        <v>0.18596826106008185</v>
       </c>
       <c r="Q57">
         <v>56</v>
@@ -6013,58 +6012,58 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="C58">
-        <v>18790144</v>
+        <v>326656</v>
       </c>
       <c r="D58">
-        <v>14192</v>
+        <v>19</v>
       </c>
       <c r="E58">
-        <f t="shared" si="10"/>
-        <v>7.5528958160192919E-4</v>
+        <f>D58/C58</f>
+        <v>5.8165164576802506E-5</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" si="11"/>
-        <v>0.32960147867154899</v>
+        <f>(E58-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>2.3012591397706131E-2</v>
       </c>
       <c r="G58">
-        <v>2157</v>
+        <v>2</v>
       </c>
       <c r="H58">
-        <f t="shared" si="7"/>
-        <v>1.147942240357498E-4</v>
+        <f>G58/C58</f>
+        <v>6.1226489028213164E-6</v>
       </c>
       <c r="I58" s="1">
         <f>(H58-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.1238072644287336</v>
+        <v>5.4789691857658376E-5</v>
       </c>
       <c r="J58" s="2">
-        <v>0.211732798</v>
+        <v>0.36237256700000003</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L58">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="M58" s="2">
-        <f t="shared" si="8"/>
-        <v>3.8034865293185421E-2</v>
+        <f>L58/631</f>
+        <v>7.9239302694136295E-3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" s="4">
-        <f t="shared" ref="P58:P65" si="14">((F58*0.3)+(I58*0.2)+(J58*0.2)+(M58*0.1)+(N58*0.1)+(O58*0.1))</f>
-        <v>0.16979194261652997</v>
+        <f>((F58*0.3)+(I58*0.2)+(J58*0.2)+(M58*0.1)+(N58*0.1)+(O58*0.1))</f>
+        <v>0.18018164178462476</v>
       </c>
       <c r="Q58">
         <v>57</v>
@@ -6075,58 +6074,58 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>355</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>354</v>
+        <v>14</v>
       </c>
       <c r="C59">
-        <v>224000</v>
+        <v>18790144</v>
       </c>
       <c r="D59">
-        <v>75</v>
+        <v>14192</v>
       </c>
       <c r="E59">
-        <f t="shared" si="10"/>
-        <v>3.3482142857142857E-4</v>
+        <f>D59/C59</f>
+        <v>7.5528958160192919E-4</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="11"/>
-        <v>0.14468346400521909</v>
+        <f>(E59-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.32960147867154899</v>
       </c>
       <c r="G59">
-        <v>20</v>
+        <v>2157</v>
       </c>
       <c r="H59">
-        <f t="shared" si="7"/>
-        <v>8.9285714285714286E-5</v>
+        <f>G59/C59</f>
+        <v>1.147942240357498E-4</v>
       </c>
       <c r="I59" s="1">
         <f>(H59-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>9.4758810823867223E-2</v>
+        <v>0.1238072644287336</v>
       </c>
       <c r="J59" s="2">
-        <v>3.1623552999999999E-2</v>
+        <v>0.211732798</v>
       </c>
       <c r="K59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="M59" s="2">
-        <f t="shared" si="8"/>
-        <v>1.5847860538827259E-3</v>
+        <f>L59/631</f>
+        <v>3.8034865293185421E-2</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59" s="4">
-        <f t="shared" si="14"/>
-        <v>0.16883999057172744</v>
+        <f>((F59*0.3)+(I59*0.2)+(J59*0.2)+(M59*0.1)+(N59*0.1)+(O59*0.1))</f>
+        <v>0.16979194261652997</v>
       </c>
       <c r="Q59">
         <v>58</v>
@@ -6137,48 +6136,48 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>174</v>
+        <v>355</v>
       </c>
       <c r="B60" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="C60">
-        <v>3834112</v>
+        <v>224000</v>
       </c>
       <c r="D60">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="E60">
-        <f t="shared" si="10"/>
-        <v>3.1037173666288308E-5</v>
+        <f>D60/C60</f>
+        <v>3.3482142857142857E-4</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="11"/>
-        <v>1.1081951265028506E-2</v>
+        <f>(E60-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>0.14468346400521909</v>
       </c>
       <c r="G60">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H60">
-        <f t="shared" si="7"/>
-        <v>6.7812312212058494E-6</v>
+        <f>G60/C60</f>
+        <v>8.9285714285714286E-5</v>
       </c>
       <c r="I60" s="1">
         <f>(H60-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>8.0476678217167839E-4</v>
+        <v>9.4758810823867223E-2</v>
       </c>
       <c r="J60" s="2">
-        <v>0.32096185300000002</v>
+        <v>3.1623552999999999E-2</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M60" s="2">
-        <f t="shared" si="8"/>
-        <v>3.1695721077654518E-3</v>
+        <f>L60/631</f>
+        <v>1.5847860538827259E-3</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
@@ -6187,8 +6186,8 @@
         <v>1</v>
       </c>
       <c r="P60" s="4">
-        <f t="shared" si="14"/>
-        <v>0.16799486654671944</v>
+        <f>((F60*0.3)+(I60*0.2)+(J60*0.2)+(M60*0.1)+(N60*0.1)+(O60*0.1))</f>
+        <v>0.16883999057172744</v>
       </c>
       <c r="Q60">
         <v>59</v>
@@ -6199,47 +6198,48 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>426</v>
+        <v>174</v>
       </c>
       <c r="B61" t="s">
-        <v>396</v>
+        <v>173</v>
       </c>
       <c r="C61">
-        <v>81664</v>
+        <v>3834112</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="E61">
-        <f t="shared" si="10"/>
-        <v>3.6735893416927902E-5</v>
+        <f>D61/C61</f>
+        <v>3.1037173666288308E-5</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="11"/>
-        <v>1.3588195637718568E-2</v>
+        <f>(E61-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
+        <v>1.1081951265028506E-2</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="H61">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>G61/C61</f>
+        <v>6.7812312212058494E-6</v>
       </c>
       <c r="I61" s="1">
-        <v>0</v>
+        <f>(H61-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>8.0476678217167839E-4</v>
       </c>
       <c r="J61" s="2">
-        <v>0.249509697</v>
+        <v>0.32096185300000002</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
       <c r="L61">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="M61" s="2">
-        <f t="shared" si="8"/>
-        <v>3.486529318541997E-2</v>
+        <f>L61/631</f>
+        <v>3.1695721077654518E-3</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -6248,8 +6248,8 @@
         <v>1</v>
       </c>
       <c r="P61" s="4">
-        <f t="shared" si="14"/>
-        <v>0.15746492740985757</v>
+        <f>((F61*0.3)+(I61*0.2)+(J61*0.2)+(M61*0.1)+(N61*0.1)+(O61*0.1))</f>
+        <v>0.16799486654671944</v>
       </c>
       <c r="Q61">
         <v>60</v>
@@ -6272,18 +6272,18 @@
         <v>60</v>
       </c>
       <c r="E62">
-        <f t="shared" si="10"/>
+        <f>D62/C62</f>
         <v>7.2071033210332103E-5</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="11"/>
+        <f>(E62-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>2.9128264133892055E-2</v>
       </c>
       <c r="G62">
         <v>21</v>
       </c>
       <c r="H62">
-        <f t="shared" si="7"/>
+        <f>G62/C62</f>
         <v>2.5224861623616237E-5</v>
       </c>
       <c r="I62" s="1">
@@ -6300,7 +6300,7 @@
         <v>5</v>
       </c>
       <c r="M62" s="2">
-        <f t="shared" si="8"/>
+        <f>L62/631</f>
         <v>7.9239302694136295E-3</v>
       </c>
       <c r="N62" s="3">
@@ -6310,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="P62" s="4">
-        <f t="shared" si="14"/>
+        <f>((F62*0.3)+(I62*0.2)+(J62*0.2)+(M62*0.1)+(N62*0.1)+(O62*0.1))</f>
         <v>0.15380027712575087</v>
       </c>
       <c r="Q62">
@@ -6334,18 +6334,18 @@
         <v>53</v>
       </c>
       <c r="E63">
-        <f t="shared" si="10"/>
+        <f>D63/C63</f>
         <v>4.0840859353327371E-5</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="11"/>
+        <f>(E63-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>1.5393521786110212E-2</v>
       </c>
       <c r="G63">
         <v>23</v>
       </c>
       <c r="H63">
-        <f t="shared" si="7"/>
+        <f>G63/C63</f>
         <v>1.7723391794840182E-5</v>
       </c>
       <c r="I63" s="1">
@@ -6362,7 +6362,7 @@
         <v>5</v>
       </c>
       <c r="M63" s="2">
-        <f t="shared" si="8"/>
+        <f>L63/631</f>
         <v>7.9239302694136295E-3</v>
       </c>
       <c r="N63" s="3">
@@ -6372,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="4">
-        <f t="shared" si="14"/>
+        <f>((F63*0.3)+(I63*0.2)+(J63*0.2)+(M63*0.1)+(N63*0.1)+(O63*0.1))</f>
         <v>9.0038402736197981E-2</v>
       </c>
       <c r="Q63">
@@ -6396,18 +6396,18 @@
         <v>25</v>
       </c>
       <c r="E64">
-        <f t="shared" si="10"/>
+        <f>D64/C64</f>
         <v>2.9827810018326205E-5</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="11"/>
+        <f>(E64-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>1.055008428966079E-2</v>
       </c>
       <c r="G64">
         <v>10</v>
       </c>
       <c r="H64">
-        <f t="shared" si="7"/>
+        <f>G64/C64</f>
         <v>1.1931124007330483E-5</v>
       </c>
       <c r="I64" s="1">
@@ -6424,7 +6424,7 @@
         <v>1</v>
       </c>
       <c r="M64" s="2">
-        <f t="shared" si="8"/>
+        <f>L64/631</f>
         <v>1.5847860538827259E-3</v>
       </c>
       <c r="N64" s="3">
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="4">
-        <f t="shared" si="14"/>
+        <f>((F64*0.3)+(I64*0.2)+(J64*0.2)+(M64*0.1)+(N64*0.1)+(O64*0.1))</f>
         <v>6.8743439096951978E-2</v>
       </c>
       <c r="Q64">
@@ -6458,18 +6458,18 @@
         <v>2</v>
       </c>
       <c r="E65">
-        <f t="shared" si="10"/>
+        <f>D65/C65</f>
         <v>1.2999168053244593E-5</v>
       </c>
       <c r="F65" s="1">
-        <f t="shared" si="11"/>
+        <f>(E65-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
         <v>3.1490028063560624E-3</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65">
-        <f t="shared" ref="H65:H96" si="15">G65/C65</f>
+        <f>G65/C65</f>
         <v>6.4995840266222963E-6</v>
       </c>
       <c r="I65" s="1">
@@ -6486,7 +6486,7 @@
         <v>41</v>
       </c>
       <c r="M65" s="2">
-        <f t="shared" ref="M65:M96" si="16">L65/631</f>
+        <f>L65/631</f>
         <v>6.4976228209191758E-2</v>
       </c>
       <c r="N65" s="3">
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="4">
-        <f t="shared" si="14"/>
+        <f>((F65*0.3)+(I65*0.2)+(J65*0.2)+(M65*0.1)+(N65*0.1)+(O65*0.1))</f>
         <v>5.020317186154314E-2</v>
       </c>
       <c r="Q65">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikna\Desktop\Politics of Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC30DAB0-6EC6-467E-AB99-ADDFA1314D21}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013F96E4-6385-4B8A-995A-A392F027F26A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="1095" windowWidth="24435" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="330" yWindow="285" windowWidth="24435" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shortlist" sheetId="8" r:id="rId1"/>
@@ -2464,7 +2464,7 @@
   <dimension ref="A1:R69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikna\Desktop\Politics of Routing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013F96E4-6385-4B8A-995A-A392F027F26A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4C981A-B2A5-4858-A8B7-F977F0F2CCA9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="285" windowWidth="24435" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6885" yWindow="960" windowWidth="19125" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shortlist" sheetId="8" r:id="rId1"/>
@@ -1361,9 +1361,6 @@
   </si>
   <si>
     <t>Mirai Botnet Hits Normalised</t>
-  </si>
-  <si>
-    <t>Citizens arrested over political social media posts (Impossible to fully quantify)</t>
   </si>
   <si>
     <t>Ranking</t>
@@ -1412,6 +1409,9 @@
   </si>
   <si>
     <t>Signature Hits Per IP</t>
+  </si>
+  <si>
+    <t>Citizens arrested over social media posts (Impossible to fully quantify)</t>
   </si>
 </sst>
 </file>
@@ -1922,12 +1922,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1974,12 +1973,28 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2019,39 +2034,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.39997558519241921"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2067,7 +2050,15 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.39997558519241921"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2104,7 +2095,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{442F76CE-3F66-42BB-AD05-A29D1E28F0FF}" name="Table3" displayName="Table3" ref="A1:R66" totalsRowCount="1">
   <autoFilter ref="A1:R65" xr:uid="{5D7A7C19-206F-4AA4-8764-1A67075BA007}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R65">
-    <sortCondition descending="1" ref="P1:P65"/>
+    <sortCondition ref="A1:A65"/>
   </sortState>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{6CAE0BB8-B52D-4A20-9ADF-6A97394DE9AD}" name="Country"/>
@@ -2117,7 +2108,7 @@
       <calculatedColumnFormula>D2/C2</calculatedColumnFormula>
       <totalsRowFormula>MIN(E2:E31,E33:E65)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{CB13608A-F47A-4117-81FF-E4B85539B69D}" name="Mirai Botnet Hits Normalised" dataDxfId="13" totalsRowDxfId="6">
+    <tableColumn id="12" xr3:uid="{CB13608A-F47A-4117-81FF-E4B85539B69D}" name="Mirai Botnet Hits Normalised" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>(E2-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{3CED1D76-1951-4C3A-814D-035739A9FCBB}" name="Mirai-Like Signature Hits" totalsRowFunction="custom">
@@ -2127,18 +2118,18 @@
       <calculatedColumnFormula>G2/C2</calculatedColumnFormula>
       <totalsRowFormula>MIN(H2:H31,H33:H39,H41:H49,H52:H65)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{CB08F8B3-73D8-4C99-A366-FA8017EE0D03}" name="Mirai-Like Normalised" dataDxfId="12" totalsRowDxfId="5">
+    <tableColumn id="7" xr3:uid="{CB08F8B3-73D8-4C99-A366-FA8017EE0D03}" name="Mirai-Like Normalised" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula>(H2-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{49EB2CD0-3630-48AA-8368-2CEFFC08A8D6}" name="Information Exposure from dependencies" dataDxfId="11" totalsRowDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{49EB2CD0-3630-48AA-8368-2CEFFC08A8D6}" name="Information Exposure from dependencies" dataDxfId="8" totalsRowDxfId="7"/>
     <tableColumn id="11" xr3:uid="{E090A22D-FB18-4748-A91D-414C31BC34CD}" name="Exposure to major surveillance scheme by proximity (Not used)"/>
     <tableColumn id="19" xr3:uid="{8B057D4D-62DE-4645-87B1-85329498A9A6}" name="BGP Hijacks"/>
-    <tableColumn id="10" xr3:uid="{036D57D5-B326-42ED-8FFD-747DA6B50910}" name="BGP Hijacks Normalised" dataDxfId="10" totalsRowDxfId="3">
+    <tableColumn id="10" xr3:uid="{036D57D5-B326-42ED-8FFD-747DA6B50910}" name="BGP Hijacks Normalised" dataDxfId="6" totalsRowDxfId="5">
       <calculatedColumnFormula>L2/631</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0A948547-E070-4D9E-A4DC-3394201B9DF2}" name="Any Internet/Telecom *mass* surveillance (Impossible to fully quantify)" dataDxfId="9" totalsRowDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{E8D3BBBC-FD07-4637-8DED-2FE5C7491C7E}" name="Citizens arrested over political social media posts (Impossible to fully quantify)" dataDxfId="8" totalsRowDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{D262404C-D46A-4B2C-B752-DCB3E9DDEB6B}" name="Ranking" dataDxfId="7" totalsRowDxfId="0">
+    <tableColumn id="6" xr3:uid="{0A948547-E070-4D9E-A4DC-3394201B9DF2}" name="Any Internet/Telecom *mass* surveillance (Impossible to fully quantify)" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{E8D3BBBC-FD07-4637-8DED-2FE5C7491C7E}" name="Citizens arrested over social media posts (Impossible to fully quantify)" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{D262404C-D46A-4B2C-B752-DCB3E9DDEB6B}" name="Ranking" dataDxfId="0">
       <calculatedColumnFormula>((F2*0.3)+(I2*0.2)+(J2*0.2)+(M2*0.1)+(N2*0.1)+(O2*0.1))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="15" xr3:uid="{44793A50-3D54-444C-9EBC-D54795E726A2}" name="Rank (Most Malicious Routing First)"/>
@@ -2463,8 +2454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA10CC7E-88B4-4460-87C0-163097071846}">
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2493,13 +2484,13 @@
         <v>434</v>
       </c>
       <c r="C1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D1" t="s">
         <v>439</v>
       </c>
       <c r="E1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>442</v>
@@ -2508,7 +2499,7 @@
         <v>441</v>
       </c>
       <c r="H1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>432</v>
@@ -2526,375 +2517,375 @@
         <v>433</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="P1" t="s">
         <v>443</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>444</v>
-      </c>
       <c r="Q1" t="s">
+        <v>446</v>
+      </c>
+      <c r="R1" t="s">
         <v>447</v>
-      </c>
-      <c r="R1" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>12530944</v>
+        <v>1072896</v>
       </c>
       <c r="D2">
-        <v>13843</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <f>D2/C2</f>
-        <v>1.1047052799852909E-3</v>
+        <v>1.3048795036984014E-5</v>
       </c>
       <c r="F2" s="1">
         <f>(E2-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.48327127927976132</v>
+        <v>3.1708282959700316E-3</v>
       </c>
       <c r="G2">
-        <v>11080</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <f>G2/C2</f>
-        <v>8.8421111769392631E-4</v>
+        <v>8.3885110952040091E-6</v>
       </c>
       <c r="I2" s="1">
         <f>(H2-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>1.0000000000000004</v>
+        <v>2.6350969467868815E-3</v>
       </c>
       <c r="J2" s="2">
-        <v>0.99891935700000001</v>
+        <v>0.33687151900000001</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="M2" s="2">
         <f>L2/631</f>
-        <v>4.7543581616481777E-3</v>
+        <v>0.17115689381933438</v>
       </c>
       <c r="N2" s="3">
         <v>1</v>
       </c>
       <c r="O2" s="3">
-        <v>1</v>
-      </c>
-      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <f>((F2*0.3)+(I2*0.2)+(J2*0.2)+(M2*0.1)+(N2*0.1)+(O2*0.1))</f>
-        <v>0.74524069100009327</v>
+        <v>0.18596826106008185</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="R2">
-        <v>64</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>293</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>45552000</v>
+        <v>18790144</v>
       </c>
       <c r="D3">
-        <v>63284</v>
+        <v>14192</v>
       </c>
       <c r="E3">
         <f>D3/C3</f>
-        <v>1.3892694063926941E-3</v>
+        <v>7.5528958160192919E-4</v>
       </c>
       <c r="F3" s="1">
         <f>(E3-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.60841995682228722</v>
+        <v>0.32960147867154899</v>
       </c>
       <c r="G3">
-        <v>29494</v>
+        <v>2157</v>
       </c>
       <c r="H3">
         <f>G3/C3</f>
-        <v>6.4747980330172111E-4</v>
+        <v>1.147942240357498E-4</v>
       </c>
       <c r="I3" s="1">
         <f>(H3-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.73041629360839377</v>
+        <v>0.1238072644287336</v>
       </c>
       <c r="J3" s="2">
-        <v>0.86038705400000004</v>
+        <v>0.211732798</v>
       </c>
       <c r="K3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="M3" s="2">
         <f>L3/631</f>
-        <v>0.11410459587955626</v>
+        <v>3.8034865293185421E-2</v>
       </c>
       <c r="N3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="3">
-        <v>1</v>
-      </c>
-      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <f>((F3*0.3)+(I3*0.2)+(J3*0.2)+(M3*0.1)+(N3*0.1)+(O3*0.1))</f>
-        <v>0.71209711615632054</v>
+        <v>0.16979194261652997</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="R3">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>429</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>364</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>15632128</v>
+        <v>611104</v>
       </c>
       <c r="D4">
-        <v>18214</v>
+        <v>475</v>
       </c>
       <c r="E4">
         <f>D4/C4</f>
-        <v>1.1651644612940733E-3</v>
+        <v>7.772817720060743E-4</v>
       </c>
       <c r="F4" s="1">
         <f>(E4-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.50986066945210273</v>
+        <v>0.33927344112194513</v>
       </c>
       <c r="G4">
-        <v>6315</v>
+        <v>168</v>
       </c>
       <c r="H4">
         <f>G4/C4</f>
-        <v>4.0397570951312576E-4</v>
+        <v>2.7491228988846413E-4</v>
       </c>
       <c r="I4" s="1">
         <f>(H4-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.45311991524966994</v>
+        <v>0.30614571747054786</v>
       </c>
       <c r="J4" s="2">
-        <v>0.95899510499999996</v>
+        <v>0.20038133699999999</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
         <f>L4/631</f>
-        <v>1.7432646592709985E-2</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="3">
-        <v>1</v>
-      </c>
-      <c r="P4" s="4">
-        <f>((F4*0.3)+(I4*0.2)+(J4*0.2)+(M4*0.1)+(N4*0.1)+(O4*0.1))</f>
-        <v>0.63712446954483581</v>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>((F4*0.3)+(I4*0.2)+(J4*0.2)+(M4*0.1)+(N4*0.1)+(O4*0.1))/0.9</f>
+        <v>0.22565271470077011</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="R4">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>249600</v>
+        <v>48478976</v>
       </c>
       <c r="D5">
-        <v>569</v>
+        <v>1695</v>
       </c>
       <c r="E5">
         <f>D5/C5</f>
-        <v>2.2796474358974359E-3</v>
+        <v>3.4963609792418055E-5</v>
       </c>
       <c r="F5" s="1">
         <f>(E5-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.99999999999999811</v>
+        <v>1.280876164989349E-2</v>
       </c>
       <c r="G5">
-        <v>69</v>
+        <v>561</v>
       </c>
       <c r="H5">
         <f>G5/C5</f>
-        <v>2.7644230769230768E-4</v>
+        <v>1.157202660386226E-5</v>
       </c>
       <c r="I5" s="1">
         <f>(H5-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.30788806351996795</v>
+        <v>6.2604048718609062E-3</v>
       </c>
       <c r="J5" s="2">
-        <v>0.576466535</v>
+        <v>0.95953077900000017</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="M5" s="2">
         <f>L5/631</f>
-        <v>9.5087163232963554E-3</v>
+        <v>4.1204437400950873E-2</v>
       </c>
       <c r="N5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="3">
         <v>1</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5">
         <f>((F5*0.3)+(I5*0.2)+(J5*0.2)+(M5*0.1)+(N5*0.1)+(O5*0.1))</f>
-        <v>0.57782179133632272</v>
+        <v>0.40112130900943532</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="R5">
-        <v>61</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>339</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>16281856</v>
+        <v>713728</v>
       </c>
       <c r="D6">
-        <v>11089</v>
+        <v>122</v>
       </c>
       <c r="E6">
         <f>D6/C6</f>
-        <v>6.8106486140155024E-4</v>
+        <v>1.7093346484935439E-4</v>
       </c>
       <c r="F6" s="1">
         <f>(E6-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.29695813148890926</v>
+        <v>7.2607049511598479E-2</v>
       </c>
       <c r="G6">
-        <v>5089</v>
+        <v>44</v>
       </c>
       <c r="H6">
         <f>G6/C6</f>
-        <v>3.125565046147073E-4</v>
+        <v>6.1648134863701576E-5</v>
       </c>
       <c r="I6" s="1">
         <f>(H6-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.34901400870678445</v>
+        <v>6.3285825868717963E-2</v>
       </c>
       <c r="J6" s="2">
-        <v>0.94308672100000002</v>
+        <v>0.74409338699999994</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
         <f>L6/631</f>
-        <v>1.7432646592709985E-2</v>
+        <v>0</v>
       </c>
       <c r="N6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="3">
         <v>1</v>
       </c>
-      <c r="P6" s="4">
-        <f>((F6*0.3)+(I6*0.2)+(J6*0.2)+(M6*0.1)+(N6*0.1)+(O6*0.1))</f>
-        <v>0.54925085004730068</v>
+      <c r="P6">
+        <f>((F6*0.3)+(I6*0.2)+(J6*0.2)+(M6*0.1)+(N6*0.1)+(O6*0.1))/0.9</f>
+        <v>0.31473106380802574</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="R6">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="C7">
-        <v>27136</v>
+        <v>452441</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="E7">
         <f>D7/C7</f>
-        <v>1.1423938679245283E-3</v>
+        <v>2.6080748650100235E-4</v>
       </c>
       <c r="F7" s="1">
         <f>(E7-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.49984637255869419</v>
+        <v>0.11213281509959518</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <f>G7/C7</f>
-        <v>2.2110849056603774E-4</v>
+        <v>9.0619550394416073E-5</v>
       </c>
       <c r="I7" s="1">
         <f>(H7-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.24487529502335381</v>
+        <v>9.6277750060216202E-2</v>
       </c>
       <c r="J7" s="2">
-        <v>0.46361996500000002</v>
+        <v>0.77228255299999993</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2">
         <f>L7/631</f>
-        <v>0</v>
+        <v>1.5847860538827259E-3</v>
       </c>
       <c r="N7" s="3">
         <v>1</v>
@@ -2902,123 +2893,123 @@
       <c r="O7" s="3">
         <v>1</v>
       </c>
-      <c r="P7" s="4">
-        <f>((F7*0.3)+(I7*0.2)+(J7*0.2)+(M7*0.1)+(N7*0.1)+(O7*0.1))/0.9</f>
-        <v>0.54628107085808775</v>
+      <c r="P7">
+        <f>((F7*0.3)+(I7*0.2)+(J7*0.2)+(M7*0.1)+(N7*0.1)+(O7*0.1))</f>
+        <v>0.40751038374731008</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="R7">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="C8">
-        <v>668544</v>
+        <v>1041408</v>
       </c>
       <c r="D8">
-        <v>430</v>
+        <v>1411</v>
       </c>
       <c r="E8">
         <f>D8/C8</f>
-        <v>6.431887803944093E-4</v>
+        <v>1.354896447885939E-3</v>
       </c>
       <c r="F8" s="1">
         <f>(E8-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.28030058048843309</v>
+        <v>0.5933030467793613</v>
       </c>
       <c r="G8">
-        <v>148</v>
+        <v>243</v>
       </c>
       <c r="H8">
         <f>G8/C8</f>
-        <v>2.2137660348458741E-4</v>
+        <v>2.3333794247787612E-4</v>
       </c>
       <c r="I8" s="1">
         <f>(H8-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.24518061531652949</v>
+        <v>0.25880188932286935</v>
       </c>
       <c r="J8" s="2">
-        <v>0.98476949599999997</v>
+        <v>0.20153628900000001</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="M8" s="2">
         <f>L8/631</f>
-        <v>1.5847860538827259E-3</v>
+        <v>6.4976228209191758E-2</v>
       </c>
       <c r="N8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
         <v>1</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8">
         <f>((F8*0.3)+(I8*0.2)+(J8*0.2)+(M8*0.1)+(N8*0.1)+(O8*0.1))</f>
-        <v>0.53023867501522404</v>
+        <v>0.37655617251930151</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="R8">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="C9">
-        <v>36346880</v>
+        <v>1826816</v>
       </c>
       <c r="D9">
-        <v>21503</v>
+        <v>193</v>
       </c>
       <c r="E9">
         <f>D9/C9</f>
-        <v>5.916051116354416E-4</v>
+        <v>1.0564829736547085E-4</v>
       </c>
       <c r="F9" s="1">
         <f>(E9-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.25761455885430007</v>
+        <v>4.3895235141669611E-2</v>
       </c>
       <c r="G9">
-        <v>3218</v>
+        <v>63</v>
       </c>
       <c r="H9">
         <f>G9/C9</f>
-        <v>8.853579729539372E-5</v>
+        <v>3.4486231782511209E-5</v>
       </c>
       <c r="I9" s="1">
         <f>(H9-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>9.3904824091035927E-2</v>
+        <v>3.2354529246313872E-2</v>
       </c>
       <c r="J9" s="2">
-        <v>0.96763678500000028</v>
+        <v>0.21544893199999998</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>156</v>
+        <v>4</v>
       </c>
       <c r="M9" s="2">
         <f>L9/631</f>
-        <v>0.24722662440570523</v>
+        <v>6.3391442155309036E-3</v>
       </c>
       <c r="N9" s="3">
         <v>1</v>
@@ -3026,185 +3017,185 @@
       <c r="O9" s="3">
         <v>1</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9">
         <f>((F9*0.3)+(I9*0.2)+(J9*0.2)+(M9*0.1)+(N9*0.1)+(O9*0.1))</f>
-        <v>0.51431535191506772</v>
+        <v>0.26336317721331676</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="R9">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>304</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>303</v>
+        <v>50</v>
       </c>
       <c r="C10">
-        <v>5943556</v>
+        <v>81019136</v>
       </c>
       <c r="D10">
-        <v>8020</v>
+        <v>25121</v>
       </c>
       <c r="E10">
         <f>D10/C10</f>
-        <v>1.3493605511582629E-3</v>
+        <v>3.1006255114841017E-4</v>
       </c>
       <c r="F10" s="1">
         <f>(E10-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.59086841047004379</v>
+        <v>0.13379473812804316</v>
       </c>
       <c r="G10">
-        <v>1358</v>
+        <v>9028</v>
       </c>
       <c r="H10">
         <f>G10/C10</f>
-        <v>2.2848274669238415E-4</v>
+        <v>1.11430465020017E-4</v>
       </c>
       <c r="I10" s="1">
         <f>(H10-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.25327291366339522</v>
+        <v>0.11997669970096352</v>
       </c>
       <c r="J10" s="2">
-        <v>0.91705547199999993</v>
+        <v>0.37564697900000005</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>17</v>
+        <v>211</v>
       </c>
       <c r="M10" s="2">
         <f>L10/631</f>
-        <v>2.694136291600634E-2</v>
+        <v>0.33438985736925514</v>
       </c>
       <c r="N10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10">
         <f>((F10*0.3)+(I10*0.2)+(J10*0.2)+(M10*0.1)+(N10*0.1)+(O10*0.1))</f>
-        <v>0.51402033656529278</v>
+        <v>0.27270214291553119</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="R10">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>332</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
-        <v>331</v>
+        <v>177</v>
       </c>
       <c r="C11">
-        <v>8643072</v>
+        <v>249600</v>
       </c>
       <c r="D11">
-        <v>3027</v>
+        <v>569</v>
       </c>
       <c r="E11">
         <f>D11/C11</f>
-        <v>3.5022269859605472E-4</v>
+        <v>2.2796474358974359E-3</v>
       </c>
       <c r="F11" s="1">
         <f>(E11-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.15145680047735691</v>
+        <v>0.99999999999999811</v>
       </c>
       <c r="G11">
-        <v>1769</v>
+        <v>69</v>
       </c>
       <c r="H11">
         <f>G11/C11</f>
-        <v>2.0467259789112019E-4</v>
+        <v>2.7644230769230768E-4</v>
       </c>
       <c r="I11" s="1">
         <f>(H11-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.2261585110755483</v>
+        <v>0.30788806351996795</v>
       </c>
       <c r="J11" s="2">
-        <v>0.95884328600000002</v>
+        <v>0.576466535</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M11" s="2">
         <f>L11/631</f>
-        <v>1.1093502377179081E-2</v>
+        <v>9.5087163232963554E-3</v>
       </c>
       <c r="N11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="3">
         <v>1</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11">
         <f>((F11*0.3)+(I11*0.2)+(J11*0.2)+(M11*0.1)+(N11*0.1)+(O11*0.1))</f>
-        <v>0.48354674979603463</v>
+        <v>0.57782179133632272</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R11">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C12">
-        <v>331979264</v>
+        <v>80404992</v>
       </c>
       <c r="D12">
-        <v>108622</v>
+        <v>3338</v>
       </c>
       <c r="E12">
         <f>D12/C12</f>
-        <v>3.2719513469371388E-4</v>
+        <v>4.1514835297788473E-5</v>
       </c>
       <c r="F12" s="1">
         <f>(E12-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.14132949031431105</v>
+        <v>1.5689930188707041E-2</v>
       </c>
       <c r="G12">
-        <v>50850</v>
+        <v>1131</v>
       </c>
       <c r="H12">
         <f>G12/C12</f>
-        <v>1.5317221740692816E-4</v>
+        <v>1.406629080940646E-5</v>
       </c>
       <c r="I12" s="1">
         <f>(H12-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.16751116445327313</v>
+        <v>9.1008106330374774E-3</v>
       </c>
       <c r="J12" s="2">
-        <v>0.91036587199999996</v>
+        <v>0.91859541299999992</v>
       </c>
       <c r="K12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="M12" s="2">
         <f>L12/631</f>
-        <v>0.15372424722662439</v>
+        <v>5.5467511885895403E-2</v>
       </c>
       <c r="N12" s="3">
         <v>1</v>
@@ -3212,61 +3203,61 @@
       <c r="O12" s="3">
         <v>1</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12">
         <f>((F12*0.3)+(I12*0.2)+(J12*0.2)+(M12*0.1)+(N12*0.1)+(O12*0.1))</f>
-        <v>0.4733466791076103</v>
+        <v>0.39579297497180921</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="R12">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="C13">
-        <v>98304</v>
+        <v>331979264</v>
       </c>
       <c r="D13">
-        <v>71</v>
+        <v>108622</v>
       </c>
       <c r="E13">
         <f>D13/C13</f>
-        <v>7.2224934895833337E-4</v>
+        <v>3.2719513469371388E-4</v>
       </c>
       <c r="F13" s="1">
         <f>(E13-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.31507068916815417</v>
+        <v>0.14132949031431105</v>
       </c>
       <c r="G13">
-        <v>77</v>
+        <v>50850</v>
       </c>
       <c r="H13">
         <f>G13/C13</f>
-        <v>7.8328450520833337E-4</v>
+        <v>1.5317221740692816E-4</v>
       </c>
       <c r="I13" s="1">
         <f>(H13-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.88506729522762562</v>
+        <v>0.16751116445327313</v>
       </c>
       <c r="J13" s="2">
-        <v>0</v>
+        <v>0.91036587199999996</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="M13" s="2">
         <f>L13/631</f>
-        <v>3.1695721077654518E-3</v>
+        <v>0.15372424722662439</v>
       </c>
       <c r="N13" s="3">
         <v>1</v>
@@ -3274,185 +3265,185 @@
       <c r="O13" s="3">
         <v>1</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13">
         <f>((F13*0.3)+(I13*0.2)+(J13*0.2)+(M13*0.1)+(N13*0.1)+(O13*0.1))</f>
-        <v>0.47185162300674788</v>
+        <v>0.4733466791076103</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R13">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="C14">
-        <v>17662464</v>
+        <v>17253096</v>
       </c>
       <c r="D14">
-        <v>4366</v>
+        <v>5578</v>
       </c>
       <c r="E14">
         <f>D14/C14</f>
-        <v>2.4719087891700726E-4</v>
+        <v>3.2330429274838554E-4</v>
       </c>
       <c r="F14" s="1">
         <f>(E14-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.10614435670441152</v>
+        <v>0.13961833392178777</v>
       </c>
       <c r="G14">
-        <v>3023</v>
+        <v>757</v>
       </c>
       <c r="H14">
         <f>G14/C14</f>
-        <v>1.7115392280488159E-4</v>
+        <v>4.387618314996914E-5</v>
       </c>
       <c r="I14" s="1">
         <f>(H14-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.18798828130985856</v>
+        <v>4.3047571267287824E-2</v>
       </c>
       <c r="J14" s="2">
-        <v>0.96478673299999973</v>
+        <v>0.29700730400000003</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M14" s="2">
         <f>L14/631</f>
-        <v>4.7543581616481777E-2</v>
+        <v>2.3771790808240888E-2</v>
       </c>
       <c r="N14" s="3">
         <v>1</v>
       </c>
       <c r="O14" s="3">
-        <v>1</v>
-      </c>
-      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14">
         <f>((F14*0.3)+(I14*0.2)+(J14*0.2)+(M14*0.1)+(N14*0.1)+(O14*0.1))</f>
-        <v>0.46715266803494326</v>
+        <v>0.21227365431081802</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="R14">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="C15">
-        <v>10873344</v>
+        <v>2566912</v>
       </c>
       <c r="D15">
-        <v>4597</v>
+        <v>2603</v>
       </c>
       <c r="E15">
         <f>D15/C15</f>
-        <v>4.2277702241371194E-4</v>
+        <v>1.0140589159269972E-3</v>
       </c>
       <c r="F15" s="1">
         <f>(E15-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.18336552274114737</v>
+        <v>0.44340584462658056</v>
       </c>
       <c r="G15">
-        <v>729</v>
+        <v>612</v>
       </c>
       <c r="H15">
         <f>G15/C15</f>
-        <v>6.7044692046899283E-5</v>
+        <v>2.3841876932282838E-4</v>
       </c>
       <c r="I15" s="1">
         <f>(H15-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>6.9431290362656453E-2</v>
+        <v>0.26458780799574483</v>
       </c>
       <c r="J15" s="2">
-        <v>0.91026548399999985</v>
+        <v>0.13824662599999998</v>
       </c>
       <c r="K15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="M15" s="2">
         <f>L15/631</f>
-        <v>0.15213946117274169</v>
+        <v>1.4263074484944533E-2</v>
       </c>
       <c r="N15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>1</v>
-      </c>
-      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="P15">
         <f>((F15*0.3)+(I15*0.2)+(J15*0.2)+(M15*0.1)+(N15*0.1)+(O15*0.1))</f>
-        <v>0.46616295781214967</v>
+        <v>0.21501494763561757</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="R15">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>326</v>
+        <v>103</v>
       </c>
       <c r="B16" t="s">
-        <v>325</v>
+        <v>102</v>
       </c>
       <c r="C16">
-        <v>843776</v>
+        <v>12530944</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>13843</v>
       </c>
       <c r="E16">
         <f>D16/C16</f>
-        <v>1.1851486650485437E-5</v>
+        <v>1.1047052799852909E-3</v>
       </c>
       <c r="F16" s="1">
         <f>(E16-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>2.6442631133779433E-3</v>
+        <v>0.48327127927976132</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>11080</v>
       </c>
       <c r="H16">
         <f>G16/C16</f>
-        <v>7.1108919902912624E-6</v>
+        <v>8.8421111769392631E-4</v>
       </c>
       <c r="I16" s="1">
         <f>(H16-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>1.1801762298407588E-3</v>
+        <v>1.0000000000000004</v>
       </c>
       <c r="J16" s="2">
-        <v>0.94841592199999991</v>
+        <v>0.99891935700000001</v>
       </c>
       <c r="K16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M16" s="2">
         <f>L16/631</f>
-        <v>0</v>
+        <v>4.7543581616481777E-3</v>
       </c>
       <c r="N16" s="3">
         <v>1</v>
@@ -3460,123 +3451,123 @@
       <c r="O16" s="3">
         <v>1</v>
       </c>
-      <c r="P16" s="4">
-        <f>((F16*0.3)+(I16*0.2)+(J16*0.2)+(M16*0.1)+(N16*0.1)+(O16*0.1))/0.9</f>
-        <v>0.43412499842220165</v>
+      <c r="P16">
+        <f>((F16*0.3)+(I16*0.2)+(J16*0.2)+(M16*0.1)+(N16*0.1)+(O16*0.1))</f>
+        <v>0.74524069100009327</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>336</v>
+        <v>101</v>
       </c>
       <c r="B17" t="s">
-        <v>335</v>
+        <v>100</v>
       </c>
       <c r="C17">
-        <v>3389696</v>
+        <v>1297720</v>
       </c>
       <c r="D17">
-        <v>1255</v>
+        <v>53</v>
       </c>
       <c r="E17">
         <f>D17/C17</f>
-        <v>3.7023969111094329E-4</v>
+        <v>4.0840859353327371E-5</v>
       </c>
       <c r="F17" s="1">
         <f>(E17-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.16026008911828157</v>
+        <v>1.5393521786110212E-2</v>
       </c>
       <c r="G17">
-        <v>420</v>
+        <v>23</v>
       </c>
       <c r="H17">
         <f>G17/C17</f>
-        <v>1.2390491654708859E-4</v>
+        <v>1.7723391794840182E-5</v>
       </c>
       <c r="I17" s="1">
         <f>(H17-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.13418229344129518</v>
+        <v>1.3265425867117731E-2</v>
       </c>
       <c r="J17" s="2">
-        <v>0.68244708700000001</v>
+        <v>0.40987434</v>
       </c>
       <c r="K17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="M17" s="2">
         <f>L17/631</f>
-        <v>0.17908082408874801</v>
+        <v>7.9239302694136295E-3</v>
       </c>
       <c r="N17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
-        <v>1</v>
-      </c>
-      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17">
         <f>((F17*0.3)+(I17*0.2)+(J17*0.2)+(M17*0.1)+(N17*0.1)+(O17*0.1))</f>
-        <v>0.42931198523261827</v>
+        <v>9.0038402736197981E-2</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="R17">
-        <v>49</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
       <c r="C18">
-        <v>112320768</v>
+        <v>98304</v>
       </c>
       <c r="D18">
-        <v>15101</v>
+        <v>71</v>
       </c>
       <c r="E18">
         <f>D18/C18</f>
-        <v>1.3444530578708293E-4</v>
+        <v>7.2224934895833337E-4</v>
       </c>
       <c r="F18" s="1">
         <f>(E18-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>5.6559893778177106E-2</v>
+        <v>0.31507068916815417</v>
       </c>
       <c r="G18">
-        <v>6397</v>
+        <v>77</v>
       </c>
       <c r="H18">
         <f>G18/C18</f>
-        <v>5.6952958156411464E-5</v>
+        <v>7.8328450520833337E-4</v>
       </c>
       <c r="I18" s="1">
         <f>(H18-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>5.7939075937621883E-2</v>
+        <v>0.88506729522762562</v>
       </c>
       <c r="J18" s="2">
-        <v>0.97789078000000007</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>5</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="M18" s="2">
         <f>L18/631</f>
-        <v>4.7543581616481777E-2</v>
+        <v>3.1695721077654518E-3</v>
       </c>
       <c r="N18" s="3">
         <v>1</v>
@@ -3584,61 +3575,61 @@
       <c r="O18" s="3">
         <v>1</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18">
         <f>((F18*0.3)+(I18*0.2)+(J18*0.2)+(M18*0.1)+(N18*0.1)+(O18*0.1))</f>
-        <v>0.42888829748262569</v>
+        <v>0.47185162300674788</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="R18">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="C19">
-        <v>3736960</v>
+        <v>84059952</v>
       </c>
       <c r="D19">
-        <v>916</v>
+        <v>3427</v>
       </c>
       <c r="E19">
         <f>D19/C19</f>
-        <v>2.4511902723069016E-4</v>
+        <v>4.0768521971080833E-5</v>
       </c>
       <c r="F19" s="1">
         <f>(E19-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.10523317544667414</v>
+        <v>1.5361708472748002E-2</v>
       </c>
       <c r="G19">
-        <v>428</v>
+        <v>1235</v>
       </c>
       <c r="H19">
         <f>G19/C19</f>
-        <v>1.1453159787634869E-4</v>
+        <v>1.4691895136937505E-5</v>
       </c>
       <c r="I19" s="1">
         <f>(H19-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.12350819231979644</v>
+        <v>9.813233211281738E-3</v>
       </c>
       <c r="J19" s="2">
-        <v>0.8396049659999999</v>
+        <v>0.89230520600000018</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="M19" s="2">
         <f>L19/631</f>
-        <v>6.3391442155309036E-3</v>
+        <v>5.8637083993660855E-2</v>
       </c>
       <c r="N19" s="3">
         <v>1</v>
@@ -3646,61 +3637,61 @@
       <c r="O19" s="3">
         <v>1</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19">
         <f>((F19*0.3)+(I19*0.2)+(J19*0.2)+(M19*0.1)+(N19*0.1)+(O19*0.1))</f>
-        <v>0.42482649871951461</v>
+        <v>0.39089590878344693</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="R19">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>296</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>295</v>
+        <v>127</v>
       </c>
       <c r="C20">
-        <v>7722496</v>
+        <v>27136</v>
       </c>
       <c r="D20">
-        <v>564</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <f>D20/C20</f>
-        <v>7.3033381953192331E-5</v>
+        <v>1.1423938679245283E-3</v>
       </c>
       <c r="F20" s="1">
         <f>(E20-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>2.9551496232836403E-2</v>
+        <v>0.49984637255869419</v>
       </c>
       <c r="G20">
-        <v>207</v>
+        <v>6</v>
       </c>
       <c r="H20">
         <f>G20/C20</f>
-        <v>2.6804805078565272E-5</v>
+        <v>2.2110849056603774E-4</v>
       </c>
       <c r="I20" s="1">
         <f>(H20-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>2.3607112426778012E-2</v>
+        <v>0.24487529502335381</v>
       </c>
       <c r="J20" s="2">
-        <v>0.95277895000000001</v>
+        <v>0.46361996500000002</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M20" s="2">
         <f>L20/631</f>
-        <v>7.9239302694136295E-3</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>1</v>
@@ -3708,61 +3699,61 @@
       <c r="O20" s="3">
         <v>1</v>
       </c>
-      <c r="P20" s="4">
-        <f>((F20*0.3)+(I20*0.2)+(J20*0.2)+(M20*0.1)+(N20*0.1)+(O20*0.1))</f>
-        <v>0.40493505438214794</v>
+      <c r="P20">
+        <f>((F20*0.3)+(I20*0.2)+(J20*0.2)+(M20*0.1)+(N20*0.1)+(O20*0.1))/0.9</f>
+        <v>0.54628107085808775</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="R20">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="C21">
-        <v>48478976</v>
+        <v>1173760</v>
       </c>
       <c r="D21">
-        <v>1695</v>
+        <v>226</v>
       </c>
       <c r="E21">
         <f>D21/C21</f>
-        <v>3.4963609792418055E-5</v>
+        <v>1.9254362050163577E-4</v>
       </c>
       <c r="F21" s="1">
         <f>(E21-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>1.280876164989349E-2</v>
+        <v>8.2110996602593411E-2</v>
       </c>
       <c r="G21">
-        <v>561</v>
+        <v>152</v>
       </c>
       <c r="H21">
         <f>G21/C21</f>
-        <v>1.157202660386226E-5</v>
+        <v>1.2949836423118867E-4</v>
       </c>
       <c r="I21" s="1">
         <f>(H21-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>6.2604048718609062E-3</v>
+        <v>0.14055197191859636</v>
       </c>
       <c r="J21" s="2">
-        <v>0.95953077900000017</v>
+        <v>0.27378087099999998</v>
       </c>
       <c r="K21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L21">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="M21" s="2">
         <f>L21/631</f>
-        <v>4.1204437400950873E-2</v>
+        <v>3.1695721077654518E-3</v>
       </c>
       <c r="N21" s="3">
         <v>1</v>
@@ -3770,15 +3761,15 @@
       <c r="O21" s="3">
         <v>1</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21">
         <f>((F21*0.3)+(I21*0.2)+(J21*0.2)+(M21*0.1)+(N21*0.1)+(O21*0.1))</f>
-        <v>0.40112130900943532</v>
+        <v>0.30781682477527383</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="R21">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
@@ -3832,185 +3823,185 @@
       <c r="O22" s="3">
         <v>1</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22">
         <f>((F22*0.3)+(I22*0.2)+(J22*0.2)+(M22*0.1)+(N22*0.1)+(O22*0.1))</f>
         <v>0.39628523269096938</v>
       </c>
       <c r="Q22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R22">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="C23">
-        <v>80404992</v>
+        <v>5894656</v>
       </c>
       <c r="D23">
-        <v>3338</v>
+        <v>1346</v>
       </c>
       <c r="E23">
         <f>D23/C23</f>
-        <v>4.1514835297788473E-5</v>
+        <v>2.2834241726743681E-4</v>
       </c>
       <c r="F23" s="1">
         <f>(E23-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>1.5689930188707041E-2</v>
+        <v>9.7854977157751322E-2</v>
       </c>
       <c r="G23">
-        <v>1131</v>
+        <v>609</v>
       </c>
       <c r="H23">
         <f>G23/C23</f>
-        <v>1.406629080940646E-5</v>
+        <v>1.033139168765743E-4</v>
       </c>
       <c r="I23" s="1">
         <f>(H23-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>9.1008106330374774E-3</v>
+        <v>0.11073377745709817</v>
       </c>
       <c r="J23" s="2">
-        <v>0.91859541299999992</v>
+        <v>0.207538106</v>
       </c>
       <c r="K23">
         <v>2</v>
       </c>
       <c r="L23">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="M23" s="2">
         <f>L23/631</f>
-        <v>5.5467511885895403E-2</v>
+        <v>4.7543581616481777E-3</v>
       </c>
       <c r="N23" s="3">
         <v>1</v>
       </c>
       <c r="O23" s="3">
-        <v>1</v>
-      </c>
-      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23">
         <f>((F23*0.3)+(I23*0.2)+(J23*0.2)+(M23*0.1)+(N23*0.1)+(O23*0.1))</f>
-        <v>0.39579297497180921</v>
+        <v>0.19348630565490987</v>
       </c>
       <c r="Q23">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="R23">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>430</v>
+        <v>164</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="C24">
-        <v>123758120</v>
+        <v>838144</v>
       </c>
       <c r="D24">
-        <v>4530</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <f>D24/C24</f>
-        <v>3.6603658814468096E-5</v>
+        <v>2.9827810018326205E-5</v>
       </c>
       <c r="F24" s="1">
         <f>(E24-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>1.3530040079489443E-2</v>
+        <v>1.055008428966079E-2</v>
       </c>
       <c r="G24">
-        <v>1481</v>
+        <v>10</v>
       </c>
       <c r="H24">
         <f>G24/C24</f>
-        <v>1.196689154618703E-5</v>
+        <v>1.1931124007330483E-5</v>
       </c>
       <c r="I24" s="1">
         <f>(H24-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>6.7100672029695814E-3</v>
+        <v>6.6693360233273354E-3</v>
       </c>
       <c r="J24" s="2">
-        <v>0.84022306999999985</v>
+        <v>0.32043033999999998</v>
       </c>
       <c r="K24">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2">
         <f>L24/631</f>
-        <v>0.2076069730586371</v>
+        <v>1.5847860538827259E-3</v>
       </c>
       <c r="N24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>1</v>
-      </c>
-      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24">
         <f>((F24*0.3)+(I24*0.2)+(J24*0.2)+(M24*0.1)+(N24*0.1)+(O24*0.1))</f>
-        <v>0.39420633677030448</v>
+        <v>6.8743439096951978E-2</v>
       </c>
       <c r="Q24">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="R24">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="C25">
-        <v>84059952</v>
+        <v>36346880</v>
       </c>
       <c r="D25">
-        <v>3427</v>
+        <v>21503</v>
       </c>
       <c r="E25">
         <f>D25/C25</f>
-        <v>4.0768521971080833E-5</v>
+        <v>5.916051116354416E-4</v>
       </c>
       <c r="F25" s="1">
         <f>(E25-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>1.5361708472748002E-2</v>
+        <v>0.25761455885430007</v>
       </c>
       <c r="G25">
-        <v>1235</v>
+        <v>3218</v>
       </c>
       <c r="H25">
         <f>G25/C25</f>
-        <v>1.4691895136937505E-5</v>
+        <v>8.853579729539372E-5</v>
       </c>
       <c r="I25" s="1">
         <f>(H25-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>9.813233211281738E-3</v>
+        <v>9.3904824091035927E-2</v>
       </c>
       <c r="J25" s="2">
-        <v>0.89230520600000018</v>
+        <v>0.96763678500000028</v>
       </c>
       <c r="K25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L25">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="M25" s="2">
         <f>L25/631</f>
-        <v>5.8637083993660855E-2</v>
+        <v>0.24722662440570523</v>
       </c>
       <c r="N25" s="3">
         <v>1</v>
@@ -4018,61 +4009,61 @@
       <c r="O25" s="3">
         <v>1</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25">
         <f>((F25*0.3)+(I25*0.2)+(J25*0.2)+(M25*0.1)+(N25*0.1)+(O25*0.1))</f>
-        <v>0.39089590878344693</v>
+        <v>0.51431535191506772</v>
       </c>
       <c r="Q25">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="R25">
-        <v>41</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c r="C26">
-        <v>802441</v>
+        <v>17662464</v>
       </c>
       <c r="D26">
-        <v>118</v>
+        <v>4366</v>
       </c>
       <c r="E26">
         <f>D26/C26</f>
-        <v>1.4705130969130441E-4</v>
+        <v>2.4719087891700726E-4</v>
       </c>
       <c r="F26" s="1">
         <f>(E26-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>6.2103897998338681E-2</v>
+        <v>0.10614435670441152</v>
       </c>
       <c r="G26">
-        <v>41</v>
+        <v>3023</v>
       </c>
       <c r="H26">
         <f>G26/C26</f>
-        <v>5.1094099130029498E-5</v>
+        <v>1.7115392280488159E-4</v>
       </c>
       <c r="I26" s="1">
         <f>(H26-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>5.1267153654703253E-2</v>
+        <v>0.18798828130985856</v>
       </c>
       <c r="J26" s="2">
-        <v>0.77228255299999993</v>
+        <v>0.96478673299999973</v>
       </c>
       <c r="K26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="M26" s="2">
         <f>L26/631</f>
-        <v>1.5847860538827259E-3</v>
+        <v>4.7543581616481777E-2</v>
       </c>
       <c r="N26" s="3">
         <v>1</v>
@@ -4080,123 +4071,123 @@
       <c r="O26" s="3">
         <v>1</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26">
         <f>((F26*0.3)+(I26*0.2)+(J26*0.2)+(M26*0.1)+(N26*0.1)+(O26*0.1))</f>
-        <v>0.3834995893358305</v>
+        <v>0.46715266803494326</v>
       </c>
       <c r="Q26">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="R26">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="C27">
-        <v>1041408</v>
+        <v>10873344</v>
       </c>
       <c r="D27">
-        <v>1411</v>
+        <v>4597</v>
       </c>
       <c r="E27">
         <f>D27/C27</f>
-        <v>1.354896447885939E-3</v>
+        <v>4.2277702241371194E-4</v>
       </c>
       <c r="F27" s="1">
         <f>(E27-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.5933030467793613</v>
+        <v>0.18336552274114737</v>
       </c>
       <c r="G27">
-        <v>243</v>
+        <v>729</v>
       </c>
       <c r="H27">
         <f>G27/C27</f>
-        <v>2.3333794247787612E-4</v>
+        <v>6.7044692046899283E-5</v>
       </c>
       <c r="I27" s="1">
         <f>(H27-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.25880188932286935</v>
+        <v>6.9431290362656453E-2</v>
       </c>
       <c r="J27" s="2">
-        <v>0.20153628900000001</v>
+        <v>0.91026548399999985</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L27">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="M27" s="2">
         <f>L27/631</f>
-        <v>6.4976228209191758E-2</v>
+        <v>0.15213946117274169</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="3">
         <v>1</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27">
         <f>((F27*0.3)+(I27*0.2)+(J27*0.2)+(M27*0.1)+(N27*0.1)+(O27*0.1))</f>
-        <v>0.37655617251930151</v>
+        <v>0.46616295781214967</v>
       </c>
       <c r="Q27">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="R27">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>431</v>
+        <v>166</v>
       </c>
       <c r="B28" t="s">
-        <v>351</v>
+        <v>165</v>
       </c>
       <c r="C28">
-        <v>1596006656</v>
+        <v>53441088</v>
       </c>
       <c r="D28">
-        <v>27409</v>
+        <v>6380</v>
       </c>
       <c r="E28">
         <f>D28/C28</f>
-        <v>1.7173487276484139E-5</v>
+        <v>1.193837969765885E-4</v>
       </c>
       <c r="F28" s="1">
         <f>(E28-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>4.9848298904799802E-3</v>
+        <v>4.9935981153541233E-2</v>
       </c>
       <c r="G28">
-        <v>9695</v>
+        <v>2880</v>
       </c>
       <c r="H28">
         <f>G28/C28</f>
-        <v>6.0745360701052115E-6</v>
+        <v>5.3891118384416124E-5</v>
       </c>
       <c r="I28" s="1">
         <f>(H28-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>1.9291599165314246E-18</v>
+        <v>5.4452329301542236E-2</v>
       </c>
       <c r="J28" s="2">
-        <v>0.87482138799999998</v>
+        <v>0.73185257599999998</v>
       </c>
       <c r="K28">
         <v>4</v>
       </c>
       <c r="L28">
-        <v>631</v>
+        <v>11</v>
       </c>
       <c r="M28" s="2">
         <f>L28/631</f>
-        <v>1</v>
+        <v>1.7432646592709985E-2</v>
       </c>
       <c r="N28" s="3">
         <v>1</v>
@@ -4204,123 +4195,123 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28">
         <f>((F28*0.3)+(I28*0.2)+(J28*0.2)+(M28*0.1)+(N28*0.1)+(O28*0.1))</f>
-        <v>0.37645972656714399</v>
+        <v>0.27398504006564184</v>
       </c>
       <c r="Q28">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="R28">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>238</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s">
-        <v>237</v>
+        <v>171</v>
       </c>
       <c r="C29">
-        <v>28781312</v>
+        <v>202616832</v>
       </c>
       <c r="D29">
-        <v>6798</v>
+        <v>20580</v>
       </c>
       <c r="E29">
         <f>D29/C29</f>
-        <v>2.3619493093296094E-4</v>
+        <v>1.0157102841288132E-4</v>
       </c>
       <c r="F29" s="1">
         <f>(E29-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.10130844022434322</v>
+        <v>4.2102089871238563E-2</v>
       </c>
       <c r="G29">
-        <v>4666</v>
+        <v>9815</v>
       </c>
       <c r="H29">
         <f>G29/C29</f>
-        <v>1.621190861625766E-4</v>
+        <v>4.844118774890331E-5</v>
       </c>
       <c r="I29" s="1">
         <f>(H29-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.17769963506578787</v>
+        <v>4.824608445357681E-2</v>
       </c>
       <c r="J29" s="2">
-        <v>0.95181365800000006</v>
+        <v>0.95439287200000023</v>
       </c>
       <c r="K29">
         <v>4</v>
       </c>
       <c r="L29">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="M29" s="2">
         <f>L29/631</f>
-        <v>9.5087163232963554E-3</v>
+        <v>3.486529318541997E-2</v>
       </c>
       <c r="N29" s="3">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3">
-        <v>1</v>
-      </c>
-      <c r="P29" s="4">
+      <c r="P29">
         <f>((F29*0.3)+(I29*0.2)+(J29*0.2)+(M29*0.1)+(N29*0.1)+(O29*0.1))</f>
-        <v>0.35724606231279021</v>
+        <v>0.316644947570629</v>
       </c>
       <c r="Q29">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R29">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>348</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s">
-        <v>347</v>
+        <v>169</v>
       </c>
       <c r="C30">
-        <v>11929056</v>
+        <v>668544</v>
       </c>
       <c r="D30">
-        <v>6465</v>
+        <v>430</v>
       </c>
       <c r="E30">
         <f>D30/C30</f>
-        <v>5.4195403223859459E-4</v>
+        <v>6.431887803944093E-4</v>
       </c>
       <c r="F30" s="1">
         <f>(E30-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.2357784721924899</v>
+        <v>0.28030058048843309</v>
       </c>
       <c r="G30">
-        <v>1329</v>
+        <v>148</v>
       </c>
       <c r="H30">
         <f>G30/C30</f>
-        <v>1.1140864792654171E-4</v>
+        <v>2.2137660348458741E-4</v>
       </c>
       <c r="I30" s="1">
         <f>(H30-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.11995185493998688</v>
+        <v>0.24518061531652949</v>
       </c>
       <c r="J30" s="2">
-        <v>0.20160347000000001</v>
+        <v>0.98476949599999997</v>
       </c>
       <c r="K30">
         <v>5</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="M30" s="2">
         <f>L30/631</f>
-        <v>5.5467511885895403E-2</v>
+        <v>1.5847860538827259E-3</v>
       </c>
       <c r="N30" s="3">
         <v>1</v>
@@ -4328,60 +4319,61 @@
       <c r="O30" s="3">
         <v>1</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30">
         <f>((F30*0.3)+(I30*0.2)+(J30*0.2)+(M30*0.1)+(N30*0.1)+(O30*0.1))</f>
-        <v>0.34059135783433392</v>
+        <v>0.53023867501522404</v>
       </c>
       <c r="Q30">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="R30">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>427</v>
+        <v>186</v>
       </c>
       <c r="B31" t="s">
-        <v>436</v>
+        <v>185</v>
       </c>
       <c r="C31">
-        <v>36864</v>
+        <v>2732032</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>733</v>
       </c>
       <c r="E31">
         <f>D31/C31</f>
-        <v>1.8988715277777778E-4</v>
+        <v>2.6829846795352325E-4</v>
       </c>
       <c r="F31" s="1">
         <f>(E31-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>8.0942706604931289E-2</v>
+        <v>0.11542727963423018</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="H31">
         <f>G31/C31</f>
-        <v>0</v>
+        <v>8.8212729572713646E-5</v>
       </c>
       <c r="I31" s="1">
-        <v>0</v>
+        <f>(H31-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>9.353692263989416E-2</v>
       </c>
       <c r="J31" s="2">
-        <v>0.18697333499999999</v>
+        <v>0.28920037100000001</v>
       </c>
       <c r="K31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M31" s="2">
         <f>L31/631</f>
-        <v>6.3391442155309036E-3</v>
+        <v>4.7543581616481777E-3</v>
       </c>
       <c r="N31" s="3">
         <v>1</v>
@@ -4389,185 +4381,185 @@
       <c r="O31" s="3">
         <v>1</v>
       </c>
-      <c r="P31" s="4">
-        <f>((F31*0.3)+(I31*0.2)+(J31*0.2)+(M31*0.1)+(N31*0.1)+(O31*0.1))/0.8</f>
-        <v>0.32788924175379053</v>
+      <c r="P31">
+        <f>((F31*0.3)+(I31*0.2)+(J31*0.2)+(M31*0.1)+(N31*0.1)+(O31*0.1))</f>
+        <v>0.31165107843441275</v>
       </c>
       <c r="Q31">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R31">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="B32" t="s">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="C32">
-        <v>6588160</v>
+        <v>3834112</v>
       </c>
       <c r="D32">
-        <v>2033</v>
+        <v>119</v>
       </c>
       <c r="E32">
         <f>D32/C32</f>
-        <v>3.0858388381581505E-4</v>
+        <v>3.1037173666288308E-5</v>
       </c>
       <c r="F32" s="1">
         <f>(E32-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.1331444338766398</v>
+        <v>1.1081951265028506E-2</v>
       </c>
       <c r="G32">
-        <v>1264</v>
+        <v>26</v>
       </c>
       <c r="H32">
         <f>G32/C32</f>
-        <v>1.9185933553526326E-4</v>
+        <v>6.7812312212058494E-6</v>
       </c>
       <c r="I32" s="1">
         <f>(H32-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.21156708802816418</v>
+        <v>8.0476678217167839E-4</v>
       </c>
       <c r="J32" s="2">
-        <v>0.18629210407246843</v>
+        <v>0.32096185300000002</v>
       </c>
       <c r="K32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="M32" s="2">
         <f>L32/631</f>
-        <v>4.4374009508716325E-2</v>
+        <v>3.1695721077654518E-3</v>
       </c>
       <c r="N32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>1</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32">
         <f>((F32*0.3)+(I32*0.2)+(J32*0.2)+(M32*0.1)+(N32*0.1)+(O32*0.1))</f>
-        <v>0.3239525695339901</v>
+        <v>0.16799486654671944</v>
       </c>
       <c r="Q32">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="R32">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B33" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C33">
-        <v>202616832</v>
+        <v>112320768</v>
       </c>
       <c r="D33">
-        <v>20580</v>
+        <v>15101</v>
       </c>
       <c r="E33">
         <f>D33/C33</f>
-        <v>1.0157102841288132E-4</v>
+        <v>1.3444530578708293E-4</v>
       </c>
       <c r="F33" s="1">
         <f>(E33-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>4.2102089871238563E-2</v>
+        <v>5.6559893778177106E-2</v>
       </c>
       <c r="G33">
-        <v>9815</v>
+        <v>6397</v>
       </c>
       <c r="H33">
         <f>G33/C33</f>
-        <v>4.844118774890331E-5</v>
+        <v>5.6952958156411464E-5</v>
       </c>
       <c r="I33" s="1">
         <f>(H33-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>4.824608445357681E-2</v>
+        <v>5.7939075937621883E-2</v>
       </c>
       <c r="J33" s="2">
-        <v>0.95439287200000023</v>
+        <v>0.97789078000000007</v>
       </c>
       <c r="K33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L33">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M33" s="2">
         <f>L33/631</f>
-        <v>3.486529318541997E-2</v>
+        <v>4.7543581616481777E-2</v>
       </c>
       <c r="N33" s="3">
         <v>1</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="4">
+        <v>1</v>
+      </c>
+      <c r="P33">
         <f>((F33*0.3)+(I33*0.2)+(J33*0.2)+(M33*0.1)+(N33*0.1)+(O33*0.1))</f>
-        <v>0.316644947570629</v>
+        <v>0.42888829748262569</v>
       </c>
       <c r="Q33">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="R33">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="C34">
-        <v>713728</v>
+        <v>274176</v>
       </c>
       <c r="D34">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="E34">
         <f>D34/C34</f>
-        <v>1.7093346484935439E-4</v>
+        <v>1.5318627450980392E-4</v>
       </c>
       <c r="F34" s="1">
         <f>(E34-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>7.2607049511598479E-2</v>
+        <v>6.4801998927286844E-2</v>
       </c>
       <c r="G34">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="H34">
         <f>G34/C34</f>
-        <v>6.1648134863701576E-5</v>
+        <v>4.7414799253034548E-5</v>
       </c>
       <c r="I34" s="1">
         <f>(H34-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>6.3285825868717963E-2</v>
+        <v>4.7077258877524848E-2</v>
       </c>
       <c r="J34" s="2">
-        <v>0.74409338699999994</v>
+        <v>0.33528630199999998</v>
       </c>
       <c r="K34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M34" s="2">
         <f>L34/631</f>
-        <v>0</v>
+        <v>9.5087163232963554E-3</v>
       </c>
       <c r="N34" s="3">
         <v>0</v>
@@ -4575,123 +4567,123 @@
       <c r="O34" s="3">
         <v>1</v>
       </c>
-      <c r="P34" s="4">
-        <f>((F34*0.3)+(I34*0.2)+(J34*0.2)+(M34*0.1)+(N34*0.1)+(O34*0.1))/0.9</f>
-        <v>0.31473106380802574</v>
+      <c r="P34">
+        <f>((F34*0.3)+(I34*0.2)+(J34*0.2)+(M34*0.1)+(N34*0.1)+(O34*0.1))</f>
+        <v>0.19686418348602067</v>
       </c>
       <c r="Q34">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="R34">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C35">
-        <v>2732032</v>
+        <v>504064</v>
       </c>
       <c r="D35">
-        <v>733</v>
+        <v>39</v>
       </c>
       <c r="E35">
         <f>D35/C35</f>
-        <v>2.6829846795352325E-4</v>
+        <v>7.7371127475876075E-5</v>
       </c>
       <c r="F35" s="1">
         <f>(E35-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.11542727963423018</v>
+        <v>3.1459196695763622E-2</v>
       </c>
       <c r="G35">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="H35">
         <f>G35/C35</f>
-        <v>8.8212729572713646E-5</v>
+        <v>2.3806500761808026E-5</v>
       </c>
       <c r="I35" s="1">
         <f>(H35-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>9.353692263989416E-2</v>
+        <v>2.0192718379768965E-2</v>
       </c>
       <c r="J35" s="2">
-        <v>0.28920037100000001</v>
+        <v>0.971624759</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M35" s="2">
         <f>L35/631</f>
-        <v>4.7543581616481777E-3</v>
+        <v>1.5847860538827259E-2</v>
       </c>
       <c r="N35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>1</v>
       </c>
-      <c r="P35" s="4">
+      <c r="P35">
         <f>((F35*0.3)+(I35*0.2)+(J35*0.2)+(M35*0.1)+(N35*0.1)+(O35*0.1))</f>
-        <v>0.31165107843441275</v>
+        <v>0.30938604053856567</v>
       </c>
       <c r="Q35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R35">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="B36" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="C36">
-        <v>504064</v>
+        <v>326656</v>
       </c>
       <c r="D36">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E36">
         <f>D36/C36</f>
-        <v>7.7371127475876075E-5</v>
+        <v>5.8165164576802506E-5</v>
       </c>
       <c r="F36" s="1">
         <f>(E36-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>3.1459196695763622E-2</v>
+        <v>2.3012591397706131E-2</v>
       </c>
       <c r="G36">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H36">
         <f>G36/C36</f>
-        <v>2.3806500761808026E-5</v>
+        <v>6.1226489028213164E-6</v>
       </c>
       <c r="I36" s="1">
         <f>(H36-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>2.0192718379768965E-2</v>
+        <v>5.4789691857658376E-5</v>
       </c>
       <c r="J36" s="2">
-        <v>0.971624759</v>
+        <v>0.36237256700000003</v>
       </c>
       <c r="K36">
         <v>5</v>
       </c>
       <c r="L36">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M36" s="2">
         <f>L36/631</f>
-        <v>1.5847860538827259E-2</v>
+        <v>7.9239302694136295E-3</v>
       </c>
       <c r="N36" s="3">
         <v>0</v>
@@ -4699,123 +4691,123 @@
       <c r="O36" s="3">
         <v>1</v>
       </c>
-      <c r="P36" s="4">
+      <c r="P36">
         <f>((F36*0.3)+(I36*0.2)+(J36*0.2)+(M36*0.1)+(N36*0.1)+(O36*0.1))</f>
-        <v>0.30938604053856567</v>
+        <v>0.18018164178462476</v>
       </c>
       <c r="Q36">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="R36">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>235</v>
       </c>
       <c r="C37">
-        <v>1173760</v>
+        <v>153856</v>
       </c>
       <c r="D37">
-        <v>226</v>
+        <v>2</v>
       </c>
       <c r="E37">
         <f>D37/C37</f>
-        <v>1.9254362050163577E-4</v>
+        <v>1.2999168053244593E-5</v>
       </c>
       <c r="F37" s="1">
         <f>(E37-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>8.2110996602593411E-2</v>
+        <v>3.1490028063560624E-3</v>
       </c>
       <c r="G37">
-        <v>152</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <f>G37/C37</f>
-        <v>1.2949836423118867E-4</v>
+        <v>6.4995840266222963E-6</v>
       </c>
       <c r="I37" s="1">
         <f>(H37-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.14055197191859636</v>
+        <v>4.8403399358571547E-4</v>
       </c>
       <c r="J37" s="2">
-        <v>0.27378087099999998</v>
+        <v>0.21332020700000001</v>
       </c>
       <c r="K37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="M37" s="2">
         <f>L37/631</f>
-        <v>3.1695721077654518E-3</v>
+        <v>6.4976228209191758E-2</v>
       </c>
       <c r="N37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" s="3">
-        <v>1</v>
-      </c>
-      <c r="P37" s="4">
+        <v>0</v>
+      </c>
+      <c r="P37">
         <f>((F37*0.3)+(I37*0.2)+(J37*0.2)+(M37*0.1)+(N37*0.1)+(O37*0.1))</f>
-        <v>0.30781682477527383</v>
+        <v>5.020317186154314E-2</v>
       </c>
       <c r="Q37">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="R37">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="B38" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="C38">
-        <v>5219840</v>
+        <v>6588160</v>
       </c>
       <c r="D38">
-        <v>1916</v>
+        <v>2033</v>
       </c>
       <c r="E38">
         <f>D38/C38</f>
-        <v>3.6706105934281513E-4</v>
+        <v>3.0858388381581505E-4</v>
       </c>
       <c r="F38" s="1">
         <f>(E38-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.15886215619118318</v>
+        <v>0.1331444338766398</v>
       </c>
       <c r="G38">
-        <v>611</v>
+        <v>1264</v>
       </c>
       <c r="H38">
         <f>G38/C38</f>
-        <v>1.1705339627268268E-4</v>
+        <v>1.9185933553526326E-4</v>
       </c>
       <c r="I38" s="1">
         <f>(H38-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.12637995332953683</v>
+        <v>0.21156708802816418</v>
       </c>
       <c r="J38" s="2">
-        <v>0.12371065000000001</v>
+        <v>0.18629210407246843</v>
       </c>
       <c r="K38">
         <v>4</v>
       </c>
       <c r="L38">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="M38" s="2">
         <f>L38/631</f>
-        <v>1.2678288431061807E-2</v>
+        <v>4.4374009508716325E-2</v>
       </c>
       <c r="N38" s="3">
         <v>1</v>
@@ -4823,116 +4815,116 @@
       <c r="O38" s="3">
         <v>1</v>
       </c>
-      <c r="P38" s="4">
+      <c r="P38">
         <f>((F38*0.3)+(I38*0.2)+(J38*0.2)+(M38*0.1)+(N38*0.1)+(O38*0.1))</f>
-        <v>0.2989445963663685</v>
+        <v>0.3239525695339901</v>
       </c>
       <c r="Q38">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="R38">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>359</v>
+        <v>238</v>
       </c>
       <c r="B39" t="s">
-        <v>358</v>
+        <v>237</v>
       </c>
       <c r="C39">
-        <v>6774272</v>
+        <v>28781312</v>
       </c>
       <c r="D39">
-        <v>1545</v>
+        <v>6798</v>
       </c>
       <c r="E39">
         <f>D39/C39</f>
-        <v>2.2806878731766308E-4</v>
+        <v>2.3619493093296094E-4</v>
       </c>
       <c r="F39" s="1">
         <f>(E39-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>9.7734637230218843E-2</v>
+        <v>0.10130844022434322</v>
       </c>
       <c r="G39">
-        <v>878</v>
+        <v>4666</v>
       </c>
       <c r="H39">
         <f>G39/C39</f>
-        <v>1.2960802282518328E-4</v>
+        <v>1.621190861625766E-4</v>
       </c>
       <c r="I39" s="1">
         <f>(H39-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.14067684838575348</v>
+        <v>0.17769963506578787</v>
       </c>
       <c r="J39" s="2">
-        <v>0.16534326200000002</v>
+        <v>0.95181365800000006</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M39" s="2">
         <f>L39/631</f>
-        <v>3.1695721077654518E-3</v>
+        <v>9.5087163232963554E-3</v>
       </c>
       <c r="N39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" s="3">
         <v>1</v>
       </c>
-      <c r="P39" s="4">
+      <c r="P39">
         <f>((F39*0.3)+(I39*0.2)+(J39*0.2)+(M39*0.1)+(N39*0.1)+(O39*0.1))</f>
-        <v>0.29084137045699288</v>
+        <v>0.35724606231279021</v>
       </c>
       <c r="Q39">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="R39">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>250</v>
+        <v>206</v>
       </c>
       <c r="B40" t="s">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c r="C40">
-        <v>2227968</v>
+        <v>6474752</v>
       </c>
       <c r="D40">
-        <v>1180</v>
+        <v>1565</v>
       </c>
       <c r="E40">
         <f>D40/C40</f>
-        <v>5.2963058715385495E-4</v>
+        <v>2.4170809939901946E-4</v>
       </c>
       <c r="F40" s="1">
         <f>(E40-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.23035873473438501</v>
+        <v>0.10373308085388123</v>
       </c>
       <c r="G40">
-        <v>814</v>
+        <v>1664</v>
       </c>
       <c r="H40">
         <f>G40/C40</f>
-        <v>3.6535533724003217E-4</v>
+        <v>2.569982603194686E-4</v>
       </c>
       <c r="I40" s="1">
         <f>(H40-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.40914000018716556</v>
+        <v>0.28574566815718305</v>
       </c>
       <c r="J40" s="2">
-        <v>0.16055561200000001</v>
+        <v>0.34709993</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L40">
         <v>3</v>
@@ -4947,123 +4939,122 @@
       <c r="O40" s="3">
         <v>1</v>
       </c>
-      <c r="P40" s="4">
+      <c r="P40">
         <f>((F40*0.3)+(I40*0.2)+(J40*0.2)+(M40*0.1)+(N40*0.1)+(O40*0.1))</f>
-        <v>0.28352217867391344</v>
+        <v>0.25816447970376577</v>
       </c>
       <c r="Q40">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="R40">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>166</v>
+        <v>427</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>436</v>
       </c>
       <c r="C41">
-        <v>53441088</v>
+        <v>36864</v>
       </c>
       <c r="D41">
-        <v>6380</v>
+        <v>7</v>
       </c>
       <c r="E41">
         <f>D41/C41</f>
-        <v>1.193837969765885E-4</v>
+        <v>1.8988715277777778E-4</v>
       </c>
       <c r="F41" s="1">
         <f>(E41-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>4.9935981153541233E-2</v>
+        <v>8.0942706604931289E-2</v>
       </c>
       <c r="G41">
-        <v>2880</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <f>G41/C41</f>
-        <v>5.3891118384416124E-5</v>
+        <v>0</v>
       </c>
       <c r="I41" s="1">
-        <f>(H41-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>5.4452329301542236E-2</v>
+        <v>0</v>
       </c>
       <c r="J41" s="2">
-        <v>0.73185257599999998</v>
+        <v>0.18697333499999999</v>
       </c>
       <c r="K41">
         <v>4</v>
       </c>
       <c r="L41">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M41" s="2">
         <f>L41/631</f>
-        <v>1.7432646592709985E-2</v>
+        <v>6.3391442155309036E-3</v>
       </c>
       <c r="N41" s="3">
         <v>1</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="4">
-        <f>((F41*0.3)+(I41*0.2)+(J41*0.2)+(M41*0.1)+(N41*0.1)+(O41*0.1))</f>
-        <v>0.27398504006564184</v>
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <f>((F41*0.3)+(I41*0.2)+(J41*0.2)+(M41*0.1)+(N41*0.1)+(O41*0.1))/0.8</f>
+        <v>0.32788924175379053</v>
       </c>
       <c r="Q41">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R41">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>249</v>
       </c>
       <c r="C42">
-        <v>81019136</v>
+        <v>2227968</v>
       </c>
       <c r="D42">
-        <v>25121</v>
+        <v>1180</v>
       </c>
       <c r="E42">
         <f>D42/C42</f>
-        <v>3.1006255114841017E-4</v>
+        <v>5.2963058715385495E-4</v>
       </c>
       <c r="F42" s="1">
         <f>(E42-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.13379473812804316</v>
+        <v>0.23035873473438501</v>
       </c>
       <c r="G42">
-        <v>9028</v>
+        <v>814</v>
       </c>
       <c r="H42">
         <f>G42/C42</f>
-        <v>1.11430465020017E-4</v>
+        <v>3.6535533724003217E-4</v>
       </c>
       <c r="I42" s="1">
         <f>(H42-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.11997669970096352</v>
+        <v>0.40914000018716556</v>
       </c>
       <c r="J42" s="2">
-        <v>0.37564697900000005</v>
+        <v>0.16055561200000001</v>
       </c>
       <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
         <v>3</v>
-      </c>
-      <c r="L42">
-        <v>211</v>
       </c>
       <c r="M42" s="2">
         <f>L42/631</f>
-        <v>0.33438985736925514</v>
+        <v>4.7543581616481777E-3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -5071,61 +5062,61 @@
       <c r="O42" s="3">
         <v>1</v>
       </c>
-      <c r="P42" s="4">
+      <c r="P42">
         <f>((F42*0.3)+(I42*0.2)+(J42*0.2)+(M42*0.1)+(N42*0.1)+(O42*0.1))</f>
-        <v>0.27270214291553119</v>
+        <v>0.28352217867391344</v>
       </c>
       <c r="Q42">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R42">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>274</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>273</v>
       </c>
       <c r="C43">
-        <v>1826816</v>
+        <v>5219840</v>
       </c>
       <c r="D43">
-        <v>193</v>
+        <v>1916</v>
       </c>
       <c r="E43">
         <f>D43/C43</f>
-        <v>1.0564829736547085E-4</v>
+        <v>3.6706105934281513E-4</v>
       </c>
       <c r="F43" s="1">
         <f>(E43-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>4.3895235141669611E-2</v>
+        <v>0.15886215619118318</v>
       </c>
       <c r="G43">
-        <v>63</v>
+        <v>611</v>
       </c>
       <c r="H43">
         <f>G43/C43</f>
-        <v>3.4486231782511209E-5</v>
+        <v>1.1705339627268268E-4</v>
       </c>
       <c r="I43" s="1">
         <f>(H43-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>3.2354529246313872E-2</v>
+        <v>0.12637995332953683</v>
       </c>
       <c r="J43" s="2">
-        <v>0.21544893199999998</v>
+        <v>0.12371065000000001</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M43" s="2">
         <f>L43/631</f>
-        <v>6.3391442155309036E-3</v>
+        <v>1.2678288431061807E-2</v>
       </c>
       <c r="N43" s="3">
         <v>1</v>
@@ -5133,61 +5124,61 @@
       <c r="O43" s="3">
         <v>1</v>
       </c>
-      <c r="P43" s="4">
+      <c r="P43">
         <f>((F43*0.3)+(I43*0.2)+(J43*0.2)+(M43*0.1)+(N43*0.1)+(O43*0.1))</f>
-        <v>0.26336317721331676</v>
+        <v>0.2989445963663685</v>
       </c>
       <c r="Q43">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="R43">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>206</v>
+        <v>272</v>
       </c>
       <c r="B44" t="s">
-        <v>205</v>
+        <v>271</v>
       </c>
       <c r="C44">
-        <v>6474752</v>
+        <v>5394944</v>
       </c>
       <c r="D44">
-        <v>1565</v>
+        <v>1220</v>
       </c>
       <c r="E44">
         <f>D44/C44</f>
-        <v>2.4170809939901946E-4</v>
+        <v>2.2613765777735597E-4</v>
       </c>
       <c r="F44" s="1">
         <f>(E44-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.10373308085388123</v>
+        <v>9.6885344274061966E-2</v>
       </c>
       <c r="G44">
-        <v>1664</v>
+        <v>256</v>
       </c>
       <c r="H44">
         <f>G44/C44</f>
-        <v>2.569982603194686E-4</v>
+        <v>4.7451836386068141E-5</v>
       </c>
       <c r="I44" s="1">
         <f>(H44-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.28574566815718305</v>
+        <v>4.7119435839296675E-2</v>
       </c>
       <c r="J44" s="2">
-        <v>0.34709993</v>
+        <v>0.45997524199999995</v>
       </c>
       <c r="K44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L44">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M44" s="2">
         <f>L44/631</f>
-        <v>4.7543581616481777E-3</v>
+        <v>1.4263074484944533E-2</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -5195,123 +5186,122 @@
       <c r="O44" s="3">
         <v>1</v>
       </c>
-      <c r="P44" s="4">
+      <c r="P44">
         <f>((F44*0.3)+(I44*0.2)+(J44*0.2)+(M44*0.1)+(N44*0.1)+(O44*0.1))</f>
-        <v>0.25816447970376577</v>
+        <v>0.23191084629857239</v>
       </c>
       <c r="Q44">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R44">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>194</v>
+        <v>294</v>
       </c>
       <c r="B45" t="s">
-        <v>193</v>
+        <v>293</v>
       </c>
       <c r="C45">
-        <v>538624</v>
+        <v>45552000</v>
       </c>
       <c r="D45">
-        <v>140</v>
+        <v>63284</v>
       </c>
       <c r="E45">
         <f>D45/C45</f>
-        <v>2.5992157794676806E-4</v>
+        <v>1.3892694063926941E-3</v>
       </c>
       <c r="F45" s="1">
         <f>(E45-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.11174320069040819</v>
+        <v>0.60841995682228722</v>
       </c>
       <c r="G45">
-        <v>72</v>
+        <v>29494</v>
       </c>
       <c r="H45">
         <f>G45/C45</f>
-        <v>1.3367395437262358E-4</v>
+        <v>6.4747980330172111E-4</v>
       </c>
       <c r="I45" s="1">
         <f>(H45-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.14530702964972236</v>
+        <v>0.73041629360839377</v>
       </c>
       <c r="J45" s="2">
-        <v>0.36410969199999998</v>
+        <v>0.86038705400000004</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="M45" s="2">
         <f>L45/631</f>
-        <v>1.5847860538827259E-3</v>
+        <v>0.11410459587955626</v>
       </c>
       <c r="N45" s="3">
         <v>1</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="4">
+        <v>1</v>
+      </c>
+      <c r="P45">
         <f>((F45*0.3)+(I45*0.2)+(J45*0.2)+(M45*0.1)+(N45*0.1)+(O45*0.1))</f>
-        <v>0.23556478314245521</v>
+        <v>0.71209711615632054</v>
       </c>
       <c r="Q45">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="R45">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>272</v>
+        <v>428</v>
       </c>
       <c r="B46" t="s">
-        <v>271</v>
+        <v>437</v>
       </c>
       <c r="C46">
-        <v>5394944</v>
+        <v>342528</v>
       </c>
       <c r="D46">
-        <v>1220</v>
+        <v>2</v>
       </c>
       <c r="E46">
         <f>D46/C46</f>
-        <v>2.2613765777735597E-4</v>
+        <v>5.8389387144992528E-6</v>
       </c>
       <c r="F46" s="1">
         <f>(E46-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>9.6885344274061966E-2</v>
+        <v>1.1175518276544003E-18</v>
       </c>
       <c r="G46">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <f>G46/C46</f>
-        <v>4.7451836386068141E-5</v>
+        <v>0</v>
       </c>
       <c r="I46" s="1">
-        <f>(H46-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>4.7119435839296675E-2</v>
+        <v>0</v>
       </c>
       <c r="J46" s="2">
-        <v>0.45997524199999995</v>
+        <v>0.28002160799999998</v>
       </c>
       <c r="K46">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M46" s="2">
         <f>L46/631</f>
-        <v>1.4263074484944533E-2</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -5319,571 +5309,573 @@
       <c r="O46" s="3">
         <v>1</v>
       </c>
-      <c r="P46" s="4">
-        <f>((F46*0.3)+(I46*0.2)+(J46*0.2)+(M46*0.1)+(N46*0.1)+(O46*0.1))</f>
-        <v>0.23191084629857239</v>
+      <c r="P46">
+        <f>((F46*0.3)+(I46*0.2)+(J46*0.2)+(M46*0.1)+(N46*0.1)+(O46*0.1))/0.7</f>
+        <v>0.22286331657142858</v>
       </c>
       <c r="Q46">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R46">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>295</v>
       </c>
       <c r="C47">
-        <v>611104</v>
+        <v>7722496</v>
       </c>
       <c r="D47">
-        <v>475</v>
+        <v>564</v>
       </c>
       <c r="E47">
         <f>D47/C47</f>
-        <v>7.772817720060743E-4</v>
+        <v>7.3033381953192331E-5</v>
       </c>
       <c r="F47" s="1">
         <f>(E47-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.33927344112194513</v>
+        <v>2.9551496232836403E-2</v>
       </c>
       <c r="G47">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="H47">
         <f>G47/C47</f>
-        <v>2.7491228988846413E-4</v>
+        <v>2.6804805078565272E-5</v>
       </c>
       <c r="I47" s="1">
         <f>(H47-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.30614571747054786</v>
+        <v>2.3607112426778012E-2</v>
       </c>
       <c r="J47" s="2">
-        <v>0.20038133699999999</v>
+        <v>0.95277895000000001</v>
       </c>
       <c r="K47">
         <v>5</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M47" s="2">
         <f>L47/631</f>
-        <v>0</v>
+        <v>7.9239302694136295E-3</v>
       </c>
       <c r="N47" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="4">
-        <f>((F47*0.3)+(I47*0.2)+(J47*0.2)+(M47*0.1)+(N47*0.1)+(O47*0.1))/0.9</f>
-        <v>0.22565271470077011</v>
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <f>((F47*0.3)+(I47*0.2)+(J47*0.2)+(M47*0.1)+(N47*0.1)+(O47*0.1))</f>
+        <v>0.40493505438214794</v>
       </c>
       <c r="Q47">
+        <v>19</v>
+      </c>
+      <c r="R47">
         <v>46</v>
-      </c>
-      <c r="R47">
-        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>428</v>
+        <v>304</v>
       </c>
       <c r="B48" t="s">
-        <v>437</v>
+        <v>303</v>
       </c>
       <c r="C48">
-        <v>342528</v>
+        <v>11943556</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>8020</v>
       </c>
       <c r="E48">
         <f>D48/C48</f>
-        <v>5.8389387144992528E-6</v>
+        <v>6.714918069626835E-4</v>
       </c>
       <c r="F48" s="1">
         <f>(E48-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>1.1175518276544003E-18</v>
+        <v>0.29274799046308103</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1358</v>
       </c>
       <c r="H48">
         <f>G48/C48</f>
-        <v>0</v>
+        <v>1.1370148053058905E-4</v>
       </c>
       <c r="I48" s="1">
-        <v>0</v>
+        <f>(H48-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.12256287542589751</v>
       </c>
       <c r="J48" s="2">
-        <v>0.28002160799999998</v>
+        <v>0.91705547199999993</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M48" s="2">
         <f>L48/631</f>
+        <v>2.694136291600634E-2</v>
+      </c>
+      <c r="N48" s="3">
+        <v>1</v>
+      </c>
+      <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1</v>
-      </c>
-      <c r="P48" s="4">
-        <f>((F48*0.3)+(I48*0.2)+(J48*0.2)+(M48*0.1)+(N48*0.1)+(O48*0.1))/0.7</f>
-        <v>0.22286331657142858</v>
+      <c r="P48">
+        <f>((F48*0.3)+(I48*0.2)+(J48*0.2)+(M48*0.1)+(N48*0.1)+(O48*0.1))</f>
+        <v>0.39844220291570442</v>
       </c>
       <c r="Q48">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="R48">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>99</v>
+        <v>369</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>368</v>
       </c>
       <c r="C49">
-        <v>2566912</v>
+        <v>26393088</v>
       </c>
       <c r="D49">
-        <v>2603</v>
+        <v>1304</v>
       </c>
       <c r="E49">
         <f>D49/C49</f>
-        <v>1.0140589159269972E-3</v>
+        <v>4.9406875012124383E-5</v>
       </c>
       <c r="F49" s="1">
         <f>(E49-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.44340584462658056</v>
+        <v>1.9160776446918101E-2</v>
       </c>
       <c r="G49">
-        <v>612</v>
+        <v>672</v>
       </c>
       <c r="H49">
         <f>G49/C49</f>
-        <v>2.3841876932282838E-4</v>
+        <v>2.5461211662689866E-5</v>
       </c>
       <c r="I49" s="1">
         <f>(H49-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.26458780799574483</v>
+        <v>2.2077061812793935E-2</v>
       </c>
       <c r="J49" s="2">
-        <v>0.13824662599999998</v>
+        <v>0.47101033099999995</v>
       </c>
       <c r="K49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L49">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="M49" s="2">
         <f>L49/631</f>
-        <v>1.4263074484944533E-2</v>
+        <v>4.4374009508716325E-2</v>
       </c>
       <c r="N49" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="4">
+      <c r="P49">
         <f>((F49*0.3)+(I49*0.2)+(J49*0.2)+(M49*0.1)+(N49*0.1)+(O49*0.1))</f>
-        <v>0.21501494763561757</v>
+        <v>0.20880311244750585</v>
       </c>
       <c r="Q49">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R49">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>300</v>
+        <v>194</v>
       </c>
       <c r="B50" t="s">
-        <v>299</v>
+        <v>193</v>
       </c>
       <c r="C50">
-        <v>1200384</v>
+        <v>538624</v>
       </c>
       <c r="D50">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="E50">
         <f>D50/C50</f>
-        <v>1.9993602047344849E-5</v>
+        <v>2.5992157794676806E-4</v>
       </c>
       <c r="F50" s="1">
         <f>(E50-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>6.2250903496851402E-3</v>
+        <v>0.11174320069040819</v>
       </c>
       <c r="G50">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="H50">
         <f>G50/C50</f>
-        <v>6.6645340157816163E-6</v>
+        <v>1.3367395437262358E-4</v>
       </c>
       <c r="I50" s="1">
         <f>(H50-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>6.7187492016948221E-4</v>
+        <v>0.14530702964972236</v>
       </c>
       <c r="J50" s="2">
-        <v>0.52306200300000005</v>
+        <v>0.36410969199999998</v>
       </c>
       <c r="K50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L50">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="M50" s="2">
         <f>L50/631</f>
-        <v>6.3391442155309036E-2</v>
+        <v>1.5847860538827259E-3</v>
       </c>
       <c r="N50" s="3">
+        <v>1</v>
+      </c>
+      <c r="O50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3">
-        <v>1</v>
-      </c>
-      <c r="P50" s="4">
+      <c r="P50">
         <f>((F50*0.3)+(I50*0.2)+(J50*0.2)+(M50*0.1)+(N50*0.1)+(O50*0.1))</f>
-        <v>0.21295344690447038</v>
+        <v>0.23556478314245521</v>
       </c>
       <c r="Q50">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="R50">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>299</v>
       </c>
       <c r="C51">
-        <v>17253096</v>
+        <v>1200384</v>
       </c>
       <c r="D51">
-        <v>5578</v>
+        <v>24</v>
       </c>
       <c r="E51">
         <f>D51/C51</f>
-        <v>3.2330429274838554E-4</v>
+        <v>1.9993602047344849E-5</v>
       </c>
       <c r="F51" s="1">
         <f>(E51-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.13961833392178777</v>
+        <v>6.2250903496851402E-3</v>
       </c>
       <c r="G51">
-        <v>757</v>
+        <v>8</v>
       </c>
       <c r="H51">
         <f>G51/C51</f>
-        <v>4.387618314996914E-5</v>
+        <v>6.6645340157816163E-6</v>
       </c>
       <c r="I51" s="1">
         <f>(H51-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>4.3047571267287824E-2</v>
+        <v>6.7187492016948221E-4</v>
       </c>
       <c r="J51" s="2">
-        <v>0.29700730400000003</v>
+        <v>0.52306200300000005</v>
       </c>
       <c r="K51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L51">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M51" s="2">
         <f>L51/631</f>
-        <v>2.3771790808240888E-2</v>
+        <v>6.3391442155309036E-2</v>
       </c>
       <c r="N51" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" s="3">
-        <v>0</v>
-      </c>
-      <c r="P51" s="4">
+        <v>1</v>
+      </c>
+      <c r="P51">
         <f>((F51*0.3)+(I51*0.2)+(J51*0.2)+(M51*0.1)+(N51*0.1)+(O51*0.1))</f>
-        <v>0.21227365431081802</v>
+        <v>0.21295344690447038</v>
       </c>
       <c r="Q51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R51">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="B52" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="C52">
-        <v>26393088</v>
+        <v>843776</v>
       </c>
       <c r="D52">
-        <v>1304</v>
+        <v>10</v>
       </c>
       <c r="E52">
         <f>D52/C52</f>
-        <v>4.9406875012124383E-5</v>
+        <v>1.1851486650485437E-5</v>
       </c>
       <c r="F52" s="1">
         <f>(E52-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>1.9160776446918101E-2</v>
+        <v>2.6442631133779433E-3</v>
       </c>
       <c r="G52">
-        <v>672</v>
+        <v>6</v>
       </c>
       <c r="H52">
         <f>G52/C52</f>
-        <v>2.5461211662689866E-5</v>
+        <v>7.1108919902912624E-6</v>
       </c>
       <c r="I52" s="1">
         <f>(H52-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>2.2077061812793935E-2</v>
+        <v>1.1801762298407588E-3</v>
       </c>
       <c r="J52" s="2">
-        <v>0.47101033099999995</v>
+        <v>0.94841592199999991</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L52">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="M52" s="2">
         <f>L52/631</f>
-        <v>4.4374009508716325E-2</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>1</v>
       </c>
       <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="4">
-        <f>((F52*0.3)+(I52*0.2)+(J52*0.2)+(M52*0.1)+(N52*0.1)+(O52*0.1))</f>
-        <v>0.20880311244750585</v>
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <f>((F52*0.3)+(I52*0.2)+(J52*0.2)+(M52*0.1)+(N52*0.1)+(O52*0.1))/0.9</f>
+        <v>0.43412499842220165</v>
       </c>
       <c r="Q52">
+        <v>14</v>
+      </c>
+      <c r="R52">
         <v>51</v>
-      </c>
-      <c r="R52">
-        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>176</v>
+        <v>332</v>
       </c>
       <c r="B53" t="s">
-        <v>175</v>
+        <v>331</v>
       </c>
       <c r="C53">
-        <v>274176</v>
+        <v>8643072</v>
       </c>
       <c r="D53">
-        <v>42</v>
+        <v>3027</v>
       </c>
       <c r="E53">
         <f>D53/C53</f>
-        <v>1.5318627450980392E-4</v>
+        <v>3.5022269859605472E-4</v>
       </c>
       <c r="F53" s="1">
         <f>(E53-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>6.4801998927286844E-2</v>
+        <v>0.15145680047735691</v>
       </c>
       <c r="G53">
-        <v>13</v>
+        <v>1769</v>
       </c>
       <c r="H53">
         <f>G53/C53</f>
-        <v>4.7414799253034548E-5</v>
+        <v>2.0467259789112019E-4</v>
       </c>
       <c r="I53" s="1">
         <f>(H53-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>4.7077258877524848E-2</v>
+        <v>0.2261585110755483</v>
       </c>
       <c r="J53" s="2">
-        <v>0.33528630199999998</v>
+        <v>0.95884328600000002</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L53">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M53" s="2">
         <f>L53/631</f>
-        <v>9.5087163232963554E-3</v>
+        <v>1.1093502377179081E-2</v>
       </c>
       <c r="N53" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" s="3">
         <v>1</v>
       </c>
-      <c r="P53" s="4">
+      <c r="P53">
         <f>((F53*0.3)+(I53*0.2)+(J53*0.2)+(M53*0.1)+(N53*0.1)+(O53*0.1))</f>
-        <v>0.19686418348602067</v>
+        <v>0.48354674979603463</v>
       </c>
       <c r="Q53">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="R53">
-        <v>13</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>426</v>
+        <v>336</v>
       </c>
       <c r="B54" t="s">
-        <v>396</v>
+        <v>335</v>
       </c>
       <c r="C54">
-        <v>81664</v>
+        <v>3389696</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>1255</v>
       </c>
       <c r="E54">
         <f>D54/C54</f>
-        <v>3.6735893416927902E-5</v>
+        <v>3.7023969111094329E-4</v>
       </c>
       <c r="F54" s="1">
         <f>(E54-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>1.3588195637718568E-2</v>
+        <v>0.16026008911828157</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="H54">
         <f>G54/C54</f>
-        <v>0</v>
+        <v>1.2390491654708859E-4</v>
       </c>
       <c r="I54" s="1">
-        <v>0</v>
+        <f>(H54-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
+        <v>0.13418229344129518</v>
       </c>
       <c r="J54" s="2">
-        <v>0.249509697</v>
+        <v>0.68244708700000001</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L54">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="M54" s="2">
         <f>L54/631</f>
-        <v>3.486529318541997E-2</v>
+        <v>0.17908082408874801</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" s="3">
         <v>1</v>
       </c>
-      <c r="P54" s="4">
-        <f>((F54*0.3)+(I54*0.2)+(J54*0.2)+(M54*0.1)+(N54*0.1)+(O54*0.1))/0.8</f>
-        <v>0.19683115926232195</v>
+      <c r="P54">
+        <f>((F54*0.3)+(I54*0.2)+(J54*0.2)+(M54*0.1)+(N54*0.1)+(O54*0.1))</f>
+        <v>0.42931198523261827</v>
       </c>
       <c r="Q54">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="R54">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>339</v>
       </c>
       <c r="C55">
-        <v>5894656</v>
+        <v>16281856</v>
       </c>
       <c r="D55">
-        <v>1346</v>
+        <v>11089</v>
       </c>
       <c r="E55">
         <f>D55/C55</f>
-        <v>2.2834241726743681E-4</v>
+        <v>6.8106486140155024E-4</v>
       </c>
       <c r="F55" s="1">
         <f>(E55-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>9.7854977157751322E-2</v>
+        <v>0.29695813148890926</v>
       </c>
       <c r="G55">
-        <v>609</v>
+        <v>5089</v>
       </c>
       <c r="H55">
         <f>G55/C55</f>
-        <v>1.033139168765743E-4</v>
+        <v>3.125565046147073E-4</v>
       </c>
       <c r="I55" s="1">
         <f>(H55-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.11073377745709817</v>
+        <v>0.34901400870678445</v>
       </c>
       <c r="J55" s="2">
-        <v>0.207538106</v>
+        <v>0.94308672100000002</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L55">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M55" s="2">
         <f>L55/631</f>
-        <v>4.7543581616481777E-3</v>
+        <v>1.7432646592709985E-2</v>
       </c>
       <c r="N55" s="3">
         <v>1</v>
       </c>
       <c r="O55" s="3">
-        <v>0</v>
-      </c>
-      <c r="P55" s="4">
+        <v>1</v>
+      </c>
+      <c r="P55">
         <f>((F55*0.3)+(I55*0.2)+(J55*0.2)+(M55*0.1)+(N55*0.1)+(O55*0.1))</f>
-        <v>0.19348630565490987</v>
+        <v>0.54925085004730068</v>
       </c>
       <c r="Q55">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="R55">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -5937,7 +5929,7 @@
       <c r="O56" s="3">
         <v>1</v>
       </c>
-      <c r="P56" s="4">
+      <c r="P56">
         <f>((F56*0.3)+(I56*0.2)+(J56*0.2)+(M56*0.1)+(N56*0.1)+(O56*0.1))</f>
         <v>0.1890228435085177</v>
       </c>
@@ -5950,296 +5942,296 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>348</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>347</v>
       </c>
       <c r="C57">
-        <v>1072896</v>
+        <v>11929056</v>
       </c>
       <c r="D57">
-        <v>14</v>
+        <v>6465</v>
       </c>
       <c r="E57">
         <f>D57/C57</f>
-        <v>1.3048795036984014E-5</v>
+        <v>5.4195403223859459E-4</v>
       </c>
       <c r="F57" s="1">
         <f>(E57-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>3.1708282959700316E-3</v>
+        <v>0.2357784721924899</v>
       </c>
       <c r="G57">
-        <v>9</v>
+        <v>1329</v>
       </c>
       <c r="H57">
         <f>G57/C57</f>
-        <v>8.3885110952040091E-6</v>
+        <v>1.1140864792654171E-4</v>
       </c>
       <c r="I57" s="1">
         <f>(H57-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>2.6350969467868815E-3</v>
+        <v>0.11995185493998688</v>
       </c>
       <c r="J57" s="2">
-        <v>0.33687151900000001</v>
+        <v>0.20160347000000001</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L57">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="M57" s="2">
         <f>L57/631</f>
-        <v>0.17115689381933438</v>
+        <v>5.5467511885895403E-2</v>
       </c>
       <c r="N57" s="3">
         <v>1</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="4">
+        <v>1</v>
+      </c>
+      <c r="P57">
         <f>((F57*0.3)+(I57*0.2)+(J57*0.2)+(M57*0.1)+(N57*0.1)+(O57*0.1))</f>
-        <v>0.18596826106008185</v>
+        <v>0.34059135783433392</v>
       </c>
       <c r="Q57">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="R57">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>204</v>
+        <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>203</v>
+        <v>2</v>
       </c>
       <c r="C58">
-        <v>326656</v>
+        <v>3736960</v>
       </c>
       <c r="D58">
-        <v>19</v>
+        <v>916</v>
       </c>
       <c r="E58">
         <f>D58/C58</f>
-        <v>5.8165164576802506E-5</v>
+        <v>2.4511902723069016E-4</v>
       </c>
       <c r="F58" s="1">
         <f>(E58-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>2.3012591397706131E-2</v>
+        <v>0.10523317544667414</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>428</v>
       </c>
       <c r="H58">
         <f>G58/C58</f>
-        <v>6.1226489028213164E-6</v>
+        <v>1.1453159787634869E-4</v>
       </c>
       <c r="I58" s="1">
         <f>(H58-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>5.4789691857658376E-5</v>
+        <v>0.12350819231979644</v>
       </c>
       <c r="J58" s="2">
-        <v>0.36237256700000003</v>
+        <v>0.8396049659999999</v>
       </c>
       <c r="K58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M58" s="2">
         <f>L58/631</f>
-        <v>7.9239302694136295E-3</v>
+        <v>6.3391442155309036E-3</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" s="3">
         <v>1</v>
       </c>
-      <c r="P58" s="4">
+      <c r="P58">
         <f>((F58*0.3)+(I58*0.2)+(J58*0.2)+(M58*0.1)+(N58*0.1)+(O58*0.1))</f>
-        <v>0.18018164178462476</v>
+        <v>0.42482649871951461</v>
       </c>
       <c r="Q58">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="R58">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>430</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="C59">
-        <v>18790144</v>
+        <v>123758120</v>
       </c>
       <c r="D59">
-        <v>14192</v>
+        <v>4530</v>
       </c>
       <c r="E59">
         <f>D59/C59</f>
-        <v>7.5528958160192919E-4</v>
+        <v>3.6603658814468096E-5</v>
       </c>
       <c r="F59" s="1">
         <f>(E59-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.32960147867154899</v>
+        <v>1.3530040079489443E-2</v>
       </c>
       <c r="G59">
-        <v>2157</v>
+        <v>1481</v>
       </c>
       <c r="H59">
         <f>G59/C59</f>
-        <v>1.147942240357498E-4</v>
+        <v>1.196689154618703E-5</v>
       </c>
       <c r="I59" s="1">
         <f>(H59-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>0.1238072644287336</v>
+        <v>6.7100672029695814E-3</v>
       </c>
       <c r="J59" s="2">
-        <v>0.211732798</v>
+        <v>0.84022306999999985</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L59">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="M59" s="2">
         <f>L59/631</f>
-        <v>3.8034865293185421E-2</v>
+        <v>0.2076069730586371</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="4">
+        <v>1</v>
+      </c>
+      <c r="P59">
         <f>((F59*0.3)+(I59*0.2)+(J59*0.2)+(M59*0.1)+(N59*0.1)+(O59*0.1))</f>
-        <v>0.16979194261652997</v>
+        <v>0.39420633677030448</v>
       </c>
       <c r="Q59">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="R59">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>355</v>
+        <v>431</v>
       </c>
       <c r="B60" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C60">
-        <v>224000</v>
+        <v>1596006656</v>
       </c>
       <c r="D60">
-        <v>75</v>
+        <v>27409</v>
       </c>
       <c r="E60">
         <f>D60/C60</f>
-        <v>3.3482142857142857E-4</v>
+        <v>1.7173487276484139E-5</v>
       </c>
       <c r="F60" s="1">
         <f>(E60-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>0.14468346400521909</v>
+        <v>4.9848298904799802E-3</v>
       </c>
       <c r="G60">
-        <v>20</v>
+        <v>9695</v>
       </c>
       <c r="H60">
         <f>G60/C60</f>
-        <v>8.9285714285714286E-5</v>
+        <v>6.0745360701052115E-6</v>
       </c>
       <c r="I60" s="1">
         <f>(H60-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>9.4758810823867223E-2</v>
+        <v>1.9291599165314246E-18</v>
       </c>
       <c r="J60" s="2">
-        <v>3.1623552999999999E-2</v>
+        <v>0.87482138799999998</v>
       </c>
       <c r="K60">
         <v>4</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>631</v>
       </c>
       <c r="M60" s="2">
         <f>L60/631</f>
-        <v>1.5847860538827259E-3</v>
+        <v>1</v>
       </c>
       <c r="N60" s="3">
+        <v>1</v>
+      </c>
+      <c r="O60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3">
-        <v>1</v>
-      </c>
-      <c r="P60" s="4">
+      <c r="P60">
         <f>((F60*0.3)+(I60*0.2)+(J60*0.2)+(M60*0.1)+(N60*0.1)+(O60*0.1))</f>
-        <v>0.16883999057172744</v>
+        <v>0.37645972656714399</v>
       </c>
       <c r="Q60">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="R60">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>174</v>
+        <v>355</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>354</v>
       </c>
       <c r="C61">
-        <v>3834112</v>
+        <v>224000</v>
       </c>
       <c r="D61">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="E61">
         <f>D61/C61</f>
-        <v>3.1037173666288308E-5</v>
+        <v>3.3482142857142857E-4</v>
       </c>
       <c r="F61" s="1">
         <f>(E61-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>1.1081951265028506E-2</v>
+        <v>0.14468346400521909</v>
       </c>
       <c r="G61">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H61">
         <f>G61/C61</f>
-        <v>6.7812312212058494E-6</v>
+        <v>8.9285714285714286E-5</v>
       </c>
       <c r="I61" s="1">
         <f>(H61-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>8.0476678217167839E-4</v>
+        <v>9.4758810823867223E-2</v>
       </c>
       <c r="J61" s="2">
-        <v>0.32096185300000002</v>
+        <v>3.1623552999999999E-2</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M61" s="2">
         <f>L61/631</f>
-        <v>3.1695721077654518E-3</v>
+        <v>1.5847860538827259E-3</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -6247,263 +6239,262 @@
       <c r="O61" s="3">
         <v>1</v>
       </c>
-      <c r="P61" s="4">
+      <c r="P61">
         <f>((F61*0.3)+(I61*0.2)+(J61*0.2)+(M61*0.1)+(N61*0.1)+(O61*0.1))</f>
-        <v>0.16799486654671944</v>
+        <v>0.16883999057172744</v>
       </c>
       <c r="Q61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R61">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B62" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C62">
-        <v>832512</v>
+        <v>6774272</v>
       </c>
       <c r="D62">
-        <v>60</v>
+        <v>1545</v>
       </c>
       <c r="E62">
         <f>D62/C62</f>
-        <v>7.2071033210332103E-5</v>
+        <v>2.2806878731766308E-4</v>
       </c>
       <c r="F62" s="1">
         <f>(E62-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>2.9128264133892055E-2</v>
+        <v>9.7734637230218843E-2</v>
       </c>
       <c r="G62">
-        <v>21</v>
+        <v>878</v>
       </c>
       <c r="H62">
         <f>G62/C62</f>
-        <v>2.5224861623616237E-5</v>
+        <v>1.2960802282518328E-4</v>
       </c>
       <c r="I62" s="1">
         <f>(H62-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>2.1807912293209431E-2</v>
+        <v>0.14067684838575348</v>
       </c>
       <c r="J62" s="2">
-        <v>0.19953911200000002</v>
+        <v>0.16534326200000002</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L62">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M62" s="2">
         <f>L62/631</f>
-        <v>7.9239302694136295E-3</v>
+        <v>3.1695721077654518E-3</v>
       </c>
       <c r="N62" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" s="3">
         <v>1</v>
       </c>
-      <c r="P62" s="4">
+      <c r="P62">
         <f>((F62*0.3)+(I62*0.2)+(J62*0.2)+(M62*0.1)+(N62*0.1)+(O62*0.1))</f>
-        <v>0.15380027712575087</v>
+        <v>0.29084137045699288</v>
       </c>
       <c r="Q62">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="R62">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>101</v>
+        <v>429</v>
       </c>
       <c r="B63" t="s">
-        <v>100</v>
+        <v>364</v>
       </c>
       <c r="C63">
-        <v>1297720</v>
+        <v>15632128</v>
       </c>
       <c r="D63">
-        <v>53</v>
+        <v>18214</v>
       </c>
       <c r="E63">
         <f>D63/C63</f>
-        <v>4.0840859353327371E-5</v>
+        <v>1.1651644612940733E-3</v>
       </c>
       <c r="F63" s="1">
         <f>(E63-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>1.5393521786110212E-2</v>
+        <v>0.50986066945210273</v>
       </c>
       <c r="G63">
-        <v>23</v>
+        <v>6315</v>
       </c>
       <c r="H63">
         <f>G63/C63</f>
-        <v>1.7723391794840182E-5</v>
+        <v>4.0397570951312576E-4</v>
       </c>
       <c r="I63" s="1">
         <f>(H63-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>1.3265425867117731E-2</v>
+        <v>0.45311991524966994</v>
       </c>
       <c r="J63" s="2">
-        <v>0.40987434</v>
+        <v>0.95899510499999996</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L63">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M63" s="2">
         <f>L63/631</f>
-        <v>7.9239302694136295E-3</v>
+        <v>1.7432646592709985E-2</v>
       </c>
       <c r="N63" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63" s="3">
-        <v>0</v>
-      </c>
-      <c r="P63" s="4">
+        <v>1</v>
+      </c>
+      <c r="P63">
         <f>((F63*0.3)+(I63*0.2)+(J63*0.2)+(M63*0.1)+(N63*0.1)+(O63*0.1))</f>
-        <v>9.0038402736197981E-2</v>
+        <v>0.63712446954483581</v>
       </c>
       <c r="Q63">
+        <v>3</v>
+      </c>
+      <c r="R63">
         <v>62</v>
-      </c>
-      <c r="R63">
-        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>164</v>
+        <v>371</v>
       </c>
       <c r="B64" t="s">
-        <v>163</v>
+        <v>370</v>
       </c>
       <c r="C64">
-        <v>838144</v>
+        <v>832512</v>
       </c>
       <c r="D64">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E64">
         <f>D64/C64</f>
-        <v>2.9827810018326205E-5</v>
+        <v>7.2071033210332103E-5</v>
       </c>
       <c r="F64" s="1">
         <f>(E64-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>1.055008428966079E-2</v>
+        <v>2.9128264133892055E-2</v>
       </c>
       <c r="G64">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H64">
         <f>G64/C64</f>
-        <v>1.1931124007330483E-5</v>
+        <v>2.5224861623616237E-5</v>
       </c>
       <c r="I64" s="1">
         <f>(H64-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>6.6693360233273354E-3</v>
+        <v>2.1807912293209431E-2</v>
       </c>
       <c r="J64" s="2">
-        <v>0.32043033999999998</v>
+        <v>0.19953911200000002</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M64" s="2">
         <f>L64/631</f>
-        <v>1.5847860538827259E-3</v>
+        <v>7.9239302694136295E-3</v>
       </c>
       <c r="N64" s="3">
         <v>0</v>
       </c>
       <c r="O64" s="3">
-        <v>0</v>
-      </c>
-      <c r="P64" s="4">
+        <v>1</v>
+      </c>
+      <c r="P64">
         <f>((F64*0.3)+(I64*0.2)+(J64*0.2)+(M64*0.1)+(N64*0.1)+(O64*0.1))</f>
-        <v>6.8743439096951978E-2</v>
+        <v>0.15380027712575087</v>
       </c>
       <c r="Q64">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R64">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>236</v>
+        <v>426</v>
       </c>
       <c r="B65" t="s">
-        <v>235</v>
+        <v>396</v>
       </c>
       <c r="C65">
-        <v>153856</v>
+        <v>81664</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E65">
         <f>D65/C65</f>
-        <v>1.2999168053244593E-5</v>
+        <v>3.6735893416927902E-5</v>
       </c>
       <c r="F65" s="1">
         <f>(E65-5.83893871449925E-06)/(0.00227964743589744-5.83893871449925E-06)</f>
-        <v>3.1490028063560624E-3</v>
+        <v>1.3588195637718568E-2</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <f>G65/C65</f>
-        <v>6.4995840266222963E-6</v>
+        <v>0</v>
       </c>
       <c r="I65" s="1">
-        <f>(H65-6.07453607010521E-06)/(0.000884211117693926-6.07453607010521E-06)</f>
-        <v>4.8403399358571547E-4</v>
+        <v>0</v>
       </c>
       <c r="J65" s="2">
-        <v>0.21332020700000001</v>
+        <v>0.249509697</v>
       </c>
       <c r="K65">
         <v>0</v>
       </c>
       <c r="L65">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M65" s="2">
         <f>L65/631</f>
-        <v>6.4976228209191758E-2</v>
+        <v>3.486529318541997E-2</v>
       </c>
       <c r="N65" s="3">
         <v>0</v>
       </c>
       <c r="O65" s="3">
-        <v>0</v>
-      </c>
-      <c r="P65" s="4">
-        <f>((F65*0.3)+(I65*0.2)+(J65*0.2)+(M65*0.1)+(N65*0.1)+(O65*0.1))</f>
-        <v>5.020317186154314E-2</v>
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <f>((F65*0.3)+(I65*0.2)+(J65*0.2)+(M65*0.1)+(N65*0.1)+(O65*0.1))/0.8</f>
+        <v>0.19683115926232195</v>
       </c>
       <c r="Q65">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="R65">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
@@ -6523,7 +6514,6 @@
         <f>MIN(H2:H31,H33:H39,H41:H49,H52:H65)</f>
         <v>0</v>
       </c>
-      <c r="P66" s="4"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E67">
@@ -6543,7 +6533,7 @@
       <c r="E68">
         <v>2.2796474358974402E-3</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H68" s="4">
         <v>6.0745360701052098E-6</v>
       </c>
       <c r="I68" s="1">
@@ -6552,14 +6542,14 @@
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E69" s="5">
+      <c r="E69" s="4">
         <v>5.8389387144992503E-6</v>
       </c>
       <c r="H69">
         <v>8.8421111769392598E-4</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
